--- a/TMP.xlsx
+++ b/TMP.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A62252F-9D25-40A8-AAB1-10B07E2B1996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A695D79-47AA-44FD-86CF-0A01F05D3553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{72068E89-B82B-4D22-8EEA-457FC02A677F}"/>
   </bookViews>
   <sheets>
     <sheet name="TMP" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="edit" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$1:$W$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">edit!$A$1:$W$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">TMP!$A$1:$W$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -26,22 +26,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
   <si>
     <t>在庫一覧表</t>
     <rPh sb="0" eb="2">
@@ -270,6 +260,20 @@
     <rPh sb="8" eb="9">
       <t>ハナシ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>苦しかったときの話をしようか</t>
+    <rPh sb="0" eb="1">
+      <t>クル</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ハナシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -533,52 +537,52 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="6" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -894,6 +898,26 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="700" row="4">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{DE98B28B-07E4-4B71-A912-5B98896DB842}">
+  <we:reference id="wa200000541" version="1.0.0.0" store="ja-JP" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA200000541" version="1.0.0.0" store="WA200000541" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21058674-437E-49FE-8188-C0B7F6D0102F}">
   <dimension ref="B1:V18"/>
@@ -908,29 +932,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
     </row>
     <row r="3" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="4" t="s">
@@ -939,37 +963,37 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="20" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20" t="s">
+      <c r="N3" s="16"/>
+      <c r="O3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21" t="s">
+      <c r="P3" s="16"/>
+      <c r="Q3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21" t="s">
+      <c r="R3" s="11"/>
+      <c r="S3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21" t="s">
+      <c r="T3" s="11"/>
+      <c r="U3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="22"/>
+      <c r="V3" s="17"/>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -978,38 +1002,38 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="13">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15">
         <v>2800</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13">
-        <v>0</v>
-      </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13">
-        <v>0</v>
-      </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="14">
+      <c r="N4" s="15"/>
+      <c r="O4" s="15">
+        <v>0</v>
+      </c>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15">
+        <v>0</v>
+      </c>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15"/>
+      <c r="U4" s="18">
         <f>Q4-S4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="19"/>
     </row>
     <row r="5" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -1018,38 +1042,38 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21">
         <v>2800</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17">
-        <v>0</v>
-      </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17">
-        <v>0</v>
-      </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17">
-        <v>0</v>
-      </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="18">
+      <c r="N5" s="21"/>
+      <c r="O5" s="21">
+        <v>0</v>
+      </c>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21">
+        <v>0</v>
+      </c>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21">
+        <v>0</v>
+      </c>
+      <c r="T5" s="21"/>
+      <c r="U5" s="22">
         <f t="shared" ref="U5:U18" si="0">Q5-S5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="19"/>
+      <c r="V5" s="23"/>
     </row>
     <row r="6" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -1058,38 +1082,38 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="13">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15">
         <v>3200</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13">
-        <v>0</v>
-      </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13">
-        <v>0</v>
-      </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15">
+        <v>0</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15">
+        <v>0</v>
+      </c>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15">
+        <v>0</v>
+      </c>
+      <c r="T6" s="15"/>
+      <c r="U6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="19"/>
     </row>
     <row r="7" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -1098,38 +1122,38 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21">
         <v>3200</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17">
-        <v>0</v>
-      </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17">
-        <v>0</v>
-      </c>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17">
-        <v>0</v>
-      </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="19"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21">
+        <v>0</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21">
+        <v>0</v>
+      </c>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21">
+        <v>0</v>
+      </c>
+      <c r="T7" s="21"/>
+      <c r="U7" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="23"/>
     </row>
     <row r="8" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -1138,38 +1162,38 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="13">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15">
         <v>2800</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13">
-        <v>0</v>
-      </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13">
-        <v>0</v>
-      </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15">
+        <v>0</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15">
+        <v>0</v>
+      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15">
+        <v>0</v>
+      </c>
+      <c r="T8" s="15"/>
+      <c r="U8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="19"/>
     </row>
     <row r="9" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -1178,38 +1202,38 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21">
         <v>1600</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17">
-        <v>0</v>
-      </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17">
-        <v>0</v>
-      </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17">
-        <v>0</v>
-      </c>
-      <c r="T9" s="17"/>
-      <c r="U9" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="19"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21">
+        <v>0</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21">
+        <v>0</v>
+      </c>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21">
+        <v>0</v>
+      </c>
+      <c r="T9" s="21"/>
+      <c r="U9" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="23"/>
     </row>
     <row r="10" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -1218,38 +1242,38 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="13">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15">
         <v>1600</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13">
-        <v>0</v>
-      </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13">
-        <v>0</v>
-      </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13">
-        <v>0</v>
-      </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15">
+        <v>0</v>
+      </c>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15">
+        <v>0</v>
+      </c>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15">
+        <v>0</v>
+      </c>
+      <c r="T10" s="15"/>
+      <c r="U10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="19"/>
     </row>
     <row r="11" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -1258,38 +1282,38 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21">
         <v>1800</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17">
-        <v>0</v>
-      </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17">
-        <v>0</v>
-      </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17">
-        <v>0</v>
-      </c>
-      <c r="T11" s="17"/>
-      <c r="U11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="19"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21">
+        <v>0</v>
+      </c>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21">
+        <v>0</v>
+      </c>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21">
+        <v>0</v>
+      </c>
+      <c r="T11" s="21"/>
+      <c r="U11" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="23"/>
     </row>
     <row r="12" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -1298,38 +1322,38 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="13">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15">
         <v>2400</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13">
-        <v>0</v>
-      </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13">
-        <v>0</v>
-      </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13">
-        <v>0</v>
-      </c>
-      <c r="T12" s="13"/>
-      <c r="U12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15">
+        <v>0</v>
+      </c>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15">
+        <v>0</v>
+      </c>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15">
+        <v>0</v>
+      </c>
+      <c r="T12" s="15"/>
+      <c r="U12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="19"/>
     </row>
     <row r="13" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -1338,38 +1362,38 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21">
         <v>1600</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17">
-        <v>0</v>
-      </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17">
-        <v>0</v>
-      </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17">
-        <v>0</v>
-      </c>
-      <c r="T13" s="17"/>
-      <c r="U13" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="19"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21">
+        <v>0</v>
+      </c>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21">
+        <v>0</v>
+      </c>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21">
+        <v>0</v>
+      </c>
+      <c r="T13" s="21"/>
+      <c r="U13" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="23"/>
     </row>
     <row r="14" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -1378,38 +1402,38 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="13">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15">
         <v>1600</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13">
-        <v>0</v>
-      </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13">
-        <v>0</v>
-      </c>
-      <c r="T14" s="13"/>
-      <c r="U14" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15">
+        <v>0</v>
+      </c>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15">
+        <v>0</v>
+      </c>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15">
+        <v>0</v>
+      </c>
+      <c r="T14" s="15"/>
+      <c r="U14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="19"/>
     </row>
     <row r="15" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -1418,38 +1442,38 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="17">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21">
         <v>1800</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17">
-        <v>0</v>
-      </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17">
-        <v>0</v>
-      </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17">
-        <v>0</v>
-      </c>
-      <c r="T15" s="17"/>
-      <c r="U15" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="19"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21">
+        <v>0</v>
+      </c>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21">
+        <v>0</v>
+      </c>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21">
+        <v>0</v>
+      </c>
+      <c r="T15" s="21"/>
+      <c r="U15" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="23"/>
     </row>
     <row r="16" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -1458,38 +1482,38 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="13">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15">
         <v>2200</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13">
-        <v>0</v>
-      </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13">
-        <v>0</v>
-      </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13">
-        <v>0</v>
-      </c>
-      <c r="T16" s="13"/>
-      <c r="U16" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15">
+        <v>0</v>
+      </c>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15">
+        <v>0</v>
+      </c>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15"/>
+      <c r="U16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="19"/>
     </row>
     <row r="17" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="7">
@@ -1498,38 +1522,38 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17">
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21">
         <v>1500</v>
       </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17">
-        <v>0</v>
-      </c>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17">
-        <v>0</v>
-      </c>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17">
-        <v>0</v>
-      </c>
-      <c r="T17" s="17"/>
-      <c r="U17" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="19"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21">
+        <v>0</v>
+      </c>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21">
+        <v>0</v>
+      </c>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21">
+        <v>0</v>
+      </c>
+      <c r="T17" s="21"/>
+      <c r="U17" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="23"/>
     </row>
     <row r="18" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="8">
@@ -1538,37 +1562,118 @@
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10">
-        <v>0</v>
-      </c>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10">
-        <v>0</v>
-      </c>
-      <c r="T18" s="10"/>
-      <c r="U18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13">
+        <v>0</v>
+      </c>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13">
+        <v>0</v>
+      </c>
+      <c r="T18" s="13"/>
+      <c r="U18" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
     <mergeCell ref="B1:V1"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="D18:L18"/>
@@ -1585,87 +1690,6 @@
     <mergeCell ref="U4:V4"/>
     <mergeCell ref="D5:L5"/>
     <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -1683,7 +1707,7 @@
   <dimension ref="B1:V18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:W18"/>
+      <selection activeCell="Z11" sqref="Z11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.0625" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -1692,29 +1716,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
+      <c r="B1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
     </row>
     <row r="3" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="4" t="s">
@@ -1723,37 +1747,37 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="20" t="s">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20" t="s">
+      <c r="N3" s="16"/>
+      <c r="O3" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="21" t="s">
+      <c r="P3" s="16"/>
+      <c r="Q3" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21" t="s">
+      <c r="R3" s="11"/>
+      <c r="S3" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="21"/>
-      <c r="U3" s="21" t="s">
+      <c r="T3" s="11"/>
+      <c r="U3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="22"/>
+      <c r="V3" s="17"/>
     </row>
     <row r="4" spans="2:22" s="1" customFormat="1" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -1762,38 +1786,38 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="13">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="15">
         <v>2800</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13">
-        <v>0</v>
-      </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13">
-        <v>0</v>
-      </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13">
-        <v>0</v>
-      </c>
-      <c r="T4" s="13"/>
-      <c r="U4" s="14">
+      <c r="N4" s="15"/>
+      <c r="O4" s="15">
+        <v>700</v>
+      </c>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15">
+        <v>0</v>
+      </c>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15"/>
+      <c r="U4" s="18">
         <f>Q4-S4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="19"/>
     </row>
     <row r="5" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -1802,38 +1826,38 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17">
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21">
         <v>2800</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17">
-        <v>0</v>
-      </c>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17">
-        <v>0</v>
-      </c>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17">
-        <v>0</v>
-      </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="18">
+      <c r="N5" s="21"/>
+      <c r="O5" s="21">
+        <v>400</v>
+      </c>
+      <c r="P5" s="21"/>
+      <c r="Q5" s="21">
+        <v>0</v>
+      </c>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21">
+        <v>0</v>
+      </c>
+      <c r="T5" s="21"/>
+      <c r="U5" s="22">
         <f t="shared" ref="U5:U18" si="0">Q5-S5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="19"/>
+      <c r="V5" s="23"/>
     </row>
     <row r="6" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -1842,38 +1866,38 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="13">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="15">
         <v>3200</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13">
-        <v>0</v>
-      </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13">
-        <v>0</v>
-      </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13">
-        <v>0</v>
-      </c>
-      <c r="T6" s="13"/>
-      <c r="U6" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15">
+        <v>700</v>
+      </c>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15">
+        <v>0</v>
+      </c>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15">
+        <v>0</v>
+      </c>
+      <c r="T6" s="15"/>
+      <c r="U6" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="19"/>
     </row>
     <row r="7" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -1882,38 +1906,38 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="17">
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21">
         <v>3200</v>
       </c>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17">
-        <v>0</v>
-      </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17">
-        <v>0</v>
-      </c>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17">
-        <v>0</v>
-      </c>
-      <c r="T7" s="17"/>
-      <c r="U7" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V7" s="19"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="21">
+        <v>450</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21">
+        <v>0</v>
+      </c>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21">
+        <v>0</v>
+      </c>
+      <c r="T7" s="21"/>
+      <c r="U7" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V7" s="23"/>
     </row>
     <row r="8" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -1922,38 +1946,38 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="13">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="15">
         <v>2800</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13">
-        <v>0</v>
-      </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13">
-        <v>0</v>
-      </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13">
-        <v>0</v>
-      </c>
-      <c r="T8" s="13"/>
-      <c r="U8" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15">
+        <v>1000</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="15">
+        <v>0</v>
+      </c>
+      <c r="R8" s="15"/>
+      <c r="S8" s="15">
+        <v>0</v>
+      </c>
+      <c r="T8" s="15"/>
+      <c r="U8" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V8" s="19"/>
     </row>
     <row r="9" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -1962,38 +1986,38 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="17">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21">
         <v>1600</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17">
-        <v>0</v>
-      </c>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17">
-        <v>0</v>
-      </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17">
-        <v>0</v>
-      </c>
-      <c r="T9" s="17"/>
-      <c r="U9" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V9" s="19"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21">
+        <v>400</v>
+      </c>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21">
+        <v>0</v>
+      </c>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21">
+        <v>0</v>
+      </c>
+      <c r="T9" s="21"/>
+      <c r="U9" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V9" s="23"/>
     </row>
     <row r="10" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -2002,38 +2026,38 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="13">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="15">
         <v>1600</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13">
-        <v>0</v>
-      </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13">
-        <v>0</v>
-      </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13">
-        <v>0</v>
-      </c>
-      <c r="T10" s="13"/>
-      <c r="U10" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15">
+        <v>400</v>
+      </c>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15">
+        <v>0</v>
+      </c>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15">
+        <v>0</v>
+      </c>
+      <c r="T10" s="15"/>
+      <c r="U10" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V10" s="19"/>
     </row>
     <row r="11" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -2042,38 +2066,38 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21">
         <v>1800</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17">
-        <v>0</v>
-      </c>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17">
-        <v>0</v>
-      </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17">
-        <v>0</v>
-      </c>
-      <c r="T11" s="17"/>
-      <c r="U11" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="19"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21">
+        <v>400</v>
+      </c>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21">
+        <v>0</v>
+      </c>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21">
+        <v>0</v>
+      </c>
+      <c r="T11" s="21"/>
+      <c r="U11" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="23"/>
     </row>
     <row r="12" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2082,38 +2106,38 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="13">
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="15">
         <v>2400</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13">
-        <v>0</v>
-      </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13">
-        <v>0</v>
-      </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13">
-        <v>0</v>
-      </c>
-      <c r="T12" s="13"/>
-      <c r="U12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15">
+        <v>1500</v>
+      </c>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15">
+        <v>0</v>
+      </c>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15">
+        <v>0</v>
+      </c>
+      <c r="T12" s="15"/>
+      <c r="U12" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="19"/>
     </row>
     <row r="13" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2122,38 +2146,38 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="16" t="s">
+      <c r="D13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="17">
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21">
         <v>1600</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17">
-        <v>0</v>
-      </c>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17">
-        <v>0</v>
-      </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17">
-        <v>0</v>
-      </c>
-      <c r="T13" s="17"/>
-      <c r="U13" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="19"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21">
+        <v>300</v>
+      </c>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21">
+        <v>0</v>
+      </c>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21">
+        <v>0</v>
+      </c>
+      <c r="T13" s="21"/>
+      <c r="U13" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="23"/>
     </row>
     <row r="14" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -2162,38 +2186,38 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="13">
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="15">
         <v>1600</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13">
-        <v>0</v>
-      </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13">
-        <v>0</v>
-      </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13">
-        <v>0</v>
-      </c>
-      <c r="T14" s="13"/>
-      <c r="U14" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15">
+        <v>400</v>
+      </c>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15">
+        <v>0</v>
+      </c>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15">
+        <v>0</v>
+      </c>
+      <c r="T14" s="15"/>
+      <c r="U14" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="19"/>
     </row>
     <row r="15" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -2202,38 +2226,38 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="16" t="s">
+      <c r="D15" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="17">
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21">
         <v>1800</v>
       </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17">
-        <v>0</v>
-      </c>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17">
-        <v>0</v>
-      </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17">
-        <v>0</v>
-      </c>
-      <c r="T15" s="17"/>
-      <c r="U15" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V15" s="19"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21">
+        <v>500</v>
+      </c>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21">
+        <v>0</v>
+      </c>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21">
+        <v>0</v>
+      </c>
+      <c r="T15" s="21"/>
+      <c r="U15" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V15" s="23"/>
     </row>
     <row r="16" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -2242,38 +2266,38 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="13">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="15">
         <v>2200</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13">
-        <v>0</v>
-      </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13">
-        <v>0</v>
-      </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13">
-        <v>0</v>
-      </c>
-      <c r="T16" s="13"/>
-      <c r="U16" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15">
+        <v>400</v>
+      </c>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15">
+        <v>0</v>
+      </c>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15">
+        <v>0</v>
+      </c>
+      <c r="T16" s="15"/>
+      <c r="U16" s="18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V16" s="19"/>
     </row>
     <row r="17" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="7">
@@ -2282,38 +2306,38 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="16"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17">
+      <c r="D17" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21">
         <v>1500</v>
       </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17">
-        <v>0</v>
-      </c>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17">
-        <v>0</v>
-      </c>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17">
-        <v>0</v>
-      </c>
-      <c r="T17" s="17"/>
-      <c r="U17" s="18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="19"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21">
+        <v>600</v>
+      </c>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21">
+        <v>0</v>
+      </c>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21">
+        <v>0</v>
+      </c>
+      <c r="T17" s="21"/>
+      <c r="U17" s="22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V17" s="23"/>
     </row>
     <row r="18" spans="2:22" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="8">
@@ -2322,55 +2346,128 @@
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10">
-        <v>0</v>
-      </c>
-      <c r="R18" s="10"/>
-      <c r="S18" s="10">
-        <v>0</v>
-      </c>
-      <c r="T18" s="10"/>
-      <c r="U18" s="11">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="12"/>
+      <c r="D18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13">
+        <v>0</v>
+      </c>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13">
+        <v>0</v>
+      </c>
+      <c r="T18" s="13"/>
+      <c r="U18" s="24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V18" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="97">
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
     <mergeCell ref="B1:V1"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="D3:L3"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="D5:L5"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="S4:T4"/>
     <mergeCell ref="U3:V3"/>
@@ -2381,75 +2478,6 @@
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2459,10 +2487,11 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <webPublishItems count="3">
+  <webPublishItems count="4">
     <webPublishItem id="12398" divId="TMP_12398" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="20957" divId="TMP_20957" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="11684" divId="TMP_11684" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
+    <webPublishItem id="26482" divId="TMP_26482" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/TMP.xlsx
+++ b/TMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9735165D-651E-4B5F-BD9F-AAEFC9F40816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2311B372-1F9E-41EA-AAAC-6398BDC5FB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{72068E89-B82B-4D22-8EEA-457FC02A677F}"/>
   </bookViews>
@@ -365,7 +365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -560,6 +560,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -569,7 +578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -600,74 +609,77 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1016,32 +1028,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
     </row>
     <row r="2" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="10" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1052,41 +1064,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="24" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24" t="s">
+      <c r="N3" s="18"/>
+      <c r="O3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="22" t="s">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22" t="s">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22" t="s">
+      <c r="T3" s="14"/>
+      <c r="U3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="25"/>
-      <c r="AA3" s="22" t="s">
+      <c r="V3" s="19"/>
+      <c r="AA3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="22"/>
+      <c r="AB3" s="14"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -1095,17 +1107,17 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="13">
         <v>2800</v>
       </c>
@@ -1118,16 +1130,16 @@
         <v>0</v>
       </c>
       <c r="R4" s="13"/>
-      <c r="S4" s="31">
+      <c r="S4" s="27">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="14">
+      <c r="T4" s="28"/>
+      <c r="U4" s="20">
         <f>Q4-S4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="21"/>
       <c r="AA4" s="13">
         <v>0</v>
       </c>
@@ -1140,43 +1152,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="12">
         <v>2800</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12">
         <v>400</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19">
-        <v>0</v>
-      </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="29">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12">
+        <v>0</v>
+      </c>
+      <c r="R5" s="12"/>
+      <c r="S5" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="16">
+      <c r="T5" s="24"/>
+      <c r="U5" s="25">
         <f t="shared" ref="U5:U18" si="1">Q5-S5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="17"/>
-      <c r="AA5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="19"/>
+      <c r="V5" s="26"/>
+      <c r="AA5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="12"/>
     </row>
     <row r="6" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -1185,17 +1197,17 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
       <c r="M6" s="13">
         <v>3200</v>
       </c>
@@ -1208,16 +1220,16 @@
         <v>0</v>
       </c>
       <c r="R6" s="13"/>
-      <c r="S6" s="31">
+      <c r="S6" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="14">
+      <c r="T6" s="28"/>
+      <c r="U6" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="15"/>
+      <c r="V6" s="21"/>
       <c r="AA6" s="13">
         <v>0</v>
       </c>
@@ -1230,43 +1242,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="12">
         <v>3200</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
         <v>450</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19">
-        <v>0</v>
-      </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="29">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12">
+        <v>0</v>
+      </c>
+      <c r="R7" s="12"/>
+      <c r="S7" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="16">
+      <c r="T7" s="24"/>
+      <c r="U7" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V7" s="17"/>
-      <c r="AA7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="19"/>
+      <c r="V7" s="26"/>
+      <c r="AA7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="12"/>
     </row>
     <row r="8" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -1275,17 +1287,17 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
       <c r="M8" s="13">
         <v>2800</v>
       </c>
@@ -1298,16 +1310,16 @@
         <v>0</v>
       </c>
       <c r="R8" s="13"/>
-      <c r="S8" s="31">
+      <c r="S8" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="14">
+      <c r="T8" s="28"/>
+      <c r="U8" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V8" s="15"/>
+      <c r="V8" s="21"/>
       <c r="AA8" s="13">
         <v>0</v>
       </c>
@@ -1320,43 +1332,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="12">
         <v>1600</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19">
+      <c r="N9" s="12"/>
+      <c r="O9" s="12">
         <v>400</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19">
-        <v>0</v>
-      </c>
-      <c r="R9" s="19"/>
-      <c r="S9" s="29">
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12">
+        <v>0</v>
+      </c>
+      <c r="R9" s="12"/>
+      <c r="S9" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="16">
+      <c r="T9" s="24"/>
+      <c r="U9" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="17"/>
-      <c r="AA9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="19"/>
+      <c r="V9" s="26"/>
+      <c r="AA9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="12"/>
     </row>
     <row r="10" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -1365,17 +1377,17 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="13">
         <v>1600</v>
       </c>
@@ -1388,16 +1400,16 @@
         <v>0</v>
       </c>
       <c r="R10" s="13"/>
-      <c r="S10" s="31">
+      <c r="S10" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="32"/>
-      <c r="U10" s="14">
+      <c r="T10" s="28"/>
+      <c r="U10" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="21"/>
       <c r="AA10" s="13">
         <v>0</v>
       </c>
@@ -1410,43 +1422,43 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="12">
         <v>1800</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19">
+      <c r="N11" s="12"/>
+      <c r="O11" s="12">
         <v>400</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19">
-        <v>0</v>
-      </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="29">
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12">
+        <v>0</v>
+      </c>
+      <c r="R11" s="12"/>
+      <c r="S11" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="16">
+      <c r="T11" s="24"/>
+      <c r="U11" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="17"/>
-      <c r="AA11" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="19"/>
+      <c r="V11" s="26"/>
+      <c r="AA11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="12"/>
     </row>
     <row r="12" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -1455,17 +1467,17 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
       <c r="M12" s="13">
         <v>2400</v>
       </c>
@@ -1478,16 +1490,16 @@
         <v>0</v>
       </c>
       <c r="R12" s="13"/>
-      <c r="S12" s="31">
+      <c r="S12" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="14">
+      <c r="T12" s="28"/>
+      <c r="U12" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="15"/>
+      <c r="V12" s="21"/>
       <c r="AA12" s="13">
         <v>0</v>
       </c>
@@ -1500,44 +1512,44 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="12">
         <v>1600</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19">
+      <c r="N13" s="12"/>
+      <c r="O13" s="12">
         <v>300</v>
       </c>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19">
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12">
         <v>1000</v>
       </c>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19">
+      <c r="R13" s="12"/>
+      <c r="S13" s="12">
         <f>(Q13*0.1)+AA13</f>
         <v>100</v>
       </c>
-      <c r="T13" s="19"/>
-      <c r="U13" s="16">
+      <c r="T13" s="12"/>
+      <c r="U13" s="25">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="V13" s="17"/>
-      <c r="AA13" s="19">
+      <c r="V13" s="26"/>
+      <c r="AA13" s="12">
         <f>(Y13*0.1)+AH13</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="19"/>
+      <c r="AB13" s="12"/>
     </row>
     <row r="14" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -1546,17 +1558,17 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
       <c r="M14" s="13">
         <v>1600</v>
       </c>
@@ -1569,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="R14" s="13"/>
-      <c r="S14" s="31">
+      <c r="S14" s="27">
         <f t="shared" ref="S14:S18" si="2">(Q14*0.1)+AA14</f>
         <v>0</v>
       </c>
-      <c r="T14" s="32"/>
-      <c r="U14" s="14">
+      <c r="T14" s="28"/>
+      <c r="U14" s="20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="15"/>
+      <c r="V14" s="21"/>
       <c r="AA14" s="13">
         <v>0</v>
       </c>
@@ -1591,43 +1603,43 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="12">
         <v>1800</v>
       </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19">
+      <c r="N15" s="12"/>
+      <c r="O15" s="12">
         <v>500</v>
       </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19">
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12">
         <v>1500</v>
       </c>
-      <c r="R15" s="19"/>
-      <c r="S15" s="29">
+      <c r="R15" s="12"/>
+      <c r="S15" s="23">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="16">
+      <c r="T15" s="24"/>
+      <c r="U15" s="25">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V15" s="17"/>
-      <c r="AA15" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="19"/>
+      <c r="V15" s="26"/>
+      <c r="AA15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="12"/>
     </row>
     <row r="16" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -1636,17 +1648,17 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
       <c r="M16" s="13">
         <v>2200</v>
       </c>
@@ -1659,16 +1671,16 @@
         <v>1500</v>
       </c>
       <c r="R16" s="13"/>
-      <c r="S16" s="31">
+      <c r="S16" s="27">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="14">
+      <c r="T16" s="28"/>
+      <c r="U16" s="20">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V16" s="15"/>
+      <c r="V16" s="21"/>
       <c r="AA16" s="13">
         <v>0</v>
       </c>
@@ -1681,43 +1693,43 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19">
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="12">
         <v>1500</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19">
+      <c r="N17" s="12"/>
+      <c r="O17" s="12">
         <v>600</v>
       </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19">
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12">
         <v>1500</v>
       </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="29">
+      <c r="R17" s="12"/>
+      <c r="S17" s="23">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T17" s="30"/>
-      <c r="U17" s="16">
+      <c r="T17" s="24"/>
+      <c r="U17" s="25">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V17" s="17"/>
-      <c r="AA17" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="19"/>
+      <c r="V17" s="26"/>
+      <c r="AA17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="12"/>
     </row>
     <row r="18" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="8">
@@ -1726,57 +1738,124 @@
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="10" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10">
-        <v>0</v>
-      </c>
-      <c r="R18" s="10"/>
-      <c r="S18" s="27">
+      <c r="N18" s="11"/>
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11">
+        <v>0</v>
+      </c>
+      <c r="R18" s="11"/>
+      <c r="S18" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="28"/>
-      <c r="U18" s="11">
+      <c r="T18" s="30"/>
+      <c r="U18" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V18" s="12"/>
-      <c r="AA18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="10"/>
+      <c r="V18" s="32"/>
+      <c r="AA18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AA5:AB5"/>
@@ -1801,84 +1880,17 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -1905,34 +1917,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
+      <c r="B1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
     </row>
     <row r="2" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="V2" s="26" t="s">
+      <c r="Q2" s="33" t="s">
         <v>27</v>
       </c>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
     </row>
     <row r="3" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="4" t="s">
@@ -1941,41 +1958,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="24" t="s">
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24" t="s">
+      <c r="N3" s="18"/>
+      <c r="O3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="22" t="s">
+      <c r="P3" s="18"/>
+      <c r="Q3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22" t="s">
+      <c r="R3" s="14"/>
+      <c r="S3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22" t="s">
+      <c r="T3" s="14"/>
+      <c r="U3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="25"/>
-      <c r="AA3" s="22" t="s">
+      <c r="V3" s="19"/>
+      <c r="AA3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="22"/>
+      <c r="AB3" s="14"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -1984,17 +2001,17 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
       <c r="M4" s="13">
         <v>2800</v>
       </c>
@@ -2007,16 +2024,16 @@
         <v>700</v>
       </c>
       <c r="R4" s="13"/>
-      <c r="S4" s="31">
+      <c r="S4" s="27">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>70</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="14">
+      <c r="T4" s="28"/>
+      <c r="U4" s="20">
         <f>Q4-S4</f>
         <v>630</v>
       </c>
-      <c r="V4" s="15"/>
+      <c r="V4" s="21"/>
       <c r="AA4" s="13">
         <v>0</v>
       </c>
@@ -2029,43 +2046,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="19">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="12">
         <v>2800</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19">
+      <c r="N5" s="12"/>
+      <c r="O5" s="12">
         <v>400</v>
       </c>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19">
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12">
         <v>500</v>
       </c>
-      <c r="R5" s="19"/>
-      <c r="S5" s="29">
+      <c r="R5" s="12"/>
+      <c r="S5" s="23">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="16">
+      <c r="T5" s="24"/>
+      <c r="U5" s="25">
         <f t="shared" ref="U5:U18" si="1">Q5-S5</f>
         <v>450</v>
       </c>
-      <c r="V5" s="17"/>
-      <c r="AA5" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="19"/>
+      <c r="V5" s="26"/>
+      <c r="AA5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="12"/>
     </row>
     <row r="6" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -2074,17 +2091,17 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
       <c r="M6" s="13">
         <v>3200</v>
       </c>
@@ -2097,16 +2114,16 @@
         <v>500</v>
       </c>
       <c r="R6" s="13"/>
-      <c r="S6" s="31">
+      <c r="S6" s="27">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="14">
+      <c r="T6" s="28"/>
+      <c r="U6" s="20">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="V6" s="15"/>
+      <c r="V6" s="21"/>
       <c r="AA6" s="13">
         <v>0</v>
       </c>
@@ -2119,43 +2136,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="19">
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="12">
         <v>3200</v>
       </c>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19">
+      <c r="N7" s="12"/>
+      <c r="O7" s="12">
         <v>450</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19">
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12">
         <v>500</v>
       </c>
-      <c r="R7" s="19"/>
-      <c r="S7" s="29">
+      <c r="R7" s="12"/>
+      <c r="S7" s="23">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="16">
+      <c r="T7" s="24"/>
+      <c r="U7" s="25">
         <f t="shared" si="1"/>
         <v>450</v>
       </c>
-      <c r="V7" s="17"/>
-      <c r="AA7" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="19"/>
+      <c r="V7" s="26"/>
+      <c r="AA7" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="12"/>
     </row>
     <row r="8" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -2164,17 +2181,17 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
       <c r="M8" s="13">
         <v>2800</v>
       </c>
@@ -2187,16 +2204,16 @@
         <v>1000</v>
       </c>
       <c r="R8" s="13"/>
-      <c r="S8" s="31">
+      <c r="S8" s="27">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="14">
+      <c r="T8" s="28"/>
+      <c r="U8" s="20">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="V8" s="15"/>
+      <c r="V8" s="21"/>
       <c r="AA8" s="13">
         <v>0</v>
       </c>
@@ -2209,43 +2226,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="19">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="12">
         <v>1600</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19">
+      <c r="N9" s="12"/>
+      <c r="O9" s="12">
         <v>400</v>
       </c>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19">
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12">
         <v>800</v>
       </c>
-      <c r="R9" s="19"/>
-      <c r="S9" s="29">
+      <c r="R9" s="12"/>
+      <c r="S9" s="23">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="16">
+      <c r="T9" s="24"/>
+      <c r="U9" s="25">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="V9" s="17"/>
-      <c r="AA9" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="19"/>
+      <c r="V9" s="26"/>
+      <c r="AA9" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="12"/>
     </row>
     <row r="10" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -2254,17 +2271,17 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
       <c r="M10" s="13">
         <v>1600</v>
       </c>
@@ -2277,16 +2294,16 @@
         <v>800</v>
       </c>
       <c r="R10" s="13"/>
-      <c r="S10" s="31">
+      <c r="S10" s="27">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="T10" s="32"/>
-      <c r="U10" s="14">
+      <c r="T10" s="28"/>
+      <c r="U10" s="20">
         <f t="shared" si="1"/>
         <v>720</v>
       </c>
-      <c r="V10" s="15"/>
+      <c r="V10" s="21"/>
       <c r="AA10" s="13">
         <v>0</v>
       </c>
@@ -2299,43 +2316,43 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="D11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="19">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="12">
         <v>1800</v>
       </c>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19">
+      <c r="N11" s="12"/>
+      <c r="O11" s="12">
         <v>400</v>
       </c>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19">
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12">
         <v>1200</v>
       </c>
-      <c r="R11" s="19"/>
-      <c r="S11" s="29">
+      <c r="R11" s="12"/>
+      <c r="S11" s="23">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="16">
+      <c r="T11" s="24"/>
+      <c r="U11" s="25">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
-      <c r="V11" s="17"/>
-      <c r="AA11" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="19"/>
+      <c r="V11" s="26"/>
+      <c r="AA11" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="12"/>
     </row>
     <row r="12" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2344,17 +2361,17 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
       <c r="M12" s="13">
         <v>2400</v>
       </c>
@@ -2367,16 +2384,16 @@
         <v>1500</v>
       </c>
       <c r="R12" s="13"/>
-      <c r="S12" s="31">
+      <c r="S12" s="27">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="14">
+      <c r="T12" s="28"/>
+      <c r="U12" s="20">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V12" s="15"/>
+      <c r="V12" s="21"/>
       <c r="AA12" s="13">
         <v>0</v>
       </c>
@@ -2389,44 +2406,44 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="19">
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="12">
         <v>1600</v>
       </c>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19">
+      <c r="N13" s="12"/>
+      <c r="O13" s="12">
         <v>300</v>
       </c>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19">
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12">
         <v>1000</v>
       </c>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19">
+      <c r="R13" s="12"/>
+      <c r="S13" s="12">
         <f>(Q13*0.1)+AA13</f>
         <v>100</v>
       </c>
-      <c r="T13" s="19"/>
-      <c r="U13" s="16">
+      <c r="T13" s="12"/>
+      <c r="U13" s="25">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="V13" s="17"/>
-      <c r="AA13" s="19">
+      <c r="V13" s="26"/>
+      <c r="AA13" s="12">
         <f>(Y13*0.1)+AH13</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="19"/>
+      <c r="AB13" s="12"/>
     </row>
     <row r="14" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -2435,17 +2452,17 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
       <c r="M14" s="13">
         <v>1600</v>
       </c>
@@ -2458,16 +2475,16 @@
         <v>750</v>
       </c>
       <c r="R14" s="13"/>
-      <c r="S14" s="31">
+      <c r="S14" s="27">
         <f t="shared" ref="S14:S18" si="2">(Q14*0.1)+AA14</f>
         <v>75</v>
       </c>
-      <c r="T14" s="32"/>
-      <c r="U14" s="14">
+      <c r="T14" s="28"/>
+      <c r="U14" s="20">
         <f t="shared" si="1"/>
         <v>675</v>
       </c>
-      <c r="V14" s="15"/>
+      <c r="V14" s="21"/>
       <c r="AA14" s="13">
         <v>0</v>
       </c>
@@ -2480,43 +2497,43 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="18"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="18"/>
-      <c r="M15" s="19">
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="12">
         <v>1800</v>
       </c>
-      <c r="N15" s="19"/>
-      <c r="O15" s="19">
+      <c r="N15" s="12"/>
+      <c r="O15" s="12">
         <v>500</v>
       </c>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19">
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12">
         <v>1500</v>
       </c>
-      <c r="R15" s="19"/>
-      <c r="S15" s="29">
+      <c r="R15" s="12"/>
+      <c r="S15" s="23">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="16">
+      <c r="T15" s="24"/>
+      <c r="U15" s="25">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V15" s="17"/>
-      <c r="AA15" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="19"/>
+      <c r="V15" s="26"/>
+      <c r="AA15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="12"/>
     </row>
     <row r="16" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -2525,17 +2542,17 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
       <c r="M16" s="13">
         <v>2200</v>
       </c>
@@ -2548,16 +2565,16 @@
         <v>1500</v>
       </c>
       <c r="R16" s="13"/>
-      <c r="S16" s="31">
+      <c r="S16" s="27">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="14">
+      <c r="T16" s="28"/>
+      <c r="U16" s="20">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V16" s="15"/>
+      <c r="V16" s="21"/>
       <c r="AA16" s="13">
         <v>0</v>
       </c>
@@ -2570,43 +2587,43 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="18" t="s">
+      <c r="D17" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="18"/>
-      <c r="L17" s="18"/>
-      <c r="M17" s="19">
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="12">
         <v>1500</v>
       </c>
-      <c r="N17" s="19"/>
-      <c r="O17" s="19">
+      <c r="N17" s="12"/>
+      <c r="O17" s="12">
         <v>600</v>
       </c>
-      <c r="P17" s="19"/>
-      <c r="Q17" s="19">
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12">
         <v>1500</v>
       </c>
-      <c r="R17" s="19"/>
-      <c r="S17" s="29">
+      <c r="R17" s="12"/>
+      <c r="S17" s="23">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T17" s="30"/>
-      <c r="U17" s="16">
+      <c r="T17" s="24"/>
+      <c r="U17" s="25">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V17" s="17"/>
-      <c r="AA17" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="19"/>
+      <c r="V17" s="26"/>
+      <c r="AA17" s="12">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="12"/>
     </row>
     <row r="18" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="8">
@@ -2615,57 +2632,125 @@
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="10" t="s">
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10">
-        <v>0</v>
-      </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10">
-        <v>0</v>
-      </c>
-      <c r="R18" s="10"/>
-      <c r="S18" s="27">
+      <c r="N18" s="11"/>
+      <c r="O18" s="11">
+        <v>0</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11">
+        <v>0</v>
+      </c>
+      <c r="R18" s="11"/>
+      <c r="S18" s="29">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="28"/>
-      <c r="U18" s="11">
+      <c r="T18" s="30"/>
+      <c r="U18" s="31">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V18" s="12"/>
-      <c r="AA18" s="10">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="10"/>
+      <c r="V18" s="32"/>
+      <c r="AA18" s="11">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="113">
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
+  <mergeCells count="114">
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="D18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O14:P14"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AA5:AB5"/>
@@ -2687,87 +2772,20 @@
     <mergeCell ref="S5:T5"/>
     <mergeCell ref="U5:V5"/>
     <mergeCell ref="M4:N4"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O4:P4"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="O6:P6"/>
     <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2777,12 +2795,13 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <webPublishItems count="5">
+  <webPublishItems count="6">
     <webPublishItem id="12398" divId="TMP_12398" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="20957" divId="TMP_20957" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="11684" divId="TMP_11684" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="26482" divId="TMP_26482" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="890" divId="TMP_890" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
+    <webPublishItem id="28082" divId="TMP_28082" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/TMP.xlsx
+++ b/TMP.xlsx
@@ -8,20 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2311B372-1F9E-41EA-AAAC-6398BDC5FB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A25DF0-6BED-4378-9646-D51F64DF1BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{72068E89-B82B-4D22-8EEA-457FC02A677F}"/>
   </bookViews>
   <sheets>
     <sheet name="TMP" sheetId="2" r:id="rId1"/>
     <sheet name="edit" sheetId="1" r:id="rId2"/>
+    <sheet name="calc" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">calc!$A$1:$W$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">edit!$A$1:$W$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">TMP!$A$1:$W$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="932"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="39">
   <si>
     <t>在庫一覧表</t>
     <rPh sb="0" eb="2">
@@ -287,6 +290,85 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>送料(B)</t>
+    <rPh sb="0" eb="2">
+      <t>ソウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手数料(B)</t>
+    <rPh sb="0" eb="3">
+      <t>テスウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>収支一覧</t>
+    <rPh sb="0" eb="2">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>梱包材</t>
+    <rPh sb="0" eb="2">
+      <t>コンポウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>購入物</t>
+    <rPh sb="0" eb="2">
+      <t>コウニュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>費用</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヨウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>合計：</t>
+    <rPh sb="0" eb="2">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>収支：</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⇒ 収支一覧へ</t>
+    <rPh sb="2" eb="4">
+      <t>シュウシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>〇</t>
+  </si>
+  <si>
+    <t>振込手数料</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -296,7 +378,7 @@
     <numFmt numFmtId="6" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="[$¥-411]#,##0_);[Red]\([$¥-411]#,##0\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +426,33 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -365,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -569,16 +678,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color theme="4" tint="0.79998168889431442"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -612,6 +910,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -677,16 +987,236 @@
     </xf>
     <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="ハイパーリンク" xfId="2" builtinId="8"/>
     <cellStyle name="通貨" xfId="1" builtinId="7"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="14">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1022,759 +1552,759 @@
       <selection activeCell="D7" sqref="D7:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.0625" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="3" width="5.0625" style="1"/>
+    <col min="2" max="3" width="5.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-    </row>
-    <row r="2" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+    </row>
+    <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="V2" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="3" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="18" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="14" t="s">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="19"/>
-      <c r="AA3" s="14" t="s">
+      <c r="V3" s="23"/>
+      <c r="AA3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="14"/>
-    </row>
-    <row r="4" spans="2:28" s="1" customFormat="1" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="AB3" s="18"/>
+    </row>
+    <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="13">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="17">
         <v>2800</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17">
         <v>700</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13">
-        <v>0</v>
-      </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="27">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17">
+        <v>0</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="31">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="28"/>
-      <c r="U4" s="20">
+      <c r="T4" s="32"/>
+      <c r="U4" s="24">
         <f>Q4-S4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="21"/>
-      <c r="AA4" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="13"/>
-    </row>
-    <row r="5" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V4" s="25"/>
+      <c r="AA4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="17"/>
+    </row>
+    <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="12">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="16">
         <v>2800</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16">
         <v>400</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12">
-        <v>0</v>
-      </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="23">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16"/>
+      <c r="S5" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="25">
+      <c r="T5" s="28"/>
+      <c r="U5" s="29">
         <f t="shared" ref="U5:U18" si="1">Q5-S5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="26"/>
-      <c r="AA5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="12"/>
-    </row>
-    <row r="6" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V5" s="30"/>
+      <c r="AA5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="16"/>
+    </row>
+    <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="13">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="17">
         <v>3200</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17">
         <v>700</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13">
-        <v>0</v>
-      </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="27">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17">
+        <v>0</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T6" s="28"/>
-      <c r="U6" s="20">
+      <c r="T6" s="32"/>
+      <c r="U6" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="21"/>
-      <c r="AA6" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="13"/>
-    </row>
-    <row r="7" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V6" s="25"/>
+      <c r="AA6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="17"/>
+    </row>
+    <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="22" t="s">
+      <c r="D7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="12">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="16">
         <v>3200</v>
       </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
         <v>450</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12">
-        <v>0</v>
-      </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="23">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16"/>
+      <c r="S7" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="24"/>
-      <c r="U7" s="25">
+      <c r="T7" s="28"/>
+      <c r="U7" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V7" s="26"/>
-      <c r="AA7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="12"/>
-    </row>
-    <row r="8" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V7" s="30"/>
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16"/>
+    </row>
+    <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="13">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="17">
         <v>2800</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
         <v>1000</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13">
-        <v>0</v>
-      </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="27">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17">
+        <v>0</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="28"/>
-      <c r="U8" s="20">
+      <c r="T8" s="32"/>
+      <c r="U8" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V8" s="21"/>
-      <c r="AA8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="13"/>
-    </row>
-    <row r="9" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V8" s="25"/>
+      <c r="AA8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17"/>
+    </row>
+    <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="12">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="16">
         <v>1600</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
         <v>400</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12">
-        <v>0</v>
-      </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="23">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16"/>
+      <c r="S9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T9" s="24"/>
-      <c r="U9" s="25">
+      <c r="T9" s="28"/>
+      <c r="U9" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="AA9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="12"/>
-    </row>
-    <row r="10" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V9" s="30"/>
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16"/>
+    </row>
+    <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="13">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="17">
         <v>1600</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13">
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
         <v>400</v>
       </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13">
-        <v>0</v>
-      </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="27">
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17">
+        <v>0</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="28"/>
-      <c r="U10" s="20">
+      <c r="T10" s="32"/>
+      <c r="U10" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V10" s="21"/>
-      <c r="AA10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="13"/>
-    </row>
-    <row r="11" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V10" s="25"/>
+      <c r="AA10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="17"/>
+    </row>
+    <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="12">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="16">
         <v>1800</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
         <v>400</v>
       </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12">
-        <v>0</v>
-      </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="23">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16">
+        <v>0</v>
+      </c>
+      <c r="R11" s="16"/>
+      <c r="S11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="24"/>
-      <c r="U11" s="25">
+      <c r="T11" s="28"/>
+      <c r="U11" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="26"/>
-      <c r="AA11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="12"/>
-    </row>
-    <row r="12" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V11" s="30"/>
+      <c r="AA11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="16"/>
+    </row>
+    <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="13">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="17">
         <v>2400</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13">
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
         <v>1500</v>
       </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13">
-        <v>0</v>
-      </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="27">
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17">
+        <v>0</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="28"/>
-      <c r="U12" s="20">
+      <c r="T12" s="32"/>
+      <c r="U12" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="21"/>
-      <c r="AA12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="13"/>
-    </row>
-    <row r="13" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V12" s="25"/>
+      <c r="AA12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="17"/>
+    </row>
+    <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="12">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="16">
         <v>1600</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16">
         <v>300</v>
       </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16">
         <v>1000</v>
       </c>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12">
-        <f>(Q13*0.1)+AA13</f>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16">
+        <f t="shared" ref="S13:S18" si="2">(Q13*0.1)+AA13</f>
         <v>100</v>
       </c>
-      <c r="T13" s="12"/>
-      <c r="U13" s="25">
+      <c r="T13" s="16"/>
+      <c r="U13" s="29">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="V13" s="26"/>
-      <c r="AA13" s="12">
+      <c r="V13" s="30"/>
+      <c r="AA13" s="16">
         <f>(Y13*0.1)+AH13</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="12"/>
-    </row>
-    <row r="14" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="AB13" s="16"/>
+    </row>
+    <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="13">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="17">
         <v>1600</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13">
+      <c r="N14" s="17"/>
+      <c r="O14" s="17">
         <v>400</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13">
-        <v>0</v>
-      </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="27">
-        <f t="shared" ref="S14:S18" si="2">(Q14*0.1)+AA14</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="28"/>
-      <c r="U14" s="20">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17">
+        <v>0</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="32"/>
+      <c r="U14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="21"/>
-      <c r="AA14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="13"/>
-    </row>
-    <row r="15" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V14" s="25"/>
+      <c r="AA14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="17"/>
+    </row>
+    <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="12">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="16">
         <v>1800</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12">
+      <c r="N15" s="16"/>
+      <c r="O15" s="16">
         <v>500</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12">
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16">
         <v>1500</v>
       </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="23">
+      <c r="R15" s="16"/>
+      <c r="S15" s="27">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T15" s="24"/>
-      <c r="U15" s="25">
+      <c r="T15" s="28"/>
+      <c r="U15" s="29">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V15" s="26"/>
-      <c r="AA15" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="12"/>
-    </row>
-    <row r="16" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V15" s="30"/>
+      <c r="AA15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="16"/>
+    </row>
+    <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="13">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="17">
         <v>2200</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13">
+      <c r="N16" s="17"/>
+      <c r="O16" s="17">
         <v>400</v>
       </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13">
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17">
         <v>1500</v>
       </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="27">
+      <c r="R16" s="17"/>
+      <c r="S16" s="31">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T16" s="28"/>
-      <c r="U16" s="20">
+      <c r="T16" s="32"/>
+      <c r="U16" s="24">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V16" s="21"/>
-      <c r="AA16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="13"/>
-    </row>
-    <row r="17" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V16" s="25"/>
+      <c r="AA16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="17"/>
+    </row>
+    <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="7">
         <v>14</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="12">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="16">
         <v>1500</v>
       </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12">
+      <c r="N17" s="16"/>
+      <c r="O17" s="16">
         <v>600</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12">
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16">
         <v>1500</v>
       </c>
-      <c r="R17" s="12"/>
-      <c r="S17" s="23">
+      <c r="R17" s="16"/>
+      <c r="S17" s="27">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T17" s="24"/>
-      <c r="U17" s="25">
+      <c r="T17" s="28"/>
+      <c r="U17" s="29">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V17" s="26"/>
-      <c r="AA17" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="12"/>
-    </row>
-    <row r="18" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="V17" s="30"/>
+      <c r="AA17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="16"/>
+    </row>
+    <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="8">
         <v>15</v>
       </c>
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="11" t="s">
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11">
-        <v>0</v>
-      </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11">
-        <v>0</v>
-      </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="29">
+      <c r="N18" s="15"/>
+      <c r="O18" s="15">
+        <v>0</v>
+      </c>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="15">
+        <v>0</v>
+      </c>
+      <c r="R18" s="15"/>
+      <c r="S18" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="30"/>
-      <c r="U18" s="31">
+      <c r="T18" s="34"/>
+      <c r="U18" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V18" s="32"/>
-      <c r="AA18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="11"/>
+      <c r="V18" s="36"/>
+      <c r="AA18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="113">
@@ -1907,796 +2437,752 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAD2D72-6E8F-4BF8-9A06-F59BD2D2646F}">
   <dimension ref="B1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="78" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection sqref="A1:W18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.0625" defaultRowHeight="24.85" customHeight="1" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="2" max="3" width="5.0625" style="1"/>
+    <col min="2" max="3" width="5.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-    </row>
-    <row r="2" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q2" s="33" t="s">
+    <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+    </row>
+    <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="Q2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-    </row>
-    <row r="3" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+    </row>
+    <row r="3" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="18" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="14" t="s">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14" t="s">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="19"/>
-      <c r="AA3" s="14" t="s">
+      <c r="V3" s="23"/>
+      <c r="AA3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="14"/>
-    </row>
-    <row r="4" spans="2:28" s="1" customFormat="1" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="AB3" s="18"/>
+    </row>
+    <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="13">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="17">
         <v>2800</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17">
         <v>600</v>
       </c>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17">
         <v>700</v>
       </c>
-      <c r="R4" s="13"/>
-      <c r="S4" s="27">
+      <c r="R4" s="17"/>
+      <c r="S4" s="31">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
-        <v>70</v>
-      </c>
-      <c r="T4" s="28"/>
-      <c r="U4" s="20">
+        <v>280</v>
+      </c>
+      <c r="T4" s="32"/>
+      <c r="U4" s="24">
         <f>Q4-S4</f>
-        <v>630</v>
-      </c>
-      <c r="V4" s="21"/>
-      <c r="AA4" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="13"/>
-    </row>
-    <row r="5" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+        <v>420</v>
+      </c>
+      <c r="V4" s="25"/>
+      <c r="AA4" s="17">
+        <v>210</v>
+      </c>
+      <c r="AB4" s="17"/>
+    </row>
+    <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
         <v>2</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="12">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="16">
         <v>2800</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16">
         <v>400</v>
       </c>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16">
         <v>500</v>
       </c>
-      <c r="R5" s="12"/>
-      <c r="S5" s="23">
+      <c r="R5" s="16"/>
+      <c r="S5" s="27">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="T5" s="24"/>
-      <c r="U5" s="25">
-        <f t="shared" ref="U5:U18" si="1">Q5-S5</f>
-        <v>450</v>
-      </c>
-      <c r="V5" s="26"/>
-      <c r="AA5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="12"/>
-    </row>
-    <row r="6" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+        <v>260</v>
+      </c>
+      <c r="T5" s="28"/>
+      <c r="U5" s="29">
+        <f t="shared" ref="U5:U16" si="1">Q5-S5</f>
+        <v>240</v>
+      </c>
+      <c r="V5" s="30"/>
+      <c r="AA5" s="16">
+        <v>210</v>
+      </c>
+      <c r="AB5" s="16"/>
+    </row>
+    <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="13">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="17">
         <v>3200</v>
       </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17">
         <v>700</v>
       </c>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17">
         <v>500</v>
       </c>
-      <c r="R6" s="13"/>
-      <c r="S6" s="27">
+      <c r="R6" s="17"/>
+      <c r="S6" s="31">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="T6" s="28"/>
-      <c r="U6" s="20">
+        <v>260</v>
+      </c>
+      <c r="T6" s="32"/>
+      <c r="U6" s="24">
         <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="V6" s="25"/>
+      <c r="AA6" s="17">
+        <v>210</v>
+      </c>
+      <c r="AB6" s="17"/>
+    </row>
+    <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B7" s="7">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="16">
+        <v>3200</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
         <v>450</v>
       </c>
-      <c r="V6" s="21"/>
-      <c r="AA6" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="13"/>
-    </row>
-    <row r="7" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B7" s="7">
-        <v>4</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="12">
-        <v>3200</v>
-      </c>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12">
-        <v>450</v>
-      </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16">
         <v>500</v>
       </c>
-      <c r="R7" s="12"/>
-      <c r="S7" s="23">
+      <c r="R7" s="16"/>
+      <c r="S7" s="27">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="T7" s="24"/>
-      <c r="U7" s="25">
+        <v>260</v>
+      </c>
+      <c r="T7" s="28"/>
+      <c r="U7" s="29">
         <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="V7" s="26"/>
-      <c r="AA7" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="12"/>
-    </row>
-    <row r="8" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+        <v>240</v>
+      </c>
+      <c r="V7" s="30"/>
+      <c r="AA7" s="16">
+        <v>210</v>
+      </c>
+      <c r="AB7" s="16"/>
+    </row>
+    <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="13">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="17">
         <v>2800</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
         <v>900</v>
       </c>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17">
         <v>1000</v>
       </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="27">
+      <c r="R8" s="17"/>
+      <c r="S8" s="31">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="T8" s="28"/>
-      <c r="U8" s="20">
+        <v>310</v>
+      </c>
+      <c r="T8" s="32"/>
+      <c r="U8" s="24">
         <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="V8" s="21"/>
-      <c r="AA8" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="13"/>
-    </row>
-    <row r="9" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+        <v>690</v>
+      </c>
+      <c r="V8" s="25"/>
+      <c r="AA8" s="17">
+        <v>210</v>
+      </c>
+      <c r="AB8" s="17"/>
+    </row>
+    <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="12">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="16">
         <v>1600</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
         <v>400</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12">
-        <v>800</v>
-      </c>
-      <c r="R9" s="12"/>
-      <c r="S9" s="23">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16">
+        <v>900</v>
+      </c>
+      <c r="R9" s="16"/>
+      <c r="S9" s="27">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="T9" s="24"/>
-      <c r="U9" s="25">
+        <v>300</v>
+      </c>
+      <c r="T9" s="28"/>
+      <c r="U9" s="29">
         <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
-      <c r="V9" s="26"/>
-      <c r="AA9" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="12"/>
-    </row>
-    <row r="10" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+        <v>600</v>
+      </c>
+      <c r="V9" s="30"/>
+      <c r="AA9" s="16">
+        <v>210</v>
+      </c>
+      <c r="AB9" s="16"/>
+    </row>
+    <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="13">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="17">
         <v>1600</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13">
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
         <v>400</v>
       </c>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13">
-        <v>800</v>
-      </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="27">
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17">
+        <v>900</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="31">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="T10" s="28"/>
-      <c r="U10" s="20">
+        <v>300</v>
+      </c>
+      <c r="T10" s="32"/>
+      <c r="U10" s="24">
         <f t="shared" si="1"/>
-        <v>720</v>
-      </c>
-      <c r="V10" s="21"/>
-      <c r="AA10" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="13"/>
-    </row>
-    <row r="11" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+        <v>600</v>
+      </c>
+      <c r="V10" s="25"/>
+      <c r="AA10" s="17">
+        <v>210</v>
+      </c>
+      <c r="AB10" s="17"/>
+    </row>
+    <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="12">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="16">
         <v>1800</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
         <v>400</v>
       </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16">
         <v>1200</v>
       </c>
-      <c r="R11" s="12"/>
-      <c r="S11" s="23">
+      <c r="R11" s="16"/>
+      <c r="S11" s="27">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="T11" s="24"/>
-      <c r="U11" s="25">
+        <v>330</v>
+      </c>
+      <c r="T11" s="28"/>
+      <c r="U11" s="29">
         <f t="shared" si="1"/>
-        <v>1080</v>
-      </c>
-      <c r="V11" s="26"/>
-      <c r="AA11" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="12"/>
-    </row>
-    <row r="12" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+        <v>870</v>
+      </c>
+      <c r="V11" s="30"/>
+      <c r="AA11" s="16">
+        <v>210</v>
+      </c>
+      <c r="AB11" s="16"/>
+    </row>
+    <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="13">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="17">
         <v>2400</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13">
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
         <v>1500</v>
       </c>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13">
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17">
         <v>1500</v>
       </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="27">
+      <c r="R12" s="17"/>
+      <c r="S12" s="31">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="T12" s="28"/>
-      <c r="U12" s="20">
+        <v>360</v>
+      </c>
+      <c r="T12" s="32"/>
+      <c r="U12" s="24">
         <f t="shared" si="1"/>
-        <v>1350</v>
-      </c>
-      <c r="V12" s="21"/>
-      <c r="AA12" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="13"/>
-    </row>
-    <row r="13" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+        <v>1140</v>
+      </c>
+      <c r="V12" s="25"/>
+      <c r="AA12" s="17">
+        <v>210</v>
+      </c>
+      <c r="AB12" s="17"/>
+    </row>
+    <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="12">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="16">
         <v>1600</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16">
         <v>300</v>
       </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16">
         <v>1000</v>
       </c>
-      <c r="R13" s="12"/>
-      <c r="S13" s="12">
+      <c r="R13" s="16"/>
+      <c r="S13" s="16">
         <f>(Q13*0.1)+AA13</f>
-        <v>100</v>
-      </c>
-      <c r="T13" s="12"/>
-      <c r="U13" s="25">
+        <v>310</v>
+      </c>
+      <c r="T13" s="16"/>
+      <c r="U13" s="29">
         <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="V13" s="26"/>
-      <c r="AA13" s="12">
-        <f>(Y13*0.1)+AH13</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="12"/>
-    </row>
-    <row r="14" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+        <v>690</v>
+      </c>
+      <c r="V13" s="30"/>
+      <c r="AA13" s="16">
+        <v>210</v>
+      </c>
+      <c r="AB13" s="16"/>
+    </row>
+    <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="13">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="17">
         <v>1600</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13">
+      <c r="N14" s="17"/>
+      <c r="O14" s="17">
         <v>300</v>
       </c>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17">
         <v>750</v>
       </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="27">
-        <f t="shared" ref="S14:S18" si="2">(Q14*0.1)+AA14</f>
-        <v>75</v>
-      </c>
-      <c r="T14" s="28"/>
-      <c r="U14" s="20">
+      <c r="R14" s="17"/>
+      <c r="S14" s="31">
+        <f>(Q14*0.1)+AA14</f>
+        <v>285</v>
+      </c>
+      <c r="T14" s="32"/>
+      <c r="U14" s="24">
         <f t="shared" si="1"/>
-        <v>675</v>
-      </c>
-      <c r="V14" s="21"/>
-      <c r="AA14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="13"/>
-    </row>
-    <row r="15" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+        <v>465</v>
+      </c>
+      <c r="V14" s="25"/>
+      <c r="AA14" s="17">
+        <v>210</v>
+      </c>
+      <c r="AB14" s="17"/>
+    </row>
+    <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="12">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="16">
         <v>1800</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12">
+      <c r="N15" s="16"/>
+      <c r="O15" s="16">
         <v>500</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12">
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16">
         <v>1500</v>
       </c>
-      <c r="R15" s="12"/>
-      <c r="S15" s="23">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="T15" s="24"/>
-      <c r="U15" s="25">
+      <c r="R15" s="16"/>
+      <c r="S15" s="27">
+        <f>(Q15*0.1)+AA15</f>
+        <v>360</v>
+      </c>
+      <c r="T15" s="28"/>
+      <c r="U15" s="29">
         <f t="shared" si="1"/>
-        <v>1350</v>
-      </c>
-      <c r="V15" s="26"/>
-      <c r="AA15" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="12"/>
-    </row>
-    <row r="16" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
+        <v>1140</v>
+      </c>
+      <c r="V15" s="30"/>
+      <c r="AA15" s="16">
+        <v>210</v>
+      </c>
+      <c r="AB15" s="16"/>
+    </row>
+    <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="13">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="17">
         <v>2200</v>
       </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13">
+      <c r="N16" s="17"/>
+      <c r="O16" s="17">
         <v>400</v>
       </c>
-      <c r="P16" s="13"/>
-      <c r="Q16" s="13">
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17">
         <v>1500</v>
       </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="27">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="T16" s="28"/>
-      <c r="U16" s="20">
+      <c r="R16" s="17"/>
+      <c r="S16" s="31">
+        <f>(Q16*0.1)+AA16</f>
+        <v>360</v>
+      </c>
+      <c r="T16" s="32"/>
+      <c r="U16" s="24">
         <f t="shared" si="1"/>
-        <v>1350</v>
-      </c>
-      <c r="V16" s="21"/>
-      <c r="AA16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="13"/>
-    </row>
-    <row r="17" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B17" s="7">
+        <v>1140</v>
+      </c>
+      <c r="V16" s="25"/>
+      <c r="AA16" s="17">
+        <v>210</v>
+      </c>
+      <c r="AB16" s="17"/>
+    </row>
+    <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B17" s="11">
         <v>14</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="22" t="s">
+      <c r="C17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="12">
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38">
         <v>1500</v>
       </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12">
+      <c r="N17" s="38"/>
+      <c r="O17" s="38">
         <v>600</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12">
-        <v>1500</v>
-      </c>
-      <c r="R17" s="12"/>
-      <c r="S17" s="23">
-        <f t="shared" si="2"/>
-        <v>150</v>
-      </c>
-      <c r="T17" s="24"/>
-      <c r="U17" s="25">
-        <f t="shared" si="1"/>
-        <v>1350</v>
-      </c>
-      <c r="V17" s="26"/>
-      <c r="AA17" s="12">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="12"/>
-    </row>
-    <row r="18" spans="2:28" ht="24.85" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B18" s="8">
-        <v>15</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="16"/>
-      <c r="K18" s="16"/>
-      <c r="L18" s="16"/>
-      <c r="M18" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11">
-        <v>0</v>
-      </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11">
-        <v>0</v>
-      </c>
-      <c r="R18" s="11"/>
-      <c r="S18" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="30"/>
-      <c r="U18" s="31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="32"/>
-      <c r="AA18" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="11"/>
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38">
+        <v>1400</v>
+      </c>
+      <c r="R17" s="38"/>
+      <c r="S17" s="39">
+        <f>(Q17*0.1)+BC16</f>
+        <v>140</v>
+      </c>
+      <c r="T17" s="40"/>
+      <c r="U17" s="41">
+        <f>Q17-S17</f>
+        <v>1260</v>
+      </c>
+      <c r="V17" s="42"/>
+      <c r="AA17" s="16">
+        <v>210</v>
+      </c>
+      <c r="AB17" s="16"/>
+    </row>
+    <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="Q18" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
+      <c r="AA18" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="114">
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="O16:P16"/>
+  <mergeCells count="109">
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="S16:T16"/>
     <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="S14:T14"/>
     <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
     <mergeCell ref="U12:V12"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="D13:L13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="O13:P13"/>
@@ -2705,57 +3191,37 @@
     <mergeCell ref="U13:V13"/>
     <mergeCell ref="D12:L12"/>
     <mergeCell ref="M12:N12"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O14:P14"/>
     <mergeCell ref="D11:L11"/>
     <mergeCell ref="M11:N11"/>
     <mergeCell ref="O11:P11"/>
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
     <mergeCell ref="D10:L10"/>
     <mergeCell ref="M10:N10"/>
     <mergeCell ref="Q8:R8"/>
     <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
     <mergeCell ref="D9:L9"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
     <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="D18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="B1:V1"/>
     <mergeCell ref="M3:N3"/>
     <mergeCell ref="D3:L3"/>
@@ -2774,34 +3240,1041 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O3:P3"/>
     <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q18:V18"/>
     <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="AA13:AB13"/>
     <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AA15:AB15"/>
     <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="O16:P16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C18" xr:uid="{5DAB2191-16FF-4945-91D8-BAE684A3DEAC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17 C4:C17" xr:uid="{5DAB2191-16FF-4945-91D8-BAE684A3DEAC}">
       <formula1>"〇,-"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="Q18:V18" r:id="rId1" display="⇒ 収支一覧へ" xr:uid="{C36DEAFF-6774-4825-BDC0-995F83085BC2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
-  <webPublishItems count="6">
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <webPublishItems count="8">
     <webPublishItem id="12398" divId="TMP_12398" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="20957" divId="TMP_20957" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="11684" divId="TMP_11684" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="26482" divId="TMP_26482" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="890" divId="TMP_890" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="28082" divId="TMP_28082" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
+    <webPublishItem id="12447" divId="TMP_12447" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMPtest.htm"/>
+    <webPublishItem id="13317" divId="TMP_13317" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
+  </webPublishItems>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E3320D-AD6A-49DE-BA1F-8DE09716D6B2}">
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13:K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="2" max="3" width="5.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+    </row>
+    <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="1"/>
+      <c r="C2"/>
+      <c r="P2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
+    </row>
+    <row r="3" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="74" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="76"/>
+      <c r="N3" s="74" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="76"/>
+      <c r="P3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="74" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="77"/>
+      <c r="T3" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="U3" s="18"/>
+      <c r="V3" s="74" t="s">
+        <v>33</v>
+      </c>
+      <c r="W3" s="77"/>
+    </row>
+    <row r="4" spans="1:23" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="31">
+        <v>700</v>
+      </c>
+      <c r="M4" s="32"/>
+      <c r="N4" s="31">
+        <f>(L4*0.1)</f>
+        <v>70</v>
+      </c>
+      <c r="O4" s="32"/>
+      <c r="P4" s="17">
+        <f>VLOOKUP(C4,edit!$D$4:$AB$17,24,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="48">
+        <f>L4-N4-P4</f>
+        <v>420</v>
+      </c>
+      <c r="S4" s="49"/>
+      <c r="T4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="17"/>
+      <c r="V4" s="48">
+        <v>220</v>
+      </c>
+      <c r="W4" s="49"/>
+    </row>
+    <row r="5" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="27">
+        <v>500</v>
+      </c>
+      <c r="M5" s="28"/>
+      <c r="N5" s="27">
+        <f t="shared" ref="N5:N16" si="0">(L5*0.1)</f>
+        <v>50</v>
+      </c>
+      <c r="O5" s="28"/>
+      <c r="P5" s="27">
+        <f>VLOOKUP(C5,edit!$D$4:$AB$17,24,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="70">
+        <f t="shared" ref="R5:R16" si="1">L5-N5-P5</f>
+        <v>240</v>
+      </c>
+      <c r="S5" s="71"/>
+      <c r="T5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U5" s="16"/>
+      <c r="V5" s="70">
+        <v>220</v>
+      </c>
+      <c r="W5" s="71"/>
+    </row>
+    <row r="6" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="31">
+        <v>500</v>
+      </c>
+      <c r="M6" s="32"/>
+      <c r="N6" s="31">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="O6" s="32"/>
+      <c r="P6" s="31">
+        <f>VLOOKUP(C6,edit!$D$4:$AB$17,24,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="48">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="S6" s="49"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="49"/>
+    </row>
+    <row r="7" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="27">
+        <v>500</v>
+      </c>
+      <c r="M7" s="28"/>
+      <c r="N7" s="27">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="O7" s="28"/>
+      <c r="P7" s="27">
+        <f>VLOOKUP(C7,edit!$D$4:$AB$17,24,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="70">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="S7" s="71"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="71"/>
+    </row>
+    <row r="8" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="31">
+        <v>1000</v>
+      </c>
+      <c r="M8" s="32"/>
+      <c r="N8" s="31">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="O8" s="32"/>
+      <c r="P8" s="31">
+        <f>VLOOKUP(C8,edit!$D$4:$AB$17,24,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="48">
+        <f t="shared" si="1"/>
+        <v>690</v>
+      </c>
+      <c r="S8" s="49"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="49"/>
+    </row>
+    <row r="9" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="27">
+        <v>800</v>
+      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="27">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="O9" s="28"/>
+      <c r="P9" s="27">
+        <f>VLOOKUP(C9,edit!$D$4:$AB$17,24,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="70">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="S9" s="71"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="70"/>
+      <c r="W9" s="71"/>
+    </row>
+    <row r="10" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="31">
+        <v>800</v>
+      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="31">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="O10" s="32"/>
+      <c r="P10" s="31">
+        <f>VLOOKUP(C10,edit!$D$4:$AB$17,24,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="48">
+        <f t="shared" si="1"/>
+        <v>510</v>
+      </c>
+      <c r="S10" s="49"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="49"/>
+    </row>
+    <row r="11" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="27">
+        <v>1200</v>
+      </c>
+      <c r="M11" s="28"/>
+      <c r="N11" s="27">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="O11" s="28"/>
+      <c r="P11" s="27">
+        <f>VLOOKUP(C11,edit!$D$4:$AB$17,24,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="70">
+        <f t="shared" si="1"/>
+        <v>870</v>
+      </c>
+      <c r="S11" s="71"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="71"/>
+    </row>
+    <row r="12" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="31">
+        <v>1500</v>
+      </c>
+      <c r="M12" s="32"/>
+      <c r="N12" s="31">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="O12" s="32"/>
+      <c r="P12" s="31">
+        <f>VLOOKUP(C12,edit!$D$4:$AB$17,24,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="48">
+        <f t="shared" si="1"/>
+        <v>1140</v>
+      </c>
+      <c r="S12" s="49"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="49"/>
+    </row>
+    <row r="13" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="69"/>
+      <c r="L13" s="27">
+        <v>1000</v>
+      </c>
+      <c r="M13" s="28"/>
+      <c r="N13" s="27">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="O13" s="28"/>
+      <c r="P13" s="27">
+        <f>VLOOKUP(C13,edit!$D$4:$AB$17,24,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="70">
+        <f t="shared" si="1"/>
+        <v>690</v>
+      </c>
+      <c r="S13" s="71"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="71"/>
+    </row>
+    <row r="14" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="31">
+        <v>750</v>
+      </c>
+      <c r="M14" s="32"/>
+      <c r="N14" s="31">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="O14" s="32"/>
+      <c r="P14" s="31">
+        <f>VLOOKUP(C14,edit!$D$4:$AB$17,24,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="48">
+        <f t="shared" si="1"/>
+        <v>465</v>
+      </c>
+      <c r="S14" s="49"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="49"/>
+    </row>
+    <row r="15" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="69"/>
+      <c r="L15" s="27">
+        <v>1500</v>
+      </c>
+      <c r="M15" s="28"/>
+      <c r="N15" s="27">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="O15" s="28"/>
+      <c r="P15" s="27">
+        <f>VLOOKUP(C15,edit!$D$4:$AB$17,24,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="70">
+        <f t="shared" si="1"/>
+        <v>1140</v>
+      </c>
+      <c r="S15" s="71"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="71"/>
+    </row>
+    <row r="16" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="31">
+        <v>1500</v>
+      </c>
+      <c r="M16" s="32"/>
+      <c r="N16" s="31">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="O16" s="32"/>
+      <c r="P16" s="31">
+        <f>VLOOKUP(C16,edit!$D$4:$AB$17,24,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="48">
+        <f t="shared" si="1"/>
+        <v>1140</v>
+      </c>
+      <c r="S16" s="49"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="49"/>
+    </row>
+    <row r="17" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A17" s="11">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="39">
+        <v>1500</v>
+      </c>
+      <c r="M17" s="40"/>
+      <c r="N17" s="39">
+        <f>(L17*0.1)</f>
+        <v>150</v>
+      </c>
+      <c r="O17" s="40"/>
+      <c r="P17" s="39">
+        <f>VLOOKUP(C17,edit!$D$4:$AB$17,24,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="53">
+        <f>L17-N17-P17</f>
+        <v>1140</v>
+      </c>
+      <c r="S17" s="54"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="54"/>
+    </row>
+    <row r="18" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="64">
+        <f>SUMIF($B$4:$B$17,"〇",L4:M17)</f>
+        <v>1000</v>
+      </c>
+      <c r="M18" s="59"/>
+      <c r="N18" s="64">
+        <f>SUMIF($B$4:$B$17,"〇",N4:O17)</f>
+        <v>100</v>
+      </c>
+      <c r="O18" s="59"/>
+      <c r="P18" s="64">
+        <f>SUMIF($B$4:$B$17,"〇",P4:Q17)</f>
+        <v>210</v>
+      </c>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="65">
+        <f>SUMIF($B$4:$B$17,"〇",R4:S17)</f>
+        <v>690</v>
+      </c>
+      <c r="S18" s="66"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="65">
+        <f>SUM(V4:W17)</f>
+        <v>440</v>
+      </c>
+      <c r="W18" s="66"/>
+    </row>
+    <row r="19" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="U19" s="60"/>
+      <c r="V19" s="72">
+        <f>R18-V18</f>
+        <v>250</v>
+      </c>
+      <c r="W19" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="121">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="A4:S4">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>$B$4="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5:S5">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>$B$5="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:S6">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>$B$6="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:S7">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>$B$7="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:S8">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>$B$8="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:S9">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>$B$9="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:S10">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>$B$10="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:S11">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>$B$11="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:S12">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>$B$12="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:S13">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>$B$13="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:S14">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>$B$14="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:S15">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>$B$15="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:S16">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$B$16="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:S17">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B$17="-"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B19" xr:uid="{D32011D8-A657-4E83-BC64-F32B7EDF1A09}">
+      <formula1>"〇,-"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
+  <webPublishItems count="3">
+    <webPublishItem id="15378" divId="TMP_15378" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht"/>
+    <webPublishItem id="19650" divId="TMP_19650" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
+    <webPublishItem id="4869" divId="TMP_4869" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/TMP.xlsx
+++ b/TMP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A25DF0-6BED-4378-9646-D51F64DF1BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8396B2F7-0633-4D85-A99A-EB3C75C2601D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{72068E89-B82B-4D22-8EEA-457FC02A677F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{72068E89-B82B-4D22-8EEA-457FC02A677F}"/>
   </bookViews>
   <sheets>
     <sheet name="TMP" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="932"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -925,10 +924,52 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -940,53 +981,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1009,8 +1011,65 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1021,27 +1080,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1070,45 +1108,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1558,29 +1557,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="V2" s="10" t="s">
@@ -1594,41 +1593,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="22" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="23"/>
-      <c r="AA3" s="18" t="s">
+      <c r="V3" s="36"/>
+      <c r="AA3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="18"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -1637,43 +1636,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="17">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="20">
         <v>2800</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17">
+      <c r="N4" s="20"/>
+      <c r="O4" s="20">
         <v>700</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17">
-        <v>0</v>
-      </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="31">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20">
+        <v>0</v>
+      </c>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="24">
+      <c r="T4" s="22"/>
+      <c r="U4" s="23">
         <f>Q4-S4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="25"/>
-      <c r="AA4" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="17"/>
+      <c r="V4" s="24"/>
+      <c r="AA4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="20"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -1682,43 +1681,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="16">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28">
         <v>2800</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28">
         <v>400</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16">
-        <v>0</v>
-      </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="27">
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28">
+        <v>0</v>
+      </c>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29">
+      <c r="T5" s="30"/>
+      <c r="U5" s="25">
         <f t="shared" ref="U5:U18" si="1">Q5-S5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="30"/>
-      <c r="AA5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="16"/>
+      <c r="V5" s="26"/>
+      <c r="AA5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="28"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -1727,43 +1726,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="17">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="20">
         <v>3200</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20">
         <v>700</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17">
-        <v>0</v>
-      </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="31">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20">
+        <v>0</v>
+      </c>
+      <c r="R6" s="20"/>
+      <c r="S6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="24">
+      <c r="T6" s="22"/>
+      <c r="U6" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="25"/>
-      <c r="AA6" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="17"/>
+      <c r="V6" s="24"/>
+      <c r="AA6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="20"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -1772,43 +1771,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="16">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28">
         <v>3200</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
+      <c r="N7" s="28"/>
+      <c r="O7" s="28">
         <v>450</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="27">
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28">
+        <v>0</v>
+      </c>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="28"/>
-      <c r="U7" s="29">
+      <c r="T7" s="30"/>
+      <c r="U7" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V7" s="30"/>
-      <c r="AA7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16"/>
+      <c r="V7" s="26"/>
+      <c r="AA7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -1817,43 +1816,43 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="17">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="20">
         <v>2800</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20">
         <v>1000</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17">
-        <v>0</v>
-      </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="31">
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20">
+        <v>0</v>
+      </c>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="24">
+      <c r="T8" s="22"/>
+      <c r="U8" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V8" s="25"/>
-      <c r="AA8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="17"/>
+      <c r="V8" s="24"/>
+      <c r="AA8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -1862,43 +1861,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="16">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28">
         <v>1600</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16">
+      <c r="N9" s="28"/>
+      <c r="O9" s="28">
         <v>400</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="27">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28"/>
+      <c r="S9" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T9" s="28"/>
-      <c r="U9" s="29">
+      <c r="T9" s="30"/>
+      <c r="U9" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="30"/>
-      <c r="AA9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16"/>
+      <c r="V9" s="26"/>
+      <c r="AA9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -1907,43 +1906,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="17">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="20">
         <v>1600</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17">
+      <c r="N10" s="20"/>
+      <c r="O10" s="20">
         <v>400</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17">
-        <v>0</v>
-      </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="31">
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20">
+        <v>0</v>
+      </c>
+      <c r="R10" s="20"/>
+      <c r="S10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="32"/>
-      <c r="U10" s="24">
+      <c r="T10" s="22"/>
+      <c r="U10" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V10" s="25"/>
-      <c r="AA10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="17"/>
+      <c r="V10" s="24"/>
+      <c r="AA10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="20"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -1952,43 +1951,43 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="16">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28">
         <v>1800</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28">
         <v>400</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16">
-        <v>0</v>
-      </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="27">
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28">
+        <v>0</v>
+      </c>
+      <c r="R11" s="28"/>
+      <c r="S11" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29">
+      <c r="T11" s="30"/>
+      <c r="U11" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="30"/>
-      <c r="AA11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="16"/>
+      <c r="V11" s="26"/>
+      <c r="AA11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -1997,43 +1996,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="17">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="20">
         <v>2400</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20">
         <v>1500</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17">
-        <v>0</v>
-      </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="31">
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20">
+        <v>0</v>
+      </c>
+      <c r="R12" s="20"/>
+      <c r="S12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="24">
+      <c r="T12" s="22"/>
+      <c r="U12" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="25"/>
-      <c r="AA12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="17"/>
+      <c r="V12" s="24"/>
+      <c r="AA12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="20"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2042,44 +2041,44 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="16">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28">
         <v>1600</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16">
+      <c r="N13" s="28"/>
+      <c r="O13" s="28">
         <v>300</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28">
         <v>1000</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16">
+      <c r="R13" s="28"/>
+      <c r="S13" s="28">
         <f t="shared" ref="S13:S18" si="2">(Q13*0.1)+AA13</f>
         <v>100</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="29">
+      <c r="T13" s="28"/>
+      <c r="U13" s="25">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="AA13" s="16">
+      <c r="V13" s="26"/>
+      <c r="AA13" s="28">
         <f>(Y13*0.1)+AH13</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="16"/>
+      <c r="AB13" s="28"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -2088,43 +2087,43 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="17">
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="20">
         <v>1600</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17">
+      <c r="N14" s="20"/>
+      <c r="O14" s="20">
         <v>400</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17">
-        <v>0</v>
-      </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="31">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20">
+        <v>0</v>
+      </c>
+      <c r="R14" s="20"/>
+      <c r="S14" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="32"/>
-      <c r="U14" s="24">
+      <c r="T14" s="22"/>
+      <c r="U14" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="25"/>
-      <c r="AA14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="17"/>
+      <c r="V14" s="24"/>
+      <c r="AA14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="20"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -2133,43 +2132,43 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="16">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28">
         <v>1800</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16">
+      <c r="N15" s="28"/>
+      <c r="O15" s="28">
         <v>500</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16">
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28">
         <v>1500</v>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="27">
+      <c r="R15" s="28"/>
+      <c r="S15" s="29">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="29">
+      <c r="T15" s="30"/>
+      <c r="U15" s="25">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V15" s="30"/>
-      <c r="AA15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="16"/>
+      <c r="V15" s="26"/>
+      <c r="AA15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -2178,43 +2177,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="17">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="20">
         <v>2200</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17">
+      <c r="N16" s="20"/>
+      <c r="O16" s="20">
         <v>400</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17">
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20">
         <v>1500</v>
       </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="31">
+      <c r="R16" s="20"/>
+      <c r="S16" s="21">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="24">
+      <c r="T16" s="22"/>
+      <c r="U16" s="23">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V16" s="25"/>
-      <c r="AA16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="17"/>
+      <c r="V16" s="24"/>
+      <c r="AA16" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="20"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="7">
@@ -2223,43 +2222,43 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="16">
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28">
         <v>1500</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16">
+      <c r="N17" s="28"/>
+      <c r="O17" s="28">
         <v>600</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16">
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28">
         <v>1500</v>
       </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="27">
+      <c r="R17" s="28"/>
+      <c r="S17" s="29">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T17" s="28"/>
-      <c r="U17" s="29">
+      <c r="T17" s="30"/>
+      <c r="U17" s="25">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V17" s="30"/>
-      <c r="AA17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="16"/>
+      <c r="V17" s="26"/>
+      <c r="AA17" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="28"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="8">
@@ -2268,17 +2267,17 @@
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
       <c r="M18" s="15" t="s">
         <v>23</v>
       </c>
@@ -2291,16 +2290,16 @@
         <v>0</v>
       </c>
       <c r="R18" s="15"/>
-      <c r="S18" s="33">
+      <c r="S18" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="34"/>
-      <c r="U18" s="35">
+      <c r="T18" s="17"/>
+      <c r="U18" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V18" s="36"/>
+      <c r="V18" s="19"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -2308,84 +2307,17 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AA5:AB5"/>
@@ -2410,17 +2342,84 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2437,7 +2436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAD2D72-6E8F-4BF8-9A06-F59BD2D2646F}">
   <dimension ref="B1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection sqref="A1:W18"/>
     </sheetView>
   </sheetViews>
@@ -2447,39 +2446,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="4" t="s">
@@ -2488,41 +2487,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="22" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="23"/>
-      <c r="AA3" s="18" t="s">
+      <c r="V3" s="36"/>
+      <c r="AA3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="18"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -2531,43 +2530,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="17">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="20">
         <v>2800</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17">
+      <c r="N4" s="20"/>
+      <c r="O4" s="20">
         <v>600</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20">
         <v>700</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="31">
+      <c r="R4" s="20"/>
+      <c r="S4" s="21">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>280</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="24">
+      <c r="T4" s="22"/>
+      <c r="U4" s="23">
         <f>Q4-S4</f>
         <v>420</v>
       </c>
-      <c r="V4" s="25"/>
-      <c r="AA4" s="17">
+      <c r="V4" s="24"/>
+      <c r="AA4" s="20">
         <v>210</v>
       </c>
-      <c r="AB4" s="17"/>
+      <c r="AB4" s="20"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -2576,43 +2575,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="16">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28">
         <v>2800</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28">
         <v>400</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16">
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28">
         <v>500</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="27">
+      <c r="R5" s="28"/>
+      <c r="S5" s="29">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29">
+      <c r="T5" s="30"/>
+      <c r="U5" s="25">
         <f t="shared" ref="U5:U16" si="1">Q5-S5</f>
         <v>240</v>
       </c>
-      <c r="V5" s="30"/>
-      <c r="AA5" s="16">
+      <c r="V5" s="26"/>
+      <c r="AA5" s="28">
         <v>210</v>
       </c>
-      <c r="AB5" s="16"/>
+      <c r="AB5" s="28"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -2621,43 +2620,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="17">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="20">
         <v>3200</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20">
         <v>700</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20">
         <v>500</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="31">
+      <c r="R6" s="20"/>
+      <c r="S6" s="21">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="24">
+      <c r="T6" s="22"/>
+      <c r="U6" s="23">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V6" s="25"/>
-      <c r="AA6" s="17">
+      <c r="V6" s="24"/>
+      <c r="AA6" s="20">
         <v>210</v>
       </c>
-      <c r="AB6" s="17"/>
+      <c r="AB6" s="20"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -2666,43 +2665,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="16">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28">
         <v>3200</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
+      <c r="N7" s="28"/>
+      <c r="O7" s="28">
         <v>450</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16">
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28">
         <v>500</v>
       </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="27">
+      <c r="R7" s="28"/>
+      <c r="S7" s="29">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T7" s="28"/>
-      <c r="U7" s="29">
+      <c r="T7" s="30"/>
+      <c r="U7" s="25">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V7" s="30"/>
-      <c r="AA7" s="16">
+      <c r="V7" s="26"/>
+      <c r="AA7" s="28">
         <v>210</v>
       </c>
-      <c r="AB7" s="16"/>
+      <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -2711,43 +2710,43 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="17">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="20">
         <v>2800</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20">
         <v>900</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17">
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20">
         <v>1000</v>
       </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="31">
+      <c r="R8" s="20"/>
+      <c r="S8" s="21">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="24">
+      <c r="T8" s="22"/>
+      <c r="U8" s="23">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V8" s="25"/>
-      <c r="AA8" s="17">
+      <c r="V8" s="24"/>
+      <c r="AA8" s="20">
         <v>210</v>
       </c>
-      <c r="AB8" s="17"/>
+      <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -2756,43 +2755,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="16">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28">
         <v>1600</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16">
+      <c r="N9" s="28"/>
+      <c r="O9" s="28">
         <v>400</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28">
         <v>900</v>
       </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="27">
+      <c r="R9" s="28"/>
+      <c r="S9" s="29">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T9" s="28"/>
-      <c r="U9" s="29">
+      <c r="T9" s="30"/>
+      <c r="U9" s="25">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V9" s="30"/>
-      <c r="AA9" s="16">
+      <c r="V9" s="26"/>
+      <c r="AA9" s="28">
         <v>210</v>
       </c>
-      <c r="AB9" s="16"/>
+      <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -2801,43 +2800,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="17">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="20">
         <v>1600</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17">
+      <c r="N10" s="20"/>
+      <c r="O10" s="20">
         <v>400</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17">
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20">
         <v>900</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="31">
+      <c r="R10" s="20"/>
+      <c r="S10" s="21">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T10" s="32"/>
-      <c r="U10" s="24">
+      <c r="T10" s="22"/>
+      <c r="U10" s="23">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V10" s="25"/>
-      <c r="AA10" s="17">
+      <c r="V10" s="24"/>
+      <c r="AA10" s="20">
         <v>210</v>
       </c>
-      <c r="AB10" s="17"/>
+      <c r="AB10" s="20"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -2846,43 +2845,43 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="16">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28">
         <v>1800</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28">
         <v>400</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16">
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28">
         <v>1200</v>
       </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="27">
+      <c r="R11" s="28"/>
+      <c r="S11" s="29">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29">
+      <c r="T11" s="30"/>
+      <c r="U11" s="25">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="V11" s="30"/>
-      <c r="AA11" s="16">
+      <c r="V11" s="26"/>
+      <c r="AA11" s="28">
         <v>210</v>
       </c>
-      <c r="AB11" s="16"/>
+      <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2891,43 +2890,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="17">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="20">
         <v>2400</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20">
         <v>1500</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17">
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20">
         <v>1500</v>
       </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="31">
+      <c r="R12" s="20"/>
+      <c r="S12" s="21">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="24">
+      <c r="T12" s="22"/>
+      <c r="U12" s="23">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V12" s="25"/>
-      <c r="AA12" s="17">
+      <c r="V12" s="24"/>
+      <c r="AA12" s="20">
         <v>210</v>
       </c>
-      <c r="AB12" s="17"/>
+      <c r="AB12" s="20"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2936,43 +2935,43 @@
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="16">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28">
         <v>1600</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16">
+      <c r="N13" s="28"/>
+      <c r="O13" s="28">
         <v>300</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28">
         <v>1000</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16">
+      <c r="R13" s="28"/>
+      <c r="S13" s="28">
         <f>(Q13*0.1)+AA13</f>
         <v>310</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="29">
+      <c r="T13" s="28"/>
+      <c r="U13" s="25">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="AA13" s="16">
+      <c r="V13" s="26"/>
+      <c r="AA13" s="28">
         <v>210</v>
       </c>
-      <c r="AB13" s="16"/>
+      <c r="AB13" s="28"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -2981,43 +2980,43 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="17">
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="20">
         <v>1600</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17">
+      <c r="N14" s="20"/>
+      <c r="O14" s="20">
         <v>300</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20">
         <v>750</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="31">
+      <c r="R14" s="20"/>
+      <c r="S14" s="21">
         <f>(Q14*0.1)+AA14</f>
         <v>285</v>
       </c>
-      <c r="T14" s="32"/>
-      <c r="U14" s="24">
+      <c r="T14" s="22"/>
+      <c r="U14" s="23">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="V14" s="25"/>
-      <c r="AA14" s="17">
+      <c r="V14" s="24"/>
+      <c r="AA14" s="20">
         <v>210</v>
       </c>
-      <c r="AB14" s="17"/>
+      <c r="AB14" s="20"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -3026,43 +3025,43 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="16">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28">
         <v>1800</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16">
+      <c r="N15" s="28"/>
+      <c r="O15" s="28">
         <v>500</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16">
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28">
         <v>1500</v>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="27">
+      <c r="R15" s="28"/>
+      <c r="S15" s="29">
         <f>(Q15*0.1)+AA15</f>
         <v>360</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="29">
+      <c r="T15" s="30"/>
+      <c r="U15" s="25">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V15" s="30"/>
-      <c r="AA15" s="16">
+      <c r="V15" s="26"/>
+      <c r="AA15" s="28">
         <v>210</v>
       </c>
-      <c r="AB15" s="16"/>
+      <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -3071,43 +3070,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="17">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="20">
         <v>2200</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17">
+      <c r="N16" s="20"/>
+      <c r="O16" s="20">
         <v>400</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17">
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20">
         <v>1500</v>
       </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="31">
+      <c r="R16" s="20"/>
+      <c r="S16" s="21">
         <f>(Q16*0.1)+AA16</f>
         <v>360</v>
       </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="24">
+      <c r="T16" s="22"/>
+      <c r="U16" s="23">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V16" s="25"/>
-      <c r="AA16" s="17">
+      <c r="V16" s="24"/>
+      <c r="AA16" s="20">
         <v>210</v>
       </c>
-      <c r="AB16" s="17"/>
+      <c r="AB16" s="20"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="11">
@@ -3116,53 +3115,53 @@
       <c r="C17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="38">
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39">
         <v>1500</v>
       </c>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38">
+      <c r="N17" s="39"/>
+      <c r="O17" s="39">
         <v>600</v>
       </c>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38">
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39">
         <v>1400</v>
       </c>
-      <c r="R17" s="38"/>
-      <c r="S17" s="39">
+      <c r="R17" s="39"/>
+      <c r="S17" s="40">
         <f>(Q17*0.1)+BC16</f>
         <v>140</v>
       </c>
-      <c r="T17" s="40"/>
-      <c r="U17" s="41">
+      <c r="T17" s="41"/>
+      <c r="U17" s="42">
         <f>Q17-S17</f>
         <v>1260</v>
       </c>
-      <c r="V17" s="42"/>
-      <c r="AA17" s="16">
+      <c r="V17" s="43"/>
+      <c r="AA17" s="28">
         <v>210</v>
       </c>
-      <c r="AB17" s="16"/>
+      <c r="AB17" s="28"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q18" s="43" t="s">
+      <c r="Q18" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -3170,29 +3169,68 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q2:V2"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="D11:L11"/>
     <mergeCell ref="M11:N11"/>
@@ -3217,68 +3255,29 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="B1:V1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U12:V12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3308,8 +3307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E3320D-AD6A-49DE-BA1F-8DE09716D6B2}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A6" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13:K13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -3318,45 +3317,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1"/>
       <c r="C2"/>
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
@@ -3365,41 +3364,41 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="74" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="74" t="s">
+      <c r="M3" s="52"/>
+      <c r="N3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="18" t="s">
+      <c r="O3" s="52"/>
+      <c r="P3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="74" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="18" t="s">
+      <c r="S3" s="53"/>
+      <c r="T3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="74" t="s">
+      <c r="U3" s="32"/>
+      <c r="V3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="77"/>
+      <c r="W3" s="53"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="6">
@@ -3408,44 +3407,44 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="31">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="21">
         <v>700</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="31">
+      <c r="M4" s="22"/>
+      <c r="N4" s="21">
         <f>(L4*0.1)</f>
         <v>70</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="17">
+      <c r="O4" s="22"/>
+      <c r="P4" s="20">
         <f>VLOOKUP(C4,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="48">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="54">
         <f>L4-N4-P4</f>
         <v>420</v>
       </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="17" t="s">
+      <c r="S4" s="55"/>
+      <c r="T4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="48">
+      <c r="U4" s="20"/>
+      <c r="V4" s="54">
         <v>220</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="55"/>
     </row>
     <row r="5" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="7">
@@ -3454,44 +3453,44 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
-      <c r="G5" s="68"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="68"/>
-      <c r="J5" s="68"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="27">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="29">
         <v>500</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="27">
+      <c r="M5" s="30"/>
+      <c r="N5" s="29">
         <f t="shared" ref="N5:N16" si="0">(L5*0.1)</f>
         <v>50</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="27">
+      <c r="O5" s="30"/>
+      <c r="P5" s="29">
         <f>VLOOKUP(C5,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="70">
+      <c r="Q5" s="30"/>
+      <c r="R5" s="48">
         <f t="shared" ref="R5:R16" si="1">L5-N5-P5</f>
         <v>240</v>
       </c>
-      <c r="S5" s="71"/>
-      <c r="T5" s="16" t="s">
+      <c r="S5" s="49"/>
+      <c r="T5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="70">
+      <c r="U5" s="28"/>
+      <c r="V5" s="48">
         <v>220</v>
       </c>
-      <c r="W5" s="71"/>
+      <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="6">
@@ -3500,40 +3499,40 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="31">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="21">
         <v>500</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="31">
+      <c r="M6" s="22"/>
+      <c r="N6" s="21">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="31">
+      <c r="O6" s="22"/>
+      <c r="P6" s="21">
         <f>VLOOKUP(C6,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="48">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="54">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="S6" s="49"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="49"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="7">
@@ -3542,40 +3541,40 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="27">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="29">
         <v>500</v>
       </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="27">
+      <c r="M7" s="30"/>
+      <c r="N7" s="29">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="27">
+      <c r="O7" s="30"/>
+      <c r="P7" s="29">
         <f>VLOOKUP(C7,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="70">
+      <c r="Q7" s="30"/>
+      <c r="R7" s="48">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="S7" s="71"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="71"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="49"/>
     </row>
     <row r="8" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="6">
@@ -3584,40 +3583,40 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="31">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="21">
         <v>1000</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="31">
+      <c r="M8" s="22"/>
+      <c r="N8" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="31">
+      <c r="O8" s="22"/>
+      <c r="P8" s="21">
         <f>VLOOKUP(C8,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="48">
+      <c r="Q8" s="22"/>
+      <c r="R8" s="54">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="S8" s="49"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="49"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="55"/>
     </row>
     <row r="9" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="7">
@@ -3626,40 +3625,40 @@
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="68"/>
-      <c r="H9" s="68"/>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="27">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="29">
         <v>800</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="27">
+      <c r="M9" s="30"/>
+      <c r="N9" s="29">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="27">
+      <c r="O9" s="30"/>
+      <c r="P9" s="29">
         <f>VLOOKUP(C9,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="70">
+      <c r="Q9" s="30"/>
+      <c r="R9" s="48">
         <f t="shared" si="1"/>
         <v>510</v>
       </c>
-      <c r="S9" s="71"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="70"/>
-      <c r="W9" s="71"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="49"/>
     </row>
     <row r="10" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="6">
@@ -3668,40 +3667,40 @@
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="31">
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="21">
         <v>800</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="31">
+      <c r="M10" s="22"/>
+      <c r="N10" s="21">
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="31">
+      <c r="O10" s="22"/>
+      <c r="P10" s="21">
         <f>VLOOKUP(C10,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="48">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="54">
         <f t="shared" si="1"/>
         <v>510</v>
       </c>
-      <c r="S10" s="49"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="49"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="55"/>
     </row>
     <row r="11" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="7">
@@ -3710,40 +3709,40 @@
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="67" t="s">
+      <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="68"/>
-      <c r="H11" s="68"/>
-      <c r="I11" s="68"/>
-      <c r="J11" s="68"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="27">
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="29">
         <v>1200</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="27">
+      <c r="M11" s="30"/>
+      <c r="N11" s="29">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="27">
+      <c r="O11" s="30"/>
+      <c r="P11" s="29">
         <f>VLOOKUP(C11,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="70">
+      <c r="Q11" s="30"/>
+      <c r="R11" s="48">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="S11" s="71"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="70"/>
-      <c r="W11" s="71"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="49"/>
     </row>
     <row r="12" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="6">
@@ -3752,40 +3751,40 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="31">
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="21">
         <v>1500</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="31">
+      <c r="M12" s="22"/>
+      <c r="N12" s="21">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="31">
+      <c r="O12" s="22"/>
+      <c r="P12" s="21">
         <f>VLOOKUP(C12,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="48">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="54">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S12" s="49"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="49"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="55"/>
     </row>
     <row r="13" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="7">
@@ -3794,40 +3793,40 @@
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="67" t="s">
+      <c r="C13" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="69"/>
-      <c r="L13" s="27">
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="29">
         <v>1000</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="27">
+      <c r="M13" s="30"/>
+      <c r="N13" s="29">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="27">
+      <c r="O13" s="30"/>
+      <c r="P13" s="29">
         <f>VLOOKUP(C13,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="70">
+      <c r="Q13" s="30"/>
+      <c r="R13" s="48">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="S13" s="71"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="70"/>
-      <c r="W13" s="71"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="49"/>
     </row>
     <row r="14" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="6">
@@ -3836,40 +3835,40 @@
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="31">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="21">
         <v>750</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="31">
+      <c r="M14" s="22"/>
+      <c r="N14" s="21">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="31">
+      <c r="O14" s="22"/>
+      <c r="P14" s="21">
         <f>VLOOKUP(C14,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="48">
+      <c r="Q14" s="22"/>
+      <c r="R14" s="54">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="S14" s="49"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="49"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="55"/>
     </row>
     <row r="15" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="7">
@@ -3878,40 +3877,40 @@
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="67" t="s">
+      <c r="C15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="68"/>
-      <c r="H15" s="68"/>
-      <c r="I15" s="68"/>
-      <c r="J15" s="68"/>
-      <c r="K15" s="69"/>
-      <c r="L15" s="27">
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="29">
         <v>1500</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="27">
+      <c r="M15" s="30"/>
+      <c r="N15" s="29">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="27">
+      <c r="O15" s="30"/>
+      <c r="P15" s="29">
         <f>VLOOKUP(C15,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="70">
+      <c r="Q15" s="30"/>
+      <c r="R15" s="48">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S15" s="71"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="70"/>
-      <c r="W15" s="71"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="49"/>
     </row>
     <row r="16" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="6">
@@ -3920,40 +3919,40 @@
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="31">
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="21">
         <v>1500</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="31">
+      <c r="M16" s="22"/>
+      <c r="N16" s="21">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O16" s="32"/>
-      <c r="P16" s="31">
+      <c r="O16" s="22"/>
+      <c r="P16" s="21">
         <f>VLOOKUP(C16,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="48">
+      <c r="Q16" s="22"/>
+      <c r="R16" s="54">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S16" s="49"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="49"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="55"/>
     </row>
     <row r="17" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="11">
@@ -3962,115 +3961,212 @@
       <c r="B17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="39">
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="40">
         <v>1500</v>
       </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="39">
+      <c r="M17" s="41"/>
+      <c r="N17" s="40">
         <f>(L17*0.1)</f>
         <v>150</v>
       </c>
-      <c r="O17" s="40"/>
-      <c r="P17" s="39">
+      <c r="O17" s="41"/>
+      <c r="P17" s="40">
         <f>VLOOKUP(C17,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="53">
+      <c r="Q17" s="41"/>
+      <c r="R17" s="61">
         <f>L17-N17-P17</f>
         <v>1140</v>
       </c>
-      <c r="S17" s="54"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="54"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="62"/>
     </row>
     <row r="18" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="64">
+      <c r="D18" s="75"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="75"/>
+      <c r="K18" s="76"/>
+      <c r="L18" s="77">
         <f>SUMIF($B$4:$B$17,"〇",L4:M17)</f>
         <v>1000</v>
       </c>
-      <c r="M18" s="59"/>
-      <c r="N18" s="64">
+      <c r="M18" s="72"/>
+      <c r="N18" s="77">
         <f>SUMIF($B$4:$B$17,"〇",N4:O17)</f>
         <v>100</v>
       </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="64">
+      <c r="O18" s="72"/>
+      <c r="P18" s="77">
         <f>SUMIF($B$4:$B$17,"〇",P4:Q17)</f>
         <v>210</v>
       </c>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="65">
+      <c r="Q18" s="72"/>
+      <c r="R18" s="63">
         <f>SUMIF($B$4:$B$17,"〇",R4:S17)</f>
         <v>690</v>
       </c>
-      <c r="S18" s="66"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="65">
+      <c r="S18" s="64"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="63">
         <f>SUM(V4:W17)</f>
         <v>440</v>
       </c>
-      <c r="W18" s="66"/>
+      <c r="W18" s="64"/>
     </row>
     <row r="19" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="60" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="60"/>
-      <c r="V19" s="72">
+      <c r="U19" s="73"/>
+      <c r="V19" s="59">
         <f>R18-V18</f>
         <v>250</v>
       </c>
-      <c r="W19" s="73"/>
+      <c r="W19" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C8:K8"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="P2:W2"/>
     <mergeCell ref="T5:U5"/>
@@ -4095,103 +4191,6 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="C4:K4"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A4:S4">
@@ -4271,10 +4270,13 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
-  <webPublishItems count="3">
+  <webPublishItems count="6">
     <webPublishItem id="15378" divId="TMP_15378" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht"/>
     <webPublishItem id="19650" divId="TMP_19650" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="4869" divId="TMP_4869" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
+    <webPublishItem id="29954" divId="TMP_29954" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
+    <webPublishItem id="14610" divId="TMP_14610" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
+    <webPublishItem id="27745" divId="TMP_27745" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/TMP.xlsx
+++ b/TMP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8396B2F7-0633-4D85-A99A-EB3C75C2601D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D066F2-1AC9-481E-877F-285FD5DC0D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{72068E89-B82B-4D22-8EEA-457FC02A677F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{72068E89-B82B-4D22-8EEA-457FC02A677F}"/>
   </bookViews>
   <sheets>
     <sheet name="TMP" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
   <si>
     <t>在庫一覧表</t>
     <rPh sb="0" eb="2">
@@ -366,6 +366,16 @@
   </si>
   <si>
     <t>振込手数料</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>在庫一覧</t>
+    <rPh sb="0" eb="2">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -924,6 +934,57 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -936,106 +997,49 @@
     <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1051,24 +1055,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1080,6 +1066,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1089,25 +1081,43 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1557,29 +1567,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="V2" s="10" t="s">
@@ -1593,41 +1603,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="35" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="32" t="s">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32" t="s">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="AA3" s="32" t="s">
+      <c r="V3" s="23"/>
+      <c r="AA3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="32"/>
+      <c r="AB3" s="18"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -1636,43 +1646,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="20">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="17">
         <v>2800</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17">
         <v>700</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20">
-        <v>0</v>
-      </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17">
+        <v>0</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="31">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="23">
+      <c r="T4" s="32"/>
+      <c r="U4" s="24">
         <f>Q4-S4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="24"/>
-      <c r="AA4" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="20"/>
+      <c r="V4" s="25"/>
+      <c r="AA4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -1681,43 +1691,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="16">
         <v>2800</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16">
         <v>400</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28">
-        <v>0</v>
-      </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16"/>
+      <c r="S5" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="25">
+      <c r="T5" s="28"/>
+      <c r="U5" s="29">
         <f t="shared" ref="U5:U18" si="1">Q5-S5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="26"/>
-      <c r="AA5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="28"/>
+      <c r="V5" s="30"/>
+      <c r="AA5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -1726,43 +1736,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="20">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="17">
         <v>3200</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17">
         <v>700</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20">
-        <v>0</v>
-      </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17">
+        <v>0</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="23">
+      <c r="T6" s="32"/>
+      <c r="U6" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="24"/>
-      <c r="AA6" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="20"/>
+      <c r="V6" s="25"/>
+      <c r="AA6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="17"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -1771,43 +1781,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="16">
         <v>3200</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
         <v>450</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28">
-        <v>0</v>
-      </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16"/>
+      <c r="S7" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="25">
+      <c r="T7" s="28"/>
+      <c r="U7" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V7" s="26"/>
-      <c r="AA7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="28"/>
+      <c r="V7" s="30"/>
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -1816,43 +1826,43 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="20">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="17">
         <v>2800</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
         <v>1000</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20">
-        <v>0</v>
-      </c>
-      <c r="R8" s="20"/>
-      <c r="S8" s="21">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17">
+        <v>0</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="23">
+      <c r="T8" s="32"/>
+      <c r="U8" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V8" s="24"/>
-      <c r="AA8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="20"/>
+      <c r="V8" s="25"/>
+      <c r="AA8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -1861,43 +1871,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="16">
         <v>1600</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
         <v>400</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28">
-        <v>0</v>
-      </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="29">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16"/>
+      <c r="S9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="25">
+      <c r="T9" s="28"/>
+      <c r="U9" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="AA9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="28"/>
+      <c r="V9" s="30"/>
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -1906,43 +1916,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="20">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="17">
         <v>1600</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20">
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
         <v>400</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20">
-        <v>0</v>
-      </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="21">
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17">
+        <v>0</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="23">
+      <c r="T10" s="32"/>
+      <c r="U10" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V10" s="24"/>
-      <c r="AA10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="20"/>
+      <c r="V10" s="25"/>
+      <c r="AA10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="17"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -1951,43 +1961,43 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="16">
         <v>1800</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
         <v>400</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28">
-        <v>0</v>
-      </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="29">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16">
+        <v>0</v>
+      </c>
+      <c r="R11" s="16"/>
+      <c r="S11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="25">
+      <c r="T11" s="28"/>
+      <c r="U11" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="26"/>
-      <c r="AA11" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="28"/>
+      <c r="V11" s="30"/>
+      <c r="AA11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="16"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -1996,43 +2006,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="20">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="17">
         <v>2400</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20">
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
         <v>1500</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20">
-        <v>0</v>
-      </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21">
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17">
+        <v>0</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23">
+      <c r="T12" s="32"/>
+      <c r="U12" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="24"/>
-      <c r="AA12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="20"/>
+      <c r="V12" s="25"/>
+      <c r="AA12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="17"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2041,44 +2051,44 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="16">
         <v>1600</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16">
         <v>300</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16">
         <v>1000</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28">
+      <c r="R13" s="16"/>
+      <c r="S13" s="16">
         <f t="shared" ref="S13:S18" si="2">(Q13*0.1)+AA13</f>
         <v>100</v>
       </c>
-      <c r="T13" s="28"/>
-      <c r="U13" s="25">
+      <c r="T13" s="16"/>
+      <c r="U13" s="29">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="V13" s="26"/>
-      <c r="AA13" s="28">
+      <c r="V13" s="30"/>
+      <c r="AA13" s="16">
         <f>(Y13*0.1)+AH13</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="28"/>
+      <c r="AB13" s="16"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -2087,43 +2097,43 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="20">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="17">
         <v>1600</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20">
+      <c r="N14" s="17"/>
+      <c r="O14" s="17">
         <v>400</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20">
-        <v>0</v>
-      </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="21">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17">
+        <v>0</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="23">
+      <c r="T14" s="32"/>
+      <c r="U14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="24"/>
-      <c r="AA14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="20"/>
+      <c r="V14" s="25"/>
+      <c r="AA14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="17"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -2132,43 +2142,43 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="16">
         <v>1800</v>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28">
+      <c r="N15" s="16"/>
+      <c r="O15" s="16">
         <v>500</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28">
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16">
         <v>1500</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="29">
+      <c r="R15" s="16"/>
+      <c r="S15" s="27">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="25">
+      <c r="T15" s="28"/>
+      <c r="U15" s="29">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V15" s="26"/>
-      <c r="AA15" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="28"/>
+      <c r="V15" s="30"/>
+      <c r="AA15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="16"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -2177,43 +2187,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="20">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="17">
         <v>2200</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20">
+      <c r="N16" s="17"/>
+      <c r="O16" s="17">
         <v>400</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20">
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17">
         <v>1500</v>
       </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="21">
+      <c r="R16" s="17"/>
+      <c r="S16" s="31">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23">
+      <c r="T16" s="32"/>
+      <c r="U16" s="24">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V16" s="24"/>
-      <c r="AA16" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="20"/>
+      <c r="V16" s="25"/>
+      <c r="AA16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="17"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="7">
@@ -2222,43 +2232,43 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="16">
         <v>1500</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28">
+      <c r="N17" s="16"/>
+      <c r="O17" s="16">
         <v>600</v>
       </c>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28">
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16">
         <v>1500</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="29">
+      <c r="R17" s="16"/>
+      <c r="S17" s="27">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T17" s="30"/>
-      <c r="U17" s="25">
+      <c r="T17" s="28"/>
+      <c r="U17" s="29">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V17" s="26"/>
-      <c r="AA17" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="28"/>
+      <c r="V17" s="30"/>
+      <c r="AA17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="16"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="8">
@@ -2267,17 +2277,17 @@
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="15" t="s">
         <v>23</v>
       </c>
@@ -2290,16 +2300,16 @@
         <v>0</v>
       </c>
       <c r="R18" s="15"/>
-      <c r="S18" s="16">
+      <c r="S18" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="17"/>
-      <c r="U18" s="18">
+      <c r="T18" s="34"/>
+      <c r="U18" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V18" s="19"/>
+      <c r="V18" s="36"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -2307,17 +2317,84 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AA5:AB5"/>
@@ -2342,84 +2419,17 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2436,8 +2446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAD2D72-6E8F-4BF8-9A06-F59BD2D2646F}">
   <dimension ref="B1:AB18"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:W18"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -2446,39 +2456,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
+      <c r="B1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
     </row>
     <row r="3" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="4" t="s">
@@ -2487,41 +2497,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="35" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="32" t="s">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32" t="s">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="AA3" s="32" t="s">
+      <c r="V3" s="23"/>
+      <c r="AA3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="32"/>
+      <c r="AB3" s="18"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -2530,43 +2540,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="20">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="17">
         <v>2800</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17">
         <v>600</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17">
         <v>700</v>
       </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21">
+      <c r="R4" s="17"/>
+      <c r="S4" s="31">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>280</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="23">
+      <c r="T4" s="32"/>
+      <c r="U4" s="24">
         <f>Q4-S4</f>
         <v>420</v>
       </c>
-      <c r="V4" s="24"/>
-      <c r="AA4" s="20">
+      <c r="V4" s="25"/>
+      <c r="AA4" s="17">
         <v>210</v>
       </c>
-      <c r="AB4" s="20"/>
+      <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -2575,43 +2585,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="16">
         <v>2800</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16">
         <v>400</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16">
         <v>500</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29">
+      <c r="R5" s="16"/>
+      <c r="S5" s="27">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="25">
+      <c r="T5" s="28"/>
+      <c r="U5" s="29">
         <f t="shared" ref="U5:U16" si="1">Q5-S5</f>
         <v>240</v>
       </c>
-      <c r="V5" s="26"/>
-      <c r="AA5" s="28">
+      <c r="V5" s="30"/>
+      <c r="AA5" s="16">
         <v>210</v>
       </c>
-      <c r="AB5" s="28"/>
+      <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -2620,43 +2630,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="20">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="17">
         <v>3200</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17">
         <v>700</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17">
         <v>500</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21">
+      <c r="R6" s="17"/>
+      <c r="S6" s="31">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="23">
+      <c r="T6" s="32"/>
+      <c r="U6" s="24">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V6" s="24"/>
-      <c r="AA6" s="20">
+      <c r="V6" s="25"/>
+      <c r="AA6" s="17">
         <v>210</v>
       </c>
-      <c r="AB6" s="20"/>
+      <c r="AB6" s="17"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -2665,43 +2675,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="16">
         <v>3200</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
         <v>450</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16">
         <v>500</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29">
+      <c r="R7" s="16"/>
+      <c r="S7" s="27">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="25">
+      <c r="T7" s="28"/>
+      <c r="U7" s="29">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V7" s="26"/>
-      <c r="AA7" s="28">
+      <c r="V7" s="30"/>
+      <c r="AA7" s="16">
         <v>210</v>
       </c>
-      <c r="AB7" s="28"/>
+      <c r="AB7" s="16"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -2710,43 +2720,43 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="20">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="17">
         <v>2800</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
         <v>900</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17">
         <v>1000</v>
       </c>
-      <c r="R8" s="20"/>
-      <c r="S8" s="21">
+      <c r="R8" s="17"/>
+      <c r="S8" s="31">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="23">
+      <c r="T8" s="32"/>
+      <c r="U8" s="24">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V8" s="24"/>
-      <c r="AA8" s="20">
+      <c r="V8" s="25"/>
+      <c r="AA8" s="17">
         <v>210</v>
       </c>
-      <c r="AB8" s="20"/>
+      <c r="AB8" s="17"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -2755,43 +2765,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="16">
         <v>1600</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
         <v>400</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16">
         <v>900</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="29">
+      <c r="R9" s="16"/>
+      <c r="S9" s="27">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="25">
+      <c r="T9" s="28"/>
+      <c r="U9" s="29">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="AA9" s="28">
+      <c r="V9" s="30"/>
+      <c r="AA9" s="16">
         <v>210</v>
       </c>
-      <c r="AB9" s="28"/>
+      <c r="AB9" s="16"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -2800,43 +2810,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="20">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="17">
         <v>1600</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20">
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
         <v>400</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20">
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17">
         <v>900</v>
       </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="21">
+      <c r="R10" s="17"/>
+      <c r="S10" s="31">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="23">
+      <c r="T10" s="32"/>
+      <c r="U10" s="24">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V10" s="24"/>
-      <c r="AA10" s="20">
+      <c r="V10" s="25"/>
+      <c r="AA10" s="17">
         <v>210</v>
       </c>
-      <c r="AB10" s="20"/>
+      <c r="AB10" s="17"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -2845,43 +2855,43 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="16">
         <v>1800</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
         <v>400</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16">
         <v>1200</v>
       </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="29">
+      <c r="R11" s="16"/>
+      <c r="S11" s="27">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="25">
+      <c r="T11" s="28"/>
+      <c r="U11" s="29">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="V11" s="26"/>
-      <c r="AA11" s="28">
+      <c r="V11" s="30"/>
+      <c r="AA11" s="16">
         <v>210</v>
       </c>
-      <c r="AB11" s="28"/>
+      <c r="AB11" s="16"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2890,43 +2900,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="20">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="17">
         <v>2400</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20">
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
         <v>1500</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20">
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17">
         <v>1500</v>
       </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21">
+      <c r="R12" s="17"/>
+      <c r="S12" s="31">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23">
+      <c r="T12" s="32"/>
+      <c r="U12" s="24">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V12" s="24"/>
-      <c r="AA12" s="20">
+      <c r="V12" s="25"/>
+      <c r="AA12" s="17">
         <v>210</v>
       </c>
-      <c r="AB12" s="20"/>
+      <c r="AB12" s="17"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2935,43 +2945,43 @@
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="16">
         <v>1600</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16">
         <v>300</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16">
         <v>1000</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28">
+      <c r="R13" s="16"/>
+      <c r="S13" s="16">
         <f>(Q13*0.1)+AA13</f>
         <v>310</v>
       </c>
-      <c r="T13" s="28"/>
-      <c r="U13" s="25">
+      <c r="T13" s="16"/>
+      <c r="U13" s="29">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V13" s="26"/>
-      <c r="AA13" s="28">
+      <c r="V13" s="30"/>
+      <c r="AA13" s="16">
         <v>210</v>
       </c>
-      <c r="AB13" s="28"/>
+      <c r="AB13" s="16"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -2980,88 +2990,88 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="20">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="17">
         <v>1600</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20">
+      <c r="N14" s="17"/>
+      <c r="O14" s="17">
         <v>300</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17">
         <v>750</v>
       </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="21">
+      <c r="R14" s="17"/>
+      <c r="S14" s="31">
         <f>(Q14*0.1)+AA14</f>
         <v>285</v>
       </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="23">
+      <c r="T14" s="32"/>
+      <c r="U14" s="24">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="V14" s="24"/>
-      <c r="AA14" s="20">
+      <c r="V14" s="25"/>
+      <c r="AA14" s="17">
         <v>210</v>
       </c>
-      <c r="AB14" s="20"/>
+      <c r="AB14" s="17"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
         <v>12</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="16">
         <v>1800</v>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28">
+      <c r="N15" s="16"/>
+      <c r="O15" s="16">
         <v>500</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28">
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16">
         <v>1500</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="29">
+      <c r="R15" s="16"/>
+      <c r="S15" s="27">
         <f>(Q15*0.1)+AA15</f>
         <v>360</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="25">
+      <c r="T15" s="28"/>
+      <c r="U15" s="29">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V15" s="26"/>
-      <c r="AA15" s="28">
+      <c r="V15" s="30"/>
+      <c r="AA15" s="16">
         <v>210</v>
       </c>
-      <c r="AB15" s="28"/>
+      <c r="AB15" s="16"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -3070,98 +3080,98 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="20">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="17">
         <v>2200</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20">
+      <c r="N16" s="17"/>
+      <c r="O16" s="17">
         <v>400</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20">
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17">
         <v>1500</v>
       </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="21">
+      <c r="R16" s="17"/>
+      <c r="S16" s="31">
         <f>(Q16*0.1)+AA16</f>
         <v>360</v>
       </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23">
+      <c r="T16" s="32"/>
+      <c r="U16" s="24">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V16" s="24"/>
-      <c r="AA16" s="20">
+      <c r="V16" s="25"/>
+      <c r="AA16" s="17">
         <v>210</v>
       </c>
-      <c r="AB16" s="20"/>
+      <c r="AB16" s="17"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="11">
         <v>14</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39">
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38">
         <v>1500</v>
       </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39">
+      <c r="N17" s="38"/>
+      <c r="O17" s="38">
         <v>600</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39">
-        <v>1400</v>
-      </c>
-      <c r="R17" s="39"/>
-      <c r="S17" s="40">
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38">
+        <v>1380</v>
+      </c>
+      <c r="R17" s="38"/>
+      <c r="S17" s="39">
         <f>(Q17*0.1)+BC16</f>
-        <v>140</v>
-      </c>
-      <c r="T17" s="41"/>
-      <c r="U17" s="42">
+        <v>138</v>
+      </c>
+      <c r="T17" s="40"/>
+      <c r="U17" s="41">
         <f>Q17-S17</f>
-        <v>1260</v>
-      </c>
-      <c r="V17" s="43"/>
-      <c r="AA17" s="28">
+        <v>1242</v>
+      </c>
+      <c r="V17" s="42"/>
+      <c r="AA17" s="16">
         <v>210</v>
       </c>
-      <c r="AB17" s="28"/>
+      <c r="AB17" s="16"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q18" s="44" t="s">
+      <c r="Q18" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -3169,6 +3179,91 @@
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
     <mergeCell ref="D17:L17"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="O17:P17"/>
@@ -3193,91 +3288,6 @@
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="U15:V15"/>
     <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="B1:V1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U12:V12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3290,7 +3300,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
-  <webPublishItems count="8">
+  <webPublishItems count="10">
     <webPublishItem id="12398" divId="TMP_12398" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="20957" divId="TMP_20957" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="11684" divId="TMP_11684" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
@@ -3299,6 +3309,8 @@
     <webPublishItem id="28082" divId="TMP_28082" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="12447" divId="TMP_12447" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMPtest.htm"/>
     <webPublishItem id="13317" divId="TMP_13317" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
+    <webPublishItem id="131" divId="TMP_131" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html" autoRepublish="1"/>
+    <webPublishItem id="7355" divId="TMP_7355" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
   </webPublishItems>
 </worksheet>
 </file>
@@ -3307,8 +3319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E3320D-AD6A-49DE-BA1F-8DE09716D6B2}">
   <dimension ref="A1:W19"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="93" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:W19"/>
+    <sheetView view="pageBreakPreview" zoomScale="73" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -3317,45 +3329,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1"/>
       <c r="C2"/>
-      <c r="P2" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
@@ -3364,41 +3374,41 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="50" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="76"/>
+      <c r="N3" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="32" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="50" t="s">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="32" t="s">
+      <c r="S3" s="77"/>
+      <c r="T3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="32"/>
-      <c r="V3" s="50" t="s">
+      <c r="U3" s="18"/>
+      <c r="V3" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="53"/>
+      <c r="W3" s="77"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="6">
@@ -3407,44 +3417,45 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="21">
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="31">
+        <f>VLOOKUP(C4,edit!$D$4:$T$17,14,FALSE)</f>
         <v>700</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="21">
+      <c r="M4" s="32"/>
+      <c r="N4" s="31">
         <f>(L4*0.1)</f>
         <v>70</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="20">
+      <c r="O4" s="32"/>
+      <c r="P4" s="17">
         <f>VLOOKUP(C4,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="54">
+      <c r="Q4" s="17"/>
+      <c r="R4" s="52">
         <f>L4-N4-P4</f>
         <v>420</v>
       </c>
-      <c r="S4" s="55"/>
-      <c r="T4" s="20" t="s">
+      <c r="S4" s="53"/>
+      <c r="T4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="20"/>
-      <c r="V4" s="54">
-        <v>220</v>
-      </c>
-      <c r="W4" s="55"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="52">
+        <v>550</v>
+      </c>
+      <c r="W4" s="53"/>
     </row>
     <row r="5" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="7">
@@ -3453,44 +3464,45 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="29">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="27">
+        <f>VLOOKUP(C5,edit!$D$4:$T$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="29">
+      <c r="M5" s="28"/>
+      <c r="N5" s="27">
         <f t="shared" ref="N5:N16" si="0">(L5*0.1)</f>
         <v>50</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="29">
+      <c r="O5" s="28"/>
+      <c r="P5" s="27">
         <f>VLOOKUP(C5,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="48">
+      <c r="Q5" s="28"/>
+      <c r="R5" s="65">
         <f t="shared" ref="R5:R16" si="1">L5-N5-P5</f>
         <v>240</v>
       </c>
-      <c r="S5" s="49"/>
-      <c r="T5" s="28" t="s">
+      <c r="S5" s="66"/>
+      <c r="T5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="28"/>
-      <c r="V5" s="48">
+      <c r="U5" s="16"/>
+      <c r="V5" s="65">
         <v>220</v>
       </c>
-      <c r="W5" s="49"/>
+      <c r="W5" s="66"/>
     </row>
     <row r="6" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="6">
@@ -3499,40 +3511,41 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="21">
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="31">
+        <f>VLOOKUP(C6,edit!$D$4:$T$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="21">
+      <c r="M6" s="32"/>
+      <c r="N6" s="31">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="21">
+      <c r="O6" s="32"/>
+      <c r="P6" s="31">
         <f>VLOOKUP(C6,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="54">
+      <c r="Q6" s="32"/>
+      <c r="R6" s="52">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="S6" s="55"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="55"/>
+      <c r="S6" s="53"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="53"/>
     </row>
     <row r="7" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="7">
@@ -3541,40 +3554,41 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="69" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="29">
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="27">
+        <f>VLOOKUP(C7,edit!$D$4:$T$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="29">
+      <c r="M7" s="28"/>
+      <c r="N7" s="27">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="29">
+      <c r="O7" s="28"/>
+      <c r="P7" s="27">
         <f>VLOOKUP(C7,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="48">
+      <c r="Q7" s="28"/>
+      <c r="R7" s="65">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="S7" s="49"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49"/>
+      <c r="S7" s="66"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="65"/>
+      <c r="W7" s="66"/>
     </row>
     <row r="8" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="6">
@@ -3583,40 +3597,41 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="21">
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="56"/>
+      <c r="L8" s="31">
+        <f>VLOOKUP(C8,edit!$D$4:$T$17,14,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="21">
+      <c r="M8" s="32"/>
+      <c r="N8" s="31">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="21">
+      <c r="O8" s="32"/>
+      <c r="P8" s="31">
         <f>VLOOKUP(C8,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="54">
+      <c r="Q8" s="32"/>
+      <c r="R8" s="52">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="S8" s="55"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="55"/>
+      <c r="S8" s="53"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="53"/>
     </row>
     <row r="9" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="7">
@@ -3625,40 +3640,41 @@
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="29">
-        <v>800</v>
-      </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="29">
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="27">
+        <f>VLOOKUP(C9,edit!$D$4:$T$17,14,FALSE)</f>
+        <v>900</v>
+      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="27">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="29">
+        <v>90</v>
+      </c>
+      <c r="O9" s="28"/>
+      <c r="P9" s="27">
         <f>VLOOKUP(C9,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="48">
+      <c r="Q9" s="28"/>
+      <c r="R9" s="65">
         <f t="shared" si="1"/>
-        <v>510</v>
-      </c>
-      <c r="S9" s="49"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="49"/>
+        <v>600</v>
+      </c>
+      <c r="S9" s="66"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="65"/>
+      <c r="W9" s="66"/>
     </row>
     <row r="10" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="6">
@@ -3667,40 +3683,41 @@
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="21">
-        <v>800</v>
-      </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="21">
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="31">
+        <f>VLOOKUP(C10,edit!$D$4:$T$17,14,FALSE)</f>
+        <v>900</v>
+      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="31">
         <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="21">
+        <v>90</v>
+      </c>
+      <c r="O10" s="32"/>
+      <c r="P10" s="31">
         <f>VLOOKUP(C10,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="54">
+      <c r="Q10" s="32"/>
+      <c r="R10" s="52">
         <f t="shared" si="1"/>
-        <v>510</v>
-      </c>
-      <c r="S10" s="55"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="55"/>
+        <v>600</v>
+      </c>
+      <c r="S10" s="53"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="53"/>
     </row>
     <row r="11" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="7">
@@ -3709,40 +3726,41 @@
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="29">
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="27">
+        <f>VLOOKUP(C11,edit!$D$4:$T$17,14,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="29">
+      <c r="M11" s="28"/>
+      <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="29">
+      <c r="O11" s="28"/>
+      <c r="P11" s="27">
         <f>VLOOKUP(C11,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="48">
+      <c r="Q11" s="28"/>
+      <c r="R11" s="65">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="S11" s="49"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="49"/>
+      <c r="S11" s="66"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="66"/>
     </row>
     <row r="12" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="6">
@@ -3751,40 +3769,41 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="21">
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="31">
+        <f>VLOOKUP(C12,edit!$D$4:$T$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="21">
+      <c r="M12" s="32"/>
+      <c r="N12" s="31">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="21">
+      <c r="O12" s="32"/>
+      <c r="P12" s="31">
         <f>VLOOKUP(C12,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="54">
+      <c r="Q12" s="32"/>
+      <c r="R12" s="52">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S12" s="55"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="55"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="53"/>
     </row>
     <row r="13" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="7">
@@ -3793,40 +3812,41 @@
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="29">
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="27">
+        <f>VLOOKUP(C13,edit!$D$4:$T$17,14,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="29">
+      <c r="M13" s="28"/>
+      <c r="N13" s="27">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="29">
+      <c r="O13" s="28"/>
+      <c r="P13" s="27">
         <f>VLOOKUP(C13,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="48">
+      <c r="Q13" s="28"/>
+      <c r="R13" s="65">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="S13" s="49"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="49"/>
+      <c r="S13" s="66"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="66"/>
     </row>
     <row r="14" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="6">
@@ -3835,82 +3855,84 @@
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="21">
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="56"/>
+      <c r="L14" s="31">
+        <f>VLOOKUP(C14,edit!$D$4:$T$17,14,FALSE)</f>
         <v>750</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="21">
+      <c r="M14" s="32"/>
+      <c r="N14" s="31">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="21">
+      <c r="O14" s="32"/>
+      <c r="P14" s="31">
         <f>VLOOKUP(C14,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="54">
+      <c r="Q14" s="32"/>
+      <c r="R14" s="52">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="S14" s="55"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="55"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="52"/>
+      <c r="W14" s="53"/>
     </row>
     <row r="15" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="7">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="29">
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="71"/>
+      <c r="L15" s="27">
+        <f>VLOOKUP(C15,edit!$D$4:$T$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="29">
+      <c r="M15" s="28"/>
+      <c r="N15" s="27">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="29">
+      <c r="O15" s="28"/>
+      <c r="P15" s="27">
         <f>VLOOKUP(C15,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="48">
+      <c r="Q15" s="28"/>
+      <c r="R15" s="65">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="49"/>
+      <c r="S15" s="66"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="66"/>
     </row>
     <row r="16" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="6">
@@ -3919,157 +3941,256 @@
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="21">
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="31">
+        <f>VLOOKUP(C16,edit!$D$4:$T$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="21">
+      <c r="M16" s="32"/>
+      <c r="N16" s="31">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="21">
+      <c r="O16" s="32"/>
+      <c r="P16" s="31">
         <f>VLOOKUP(C16,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="54">
+      <c r="Q16" s="32"/>
+      <c r="R16" s="52">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S16" s="55"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="55"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="52"/>
+      <c r="W16" s="53"/>
     </row>
     <row r="17" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="11">
         <v>14</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="40">
-        <v>1500</v>
-      </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="40">
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="63"/>
+      <c r="G17" s="63"/>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="39">
+        <f>VLOOKUP(C17,edit!$D$4:$T$17,14,FALSE)</f>
+        <v>1380</v>
+      </c>
+      <c r="M17" s="40"/>
+      <c r="N17" s="39">
         <f>(L17*0.1)</f>
-        <v>150</v>
-      </c>
-      <c r="O17" s="41"/>
-      <c r="P17" s="40">
+        <v>138</v>
+      </c>
+      <c r="O17" s="40"/>
+      <c r="P17" s="39">
         <f>VLOOKUP(C17,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="61">
+      <c r="Q17" s="40"/>
+      <c r="R17" s="60">
         <f>L17-N17-P17</f>
-        <v>1140</v>
-      </c>
-      <c r="S17" s="62"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="62"/>
+        <v>1032</v>
+      </c>
+      <c r="S17" s="61"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="61"/>
     </row>
     <row r="18" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="74" t="s">
+      <c r="C18" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="76"/>
-      <c r="L18" s="77">
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="51">
         <f>SUMIF($B$4:$B$17,"〇",L4:M17)</f>
-        <v>1000</v>
-      </c>
-      <c r="M18" s="72"/>
-      <c r="N18" s="77">
+        <v>3880</v>
+      </c>
+      <c r="M18" s="46"/>
+      <c r="N18" s="51">
         <f>SUMIF($B$4:$B$17,"〇",N4:O17)</f>
-        <v>100</v>
-      </c>
-      <c r="O18" s="72"/>
-      <c r="P18" s="77">
+        <v>388</v>
+      </c>
+      <c r="O18" s="46"/>
+      <c r="P18" s="51">
         <f>SUMIF($B$4:$B$17,"〇",P4:Q17)</f>
-        <v>210</v>
-      </c>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="63">
+        <v>630</v>
+      </c>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="72">
         <f>SUMIF($B$4:$B$17,"〇",R4:S17)</f>
-        <v>690</v>
-      </c>
-      <c r="S18" s="64"/>
-      <c r="T18" s="71"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="63">
+        <v>2862</v>
+      </c>
+      <c r="S18" s="73"/>
+      <c r="T18" s="45"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="72">
         <f>SUM(V4:W17)</f>
-        <v>440</v>
-      </c>
-      <c r="W18" s="64"/>
+        <v>770</v>
+      </c>
+      <c r="W18" s="73"/>
     </row>
     <row r="19" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="73" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="60"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="73"/>
-      <c r="V19" s="59">
+      <c r="U19" s="47"/>
+      <c r="V19" s="67">
         <f>R18-V18</f>
-        <v>250</v>
-      </c>
-      <c r="W19" s="60"/>
+        <v>2092</v>
+      </c>
+      <c r="W19" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L16:M16"/>
     <mergeCell ref="T18:U18"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="C18:K18"/>
@@ -4094,172 +4215,75 @@
     <mergeCell ref="C14:K14"/>
     <mergeCell ref="V17:W17"/>
     <mergeCell ref="C17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="P2:W2"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="C4:K4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A4:S4">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>$B$4="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:S5">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$B$5="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:S6">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$B$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:S7">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$B$7="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:S8">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$B$8="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:S9">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$B$9="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:S10">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$B$10="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:S11">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$B$11="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:S12">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$B$12="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S13">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$B$13="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:S14">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$B$14="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:S15">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$B$15="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:S16">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B$16="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:S17">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$B$17="-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4270,13 +4294,14 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
-  <webPublishItems count="6">
+  <webPublishItems count="7">
     <webPublishItem id="15378" divId="TMP_15378" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht"/>
     <webPublishItem id="19650" divId="TMP_19650" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="4869" divId="TMP_4869" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="29954" divId="TMP_29954" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="14610" divId="TMP_14610" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="27745" divId="TMP_27745" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
+    <webPublishItem id="26932" divId="TMP_26932" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/TMP.xlsx
+++ b/TMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3D066F2-1AC9-481E-877F-285FD5DC0D2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF498C2-B33B-4C03-8613-501AD874FAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{72068E89-B82B-4D22-8EEA-457FC02A677F}"/>
   </bookViews>
@@ -934,10 +934,52 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -949,53 +991,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1018,8 +1021,65 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1042,21 +1102,6 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1066,12 +1111,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1079,45 +1118,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1567,29 +1567,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="B1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="V2" s="10" t="s">
@@ -1603,41 +1603,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="22" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="23"/>
-      <c r="AA3" s="18" t="s">
+      <c r="V3" s="36"/>
+      <c r="AA3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="18"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -1646,43 +1646,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="17">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="20">
         <v>2800</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17">
+      <c r="N4" s="20"/>
+      <c r="O4" s="20">
         <v>700</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17">
-        <v>0</v>
-      </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="31">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20">
+        <v>0</v>
+      </c>
+      <c r="R4" s="20"/>
+      <c r="S4" s="21">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="24">
+      <c r="T4" s="22"/>
+      <c r="U4" s="23">
         <f>Q4-S4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="25"/>
-      <c r="AA4" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="17"/>
+      <c r="V4" s="24"/>
+      <c r="AA4" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="20"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -1691,43 +1691,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="16">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28">
         <v>2800</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28">
         <v>400</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16">
-        <v>0</v>
-      </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="27">
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28">
+        <v>0</v>
+      </c>
+      <c r="R5" s="28"/>
+      <c r="S5" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29">
+      <c r="T5" s="30"/>
+      <c r="U5" s="25">
         <f t="shared" ref="U5:U18" si="1">Q5-S5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="30"/>
-      <c r="AA5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="16"/>
+      <c r="V5" s="26"/>
+      <c r="AA5" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="28"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -1736,43 +1736,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="17">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="20">
         <v>3200</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20">
         <v>700</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17">
-        <v>0</v>
-      </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="31">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20">
+        <v>0</v>
+      </c>
+      <c r="R6" s="20"/>
+      <c r="S6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="24">
+      <c r="T6" s="22"/>
+      <c r="U6" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="25"/>
-      <c r="AA6" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="17"/>
+      <c r="V6" s="24"/>
+      <c r="AA6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="20"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -1781,43 +1781,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="16">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28">
         <v>3200</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
+      <c r="N7" s="28"/>
+      <c r="O7" s="28">
         <v>450</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="27">
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28">
+        <v>0</v>
+      </c>
+      <c r="R7" s="28"/>
+      <c r="S7" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="28"/>
-      <c r="U7" s="29">
+      <c r="T7" s="30"/>
+      <c r="U7" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V7" s="30"/>
-      <c r="AA7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16"/>
+      <c r="V7" s="26"/>
+      <c r="AA7" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -1826,43 +1826,43 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="17">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="20">
         <v>2800</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20">
         <v>1000</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17">
-        <v>0</v>
-      </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="31">
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20">
+        <v>0</v>
+      </c>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="24">
+      <c r="T8" s="22"/>
+      <c r="U8" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V8" s="25"/>
-      <c r="AA8" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="17"/>
+      <c r="V8" s="24"/>
+      <c r="AA8" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -1871,43 +1871,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="16">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28">
         <v>1600</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16">
+      <c r="N9" s="28"/>
+      <c r="O9" s="28">
         <v>400</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="27">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28">
+        <v>0</v>
+      </c>
+      <c r="R9" s="28"/>
+      <c r="S9" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T9" s="28"/>
-      <c r="U9" s="29">
+      <c r="T9" s="30"/>
+      <c r="U9" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="30"/>
-      <c r="AA9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16"/>
+      <c r="V9" s="26"/>
+      <c r="AA9" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -1916,43 +1916,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="17">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="20">
         <v>1600</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17">
+      <c r="N10" s="20"/>
+      <c r="O10" s="20">
         <v>400</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17">
-        <v>0</v>
-      </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="31">
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20">
+        <v>0</v>
+      </c>
+      <c r="R10" s="20"/>
+      <c r="S10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="32"/>
-      <c r="U10" s="24">
+      <c r="T10" s="22"/>
+      <c r="U10" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V10" s="25"/>
-      <c r="AA10" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="17"/>
+      <c r="V10" s="24"/>
+      <c r="AA10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="20"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -1961,43 +1961,43 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="16">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28">
         <v>1800</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28">
         <v>400</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16">
-        <v>0</v>
-      </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="27">
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28">
+        <v>0</v>
+      </c>
+      <c r="R11" s="28"/>
+      <c r="S11" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29">
+      <c r="T11" s="30"/>
+      <c r="U11" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="30"/>
-      <c r="AA11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="16"/>
+      <c r="V11" s="26"/>
+      <c r="AA11" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2006,43 +2006,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="17">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="20">
         <v>2400</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20">
         <v>1500</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17">
-        <v>0</v>
-      </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="31">
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20">
+        <v>0</v>
+      </c>
+      <c r="R12" s="20"/>
+      <c r="S12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="24">
+      <c r="T12" s="22"/>
+      <c r="U12" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="25"/>
-      <c r="AA12" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="17"/>
+      <c r="V12" s="24"/>
+      <c r="AA12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="20"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2051,44 +2051,44 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="16">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28">
         <v>1600</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16">
+      <c r="N13" s="28"/>
+      <c r="O13" s="28">
         <v>300</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28">
         <v>1000</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16">
+      <c r="R13" s="28"/>
+      <c r="S13" s="28">
         <f t="shared" ref="S13:S18" si="2">(Q13*0.1)+AA13</f>
         <v>100</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="29">
+      <c r="T13" s="28"/>
+      <c r="U13" s="25">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="AA13" s="16">
+      <c r="V13" s="26"/>
+      <c r="AA13" s="28">
         <f>(Y13*0.1)+AH13</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="16"/>
+      <c r="AB13" s="28"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -2097,43 +2097,43 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="17">
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="20">
         <v>1600</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17">
+      <c r="N14" s="20"/>
+      <c r="O14" s="20">
         <v>400</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17">
-        <v>0</v>
-      </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="31">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20">
+        <v>0</v>
+      </c>
+      <c r="R14" s="20"/>
+      <c r="S14" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="32"/>
-      <c r="U14" s="24">
+      <c r="T14" s="22"/>
+      <c r="U14" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="25"/>
-      <c r="AA14" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="17"/>
+      <c r="V14" s="24"/>
+      <c r="AA14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="20"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -2142,43 +2142,43 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="16">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28">
         <v>1800</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16">
+      <c r="N15" s="28"/>
+      <c r="O15" s="28">
         <v>500</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16">
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28">
         <v>1500</v>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="27">
+      <c r="R15" s="28"/>
+      <c r="S15" s="29">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="29">
+      <c r="T15" s="30"/>
+      <c r="U15" s="25">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V15" s="30"/>
-      <c r="AA15" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="16"/>
+      <c r="V15" s="26"/>
+      <c r="AA15" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -2187,43 +2187,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="17">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="20">
         <v>2200</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17">
+      <c r="N16" s="20"/>
+      <c r="O16" s="20">
         <v>400</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17">
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20">
         <v>1500</v>
       </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="31">
+      <c r="R16" s="20"/>
+      <c r="S16" s="21">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="24">
+      <c r="T16" s="22"/>
+      <c r="U16" s="23">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V16" s="25"/>
-      <c r="AA16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="17"/>
+      <c r="V16" s="24"/>
+      <c r="AA16" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="20"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="7">
@@ -2232,43 +2232,43 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="16">
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28">
         <v>1500</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16">
+      <c r="N17" s="28"/>
+      <c r="O17" s="28">
         <v>600</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16">
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28">
         <v>1500</v>
       </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="27">
+      <c r="R17" s="28"/>
+      <c r="S17" s="29">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T17" s="28"/>
-      <c r="U17" s="29">
+      <c r="T17" s="30"/>
+      <c r="U17" s="25">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V17" s="30"/>
-      <c r="AA17" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="16"/>
+      <c r="V17" s="26"/>
+      <c r="AA17" s="28">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="28"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="8">
@@ -2277,17 +2277,17 @@
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
       <c r="M18" s="15" t="s">
         <v>23</v>
       </c>
@@ -2300,16 +2300,16 @@
         <v>0</v>
       </c>
       <c r="R18" s="15"/>
-      <c r="S18" s="33">
+      <c r="S18" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="34"/>
-      <c r="U18" s="35">
+      <c r="T18" s="17"/>
+      <c r="U18" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V18" s="36"/>
+      <c r="V18" s="19"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -2317,84 +2317,17 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AA5:AB5"/>
@@ -2419,17 +2352,84 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2447,7 +2447,7 @@
   <dimension ref="B1:AB18"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:L5"/>
+      <selection sqref="A1:W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -2456,39 +2456,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="4" t="s">
@@ -2497,41 +2497,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="22" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="23"/>
-      <c r="AA3" s="18" t="s">
+      <c r="V3" s="36"/>
+      <c r="AA3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="18"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -2540,43 +2540,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="17">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="20">
         <v>2800</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17">
+      <c r="N4" s="20"/>
+      <c r="O4" s="20">
         <v>600</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20">
         <v>700</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="31">
+      <c r="R4" s="20"/>
+      <c r="S4" s="21">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>280</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="24">
+      <c r="T4" s="22"/>
+      <c r="U4" s="23">
         <f>Q4-S4</f>
         <v>420</v>
       </c>
-      <c r="V4" s="25"/>
-      <c r="AA4" s="17">
+      <c r="V4" s="24"/>
+      <c r="AA4" s="20">
         <v>210</v>
       </c>
-      <c r="AB4" s="17"/>
+      <c r="AB4" s="20"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -2585,43 +2585,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="16">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28">
         <v>2800</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28">
         <v>400</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16">
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28">
         <v>500</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="27">
+      <c r="R5" s="28"/>
+      <c r="S5" s="29">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29">
+      <c r="T5" s="30"/>
+      <c r="U5" s="25">
         <f t="shared" ref="U5:U16" si="1">Q5-S5</f>
         <v>240</v>
       </c>
-      <c r="V5" s="30"/>
-      <c r="AA5" s="16">
+      <c r="V5" s="26"/>
+      <c r="AA5" s="28">
         <v>210</v>
       </c>
-      <c r="AB5" s="16"/>
+      <c r="AB5" s="28"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -2630,43 +2630,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="17">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="20">
         <v>3200</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20">
         <v>700</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20">
         <v>500</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="31">
+      <c r="R6" s="20"/>
+      <c r="S6" s="21">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="24">
+      <c r="T6" s="22"/>
+      <c r="U6" s="23">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V6" s="25"/>
-      <c r="AA6" s="17">
+      <c r="V6" s="24"/>
+      <c r="AA6" s="20">
         <v>210</v>
       </c>
-      <c r="AB6" s="17"/>
+      <c r="AB6" s="20"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -2675,43 +2675,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="16">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28">
         <v>3200</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
+      <c r="N7" s="28"/>
+      <c r="O7" s="28">
         <v>450</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16">
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28">
         <v>500</v>
       </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="27">
+      <c r="R7" s="28"/>
+      <c r="S7" s="29">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T7" s="28"/>
-      <c r="U7" s="29">
+      <c r="T7" s="30"/>
+      <c r="U7" s="25">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V7" s="30"/>
-      <c r="AA7" s="16">
+      <c r="V7" s="26"/>
+      <c r="AA7" s="28">
         <v>210</v>
       </c>
-      <c r="AB7" s="16"/>
+      <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -2720,43 +2720,43 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="17">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="20">
         <v>2800</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20">
         <v>900</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17">
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20">
         <v>1000</v>
       </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="31">
+      <c r="R8" s="20"/>
+      <c r="S8" s="21">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="24">
+      <c r="T8" s="22"/>
+      <c r="U8" s="23">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V8" s="25"/>
-      <c r="AA8" s="17">
+      <c r="V8" s="24"/>
+      <c r="AA8" s="20">
         <v>210</v>
       </c>
-      <c r="AB8" s="17"/>
+      <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -2765,43 +2765,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="16">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28">
         <v>1600</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16">
+      <c r="N9" s="28"/>
+      <c r="O9" s="28">
         <v>400</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28">
         <v>900</v>
       </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="27">
+      <c r="R9" s="28"/>
+      <c r="S9" s="29">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T9" s="28"/>
-      <c r="U9" s="29">
+      <c r="T9" s="30"/>
+      <c r="U9" s="25">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V9" s="30"/>
-      <c r="AA9" s="16">
+      <c r="V9" s="26"/>
+      <c r="AA9" s="28">
         <v>210</v>
       </c>
-      <c r="AB9" s="16"/>
+      <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -2810,43 +2810,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="17">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="20">
         <v>1600</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17">
+      <c r="N10" s="20"/>
+      <c r="O10" s="20">
         <v>400</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17">
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20">
         <v>900</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="31">
+      <c r="R10" s="20"/>
+      <c r="S10" s="21">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T10" s="32"/>
-      <c r="U10" s="24">
+      <c r="T10" s="22"/>
+      <c r="U10" s="23">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V10" s="25"/>
-      <c r="AA10" s="17">
+      <c r="V10" s="24"/>
+      <c r="AA10" s="20">
         <v>210</v>
       </c>
-      <c r="AB10" s="17"/>
+      <c r="AB10" s="20"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -2855,43 +2855,43 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="16">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28">
         <v>1800</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28">
         <v>400</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16">
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28">
         <v>1200</v>
       </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="27">
+      <c r="R11" s="28"/>
+      <c r="S11" s="29">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29">
+      <c r="T11" s="30"/>
+      <c r="U11" s="25">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="V11" s="30"/>
-      <c r="AA11" s="16">
+      <c r="V11" s="26"/>
+      <c r="AA11" s="28">
         <v>210</v>
       </c>
-      <c r="AB11" s="16"/>
+      <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2900,43 +2900,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="17">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="20">
         <v>2400</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20">
         <v>1500</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17">
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20">
         <v>1500</v>
       </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="31">
+      <c r="R12" s="20"/>
+      <c r="S12" s="21">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="24">
+      <c r="T12" s="22"/>
+      <c r="U12" s="23">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V12" s="25"/>
-      <c r="AA12" s="17">
+      <c r="V12" s="24"/>
+      <c r="AA12" s="20">
         <v>210</v>
       </c>
-      <c r="AB12" s="17"/>
+      <c r="AB12" s="20"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2945,43 +2945,43 @@
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="16">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28">
         <v>1600</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16">
+      <c r="N13" s="28"/>
+      <c r="O13" s="28">
         <v>300</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28">
         <v>1000</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16">
+      <c r="R13" s="28"/>
+      <c r="S13" s="28">
         <f>(Q13*0.1)+AA13</f>
         <v>310</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="29">
+      <c r="T13" s="28"/>
+      <c r="U13" s="25">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="AA13" s="16">
+      <c r="V13" s="26"/>
+      <c r="AA13" s="28">
         <v>210</v>
       </c>
-      <c r="AB13" s="16"/>
+      <c r="AB13" s="28"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -2990,43 +2990,43 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="17">
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="20">
         <v>1600</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17">
+      <c r="N14" s="20"/>
+      <c r="O14" s="20">
         <v>300</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20">
         <v>750</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="31">
+      <c r="R14" s="20"/>
+      <c r="S14" s="21">
         <f>(Q14*0.1)+AA14</f>
         <v>285</v>
       </c>
-      <c r="T14" s="32"/>
-      <c r="U14" s="24">
+      <c r="T14" s="22"/>
+      <c r="U14" s="23">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="V14" s="25"/>
-      <c r="AA14" s="17">
+      <c r="V14" s="24"/>
+      <c r="AA14" s="20">
         <v>210</v>
       </c>
-      <c r="AB14" s="17"/>
+      <c r="AB14" s="20"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -3035,43 +3035,43 @@
       <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="16">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28">
         <v>1800</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16">
+      <c r="N15" s="28"/>
+      <c r="O15" s="28">
         <v>500</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16">
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28">
         <v>1500</v>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="27">
+      <c r="R15" s="28"/>
+      <c r="S15" s="29">
         <f>(Q15*0.1)+AA15</f>
         <v>360</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="29">
+      <c r="T15" s="30"/>
+      <c r="U15" s="25">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V15" s="30"/>
-      <c r="AA15" s="16">
+      <c r="V15" s="26"/>
+      <c r="AA15" s="28">
         <v>210</v>
       </c>
-      <c r="AB15" s="16"/>
+      <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -3080,43 +3080,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="17">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="20">
         <v>2200</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17">
+      <c r="N16" s="20"/>
+      <c r="O16" s="20">
         <v>400</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17">
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20">
         <v>1500</v>
       </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="31">
+      <c r="R16" s="20"/>
+      <c r="S16" s="21">
         <f>(Q16*0.1)+AA16</f>
         <v>360</v>
       </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="24">
+      <c r="T16" s="22"/>
+      <c r="U16" s="23">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V16" s="25"/>
-      <c r="AA16" s="17">
+      <c r="V16" s="24"/>
+      <c r="AA16" s="20">
         <v>210</v>
       </c>
-      <c r="AB16" s="17"/>
+      <c r="AB16" s="20"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="11">
@@ -3125,53 +3125,53 @@
       <c r="C17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="38">
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39">
         <v>1500</v>
       </c>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38">
+      <c r="N17" s="39"/>
+      <c r="O17" s="39">
         <v>600</v>
       </c>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38">
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39">
         <v>1380</v>
       </c>
-      <c r="R17" s="38"/>
-      <c r="S17" s="39">
+      <c r="R17" s="39"/>
+      <c r="S17" s="40">
         <f>(Q17*0.1)+BC16</f>
         <v>138</v>
       </c>
-      <c r="T17" s="40"/>
-      <c r="U17" s="41">
+      <c r="T17" s="41"/>
+      <c r="U17" s="42">
         <f>Q17-S17</f>
         <v>1242</v>
       </c>
-      <c r="V17" s="42"/>
-      <c r="AA17" s="16">
+      <c r="V17" s="43"/>
+      <c r="AA17" s="28">
         <v>210</v>
       </c>
-      <c r="AB17" s="16"/>
+      <c r="AB17" s="28"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q18" s="43" t="s">
+      <c r="Q18" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
+      <c r="R18" s="44"/>
+      <c r="S18" s="44"/>
+      <c r="T18" s="44"/>
+      <c r="U18" s="44"/>
+      <c r="V18" s="44"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -3179,29 +3179,68 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q2:V2"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="D11:L11"/>
     <mergeCell ref="M11:N11"/>
@@ -3226,68 +3265,29 @@
     <mergeCell ref="Q9:R9"/>
     <mergeCell ref="S9:T9"/>
     <mergeCell ref="D8:L8"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="B1:V1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q2:V2"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="U12:V12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3300,7 +3300,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
-  <webPublishItems count="10">
+  <webPublishItems count="14">
     <webPublishItem id="12398" divId="TMP_12398" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="20957" divId="TMP_20957" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="11684" divId="TMP_11684" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
@@ -3311,6 +3311,10 @@
     <webPublishItem id="13317" divId="TMP_13317" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="131" divId="TMP_131" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html" autoRepublish="1"/>
     <webPublishItem id="7355" divId="TMP_7355" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
+    <webPublishItem id="11775" divId="TMP_11775" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html" autoRepublish="1"/>
+    <webPublishItem id="17284" divId="TMP_17284" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht" autoRepublish="1"/>
+    <webPublishItem id="22922" divId="TMP_22922" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht" autoRepublish="1"/>
+    <webPublishItem id="29802" divId="TMP_29802" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
   </webPublishItems>
 </worksheet>
 </file>
@@ -3329,43 +3333,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1"/>
       <c r="C2"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
@@ -3374,41 +3378,41 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="74" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="74" t="s">
+      <c r="M3" s="52"/>
+      <c r="N3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="18" t="s">
+      <c r="O3" s="52"/>
+      <c r="P3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="74" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="18" t="s">
+      <c r="S3" s="53"/>
+      <c r="T3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="74" t="s">
+      <c r="U3" s="32"/>
+      <c r="V3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="77"/>
+      <c r="W3" s="53"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="6">
@@ -3417,45 +3421,45 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="31">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="21">
         <f>VLOOKUP(C4,edit!$D$4:$T$17,14,FALSE)</f>
         <v>700</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="31">
+      <c r="M4" s="22"/>
+      <c r="N4" s="21">
         <f>(L4*0.1)</f>
         <v>70</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="17">
+      <c r="O4" s="22"/>
+      <c r="P4" s="20">
         <f>VLOOKUP(C4,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="52">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="54">
         <f>L4-N4-P4</f>
         <v>420</v>
       </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="17" t="s">
+      <c r="S4" s="55"/>
+      <c r="T4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="52">
+      <c r="U4" s="20"/>
+      <c r="V4" s="54">
         <v>550</v>
       </c>
-      <c r="W4" s="53"/>
+      <c r="W4" s="55"/>
     </row>
     <row r="5" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="7">
@@ -3464,45 +3468,45 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="70"/>
-      <c r="E5" s="70"/>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="71"/>
-      <c r="L5" s="27">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="29">
         <f>VLOOKUP(C5,edit!$D$4:$T$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="27">
+      <c r="M5" s="30"/>
+      <c r="N5" s="29">
         <f t="shared" ref="N5:N16" si="0">(L5*0.1)</f>
         <v>50</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="27">
+      <c r="O5" s="30"/>
+      <c r="P5" s="29">
         <f>VLOOKUP(C5,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="65">
+      <c r="Q5" s="30"/>
+      <c r="R5" s="48">
         <f t="shared" ref="R5:R16" si="1">L5-N5-P5</f>
         <v>240</v>
       </c>
-      <c r="S5" s="66"/>
-      <c r="T5" s="16" t="s">
+      <c r="S5" s="49"/>
+      <c r="T5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="65">
+      <c r="U5" s="28"/>
+      <c r="V5" s="48">
         <v>220</v>
       </c>
-      <c r="W5" s="66"/>
+      <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="6">
@@ -3511,41 +3515,41 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C6" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="31">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="21">
         <f>VLOOKUP(C6,edit!$D$4:$T$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="31">
+      <c r="M6" s="22"/>
+      <c r="N6" s="21">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="31">
+      <c r="O6" s="22"/>
+      <c r="P6" s="21">
         <f>VLOOKUP(C6,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="52">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="54">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="S6" s="53"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="53"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="7">
@@ -3554,41 +3558,41 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="70"/>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="27">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="29">
         <f>VLOOKUP(C7,edit!$D$4:$T$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="27">
+      <c r="M7" s="30"/>
+      <c r="N7" s="29">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="27">
+      <c r="O7" s="30"/>
+      <c r="P7" s="29">
         <f>VLOOKUP(C7,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="65">
+      <c r="Q7" s="30"/>
+      <c r="R7" s="48">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="S7" s="66"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="65"/>
-      <c r="W7" s="66"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="49"/>
     </row>
     <row r="8" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="6">
@@ -3597,41 +3601,41 @@
       <c r="B8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="56"/>
-      <c r="L8" s="31">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="21">
         <f>VLOOKUP(C8,edit!$D$4:$T$17,14,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="31">
+      <c r="M8" s="22"/>
+      <c r="N8" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="31">
+      <c r="O8" s="22"/>
+      <c r="P8" s="21">
         <f>VLOOKUP(C8,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="52">
+      <c r="Q8" s="22"/>
+      <c r="R8" s="54">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="S8" s="53"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="52"/>
-      <c r="W8" s="53"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="55"/>
     </row>
     <row r="9" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="7">
@@ -3640,41 +3644,41 @@
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="70"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="27">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="29">
         <f>VLOOKUP(C9,edit!$D$4:$T$17,14,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="27">
+      <c r="M9" s="30"/>
+      <c r="N9" s="29">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="27">
+      <c r="O9" s="30"/>
+      <c r="P9" s="29">
         <f>VLOOKUP(C9,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="65">
+      <c r="Q9" s="30"/>
+      <c r="R9" s="48">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="S9" s="66"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="65"/>
-      <c r="W9" s="66"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="49"/>
     </row>
     <row r="10" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="6">
@@ -3683,41 +3687,41 @@
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="31">
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="21">
         <f>VLOOKUP(C10,edit!$D$4:$T$17,14,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="31">
+      <c r="M10" s="22"/>
+      <c r="N10" s="21">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="31">
+      <c r="O10" s="22"/>
+      <c r="P10" s="21">
         <f>VLOOKUP(C10,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="52">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="54">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="S10" s="53"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="52"/>
-      <c r="W10" s="53"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="55"/>
     </row>
     <row r="11" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="7">
@@ -3726,41 +3730,41 @@
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="71"/>
-      <c r="L11" s="27">
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="29">
         <f>VLOOKUP(C11,edit!$D$4:$T$17,14,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="27">
+      <c r="M11" s="30"/>
+      <c r="N11" s="29">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="27">
+      <c r="O11" s="30"/>
+      <c r="P11" s="29">
         <f>VLOOKUP(C11,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="65">
+      <c r="Q11" s="30"/>
+      <c r="R11" s="48">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="S11" s="66"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="66"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="49"/>
     </row>
     <row r="12" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="6">
@@ -3769,41 +3773,41 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="31">
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="21">
         <f>VLOOKUP(C12,edit!$D$4:$T$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="31">
+      <c r="M12" s="22"/>
+      <c r="N12" s="21">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="31">
+      <c r="O12" s="22"/>
+      <c r="P12" s="21">
         <f>VLOOKUP(C12,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="52">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="54">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S12" s="53"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="52"/>
-      <c r="W12" s="53"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="55"/>
     </row>
     <row r="13" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="7">
@@ -3812,41 +3816,41 @@
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="C13" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="70"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="27">
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="29">
         <f>VLOOKUP(C13,edit!$D$4:$T$17,14,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="27">
+      <c r="M13" s="30"/>
+      <c r="N13" s="29">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="27">
+      <c r="O13" s="30"/>
+      <c r="P13" s="29">
         <f>VLOOKUP(C13,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="65">
+      <c r="Q13" s="30"/>
+      <c r="R13" s="48">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="S13" s="66"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="66"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="49"/>
     </row>
     <row r="14" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="6">
@@ -3855,41 +3859,41 @@
       <c r="B14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="54" t="s">
+      <c r="C14" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="56"/>
-      <c r="L14" s="31">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="21">
         <f>VLOOKUP(C14,edit!$D$4:$T$17,14,FALSE)</f>
         <v>750</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="31">
+      <c r="M14" s="22"/>
+      <c r="N14" s="21">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="31">
+      <c r="O14" s="22"/>
+      <c r="P14" s="21">
         <f>VLOOKUP(C14,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="52">
+      <c r="Q14" s="22"/>
+      <c r="R14" s="54">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="S14" s="53"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="52"/>
-      <c r="W14" s="53"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="55"/>
     </row>
     <row r="15" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="7">
@@ -3898,41 +3902,41 @@
       <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="69" t="s">
+      <c r="C15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="71"/>
-      <c r="L15" s="27">
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="29">
         <f>VLOOKUP(C15,edit!$D$4:$T$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="27">
+      <c r="M15" s="30"/>
+      <c r="N15" s="29">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="27">
+      <c r="O15" s="30"/>
+      <c r="P15" s="29">
         <f>VLOOKUP(C15,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="65">
+      <c r="Q15" s="30"/>
+      <c r="R15" s="48">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S15" s="66"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="66"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="49"/>
     </row>
     <row r="16" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="6">
@@ -3941,41 +3945,41 @@
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="C16" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="31">
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="21">
         <f>VLOOKUP(C16,edit!$D$4:$T$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="31">
+      <c r="M16" s="22"/>
+      <c r="N16" s="21">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O16" s="32"/>
-      <c r="P16" s="31">
+      <c r="O16" s="22"/>
+      <c r="P16" s="21">
         <f>VLOOKUP(C16,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="52">
+      <c r="Q16" s="22"/>
+      <c r="R16" s="54">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S16" s="53"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="52"/>
-      <c r="W16" s="53"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="55"/>
     </row>
     <row r="17" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="11">
@@ -3984,116 +3988,213 @@
       <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="62" t="s">
+      <c r="C17" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="39">
+      <c r="D17" s="76"/>
+      <c r="E17" s="76"/>
+      <c r="F17" s="76"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="76"/>
+      <c r="I17" s="76"/>
+      <c r="J17" s="76"/>
+      <c r="K17" s="77"/>
+      <c r="L17" s="40">
         <f>VLOOKUP(C17,edit!$D$4:$T$17,14,FALSE)</f>
         <v>1380</v>
       </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="39">
+      <c r="M17" s="41"/>
+      <c r="N17" s="40">
         <f>(L17*0.1)</f>
         <v>138</v>
       </c>
-      <c r="O17" s="40"/>
-      <c r="P17" s="39">
+      <c r="O17" s="41"/>
+      <c r="P17" s="40">
         <f>VLOOKUP(C17,edit!$D$4:$AB$17,24,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="60">
+      <c r="Q17" s="41"/>
+      <c r="R17" s="61">
         <f>L17-N17-P17</f>
         <v>1032</v>
       </c>
-      <c r="S17" s="61"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="60"/>
-      <c r="W17" s="61"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="62"/>
     </row>
     <row r="18" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="50"/>
-      <c r="L18" s="51">
+      <c r="D18" s="69"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="71">
         <f>SUMIF($B$4:$B$17,"〇",L4:M17)</f>
         <v>3880</v>
       </c>
-      <c r="M18" s="46"/>
-      <c r="N18" s="51">
+      <c r="M18" s="66"/>
+      <c r="N18" s="71">
         <f>SUMIF($B$4:$B$17,"〇",N4:O17)</f>
         <v>388</v>
       </c>
-      <c r="O18" s="46"/>
-      <c r="P18" s="51">
+      <c r="O18" s="66"/>
+      <c r="P18" s="71">
         <f>SUMIF($B$4:$B$17,"〇",P4:Q17)</f>
         <v>630</v>
       </c>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="72">
+      <c r="Q18" s="66"/>
+      <c r="R18" s="63">
         <f>SUMIF($B$4:$B$17,"〇",R4:S17)</f>
         <v>2862</v>
       </c>
-      <c r="S18" s="73"/>
-      <c r="T18" s="45"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="72">
+      <c r="S18" s="64"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="63">
         <f>SUM(V4:W17)</f>
         <v>770</v>
       </c>
-      <c r="W18" s="73"/>
+      <c r="W18" s="64"/>
     </row>
     <row r="19" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
-      <c r="H19" s="58"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="58"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="60"/>
-      <c r="S19" s="61"/>
-      <c r="T19" s="47" t="s">
+      <c r="C19" s="72"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="73"/>
+      <c r="K19" s="74"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="47"/>
-      <c r="V19" s="67">
+      <c r="U19" s="67"/>
+      <c r="V19" s="59">
         <f>R18-V18</f>
         <v>2092</v>
       </c>
-      <c r="W19" s="68"/>
+      <c r="W19" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="121">
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C8:K8"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="P2:W2"/>
     <mergeCell ref="T5:U5"/>
@@ -4118,172 +4219,75 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="L4:M4"/>
     <mergeCell ref="C4:K4"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="C17:K17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A4:S4">
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$B$4="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:S5">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$B$5="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:S6">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$B$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:S7">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$B$7="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:S8">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$B$8="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:S9">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$B$9="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:S10">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$B$10="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:S11">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$B$11="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:S12">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$B$12="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S13">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$B$13="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:S14">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$B$14="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:S15">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$B$15="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:S16">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$B$16="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:S17">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B$17="-"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/TMP.xlsx
+++ b/TMP.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF498C2-B33B-4C03-8613-501AD874FAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E657C06D-772F-419C-90A1-AEA36809DFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="1" xr2:uid="{72068E89-B82B-4D22-8EEA-457FC02A677F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{72068E89-B82B-4D22-8EEA-457FC02A677F}"/>
   </bookViews>
   <sheets>
     <sheet name="TMP" sheetId="2" r:id="rId1"/>
-    <sheet name="edit" sheetId="1" r:id="rId2"/>
-    <sheet name="calc" sheetId="3" r:id="rId3"/>
+    <sheet name="edit (tmp)" sheetId="4" r:id="rId2"/>
+    <sheet name="edit" sheetId="1" r:id="rId3"/>
+    <sheet name="calc" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">calc!$A$1:$W$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">edit!$A$1:$W$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">calc!$A$1:$W$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">edit!$A$1:$U$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'edit (tmp)'!$A$1:$W$18</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">TMP!$A$1:$W$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="41">
   <si>
     <t>在庫一覧表</t>
     <rPh sb="0" eb="2">
@@ -374,6 +376,16 @@
       <t>ザイコ</t>
     </rPh>
     <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>⇒ 在庫一覧へ</t>
+    <rPh sb="2" eb="4">
+      <t>ザイコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
       <t>イチラン</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -934,6 +946,57 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -946,128 +1009,53 @@
     <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1075,10 +1063,13 @@
     <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1099,25 +1090,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1567,29 +1579,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
+      <c r="B1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="V2" s="10" t="s">
@@ -1603,41 +1615,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="35" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="32" t="s">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32" t="s">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="AA3" s="32" t="s">
+      <c r="V3" s="23"/>
+      <c r="AA3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="32"/>
+      <c r="AB3" s="18"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -1646,43 +1658,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="20">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="17">
         <v>2800</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17">
         <v>700</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20">
-        <v>0</v>
-      </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17">
+        <v>0</v>
+      </c>
+      <c r="R4" s="17"/>
+      <c r="S4" s="31">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="23">
+      <c r="T4" s="32"/>
+      <c r="U4" s="24">
         <f>Q4-S4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="24"/>
-      <c r="AA4" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="20"/>
+      <c r="V4" s="25"/>
+      <c r="AA4" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -1691,43 +1703,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="16">
         <v>2800</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16">
         <v>400</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28">
-        <v>0</v>
-      </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16">
+        <v>0</v>
+      </c>
+      <c r="R5" s="16"/>
+      <c r="S5" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="25">
+      <c r="T5" s="28"/>
+      <c r="U5" s="29">
         <f t="shared" ref="U5:U18" si="1">Q5-S5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="26"/>
-      <c r="AA5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="28"/>
+      <c r="V5" s="30"/>
+      <c r="AA5" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -1736,43 +1748,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="20">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="17">
         <v>3200</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17">
         <v>700</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20">
-        <v>0</v>
-      </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17">
+        <v>0</v>
+      </c>
+      <c r="R6" s="17"/>
+      <c r="S6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="23">
+      <c r="T6" s="32"/>
+      <c r="U6" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="24"/>
-      <c r="AA6" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="20"/>
+      <c r="V6" s="25"/>
+      <c r="AA6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="17"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -1781,43 +1793,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="16">
         <v>3200</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
         <v>450</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28">
-        <v>0</v>
-      </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16">
+        <v>0</v>
+      </c>
+      <c r="R7" s="16"/>
+      <c r="S7" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="25">
+      <c r="T7" s="28"/>
+      <c r="U7" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V7" s="26"/>
-      <c r="AA7" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="28"/>
+      <c r="V7" s="30"/>
+      <c r="AA7" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="16"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -1826,43 +1838,43 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="20">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="17">
         <v>2800</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
         <v>1000</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20">
-        <v>0</v>
-      </c>
-      <c r="R8" s="20"/>
-      <c r="S8" s="21">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17">
+        <v>0</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="23">
+      <c r="T8" s="32"/>
+      <c r="U8" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V8" s="24"/>
-      <c r="AA8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="20"/>
+      <c r="V8" s="25"/>
+      <c r="AA8" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="17"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -1871,43 +1883,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="16">
         <v>1600</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
         <v>400</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28">
-        <v>0</v>
-      </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="29">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16">
+        <v>0</v>
+      </c>
+      <c r="R9" s="16"/>
+      <c r="S9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="25">
+      <c r="T9" s="28"/>
+      <c r="U9" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="AA9" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="28"/>
+      <c r="V9" s="30"/>
+      <c r="AA9" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="16"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -1916,43 +1928,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="20">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="17">
         <v>1600</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20">
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
         <v>400</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20">
-        <v>0</v>
-      </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="21">
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17">
+        <v>0</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="23">
+      <c r="T10" s="32"/>
+      <c r="U10" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V10" s="24"/>
-      <c r="AA10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="20"/>
+      <c r="V10" s="25"/>
+      <c r="AA10" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="17"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -1961,43 +1973,43 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="16">
         <v>1800</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
         <v>400</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28">
-        <v>0</v>
-      </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="29">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16">
+        <v>0</v>
+      </c>
+      <c r="R11" s="16"/>
+      <c r="S11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="25">
+      <c r="T11" s="28"/>
+      <c r="U11" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="26"/>
-      <c r="AA11" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="28"/>
+      <c r="V11" s="30"/>
+      <c r="AA11" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="16"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2006,43 +2018,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="20">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="17">
         <v>2400</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20">
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
         <v>1500</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20">
-        <v>0</v>
-      </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21">
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17">
+        <v>0</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23">
+      <c r="T12" s="32"/>
+      <c r="U12" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="24"/>
-      <c r="AA12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="20"/>
+      <c r="V12" s="25"/>
+      <c r="AA12" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="17"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2051,44 +2063,44 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="16">
         <v>1600</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16">
         <v>300</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16">
         <v>1000</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28">
+      <c r="R13" s="16"/>
+      <c r="S13" s="16">
         <f t="shared" ref="S13:S18" si="2">(Q13*0.1)+AA13</f>
         <v>100</v>
       </c>
-      <c r="T13" s="28"/>
-      <c r="U13" s="25">
+      <c r="T13" s="16"/>
+      <c r="U13" s="29">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="V13" s="26"/>
-      <c r="AA13" s="28">
+      <c r="V13" s="30"/>
+      <c r="AA13" s="16">
         <f>(Y13*0.1)+AH13</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="28"/>
+      <c r="AB13" s="16"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -2097,43 +2109,43 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="20">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="17">
         <v>1600</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20">
+      <c r="N14" s="17"/>
+      <c r="O14" s="17">
         <v>400</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20">
-        <v>0</v>
-      </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="21">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17">
+        <v>0</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="23">
+      <c r="T14" s="32"/>
+      <c r="U14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="24"/>
-      <c r="AA14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="20"/>
+      <c r="V14" s="25"/>
+      <c r="AA14" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="17"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -2142,43 +2154,43 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="16">
         <v>1800</v>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28">
+      <c r="N15" s="16"/>
+      <c r="O15" s="16">
         <v>500</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28">
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16">
         <v>1500</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="29">
+      <c r="R15" s="16"/>
+      <c r="S15" s="27">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="25">
+      <c r="T15" s="28"/>
+      <c r="U15" s="29">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V15" s="26"/>
-      <c r="AA15" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="28"/>
+      <c r="V15" s="30"/>
+      <c r="AA15" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="16"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -2187,43 +2199,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="20">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="17">
         <v>2200</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20">
+      <c r="N16" s="17"/>
+      <c r="O16" s="17">
         <v>400</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20">
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17">
         <v>1500</v>
       </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="21">
+      <c r="R16" s="17"/>
+      <c r="S16" s="31">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23">
+      <c r="T16" s="32"/>
+      <c r="U16" s="24">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V16" s="24"/>
-      <c r="AA16" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="20"/>
+      <c r="V16" s="25"/>
+      <c r="AA16" s="17">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="17"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="7">
@@ -2232,43 +2244,43 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="16">
         <v>1500</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28">
+      <c r="N17" s="16"/>
+      <c r="O17" s="16">
         <v>600</v>
       </c>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28">
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16">
         <v>1500</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="29">
+      <c r="R17" s="16"/>
+      <c r="S17" s="27">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T17" s="30"/>
-      <c r="U17" s="25">
+      <c r="T17" s="28"/>
+      <c r="U17" s="29">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V17" s="26"/>
-      <c r="AA17" s="28">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="28"/>
+      <c r="V17" s="30"/>
+      <c r="AA17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="16"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="8">
@@ -2277,17 +2289,17 @@
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="15" t="s">
         <v>23</v>
       </c>
@@ -2300,16 +2312,16 @@
         <v>0</v>
       </c>
       <c r="R18" s="15"/>
-      <c r="S18" s="16">
+      <c r="S18" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="17"/>
-      <c r="U18" s="18">
+      <c r="T18" s="34"/>
+      <c r="U18" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V18" s="19"/>
+      <c r="V18" s="36"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -2317,17 +2329,84 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AA5:AB5"/>
@@ -2352,84 +2431,17 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2443,11 +2455,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAD2D72-6E8F-4BF8-9A06-F59BD2D2646F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8649ABA8-EB71-4B33-8D8E-85BA30F5A58D}">
   <dimension ref="B1:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="77" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:W18"/>
+    <sheetView view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -2456,39 +2468,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
     </row>
     <row r="3" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="4" t="s">
@@ -2497,41 +2509,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="35" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="32" t="s">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32" t="s">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="AA3" s="32" t="s">
+      <c r="V3" s="23"/>
+      <c r="AA3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="32"/>
+      <c r="AB3" s="18"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -2540,43 +2552,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="20">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="17">
         <v>2800</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17">
         <v>600</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17">
         <v>700</v>
       </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21">
+      <c r="R4" s="17"/>
+      <c r="S4" s="31">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>280</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="23">
+      <c r="T4" s="32"/>
+      <c r="U4" s="24">
         <f>Q4-S4</f>
         <v>420</v>
       </c>
-      <c r="V4" s="24"/>
-      <c r="AA4" s="20">
+      <c r="V4" s="25"/>
+      <c r="AA4" s="17">
         <v>210</v>
       </c>
-      <c r="AB4" s="20"/>
+      <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -2585,43 +2597,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="16">
         <v>2800</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16">
         <v>400</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16">
         <v>500</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29">
+      <c r="R5" s="16"/>
+      <c r="S5" s="27">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="25">
+      <c r="T5" s="28"/>
+      <c r="U5" s="29">
         <f t="shared" ref="U5:U16" si="1">Q5-S5</f>
         <v>240</v>
       </c>
-      <c r="V5" s="26"/>
-      <c r="AA5" s="28">
+      <c r="V5" s="30"/>
+      <c r="AA5" s="16">
         <v>210</v>
       </c>
-      <c r="AB5" s="28"/>
+      <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -2630,43 +2642,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="20">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="17">
         <v>3200</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17">
         <v>700</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17">
         <v>500</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21">
+      <c r="R6" s="17"/>
+      <c r="S6" s="31">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="23">
+      <c r="T6" s="32"/>
+      <c r="U6" s="24">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V6" s="24"/>
-      <c r="AA6" s="20">
+      <c r="V6" s="25"/>
+      <c r="AA6" s="17">
         <v>210</v>
       </c>
-      <c r="AB6" s="20"/>
+      <c r="AB6" s="17"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -2675,88 +2687,88 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="16">
         <v>3200</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
         <v>450</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16">
         <v>500</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29">
+      <c r="R7" s="16"/>
+      <c r="S7" s="27">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="25">
+      <c r="T7" s="28"/>
+      <c r="U7" s="29">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V7" s="26"/>
-      <c r="AA7" s="28">
+      <c r="V7" s="30"/>
+      <c r="AA7" s="16">
         <v>210</v>
       </c>
-      <c r="AB7" s="28"/>
+      <c r="AB7" s="16"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="20">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="17">
         <v>2800</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
         <v>900</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17">
         <v>1000</v>
       </c>
-      <c r="R8" s="20"/>
-      <c r="S8" s="21">
+      <c r="R8" s="17"/>
+      <c r="S8" s="31">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="23">
+      <c r="T8" s="32"/>
+      <c r="U8" s="24">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V8" s="24"/>
-      <c r="AA8" s="20">
+      <c r="V8" s="25"/>
+      <c r="AA8" s="17">
         <v>210</v>
       </c>
-      <c r="AB8" s="20"/>
+      <c r="AB8" s="17"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -2765,43 +2777,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="16">
         <v>1600</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
         <v>400</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16">
         <v>900</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="29">
+      <c r="R9" s="16"/>
+      <c r="S9" s="27">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="25">
+      <c r="T9" s="28"/>
+      <c r="U9" s="29">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="AA9" s="28">
+      <c r="V9" s="30"/>
+      <c r="AA9" s="16">
         <v>210</v>
       </c>
-      <c r="AB9" s="28"/>
+      <c r="AB9" s="16"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -2810,88 +2822,88 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="20">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="17">
         <v>1600</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20">
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
         <v>400</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20">
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17">
         <v>900</v>
       </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="21">
+      <c r="R10" s="17"/>
+      <c r="S10" s="31">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="23">
+      <c r="T10" s="32"/>
+      <c r="U10" s="24">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V10" s="24"/>
-      <c r="AA10" s="20">
+      <c r="V10" s="25"/>
+      <c r="AA10" s="17">
         <v>210</v>
       </c>
-      <c r="AB10" s="20"/>
+      <c r="AB10" s="17"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
         <v>8</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="16">
         <v>1800</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
         <v>400</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16">
         <v>1200</v>
       </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="29">
+      <c r="R11" s="16"/>
+      <c r="S11" s="27">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="25">
+      <c r="T11" s="28"/>
+      <c r="U11" s="29">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="V11" s="26"/>
-      <c r="AA11" s="28">
+      <c r="V11" s="30"/>
+      <c r="AA11" s="16">
         <v>210</v>
       </c>
-      <c r="AB11" s="28"/>
+      <c r="AB11" s="16"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2900,43 +2912,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="20">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="17">
         <v>2400</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20">
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
         <v>1500</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20">
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17">
         <v>1500</v>
       </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21">
+      <c r="R12" s="17"/>
+      <c r="S12" s="31">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23">
+      <c r="T12" s="32"/>
+      <c r="U12" s="24">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V12" s="24"/>
-      <c r="AA12" s="20">
+      <c r="V12" s="25"/>
+      <c r="AA12" s="17">
         <v>210</v>
       </c>
-      <c r="AB12" s="20"/>
+      <c r="AB12" s="17"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2945,88 +2957,88 @@
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="16">
         <v>1600</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16">
         <v>300</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16">
         <v>1000</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28">
+      <c r="R13" s="16"/>
+      <c r="S13" s="16">
         <f>(Q13*0.1)+AA13</f>
         <v>310</v>
       </c>
-      <c r="T13" s="28"/>
-      <c r="U13" s="25">
+      <c r="T13" s="16"/>
+      <c r="U13" s="29">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V13" s="26"/>
-      <c r="AA13" s="28">
+      <c r="V13" s="30"/>
+      <c r="AA13" s="16">
         <v>210</v>
       </c>
-      <c r="AB13" s="28"/>
+      <c r="AB13" s="16"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="20">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="17">
         <v>1600</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20">
+      <c r="N14" s="17"/>
+      <c r="O14" s="17">
         <v>300</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17">
         <v>750</v>
       </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="21">
+      <c r="R14" s="17"/>
+      <c r="S14" s="31">
         <f>(Q14*0.1)+AA14</f>
         <v>285</v>
       </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="23">
+      <c r="T14" s="32"/>
+      <c r="U14" s="24">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="V14" s="24"/>
-      <c r="AA14" s="20">
+      <c r="V14" s="25"/>
+      <c r="AA14" s="17">
         <v>210</v>
       </c>
-      <c r="AB14" s="20"/>
+      <c r="AB14" s="17"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -3035,43 +3047,43 @@
       <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="16">
         <v>1800</v>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28">
+      <c r="N15" s="16"/>
+      <c r="O15" s="16">
         <v>500</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28">
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16">
         <v>1500</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="29">
+      <c r="R15" s="16"/>
+      <c r="S15" s="27">
         <f>(Q15*0.1)+AA15</f>
         <v>360</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="25">
+      <c r="T15" s="28"/>
+      <c r="U15" s="29">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V15" s="26"/>
-      <c r="AA15" s="28">
+      <c r="V15" s="30"/>
+      <c r="AA15" s="16">
         <v>210</v>
       </c>
-      <c r="AB15" s="28"/>
+      <c r="AB15" s="16"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -3080,43 +3092,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="20">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="17">
         <v>2200</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20">
+      <c r="N16" s="17"/>
+      <c r="O16" s="17">
         <v>400</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20">
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17">
         <v>1500</v>
       </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="21">
+      <c r="R16" s="17"/>
+      <c r="S16" s="31">
         <f>(Q16*0.1)+AA16</f>
         <v>360</v>
       </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23">
+      <c r="T16" s="32"/>
+      <c r="U16" s="24">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V16" s="24"/>
-      <c r="AA16" s="20">
+      <c r="V16" s="25"/>
+      <c r="AA16" s="17">
         <v>210</v>
       </c>
-      <c r="AB16" s="20"/>
+      <c r="AB16" s="17"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="11">
@@ -3125,53 +3137,53 @@
       <c r="C17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39">
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38">
         <v>1500</v>
       </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39">
+      <c r="N17" s="38"/>
+      <c r="O17" s="38">
         <v>600</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39">
+      <c r="P17" s="38"/>
+      <c r="Q17" s="38">
         <v>1380</v>
       </c>
-      <c r="R17" s="39"/>
-      <c r="S17" s="40">
+      <c r="R17" s="38"/>
+      <c r="S17" s="39">
         <f>(Q17*0.1)+BC16</f>
         <v>138</v>
       </c>
-      <c r="T17" s="41"/>
-      <c r="U17" s="42">
+      <c r="T17" s="40"/>
+      <c r="U17" s="41">
         <f>Q17-S17</f>
         <v>1242</v>
       </c>
-      <c r="V17" s="43"/>
-      <c r="AA17" s="28">
+      <c r="V17" s="42"/>
+      <c r="AA17" s="16">
         <v>210</v>
       </c>
-      <c r="AB17" s="28"/>
+      <c r="AB17" s="16"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q18" s="44" t="s">
+      <c r="Q18" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="44"/>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
-      <c r="U18" s="44"/>
-      <c r="V18" s="44"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="V18" s="43"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -3179,128 +3191,989 @@
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="AA18:AB18"/>
     <mergeCell ref="D17:L17"/>
     <mergeCell ref="M17:N17"/>
     <mergeCell ref="O17:P17"/>
     <mergeCell ref="Q17:R17"/>
     <mergeCell ref="S17:T17"/>
     <mergeCell ref="U17:V17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
     <mergeCell ref="D16:L16"/>
     <mergeCell ref="M16:N16"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="AA16:AB16"/>
     <mergeCell ref="D15:L15"/>
     <mergeCell ref="M15:N15"/>
     <mergeCell ref="O15:P15"/>
     <mergeCell ref="Q15:R15"/>
     <mergeCell ref="S15:T15"/>
     <mergeCell ref="U15:V15"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="B1:V1"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="M14:N14"/>
     <mergeCell ref="O14:P14"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="AA14:AB14"/>
     <mergeCell ref="D13:L13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="O13:P13"/>
     <mergeCell ref="Q13:R13"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="U13:V13"/>
+    <mergeCell ref="AA11:AB11"/>
     <mergeCell ref="D12:L12"/>
     <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
     <mergeCell ref="U11:V11"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
     <mergeCell ref="Q10:R10"/>
     <mergeCell ref="S10:T10"/>
     <mergeCell ref="U10:V10"/>
-    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="Q2:V2"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="U3:V3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C17 C4:C17" xr:uid="{5DAB2191-16FF-4945-91D8-BAE684A3DEAC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C17" xr:uid="{18BBF1A1-6CFD-48E7-80A8-45C65467629E}">
       <formula1>"〇,-"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="Q18:V18" r:id="rId1" display="⇒ 収支一覧へ" xr:uid="{C36DEAFF-6774-4825-BDC0-995F83085BC2}"/>
+    <hyperlink ref="Q18:V18" r:id="rId1" display="⇒ 収支一覧へ" xr:uid="{140A7B47-12D1-40E3-8B92-A1D038A5282B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
-  <webPublishItems count="14">
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAD2D72-6E8F-4BF8-9A06-F59BD2D2646F}">
+  <dimension ref="A1:Z18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection sqref="A1:U18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.7"/>
+  <cols>
+    <col min="1" max="2" width="5.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+    </row>
+    <row r="2" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="P2" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+    </row>
+    <row r="3" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="O3" s="22"/>
+      <c r="P3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="18"/>
+      <c r="T3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="U3" s="23"/>
+      <c r="Y3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z3" s="18"/>
+    </row>
+    <row r="4" spans="1:26" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="17">
+        <v>2800</v>
+      </c>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17">
+        <v>600</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17">
+        <v>700</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="31">
+        <f>(P4*0.1)+Y4</f>
+        <v>280</v>
+      </c>
+      <c r="S4" s="32"/>
+      <c r="T4" s="24">
+        <f>P4-R4</f>
+        <v>420</v>
+      </c>
+      <c r="U4" s="25"/>
+      <c r="Y4" s="17">
+        <v>210</v>
+      </c>
+      <c r="Z4" s="17"/>
+    </row>
+    <row r="5" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A5" s="7">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="16">
+        <v>2800</v>
+      </c>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16">
+        <v>400</v>
+      </c>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16">
+        <v>500</v>
+      </c>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="27">
+        <f>(P5*0.1)+Y5</f>
+        <v>260</v>
+      </c>
+      <c r="S5" s="28"/>
+      <c r="T5" s="29">
+        <f t="shared" ref="T5:T16" si="0">P5-R5</f>
+        <v>240</v>
+      </c>
+      <c r="U5" s="30"/>
+      <c r="Y5" s="16">
+        <v>210</v>
+      </c>
+      <c r="Z5" s="16"/>
+    </row>
+    <row r="6" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A6" s="6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="17">
+        <v>3200</v>
+      </c>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17">
+        <v>700</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17">
+        <v>500</v>
+      </c>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="31">
+        <f>(P6*0.1)+Y6</f>
+        <v>260</v>
+      </c>
+      <c r="S6" s="32"/>
+      <c r="T6" s="24">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="U6" s="25"/>
+      <c r="Y6" s="17">
+        <v>210</v>
+      </c>
+      <c r="Z6" s="17"/>
+    </row>
+    <row r="7" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="16">
+        <v>3200</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16">
+        <v>450</v>
+      </c>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16">
+        <v>500</v>
+      </c>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="27">
+        <f>(P7*0.1)+Y7</f>
+        <v>260</v>
+      </c>
+      <c r="S7" s="28"/>
+      <c r="T7" s="29">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="U7" s="30"/>
+      <c r="Y7" s="16">
+        <v>210</v>
+      </c>
+      <c r="Z7" s="16"/>
+    </row>
+    <row r="8" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A8" s="6">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="17">
+        <v>2800</v>
+      </c>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17">
+        <v>900</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17">
+        <v>1000</v>
+      </c>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="31">
+        <f>(P8*0.1)+Y8</f>
+        <v>310</v>
+      </c>
+      <c r="S8" s="32"/>
+      <c r="T8" s="24">
+        <f t="shared" si="0"/>
+        <v>690</v>
+      </c>
+      <c r="U8" s="25"/>
+      <c r="Y8" s="17">
+        <v>210</v>
+      </c>
+      <c r="Z8" s="17"/>
+    </row>
+    <row r="9" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A9" s="7">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="16">
+        <v>1600</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16">
+        <v>400</v>
+      </c>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16">
+        <v>900</v>
+      </c>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="27">
+        <f>(P9*0.1)+Y9</f>
+        <v>300</v>
+      </c>
+      <c r="S9" s="28"/>
+      <c r="T9" s="29">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="U9" s="30"/>
+      <c r="Y9" s="16">
+        <v>210</v>
+      </c>
+      <c r="Z9" s="16"/>
+    </row>
+    <row r="10" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A10" s="6">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="17">
+        <v>1600</v>
+      </c>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17">
+        <v>400</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17">
+        <v>900</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="31">
+        <f>(P10*0.1)+Y10</f>
+        <v>300</v>
+      </c>
+      <c r="S10" s="32"/>
+      <c r="T10" s="24">
+        <f t="shared" si="0"/>
+        <v>600</v>
+      </c>
+      <c r="U10" s="25"/>
+      <c r="Y10" s="17">
+        <v>210</v>
+      </c>
+      <c r="Z10" s="17"/>
+    </row>
+    <row r="11" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A11" s="7">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="16">
+        <v>1800</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16">
+        <v>400</v>
+      </c>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16">
+        <v>1200</v>
+      </c>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="27">
+        <f>(P11*0.1)+Y11</f>
+        <v>330</v>
+      </c>
+      <c r="S11" s="28"/>
+      <c r="T11" s="29">
+        <f t="shared" si="0"/>
+        <v>870</v>
+      </c>
+      <c r="U11" s="30"/>
+      <c r="Y11" s="16">
+        <v>210</v>
+      </c>
+      <c r="Z11" s="16"/>
+    </row>
+    <row r="12" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A12" s="6">
+        <v>9</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="17">
+        <v>2400</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17">
+        <v>1500</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17">
+        <v>1500</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="31">
+        <f>(P12*0.1)+Y12</f>
+        <v>360</v>
+      </c>
+      <c r="S12" s="32"/>
+      <c r="T12" s="24">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+      <c r="U12" s="25"/>
+      <c r="Y12" s="17">
+        <v>210</v>
+      </c>
+      <c r="Z12" s="17"/>
+    </row>
+    <row r="13" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A13" s="7">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="16">
+        <v>1600</v>
+      </c>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16">
+        <v>300</v>
+      </c>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16">
+        <v>1000</v>
+      </c>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16">
+        <f>(P13*0.1)+Y13</f>
+        <v>310</v>
+      </c>
+      <c r="S13" s="16"/>
+      <c r="T13" s="29">
+        <f t="shared" si="0"/>
+        <v>690</v>
+      </c>
+      <c r="U13" s="30"/>
+      <c r="Y13" s="16">
+        <v>210</v>
+      </c>
+      <c r="Z13" s="16"/>
+    </row>
+    <row r="14" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A14" s="6">
+        <v>11</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="17">
+        <v>1600</v>
+      </c>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17">
+        <v>300</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17">
+        <v>750</v>
+      </c>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="31">
+        <f>(P14*0.1)+Y14</f>
+        <v>285</v>
+      </c>
+      <c r="S14" s="32"/>
+      <c r="T14" s="24">
+        <f t="shared" si="0"/>
+        <v>465</v>
+      </c>
+      <c r="U14" s="25"/>
+      <c r="Y14" s="17">
+        <v>210</v>
+      </c>
+      <c r="Z14" s="17"/>
+    </row>
+    <row r="15" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A15" s="7">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="16">
+        <v>1800</v>
+      </c>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16">
+        <v>500</v>
+      </c>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16">
+        <v>1500</v>
+      </c>
+      <c r="Q15" s="16"/>
+      <c r="R15" s="27">
+        <f>(P15*0.1)+Y15</f>
+        <v>360</v>
+      </c>
+      <c r="S15" s="28"/>
+      <c r="T15" s="29">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+      <c r="U15" s="30"/>
+      <c r="Y15" s="16">
+        <v>210</v>
+      </c>
+      <c r="Z15" s="16"/>
+    </row>
+    <row r="16" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A16" s="6">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="17">
+        <v>2200</v>
+      </c>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17">
+        <v>400</v>
+      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17">
+        <v>1500</v>
+      </c>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="31">
+        <f>(P16*0.1)+Y16</f>
+        <v>360</v>
+      </c>
+      <c r="S16" s="32"/>
+      <c r="T16" s="24">
+        <f t="shared" si="0"/>
+        <v>1140</v>
+      </c>
+      <c r="U16" s="25"/>
+      <c r="Y16" s="17">
+        <v>210</v>
+      </c>
+      <c r="Z16" s="17"/>
+    </row>
+    <row r="17" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A17" s="11">
+        <v>14</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38">
+        <v>1500</v>
+      </c>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38">
+        <v>600</v>
+      </c>
+      <c r="O17" s="38"/>
+      <c r="P17" s="38">
+        <v>1380</v>
+      </c>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="39">
+        <f>(P17*0.1)+BA16</f>
+        <v>138</v>
+      </c>
+      <c r="S17" s="40"/>
+      <c r="T17" s="41">
+        <f>P17-R17</f>
+        <v>1242</v>
+      </c>
+      <c r="U17" s="42"/>
+      <c r="Y17" s="16">
+        <v>210</v>
+      </c>
+      <c r="Z17" s="16"/>
+    </row>
+    <row r="18" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="P18" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q18" s="43"/>
+      <c r="R18" s="43"/>
+      <c r="S18" s="43"/>
+      <c r="T18" s="43"/>
+      <c r="U18" s="43"/>
+      <c r="Y18" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="109">
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="P18:U18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="N16:O16"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B4:B17" xr:uid="{5DAB2191-16FF-4945-91D8-BAE684A3DEAC}">
+      <formula1>"〇,-"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="P18:U18" r:id="rId1" display="⇒ 収支一覧へ" xr:uid="{C36DEAFF-6774-4825-BDC0-995F83085BC2}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
+  <webPublishItems count="16">
     <webPublishItem id="12398" divId="TMP_12398" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="20957" divId="TMP_20957" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="11684" divId="TMP_11684" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
@@ -3315,16 +4188,18 @@
     <webPublishItem id="17284" divId="TMP_17284" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht" autoRepublish="1"/>
     <webPublishItem id="22922" divId="TMP_22922" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht" autoRepublish="1"/>
     <webPublishItem id="29802" divId="TMP_29802" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
+    <webPublishItem id="31210" divId="TMP_31210" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
+    <webPublishItem id="5763" divId="TMP_5763" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht"/>
   </webPublishItems>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E3320D-AD6A-49DE-BA1F-8DE09716D6B2}">
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="73" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:Q3"/>
+    <sheetView view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection sqref="A1:W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -3333,43 +4208,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1"/>
       <c r="C2"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
@@ -3378,726 +4253,848 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="50" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="76"/>
+      <c r="N3" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="32" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="50" t="s">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="32" t="s">
+      <c r="S3" s="77"/>
+      <c r="T3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="32"/>
-      <c r="V3" s="50" t="s">
+      <c r="U3" s="18"/>
+      <c r="V3" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="53"/>
+      <c r="W3" s="77"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="56" t="s">
+      <c r="B4" s="2" t="str">
+        <f>VLOOKUP(A4,edit!$A$4:$B$17,2,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="C4" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="21">
-        <f>VLOOKUP(C4,edit!$D$4:$T$17,14,FALSE)</f>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="31">
+        <f>VLOOKUP(C4,edit!$C$4:$S$17,14,FALSE)</f>
         <v>700</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="21">
+      <c r="M4" s="32"/>
+      <c r="N4" s="31">
         <f>(L4*0.1)</f>
         <v>70</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="20">
-        <f>VLOOKUP(C4,edit!$D$4:$AB$17,24,FALSE)</f>
-        <v>210</v>
-      </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="54">
+      <c r="O4" s="32"/>
+      <c r="P4" s="17">
+        <f>VLOOKUP(C4,edit!$C$4:$Z$17,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="45">
         <f>L4-N4-P4</f>
-        <v>420</v>
-      </c>
-      <c r="S4" s="55"/>
-      <c r="T4" s="20" t="s">
+        <v>630</v>
+      </c>
+      <c r="S4" s="46"/>
+      <c r="T4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="20"/>
-      <c r="V4" s="54">
+      <c r="U4" s="17"/>
+      <c r="V4" s="45">
         <v>550</v>
       </c>
-      <c r="W4" s="55"/>
+      <c r="W4" s="46"/>
     </row>
     <row r="5" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="45" t="s">
+      <c r="B5" s="3" t="str">
+        <f>VLOOKUP(A5,edit!$A$4:$B$17,2,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="C5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="29">
-        <f>VLOOKUP(C5,edit!$D$4:$T$17,14,FALSE)</f>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="27">
+        <f>VLOOKUP(C5,edit!$C$4:$S$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="29">
+      <c r="M5" s="28"/>
+      <c r="N5" s="27">
         <f t="shared" ref="N5:N16" si="0">(L5*0.1)</f>
         <v>50</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="29">
-        <f>VLOOKUP(C5,edit!$D$4:$AB$17,24,FALSE)</f>
-        <v>210</v>
-      </c>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="48">
+      <c r="O5" s="28"/>
+      <c r="P5" s="27">
+        <f>VLOOKUP(C5,edit!$C$4:$Z$17,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="67">
         <f t="shared" ref="R5:R16" si="1">L5-N5-P5</f>
-        <v>240</v>
-      </c>
-      <c r="S5" s="49"/>
-      <c r="T5" s="28" t="s">
+        <v>450</v>
+      </c>
+      <c r="S5" s="68"/>
+      <c r="T5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="28"/>
-      <c r="V5" s="48">
+      <c r="U5" s="16"/>
+      <c r="V5" s="67">
         <v>220</v>
       </c>
-      <c r="W5" s="49"/>
+      <c r="W5" s="68"/>
     </row>
     <row r="6" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="56" t="s">
+      <c r="B6" s="2" t="str">
+        <f>VLOOKUP(A6,edit!$A$4:$B$17,2,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="C6" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="21">
-        <f>VLOOKUP(C6,edit!$D$4:$T$17,14,FALSE)</f>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="31">
+        <f>VLOOKUP(C6,edit!$C$4:$S$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="21">
+      <c r="M6" s="32"/>
+      <c r="N6" s="31">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="21">
-        <f>VLOOKUP(C6,edit!$D$4:$AB$17,24,FALSE)</f>
-        <v>210</v>
-      </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="54">
+      <c r="O6" s="32"/>
+      <c r="P6" s="31">
+        <f>VLOOKUP(C6,edit!$C$4:$Z$17,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="45">
         <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="S6" s="55"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="55"/>
+        <v>450</v>
+      </c>
+      <c r="S6" s="46"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="46"/>
     </row>
     <row r="7" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="7">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="45" t="s">
+      <c r="B7" s="3" t="str">
+        <f>VLOOKUP(A7,edit!$A$4:$B$17,2,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="C7" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="29">
-        <f>VLOOKUP(C7,edit!$D$4:$T$17,14,FALSE)</f>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="27">
+        <f>VLOOKUP(C7,edit!$C$4:$S$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="29">
+      <c r="M7" s="28"/>
+      <c r="N7" s="27">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="29">
-        <f>VLOOKUP(C7,edit!$D$4:$AB$17,24,FALSE)</f>
-        <v>210</v>
-      </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="48">
+      <c r="O7" s="28"/>
+      <c r="P7" s="27">
+        <f>VLOOKUP(C7,edit!$C$4:$Z$17,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="67">
         <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="S7" s="49"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49"/>
+        <v>450</v>
+      </c>
+      <c r="S7" s="68"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="68"/>
     </row>
     <row r="8" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="56" t="s">
+      <c r="B8" s="2" t="str">
+        <f>VLOOKUP(A8,edit!$A$4:$B$17,2,FALSE)</f>
+        <v>〇</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="21">
-        <f>VLOOKUP(C8,edit!$D$4:$T$17,14,FALSE)</f>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="31">
+        <f>VLOOKUP(C8,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="21">
+      <c r="M8" s="32"/>
+      <c r="N8" s="31">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="21">
-        <f>VLOOKUP(C8,edit!$D$4:$AB$17,24,FALSE)</f>
-        <v>210</v>
-      </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="54">
+      <c r="O8" s="32"/>
+      <c r="P8" s="31">
+        <f>VLOOKUP(C8,edit!$C$4:$Z$17,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="45">
         <f t="shared" si="1"/>
-        <v>690</v>
-      </c>
-      <c r="S8" s="55"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="55"/>
+        <v>900</v>
+      </c>
+      <c r="S8" s="46"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="46"/>
     </row>
     <row r="9" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="7">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="45" t="s">
+      <c r="B9" s="3" t="str">
+        <f>VLOOKUP(A9,edit!$A$4:$B$17,2,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="C9" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="29">
-        <f>VLOOKUP(C9,edit!$D$4:$T$17,14,FALSE)</f>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="27">
+        <f>VLOOKUP(C9,edit!$C$4:$S$17,14,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="29">
+      <c r="M9" s="28"/>
+      <c r="N9" s="27">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="29">
-        <f>VLOOKUP(C9,edit!$D$4:$AB$17,24,FALSE)</f>
-        <v>210</v>
-      </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="48">
+      <c r="O9" s="28"/>
+      <c r="P9" s="27">
+        <f>VLOOKUP(C9,edit!$C$4:$Z$17,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="67">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="S9" s="49"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="49"/>
+        <v>810</v>
+      </c>
+      <c r="S9" s="68"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="68"/>
     </row>
     <row r="10" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="56" t="s">
+      <c r="B10" s="2" t="str">
+        <f>VLOOKUP(A10,edit!$A$4:$B$17,2,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="C10" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="21">
-        <f>VLOOKUP(C10,edit!$D$4:$T$17,14,FALSE)</f>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="31">
+        <f>VLOOKUP(C10,edit!$C$4:$S$17,14,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="21">
+      <c r="M10" s="32"/>
+      <c r="N10" s="31">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="21">
-        <f>VLOOKUP(C10,edit!$D$4:$AB$17,24,FALSE)</f>
-        <v>210</v>
-      </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="54">
+      <c r="O10" s="32"/>
+      <c r="P10" s="31">
+        <f>VLOOKUP(C10,edit!$C$4:$Z$17,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="45">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="S10" s="55"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="55"/>
+        <v>810</v>
+      </c>
+      <c r="S10" s="46"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="46"/>
     </row>
     <row r="11" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="7">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="45" t="s">
+      <c r="B11" s="3" t="str">
+        <f>VLOOKUP(A11,edit!$A$4:$B$17,2,FALSE)</f>
+        <v>〇</v>
+      </c>
+      <c r="C11" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="29">
-        <f>VLOOKUP(C11,edit!$D$4:$T$17,14,FALSE)</f>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="27">
+        <f>VLOOKUP(C11,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="29">
+      <c r="M11" s="28"/>
+      <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="29">
-        <f>VLOOKUP(C11,edit!$D$4:$AB$17,24,FALSE)</f>
-        <v>210</v>
-      </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="48">
+      <c r="O11" s="28"/>
+      <c r="P11" s="27">
+        <f>VLOOKUP(C11,edit!$C$4:$Z$17,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="67">
         <f t="shared" si="1"/>
-        <v>870</v>
-      </c>
-      <c r="S11" s="49"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="49"/>
+        <v>1080</v>
+      </c>
+      <c r="S11" s="68"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="68"/>
     </row>
     <row r="12" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="56" t="s">
+      <c r="B12" s="2" t="str">
+        <f>VLOOKUP(A12,edit!$A$4:$B$17,2,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="C12" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="21">
-        <f>VLOOKUP(C12,edit!$D$4:$T$17,14,FALSE)</f>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="31">
+        <f>VLOOKUP(C12,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="21">
+      <c r="M12" s="32"/>
+      <c r="N12" s="31">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="21">
-        <f>VLOOKUP(C12,edit!$D$4:$AB$17,24,FALSE)</f>
-        <v>210</v>
-      </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="54">
+      <c r="O12" s="32"/>
+      <c r="P12" s="31">
+        <f>VLOOKUP(C12,edit!$C$4:$Z$17,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="45">
         <f t="shared" si="1"/>
-        <v>1140</v>
-      </c>
-      <c r="S12" s="55"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="55"/>
+        <v>1350</v>
+      </c>
+      <c r="S12" s="46"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="46"/>
     </row>
     <row r="13" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="7">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="45" t="s">
+      <c r="B13" s="3" t="str">
+        <f>VLOOKUP(A13,edit!$A$4:$B$17,2,FALSE)</f>
+        <v>〇</v>
+      </c>
+      <c r="C13" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="29">
-        <f>VLOOKUP(C13,edit!$D$4:$T$17,14,FALSE)</f>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="27">
+        <f>VLOOKUP(C13,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="29">
+      <c r="M13" s="28"/>
+      <c r="N13" s="27">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="29">
-        <f>VLOOKUP(C13,edit!$D$4:$AB$17,24,FALSE)</f>
-        <v>210</v>
-      </c>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="48">
+      <c r="O13" s="28"/>
+      <c r="P13" s="27">
+        <f>VLOOKUP(C13,edit!$C$4:$Z$17,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="67">
         <f t="shared" si="1"/>
-        <v>690</v>
-      </c>
-      <c r="S13" s="49"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="49"/>
+        <v>900</v>
+      </c>
+      <c r="S13" s="68"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="68"/>
     </row>
     <row r="14" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="56" t="s">
+      <c r="B14" s="2" t="str">
+        <f>VLOOKUP(A14,edit!$A$4:$B$17,2,FALSE)</f>
+        <v>〇</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="21">
-        <f>VLOOKUP(C14,edit!$D$4:$T$17,14,FALSE)</f>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="31">
+        <f>VLOOKUP(C14,edit!$C$4:$S$17,14,FALSE)</f>
         <v>750</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="21">
+      <c r="M14" s="32"/>
+      <c r="N14" s="31">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="21">
-        <f>VLOOKUP(C14,edit!$D$4:$AB$17,24,FALSE)</f>
-        <v>210</v>
-      </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="54">
+      <c r="O14" s="32"/>
+      <c r="P14" s="31">
+        <f>VLOOKUP(C14,edit!$C$4:$Z$17,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="32"/>
+      <c r="R14" s="45">
         <f t="shared" si="1"/>
-        <v>465</v>
-      </c>
-      <c r="S14" s="55"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="55"/>
+        <v>675</v>
+      </c>
+      <c r="S14" s="46"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="46"/>
     </row>
     <row r="15" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="7">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="45" t="s">
+      <c r="B15" s="3" t="str">
+        <f>VLOOKUP(A15,edit!$A$4:$B$17,2,FALSE)</f>
+        <v>〇</v>
+      </c>
+      <c r="C15" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="29">
-        <f>VLOOKUP(C15,edit!$D$4:$T$17,14,FALSE)</f>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="27">
+        <f>VLOOKUP(C15,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="29">
+      <c r="M15" s="28"/>
+      <c r="N15" s="27">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="29">
-        <f>VLOOKUP(C15,edit!$D$4:$AB$17,24,FALSE)</f>
-        <v>210</v>
-      </c>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="48">
+      <c r="O15" s="28"/>
+      <c r="P15" s="27">
+        <f>VLOOKUP(C15,edit!$C$4:$Z$17,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="67">
         <f t="shared" si="1"/>
-        <v>1140</v>
-      </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="49"/>
+        <v>1350</v>
+      </c>
+      <c r="S15" s="68"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="68"/>
     </row>
     <row r="16" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="56" t="s">
+      <c r="B16" s="2" t="str">
+        <f>VLOOKUP(A16,edit!$A$4:$B$17,2,FALSE)</f>
+        <v>-</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="21">
-        <f>VLOOKUP(C16,edit!$D$4:$T$17,14,FALSE)</f>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="31">
+        <f>VLOOKUP(C16,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="21">
+      <c r="M16" s="32"/>
+      <c r="N16" s="31">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="21">
-        <f>VLOOKUP(C16,edit!$D$4:$AB$17,24,FALSE)</f>
-        <v>210</v>
-      </c>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="54">
+      <c r="O16" s="32"/>
+      <c r="P16" s="31">
+        <f>VLOOKUP(C16,edit!$C$4:$Z$17,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="32"/>
+      <c r="R16" s="45">
         <f t="shared" si="1"/>
-        <v>1140</v>
-      </c>
-      <c r="S16" s="55"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="55"/>
+        <v>1350</v>
+      </c>
+      <c r="S16" s="46"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="46"/>
     </row>
     <row r="17" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="11">
         <v>14</v>
       </c>
-      <c r="B17" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="75" t="s">
+      <c r="B17" s="12" t="str">
+        <f>VLOOKUP(A17,edit!$A$4:$B$17,2,FALSE)</f>
+        <v>〇</v>
+      </c>
+      <c r="C17" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="76"/>
-      <c r="I17" s="76"/>
-      <c r="J17" s="76"/>
-      <c r="K17" s="77"/>
-      <c r="L17" s="40">
-        <f>VLOOKUP(C17,edit!$D$4:$T$17,14,FALSE)</f>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="39">
+        <f>VLOOKUP(C17,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1380</v>
       </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="40">
+      <c r="M17" s="40"/>
+      <c r="N17" s="39">
         <f>(L17*0.1)</f>
         <v>138</v>
       </c>
-      <c r="O17" s="41"/>
-      <c r="P17" s="40">
-        <f>VLOOKUP(C17,edit!$D$4:$AB$17,24,FALSE)</f>
-        <v>210</v>
-      </c>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="61">
+      <c r="O17" s="40"/>
+      <c r="P17" s="39">
+        <f>VLOOKUP(C17,edit!$C$4:$Z$17,24,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="53">
         <f>L17-N17-P17</f>
-        <v>1032</v>
-      </c>
-      <c r="S17" s="62"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="62"/>
+        <v>1242</v>
+      </c>
+      <c r="S17" s="54"/>
+      <c r="T17" s="38"/>
+      <c r="U17" s="38"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="54"/>
     </row>
     <row r="18" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="68" t="s">
+      <c r="C18" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="69"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="71">
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="73">
         <f>SUMIF($B$4:$B$17,"〇",L4:M17)</f>
-        <v>3880</v>
-      </c>
-      <c r="M18" s="66"/>
-      <c r="N18" s="71">
+        <v>6830</v>
+      </c>
+      <c r="M18" s="59"/>
+      <c r="N18" s="73">
         <f>SUMIF($B$4:$B$17,"〇",N4:O17)</f>
-        <v>388</v>
-      </c>
-      <c r="O18" s="66"/>
-      <c r="P18" s="71">
+        <v>683</v>
+      </c>
+      <c r="O18" s="59"/>
+      <c r="P18" s="73">
         <f>SUMIF($B$4:$B$17,"〇",P4:Q17)</f>
-        <v>630</v>
-      </c>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="63">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="71">
         <f>SUMIF($B$4:$B$17,"〇",R4:S17)</f>
-        <v>2862</v>
-      </c>
-      <c r="S18" s="64"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="63">
+        <v>6147</v>
+      </c>
+      <c r="S18" s="72"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="71">
         <f>SUM(V4:W17)</f>
         <v>770</v>
       </c>
-      <c r="W18" s="64"/>
+      <c r="W18" s="72"/>
     </row>
     <row r="19" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="72"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="73"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="73"/>
-      <c r="H19" s="73"/>
-      <c r="I19" s="73"/>
-      <c r="J19" s="73"/>
-      <c r="K19" s="74"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="67" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="40"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="38"/>
+      <c r="Q19" s="38"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="67"/>
-      <c r="V19" s="59">
+      <c r="U19" s="60"/>
+      <c r="V19" s="69">
         <f>R18-V18</f>
-        <v>2092</v>
-      </c>
-      <c r="W19" s="60"/>
+        <v>5377</v>
+      </c>
+      <c r="W19" s="70"/>
+    </row>
+    <row r="20" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="R20" s="43" t="s">
+        <v>40</v>
+      </c>
+      <c r="S20" s="43"/>
+      <c r="T20" s="43"/>
+      <c r="U20" s="43"/>
+      <c r="V20" s="43"/>
+      <c r="W20" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="121">
+  <mergeCells count="122">
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="P12:Q12"/>
     <mergeCell ref="V6:W6"/>
     <mergeCell ref="R6:S6"/>
     <mergeCell ref="P6:Q6"/>
@@ -4122,103 +5119,6 @@
     <mergeCell ref="T18:U18"/>
     <mergeCell ref="T19:U19"/>
     <mergeCell ref="C18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="P2:W2"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="C4:K4"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A4:S4">
@@ -4296,9 +5196,12 @@
       <formula1>"〇,-"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="R20:W20" r:id="rId1" display="⇒ 在庫一覧へ" xr:uid="{4F724206-42A6-4334-B003-83065B53F7B3}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId1"/>
-  <webPublishItems count="7">
+  <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId2"/>
+  <webPublishItems count="10">
     <webPublishItem id="15378" divId="TMP_15378" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht"/>
     <webPublishItem id="19650" divId="TMP_19650" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="4869" divId="TMP_4869" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
@@ -4306,6 +5209,9 @@
     <webPublishItem id="14610" divId="TMP_14610" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="27745" divId="TMP_27745" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="26932" divId="TMP_26932" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm" autoRepublish="1"/>
+    <webPublishItem id="24451" divId="TMP_24451" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
+    <webPublishItem id="13286" divId="TMP_13286" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
+    <webPublishItem id="28012" divId="TMP_28012" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/TMP.xlsx
+++ b/TMP.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E657C06D-772F-419C-90A1-AEA36809DFE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE253A6D-F215-41DD-8B81-E56D867A37A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{72068E89-B82B-4D22-8EEA-457FC02A677F}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="3" xr2:uid="{72068E89-B82B-4D22-8EEA-457FC02A677F}"/>
   </bookViews>
   <sheets>
     <sheet name="TMP" sheetId="2" r:id="rId1"/>
@@ -946,10 +946,52 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,78 +1003,63 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,6 +1073,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,12 +1108,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,9 +1118,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1089,48 +1131,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1579,29 +1579,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="V2" s="10" t="s">
@@ -1615,41 +1615,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="22" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="23"/>
-      <c r="AA3" s="18" t="s">
+      <c r="V3" s="36"/>
+      <c r="AA3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="18"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -1658,43 +1658,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="17">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="20">
         <v>2800</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17">
+      <c r="N4" s="20"/>
+      <c r="O4" s="20">
         <v>700</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20">
         <v>0</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="31">
+      <c r="R4" s="20"/>
+      <c r="S4" s="21">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="24">
+      <c r="T4" s="22"/>
+      <c r="U4" s="23">
         <f>Q4-S4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="25"/>
-      <c r="AA4" s="17">
+      <c r="V4" s="24"/>
+      <c r="AA4" s="20">
         <v>0</v>
       </c>
-      <c r="AB4" s="17"/>
+      <c r="AB4" s="20"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -1703,43 +1703,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="16">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28">
         <v>2800</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28">
         <v>400</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16">
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28">
         <v>0</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="27">
+      <c r="R5" s="28"/>
+      <c r="S5" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29">
+      <c r="T5" s="30"/>
+      <c r="U5" s="25">
         <f t="shared" ref="U5:U18" si="1">Q5-S5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="30"/>
-      <c r="AA5" s="16">
+      <c r="V5" s="26"/>
+      <c r="AA5" s="28">
         <v>0</v>
       </c>
-      <c r="AB5" s="16"/>
+      <c r="AB5" s="28"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -1748,43 +1748,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="17">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="20">
         <v>3200</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20">
         <v>700</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20">
         <v>0</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="31">
+      <c r="R6" s="20"/>
+      <c r="S6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="24">
+      <c r="T6" s="22"/>
+      <c r="U6" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="25"/>
-      <c r="AA6" s="17">
+      <c r="V6" s="24"/>
+      <c r="AA6" s="20">
         <v>0</v>
       </c>
-      <c r="AB6" s="17"/>
+      <c r="AB6" s="20"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -1793,43 +1793,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="16">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28">
         <v>3200</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
+      <c r="N7" s="28"/>
+      <c r="O7" s="28">
         <v>450</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16">
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28">
         <v>0</v>
       </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="27">
+      <c r="R7" s="28"/>
+      <c r="S7" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="28"/>
-      <c r="U7" s="29">
+      <c r="T7" s="30"/>
+      <c r="U7" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V7" s="30"/>
-      <c r="AA7" s="16">
+      <c r="V7" s="26"/>
+      <c r="AA7" s="28">
         <v>0</v>
       </c>
-      <c r="AB7" s="16"/>
+      <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -1838,43 +1838,43 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="17">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="20">
         <v>2800</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20">
         <v>1000</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17">
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20">
         <v>0</v>
       </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="31">
+      <c r="R8" s="20"/>
+      <c r="S8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="24">
+      <c r="T8" s="22"/>
+      <c r="U8" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V8" s="25"/>
-      <c r="AA8" s="17">
+      <c r="V8" s="24"/>
+      <c r="AA8" s="20">
         <v>0</v>
       </c>
-      <c r="AB8" s="17"/>
+      <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -1883,43 +1883,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="16">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28">
         <v>1600</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16">
+      <c r="N9" s="28"/>
+      <c r="O9" s="28">
         <v>400</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28">
         <v>0</v>
       </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="27">
+      <c r="R9" s="28"/>
+      <c r="S9" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T9" s="28"/>
-      <c r="U9" s="29">
+      <c r="T9" s="30"/>
+      <c r="U9" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="30"/>
-      <c r="AA9" s="16">
+      <c r="V9" s="26"/>
+      <c r="AA9" s="28">
         <v>0</v>
       </c>
-      <c r="AB9" s="16"/>
+      <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -1928,43 +1928,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="17">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="20">
         <v>1600</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17">
+      <c r="N10" s="20"/>
+      <c r="O10" s="20">
         <v>400</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17">
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20">
         <v>0</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="31">
+      <c r="R10" s="20"/>
+      <c r="S10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="32"/>
-      <c r="U10" s="24">
+      <c r="T10" s="22"/>
+      <c r="U10" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V10" s="25"/>
-      <c r="AA10" s="17">
+      <c r="V10" s="24"/>
+      <c r="AA10" s="20">
         <v>0</v>
       </c>
-      <c r="AB10" s="17"/>
+      <c r="AB10" s="20"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -1973,43 +1973,43 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="16">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28">
         <v>1800</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28">
         <v>400</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16">
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28">
         <v>0</v>
       </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="27">
+      <c r="R11" s="28"/>
+      <c r="S11" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29">
+      <c r="T11" s="30"/>
+      <c r="U11" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="30"/>
-      <c r="AA11" s="16">
+      <c r="V11" s="26"/>
+      <c r="AA11" s="28">
         <v>0</v>
       </c>
-      <c r="AB11" s="16"/>
+      <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2018,43 +2018,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="17">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="20">
         <v>2400</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20">
         <v>1500</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17">
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20">
         <v>0</v>
       </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="31">
+      <c r="R12" s="20"/>
+      <c r="S12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="24">
+      <c r="T12" s="22"/>
+      <c r="U12" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="25"/>
-      <c r="AA12" s="17">
+      <c r="V12" s="24"/>
+      <c r="AA12" s="20">
         <v>0</v>
       </c>
-      <c r="AB12" s="17"/>
+      <c r="AB12" s="20"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2063,44 +2063,44 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="16">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28">
         <v>1600</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16">
+      <c r="N13" s="28"/>
+      <c r="O13" s="28">
         <v>300</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28">
         <v>1000</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16">
+      <c r="R13" s="28"/>
+      <c r="S13" s="28">
         <f t="shared" ref="S13:S18" si="2">(Q13*0.1)+AA13</f>
         <v>100</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="29">
+      <c r="T13" s="28"/>
+      <c r="U13" s="25">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="AA13" s="16">
+      <c r="V13" s="26"/>
+      <c r="AA13" s="28">
         <f>(Y13*0.1)+AH13</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="16"/>
+      <c r="AB13" s="28"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -2109,43 +2109,43 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="17">
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="20">
         <v>1600</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17">
+      <c r="N14" s="20"/>
+      <c r="O14" s="20">
         <v>400</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20">
         <v>0</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="31">
+      <c r="R14" s="20"/>
+      <c r="S14" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="32"/>
-      <c r="U14" s="24">
+      <c r="T14" s="22"/>
+      <c r="U14" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="25"/>
-      <c r="AA14" s="17">
+      <c r="V14" s="24"/>
+      <c r="AA14" s="20">
         <v>0</v>
       </c>
-      <c r="AB14" s="17"/>
+      <c r="AB14" s="20"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -2154,43 +2154,43 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="16">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28">
         <v>1800</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16">
+      <c r="N15" s="28"/>
+      <c r="O15" s="28">
         <v>500</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16">
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28">
         <v>1500</v>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="27">
+      <c r="R15" s="28"/>
+      <c r="S15" s="29">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="29">
+      <c r="T15" s="30"/>
+      <c r="U15" s="25">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V15" s="30"/>
-      <c r="AA15" s="16">
+      <c r="V15" s="26"/>
+      <c r="AA15" s="28">
         <v>0</v>
       </c>
-      <c r="AB15" s="16"/>
+      <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -2199,43 +2199,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="17">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="20">
         <v>2200</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17">
+      <c r="N16" s="20"/>
+      <c r="O16" s="20">
         <v>400</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17">
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20">
         <v>1500</v>
       </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="31">
+      <c r="R16" s="20"/>
+      <c r="S16" s="21">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="24">
+      <c r="T16" s="22"/>
+      <c r="U16" s="23">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V16" s="25"/>
-      <c r="AA16" s="17">
+      <c r="V16" s="24"/>
+      <c r="AA16" s="20">
         <v>0</v>
       </c>
-      <c r="AB16" s="17"/>
+      <c r="AB16" s="20"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="7">
@@ -2244,43 +2244,43 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="16">
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28">
         <v>1500</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16">
+      <c r="N17" s="28"/>
+      <c r="O17" s="28">
         <v>600</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16">
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28">
         <v>1500</v>
       </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="27">
+      <c r="R17" s="28"/>
+      <c r="S17" s="29">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T17" s="28"/>
-      <c r="U17" s="29">
+      <c r="T17" s="30"/>
+      <c r="U17" s="25">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V17" s="30"/>
-      <c r="AA17" s="16">
+      <c r="V17" s="26"/>
+      <c r="AA17" s="28">
         <v>0</v>
       </c>
-      <c r="AB17" s="16"/>
+      <c r="AB17" s="28"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="8">
@@ -2289,17 +2289,17 @@
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
       <c r="M18" s="15" t="s">
         <v>23</v>
       </c>
@@ -2312,16 +2312,16 @@
         <v>0</v>
       </c>
       <c r="R18" s="15"/>
-      <c r="S18" s="33">
+      <c r="S18" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="34"/>
-      <c r="U18" s="35">
+      <c r="T18" s="17"/>
+      <c r="U18" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V18" s="36"/>
+      <c r="V18" s="19"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -2329,84 +2329,17 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AA5:AB5"/>
@@ -2431,17 +2364,84 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2468,29 +2468,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="Q2" s="44" t="s">
@@ -2509,41 +2509,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="22" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="23"/>
-      <c r="AA3" s="18" t="s">
+      <c r="V3" s="36"/>
+      <c r="AA3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="18"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -2552,43 +2552,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="17">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="20">
         <v>2800</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17">
+      <c r="N4" s="20"/>
+      <c r="O4" s="20">
         <v>600</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20">
         <v>700</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="31">
+      <c r="R4" s="20"/>
+      <c r="S4" s="21">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>280</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="24">
+      <c r="T4" s="22"/>
+      <c r="U4" s="23">
         <f>Q4-S4</f>
         <v>420</v>
       </c>
-      <c r="V4" s="25"/>
-      <c r="AA4" s="17">
+      <c r="V4" s="24"/>
+      <c r="AA4" s="20">
         <v>210</v>
       </c>
-      <c r="AB4" s="17"/>
+      <c r="AB4" s="20"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -2597,43 +2597,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="16">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28">
         <v>2800</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28">
         <v>400</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16">
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28">
         <v>500</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="27">
+      <c r="R5" s="28"/>
+      <c r="S5" s="29">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29">
+      <c r="T5" s="30"/>
+      <c r="U5" s="25">
         <f t="shared" ref="U5:U16" si="1">Q5-S5</f>
         <v>240</v>
       </c>
-      <c r="V5" s="30"/>
-      <c r="AA5" s="16">
+      <c r="V5" s="26"/>
+      <c r="AA5" s="28">
         <v>210</v>
       </c>
-      <c r="AB5" s="16"/>
+      <c r="AB5" s="28"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -2642,43 +2642,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="17">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="20">
         <v>3200</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20">
         <v>700</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20">
         <v>500</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="31">
+      <c r="R6" s="20"/>
+      <c r="S6" s="21">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="24">
+      <c r="T6" s="22"/>
+      <c r="U6" s="23">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V6" s="25"/>
-      <c r="AA6" s="17">
+      <c r="V6" s="24"/>
+      <c r="AA6" s="20">
         <v>210</v>
       </c>
-      <c r="AB6" s="17"/>
+      <c r="AB6" s="20"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -2687,43 +2687,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="16">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28">
         <v>3200</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
+      <c r="N7" s="28"/>
+      <c r="O7" s="28">
         <v>450</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16">
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28">
         <v>500</v>
       </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="27">
+      <c r="R7" s="28"/>
+      <c r="S7" s="29">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T7" s="28"/>
-      <c r="U7" s="29">
+      <c r="T7" s="30"/>
+      <c r="U7" s="25">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V7" s="30"/>
-      <c r="AA7" s="16">
+      <c r="V7" s="26"/>
+      <c r="AA7" s="28">
         <v>210</v>
       </c>
-      <c r="AB7" s="16"/>
+      <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -2732,43 +2732,43 @@
       <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="17">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="20">
         <v>2800</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20">
         <v>900</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17">
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20">
         <v>1000</v>
       </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="31">
+      <c r="R8" s="20"/>
+      <c r="S8" s="21">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="24">
+      <c r="T8" s="22"/>
+      <c r="U8" s="23">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V8" s="25"/>
-      <c r="AA8" s="17">
+      <c r="V8" s="24"/>
+      <c r="AA8" s="20">
         <v>210</v>
       </c>
-      <c r="AB8" s="17"/>
+      <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -2777,43 +2777,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="16">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28">
         <v>1600</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16">
+      <c r="N9" s="28"/>
+      <c r="O9" s="28">
         <v>400</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28">
         <v>900</v>
       </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="27">
+      <c r="R9" s="28"/>
+      <c r="S9" s="29">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T9" s="28"/>
-      <c r="U9" s="29">
+      <c r="T9" s="30"/>
+      <c r="U9" s="25">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V9" s="30"/>
-      <c r="AA9" s="16">
+      <c r="V9" s="26"/>
+      <c r="AA9" s="28">
         <v>210</v>
       </c>
-      <c r="AB9" s="16"/>
+      <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -2822,43 +2822,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="17">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="20">
         <v>1600</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17">
+      <c r="N10" s="20"/>
+      <c r="O10" s="20">
         <v>400</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17">
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20">
         <v>900</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="31">
+      <c r="R10" s="20"/>
+      <c r="S10" s="21">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T10" s="32"/>
-      <c r="U10" s="24">
+      <c r="T10" s="22"/>
+      <c r="U10" s="23">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V10" s="25"/>
-      <c r="AA10" s="17">
+      <c r="V10" s="24"/>
+      <c r="AA10" s="20">
         <v>210</v>
       </c>
-      <c r="AB10" s="17"/>
+      <c r="AB10" s="20"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -2867,43 +2867,43 @@
       <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="16">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28">
         <v>1800</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28">
         <v>400</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16">
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28">
         <v>1200</v>
       </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="27">
+      <c r="R11" s="28"/>
+      <c r="S11" s="29">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29">
+      <c r="T11" s="30"/>
+      <c r="U11" s="25">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="V11" s="30"/>
-      <c r="AA11" s="16">
+      <c r="V11" s="26"/>
+      <c r="AA11" s="28">
         <v>210</v>
       </c>
-      <c r="AB11" s="16"/>
+      <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2912,43 +2912,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="17">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="20">
         <v>2400</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20">
         <v>1500</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17">
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20">
         <v>1500</v>
       </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="31">
+      <c r="R12" s="20"/>
+      <c r="S12" s="21">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="24">
+      <c r="T12" s="22"/>
+      <c r="U12" s="23">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V12" s="25"/>
-      <c r="AA12" s="17">
+      <c r="V12" s="24"/>
+      <c r="AA12" s="20">
         <v>210</v>
       </c>
-      <c r="AB12" s="17"/>
+      <c r="AB12" s="20"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2957,43 +2957,43 @@
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="16">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28">
         <v>1600</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16">
+      <c r="N13" s="28"/>
+      <c r="O13" s="28">
         <v>300</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28">
         <v>1000</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16">
+      <c r="R13" s="28"/>
+      <c r="S13" s="28">
         <f>(Q13*0.1)+AA13</f>
         <v>310</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="29">
+      <c r="T13" s="28"/>
+      <c r="U13" s="25">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="AA13" s="16">
+      <c r="V13" s="26"/>
+      <c r="AA13" s="28">
         <v>210</v>
       </c>
-      <c r="AB13" s="16"/>
+      <c r="AB13" s="28"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -3002,43 +3002,43 @@
       <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="17">
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="20">
         <v>1600</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17">
+      <c r="N14" s="20"/>
+      <c r="O14" s="20">
         <v>300</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20">
         <v>750</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="31">
+      <c r="R14" s="20"/>
+      <c r="S14" s="21">
         <f>(Q14*0.1)+AA14</f>
         <v>285</v>
       </c>
-      <c r="T14" s="32"/>
-      <c r="U14" s="24">
+      <c r="T14" s="22"/>
+      <c r="U14" s="23">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="V14" s="25"/>
-      <c r="AA14" s="17">
+      <c r="V14" s="24"/>
+      <c r="AA14" s="20">
         <v>210</v>
       </c>
-      <c r="AB14" s="17"/>
+      <c r="AB14" s="20"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -3047,43 +3047,43 @@
       <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="16">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28">
         <v>1800</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16">
+      <c r="N15" s="28"/>
+      <c r="O15" s="28">
         <v>500</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16">
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28">
         <v>1500</v>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="27">
+      <c r="R15" s="28"/>
+      <c r="S15" s="29">
         <f>(Q15*0.1)+AA15</f>
         <v>360</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="29">
+      <c r="T15" s="30"/>
+      <c r="U15" s="25">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V15" s="30"/>
-      <c r="AA15" s="16">
+      <c r="V15" s="26"/>
+      <c r="AA15" s="28">
         <v>210</v>
       </c>
-      <c r="AB15" s="16"/>
+      <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -3092,43 +3092,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="17">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="20">
         <v>2200</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17">
+      <c r="N16" s="20"/>
+      <c r="O16" s="20">
         <v>400</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17">
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20">
         <v>1500</v>
       </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="31">
+      <c r="R16" s="20"/>
+      <c r="S16" s="21">
         <f>(Q16*0.1)+AA16</f>
         <v>360</v>
       </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="24">
+      <c r="T16" s="22"/>
+      <c r="U16" s="23">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V16" s="25"/>
-      <c r="AA16" s="17">
+      <c r="V16" s="24"/>
+      <c r="AA16" s="20">
         <v>210</v>
       </c>
-      <c r="AB16" s="17"/>
+      <c r="AB16" s="20"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="11">
@@ -3137,53 +3137,53 @@
       <c r="C17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="38">
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39">
         <v>1500</v>
       </c>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38">
+      <c r="N17" s="39"/>
+      <c r="O17" s="39">
         <v>600</v>
       </c>
-      <c r="P17" s="38"/>
-      <c r="Q17" s="38">
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39">
         <v>1380</v>
       </c>
-      <c r="R17" s="38"/>
-      <c r="S17" s="39">
+      <c r="R17" s="39"/>
+      <c r="S17" s="40">
         <f>(Q17*0.1)+BC16</f>
         <v>138</v>
       </c>
-      <c r="T17" s="40"/>
-      <c r="U17" s="41">
+      <c r="T17" s="41"/>
+      <c r="U17" s="42">
         <f>Q17-S17</f>
         <v>1242</v>
       </c>
-      <c r="V17" s="42"/>
-      <c r="AA17" s="16">
+      <c r="V17" s="43"/>
+      <c r="AA17" s="28">
         <v>210</v>
       </c>
-      <c r="AB17" s="16"/>
+      <c r="AB17" s="28"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q18" s="43" t="s">
+      <c r="Q18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
-      <c r="V18" s="43"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -3191,99 +3191,6 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="M4:N4"/>
@@ -3300,6 +3207,99 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3317,10 +3317,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAD2D72-6E8F-4BF8-9A06-F59BD2D2646F}">
-  <dimension ref="A1:Z18"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection sqref="A1:U18"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -3329,29 +3329,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
     </row>
     <row r="2" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="P2" s="44" t="s">
@@ -3370,41 +3370,41 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="22" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22" t="s">
+      <c r="M3" s="35"/>
+      <c r="N3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="18" t="s">
+      <c r="O3" s="35"/>
+      <c r="P3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18" t="s">
+      <c r="S3" s="32"/>
+      <c r="T3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="23"/>
-      <c r="Y3" s="18" t="s">
+      <c r="U3" s="36"/>
+      <c r="Y3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="18"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="6">
@@ -3413,43 +3413,43 @@
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="17">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="20">
         <v>2800</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20">
         <v>600</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17">
+      <c r="O4" s="20"/>
+      <c r="P4" s="20">
         <v>700</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="31">
-        <f>(P4*0.1)+Y4</f>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21">
+        <f t="shared" ref="R4:R16" si="0">(P4*0.1)+Y4</f>
         <v>280</v>
       </c>
-      <c r="S4" s="32"/>
-      <c r="T4" s="24">
+      <c r="S4" s="22"/>
+      <c r="T4" s="23">
         <f>P4-R4</f>
         <v>420</v>
       </c>
-      <c r="U4" s="25"/>
-      <c r="Y4" s="17">
+      <c r="U4" s="24"/>
+      <c r="Y4" s="20">
         <v>210</v>
       </c>
-      <c r="Z4" s="17"/>
+      <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="7">
@@ -3458,43 +3458,43 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="16">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28">
         <v>2800</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16">
+      <c r="M5" s="28"/>
+      <c r="N5" s="28">
         <v>400</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28">
         <v>500</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="27">
-        <f>(P5*0.1)+Y5</f>
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29">
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="S5" s="28"/>
-      <c r="T5" s="29">
-        <f t="shared" ref="T5:T16" si="0">P5-R5</f>
+      <c r="S5" s="30"/>
+      <c r="T5" s="25">
+        <f t="shared" ref="T5:T16" si="1">P5-R5</f>
         <v>240</v>
       </c>
-      <c r="U5" s="30"/>
-      <c r="Y5" s="16">
+      <c r="U5" s="26"/>
+      <c r="Y5" s="28">
         <v>210</v>
       </c>
-      <c r="Z5" s="16"/>
+      <c r="Z5" s="28"/>
     </row>
     <row r="6" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="6">
@@ -3503,43 +3503,43 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="17">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="20">
         <v>3200</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17">
+      <c r="M6" s="20"/>
+      <c r="N6" s="20">
         <v>700</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17">
+      <c r="O6" s="20"/>
+      <c r="P6" s="20">
         <v>500</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="31">
-        <f>(P6*0.1)+Y6</f>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="21">
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="S6" s="32"/>
-      <c r="T6" s="24">
-        <f t="shared" si="0"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23">
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="U6" s="25"/>
-      <c r="Y6" s="17">
+      <c r="U6" s="24"/>
+      <c r="Y6" s="20">
         <v>210</v>
       </c>
-      <c r="Z6" s="17"/>
+      <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="7">
@@ -3548,43 +3548,43 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="16">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28">
         <v>3200</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16">
+      <c r="M7" s="28"/>
+      <c r="N7" s="28">
         <v>450</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16">
+      <c r="O7" s="28"/>
+      <c r="P7" s="28">
         <v>500</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="27">
-        <f>(P7*0.1)+Y7</f>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="29">
+        <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29">
-        <f t="shared" si="0"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="25">
+        <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="U7" s="30"/>
-      <c r="Y7" s="16">
+      <c r="U7" s="26"/>
+      <c r="Y7" s="28">
         <v>210</v>
       </c>
-      <c r="Z7" s="16"/>
+      <c r="Z7" s="28"/>
     </row>
     <row r="8" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="6">
@@ -3593,43 +3593,43 @@
       <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="17">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="20">
         <v>2800</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17">
+      <c r="M8" s="20"/>
+      <c r="N8" s="20">
         <v>900</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17">
+      <c r="O8" s="20"/>
+      <c r="P8" s="20">
         <v>1000</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="31">
-        <f>(P8*0.1)+Y8</f>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="21">
+        <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="24">
-        <f t="shared" si="0"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23">
+        <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="U8" s="25"/>
-      <c r="Y8" s="17">
+      <c r="U8" s="24"/>
+      <c r="Y8" s="20">
         <v>210</v>
       </c>
-      <c r="Z8" s="17"/>
+      <c r="Z8" s="20"/>
     </row>
     <row r="9" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="7">
@@ -3638,43 +3638,43 @@
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="16">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28">
         <v>1600</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16">
+      <c r="M9" s="28"/>
+      <c r="N9" s="28">
         <v>400</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16">
+      <c r="O9" s="28"/>
+      <c r="P9" s="28">
         <v>900</v>
       </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="27">
-        <f>(P9*0.1)+Y9</f>
+      <c r="Q9" s="28"/>
+      <c r="R9" s="29">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29">
-        <f t="shared" si="0"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="25">
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="U9" s="30"/>
-      <c r="Y9" s="16">
+      <c r="U9" s="26"/>
+      <c r="Y9" s="28">
         <v>210</v>
       </c>
-      <c r="Z9" s="16"/>
+      <c r="Z9" s="28"/>
     </row>
     <row r="10" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="6">
@@ -3683,43 +3683,43 @@
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="17">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="20">
         <v>1600</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17">
+      <c r="M10" s="20"/>
+      <c r="N10" s="20">
         <v>400</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17">
+      <c r="O10" s="20"/>
+      <c r="P10" s="20">
         <v>900</v>
       </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="31">
-        <f>(P10*0.1)+Y10</f>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="21">
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="S10" s="32"/>
-      <c r="T10" s="24">
-        <f t="shared" si="0"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="23">
+        <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="U10" s="25"/>
-      <c r="Y10" s="17">
+      <c r="U10" s="24"/>
+      <c r="Y10" s="20">
         <v>210</v>
       </c>
-      <c r="Z10" s="17"/>
+      <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="7">
@@ -3728,43 +3728,43 @@
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="16">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28">
         <v>1800</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16">
+      <c r="M11" s="28"/>
+      <c r="N11" s="28">
         <v>400</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16">
+      <c r="O11" s="28"/>
+      <c r="P11" s="28">
         <v>1200</v>
       </c>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="27">
-        <f>(P11*0.1)+Y11</f>
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29">
+        <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29">
-        <f t="shared" si="0"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="25">
+        <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="U11" s="30"/>
-      <c r="Y11" s="16">
+      <c r="U11" s="26"/>
+      <c r="Y11" s="28">
         <v>210</v>
       </c>
-      <c r="Z11" s="16"/>
+      <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="6">
@@ -3773,43 +3773,43 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="17">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="20">
         <v>2400</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17">
+      <c r="M12" s="20"/>
+      <c r="N12" s="20">
         <v>1500</v>
       </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17">
+      <c r="O12" s="20"/>
+      <c r="P12" s="20">
         <v>1500</v>
       </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="31">
-        <f>(P12*0.1)+Y12</f>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="21">
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="S12" s="32"/>
-      <c r="T12" s="24">
-        <f t="shared" si="0"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="23">
+        <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="U12" s="25"/>
-      <c r="Y12" s="17">
+      <c r="U12" s="24"/>
+      <c r="Y12" s="20">
         <v>210</v>
       </c>
-      <c r="Z12" s="17"/>
+      <c r="Z12" s="20"/>
     </row>
     <row r="13" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="7">
@@ -3818,43 +3818,43 @@
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="16">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28">
         <v>1600</v>
       </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16">
+      <c r="M13" s="28"/>
+      <c r="N13" s="28">
         <v>300</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16">
+      <c r="O13" s="28"/>
+      <c r="P13" s="28">
         <v>1000</v>
       </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16">
-        <f>(P13*0.1)+Y13</f>
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28">
+        <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="S13" s="16"/>
-      <c r="T13" s="29">
-        <f t="shared" si="0"/>
+      <c r="S13" s="28"/>
+      <c r="T13" s="25">
+        <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="U13" s="30"/>
-      <c r="Y13" s="16">
+      <c r="U13" s="26"/>
+      <c r="Y13" s="28">
         <v>210</v>
       </c>
-      <c r="Z13" s="16"/>
+      <c r="Z13" s="28"/>
     </row>
     <row r="14" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="6">
@@ -3863,43 +3863,43 @@
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="17">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="20">
         <v>1600</v>
       </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17">
+      <c r="M14" s="20"/>
+      <c r="N14" s="20">
         <v>300</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17">
+      <c r="O14" s="20"/>
+      <c r="P14" s="20">
         <v>750</v>
       </c>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="31">
-        <f>(P14*0.1)+Y14</f>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21">
+        <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="S14" s="32"/>
-      <c r="T14" s="24">
-        <f t="shared" si="0"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="23">
+        <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="U14" s="25"/>
-      <c r="Y14" s="17">
+      <c r="U14" s="24"/>
+      <c r="Y14" s="20">
         <v>210</v>
       </c>
-      <c r="Z14" s="17"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="7">
@@ -3908,43 +3908,43 @@
       <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="16">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28">
         <v>1800</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16">
+      <c r="M15" s="28"/>
+      <c r="N15" s="28">
         <v>500</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16">
+      <c r="O15" s="28"/>
+      <c r="P15" s="28">
         <v>1500</v>
       </c>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="27">
-        <f>(P15*0.1)+Y15</f>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="29">
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="S15" s="28"/>
-      <c r="T15" s="29">
-        <f t="shared" si="0"/>
+      <c r="S15" s="30"/>
+      <c r="T15" s="25">
+        <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="U15" s="30"/>
-      <c r="Y15" s="16">
+      <c r="U15" s="26"/>
+      <c r="Y15" s="28">
         <v>210</v>
       </c>
-      <c r="Z15" s="16"/>
+      <c r="Z15" s="28"/>
     </row>
     <row r="16" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="6">
@@ -3953,43 +3953,43 @@
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="17">
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="20">
         <v>2200</v>
       </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17">
+      <c r="M16" s="20"/>
+      <c r="N16" s="20">
         <v>400</v>
       </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17">
+      <c r="O16" s="20"/>
+      <c r="P16" s="20">
         <v>1500</v>
       </c>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="31">
-        <f>(P16*0.1)+Y16</f>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21">
+        <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="S16" s="32"/>
-      <c r="T16" s="24">
-        <f t="shared" si="0"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="23">
+        <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="U16" s="25"/>
-      <c r="Y16" s="17">
+      <c r="U16" s="24"/>
+      <c r="Y16" s="20">
         <v>210</v>
       </c>
-      <c r="Z16" s="17"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="11">
@@ -3998,83 +3998,196 @@
       <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="38">
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39">
         <v>1500</v>
       </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38">
+      <c r="M17" s="39"/>
+      <c r="N17" s="39">
         <v>600</v>
       </c>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38">
+      <c r="O17" s="39"/>
+      <c r="P17" s="39">
         <v>1380</v>
       </c>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="39">
+      <c r="Q17" s="39"/>
+      <c r="R17" s="40">
         <f>(P17*0.1)+BA16</f>
         <v>138</v>
       </c>
-      <c r="S17" s="40"/>
-      <c r="T17" s="41">
+      <c r="S17" s="41"/>
+      <c r="T17" s="42">
         <f>P17-R17</f>
         <v>1242</v>
       </c>
-      <c r="U17" s="42"/>
-      <c r="Y17" s="16">
+      <c r="U17" s="43"/>
+      <c r="Y17" s="28">
         <v>210</v>
       </c>
-      <c r="Z17" s="16"/>
+      <c r="Z17" s="28"/>
     </row>
     <row r="18" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="P18" s="43" t="s">
+      <c r="P18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="Q18" s="43"/>
-      <c r="R18" s="43"/>
-      <c r="S18" s="43"/>
-      <c r="T18" s="43"/>
-      <c r="U18" s="43"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
       <c r="Y18" s="15">
         <v>0</v>
       </c>
       <c r="Z18" s="15"/>
     </row>
+    <row r="20" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>5</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>7</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20">
+        <v>9</v>
+      </c>
+      <c r="L20">
+        <v>10</v>
+      </c>
+      <c r="M20">
+        <v>11</v>
+      </c>
+      <c r="N20">
+        <v>12</v>
+      </c>
+      <c r="O20">
+        <v>13</v>
+      </c>
+      <c r="P20">
+        <v>14</v>
+      </c>
+      <c r="Q20">
+        <v>15</v>
+      </c>
+      <c r="R20">
+        <v>16</v>
+      </c>
+      <c r="S20">
+        <v>17</v>
+      </c>
+      <c r="T20">
+        <v>18</v>
+      </c>
+      <c r="U20">
+        <v>19</v>
+      </c>
+      <c r="V20">
+        <v>20</v>
+      </c>
+      <c r="W20">
+        <v>21</v>
+      </c>
+      <c r="X20">
+        <v>22</v>
+      </c>
+      <c r="Y20">
+        <v>23</v>
+      </c>
+      <c r="Z20">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="P18:U18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P2:U2"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="C11:K11"/>
     <mergeCell ref="L11:M11"/>
@@ -4099,72 +4212,33 @@
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="P18:U18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T12:U12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17 B4:B17" xr:uid="{5DAB2191-16FF-4945-91D8-BAE684A3DEAC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B17" xr:uid="{5DAB2191-16FF-4945-91D8-BAE684A3DEAC}">
       <formula1>"〇,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4198,7 +4272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13E3320D-AD6A-49DE-BA1F-8DE09716D6B2}">
   <dimension ref="A1:W20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection sqref="A1:W20"/>
     </sheetView>
   </sheetViews>
@@ -4208,31 +4282,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1"/>
@@ -4253,41 +4327,41 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="74" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="74" t="s">
+      <c r="M3" s="52"/>
+      <c r="N3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="18" t="s">
+      <c r="O3" s="52"/>
+      <c r="P3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="74" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="18" t="s">
+      <c r="S3" s="53"/>
+      <c r="T3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="74" t="s">
+      <c r="U3" s="32"/>
+      <c r="V3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="77"/>
+      <c r="W3" s="53"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="6">
@@ -4297,45 +4371,45 @@
         <f>VLOOKUP(A4,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="31">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="21">
         <f>VLOOKUP(C4,edit!$C$4:$S$17,14,FALSE)</f>
         <v>700</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="31">
+      <c r="M4" s="22"/>
+      <c r="N4" s="21">
         <f>(L4*0.1)</f>
         <v>70</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="17">
-        <f>VLOOKUP(C4,edit!$C$4:$Z$17,24,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="45">
+      <c r="O4" s="22"/>
+      <c r="P4" s="20">
+        <f>VLOOKUP(C4,edit!$C$4:$Z$17,23,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="54">
         <f>L4-N4-P4</f>
-        <v>630</v>
-      </c>
-      <c r="S4" s="46"/>
-      <c r="T4" s="17" t="s">
+        <v>420</v>
+      </c>
+      <c r="S4" s="55"/>
+      <c r="T4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="45">
+      <c r="U4" s="20"/>
+      <c r="V4" s="54">
         <v>550</v>
       </c>
-      <c r="W4" s="46"/>
+      <c r="W4" s="55"/>
     </row>
     <row r="5" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="7">
@@ -4345,45 +4419,45 @@
         <f>VLOOKUP(A5,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="27">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="29">
         <f>VLOOKUP(C5,edit!$C$4:$S$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="27">
+      <c r="M5" s="30"/>
+      <c r="N5" s="29">
         <f t="shared" ref="N5:N16" si="0">(L5*0.1)</f>
         <v>50</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="27">
-        <f>VLOOKUP(C5,edit!$C$4:$Z$17,24,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="67">
+      <c r="O5" s="30"/>
+      <c r="P5" s="29">
+        <f>VLOOKUP(C5,edit!$C$4:$Z$17,23,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="48">
         <f t="shared" ref="R5:R16" si="1">L5-N5-P5</f>
-        <v>450</v>
-      </c>
-      <c r="S5" s="68"/>
-      <c r="T5" s="16" t="s">
+        <v>240</v>
+      </c>
+      <c r="S5" s="49"/>
+      <c r="T5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="67">
+      <c r="U5" s="28"/>
+      <c r="V5" s="48">
         <v>220</v>
       </c>
-      <c r="W5" s="68"/>
+      <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="6">
@@ -4393,41 +4467,41 @@
         <f>VLOOKUP(A6,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="31">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="21">
         <f>VLOOKUP(C6,edit!$C$4:$S$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="31">
+      <c r="M6" s="22"/>
+      <c r="N6" s="21">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="31">
-        <f>VLOOKUP(C6,edit!$C$4:$Z$17,24,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="45">
+      <c r="O6" s="22"/>
+      <c r="P6" s="21">
+        <f>VLOOKUP(C6,edit!$C$4:$Z$17,23,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="54">
         <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="S6" s="46"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="45"/>
-      <c r="W6" s="46"/>
+        <v>240</v>
+      </c>
+      <c r="S6" s="55"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="7">
@@ -4437,41 +4511,41 @@
         <f>VLOOKUP(A7,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="27">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="29">
         <f>VLOOKUP(C7,edit!$C$4:$S$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="27">
+      <c r="M7" s="30"/>
+      <c r="N7" s="29">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="27">
-        <f>VLOOKUP(C7,edit!$C$4:$Z$17,24,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="67">
+      <c r="O7" s="30"/>
+      <c r="P7" s="29">
+        <f>VLOOKUP(C7,edit!$C$4:$Z$17,23,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="48">
         <f t="shared" si="1"/>
-        <v>450</v>
-      </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="68"/>
+        <v>240</v>
+      </c>
+      <c r="S7" s="49"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="49"/>
     </row>
     <row r="8" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="6">
@@ -4481,41 +4555,41 @@
         <f>VLOOKUP(A8,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C8" s="47" t="s">
+      <c r="C8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="31">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="21">
         <f>VLOOKUP(C8,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="31">
+      <c r="M8" s="22"/>
+      <c r="N8" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="31">
-        <f>VLOOKUP(C8,edit!$C$4:$Z$17,24,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="45">
+      <c r="O8" s="22"/>
+      <c r="P8" s="21">
+        <f>VLOOKUP(C8,edit!$C$4:$Z$17,23,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="54">
         <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="S8" s="46"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="46"/>
+        <v>690</v>
+      </c>
+      <c r="S8" s="55"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="55"/>
     </row>
     <row r="9" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="7">
@@ -4525,41 +4599,41 @@
         <f>VLOOKUP(A9,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="27">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="29">
         <f>VLOOKUP(C9,edit!$C$4:$S$17,14,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="27">
+      <c r="M9" s="30"/>
+      <c r="N9" s="29">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="27">
-        <f>VLOOKUP(C9,edit!$C$4:$Z$17,24,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="67">
+      <c r="O9" s="30"/>
+      <c r="P9" s="29">
+        <f>VLOOKUP(C9,edit!$C$4:$Z$17,23,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="48">
         <f t="shared" si="1"/>
-        <v>810</v>
-      </c>
-      <c r="S9" s="68"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="68"/>
+        <v>600</v>
+      </c>
+      <c r="S9" s="49"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="49"/>
     </row>
     <row r="10" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="6">
@@ -4569,41 +4643,41 @@
         <f>VLOOKUP(A10,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C10" s="47" t="s">
+      <c r="C10" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="31">
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="21">
         <f>VLOOKUP(C10,edit!$C$4:$S$17,14,FALSE)</f>
         <v>900</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="31">
+      <c r="M10" s="22"/>
+      <c r="N10" s="21">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="31">
-        <f>VLOOKUP(C10,edit!$C$4:$Z$17,24,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="45">
+      <c r="O10" s="22"/>
+      <c r="P10" s="21">
+        <f>VLOOKUP(C10,edit!$C$4:$Z$17,23,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="54">
         <f t="shared" si="1"/>
-        <v>810</v>
-      </c>
-      <c r="S10" s="46"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="45"/>
-      <c r="W10" s="46"/>
+        <v>600</v>
+      </c>
+      <c r="S10" s="55"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="55"/>
     </row>
     <row r="11" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="7">
@@ -4613,41 +4687,41 @@
         <f>VLOOKUP(A11,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="27">
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="29">
         <f>VLOOKUP(C11,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="27">
+      <c r="M11" s="30"/>
+      <c r="N11" s="29">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="27">
-        <f>VLOOKUP(C11,edit!$C$4:$Z$17,24,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="67">
+      <c r="O11" s="30"/>
+      <c r="P11" s="29">
+        <f>VLOOKUP(C11,edit!$C$4:$Z$17,23,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="48">
         <f t="shared" si="1"/>
-        <v>1080</v>
-      </c>
-      <c r="S11" s="68"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="68"/>
+        <v>870</v>
+      </c>
+      <c r="S11" s="49"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="49"/>
     </row>
     <row r="12" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="6">
@@ -4657,41 +4731,41 @@
         <f>VLOOKUP(A12,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C12" s="47" t="s">
+      <c r="C12" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="31">
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="21">
         <f>VLOOKUP(C12,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="31">
+      <c r="M12" s="22"/>
+      <c r="N12" s="21">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="31">
-        <f>VLOOKUP(C12,edit!$C$4:$Z$17,24,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="45">
+      <c r="O12" s="22"/>
+      <c r="P12" s="21">
+        <f>VLOOKUP(C12,edit!$C$4:$Z$17,23,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="54">
         <f t="shared" si="1"/>
-        <v>1350</v>
-      </c>
-      <c r="S12" s="46"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="45"/>
-      <c r="W12" s="46"/>
+        <v>1140</v>
+      </c>
+      <c r="S12" s="55"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="55"/>
     </row>
     <row r="13" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="7">
@@ -4701,41 +4775,41 @@
         <f>VLOOKUP(A13,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="27">
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="29">
         <f>VLOOKUP(C13,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="27">
+      <c r="M13" s="30"/>
+      <c r="N13" s="29">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="27">
-        <f>VLOOKUP(C13,edit!$C$4:$Z$17,24,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="67">
+      <c r="O13" s="30"/>
+      <c r="P13" s="29">
+        <f>VLOOKUP(C13,edit!$C$4:$Z$17,23,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q13" s="30"/>
+      <c r="R13" s="48">
         <f t="shared" si="1"/>
-        <v>900</v>
-      </c>
-      <c r="S13" s="68"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="68"/>
+        <v>690</v>
+      </c>
+      <c r="S13" s="49"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="49"/>
     </row>
     <row r="14" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="6">
@@ -4745,41 +4819,41 @@
         <f>VLOOKUP(A14,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C14" s="47" t="s">
+      <c r="C14" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="31">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="21">
         <f>VLOOKUP(C14,edit!$C$4:$S$17,14,FALSE)</f>
         <v>750</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="31">
+      <c r="M14" s="22"/>
+      <c r="N14" s="21">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="31">
-        <f>VLOOKUP(C14,edit!$C$4:$Z$17,24,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="45">
+      <c r="O14" s="22"/>
+      <c r="P14" s="21">
+        <f>VLOOKUP(C14,edit!$C$4:$Z$17,23,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="54">
         <f t="shared" si="1"/>
-        <v>675</v>
-      </c>
-      <c r="S14" s="46"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="45"/>
-      <c r="W14" s="46"/>
+        <v>465</v>
+      </c>
+      <c r="S14" s="55"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="55"/>
     </row>
     <row r="15" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="7">
@@ -4789,41 +4863,41 @@
         <f>VLOOKUP(A15,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="27">
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="29">
         <f>VLOOKUP(C15,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="27">
+      <c r="M15" s="30"/>
+      <c r="N15" s="29">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="27">
-        <f>VLOOKUP(C15,edit!$C$4:$Z$17,24,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="67">
+      <c r="O15" s="30"/>
+      <c r="P15" s="29">
+        <f>VLOOKUP(C15,edit!$C$4:$Z$17,23,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q15" s="30"/>
+      <c r="R15" s="48">
         <f t="shared" si="1"/>
-        <v>1350</v>
-      </c>
-      <c r="S15" s="68"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="68"/>
+        <v>1140</v>
+      </c>
+      <c r="S15" s="49"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="49"/>
     </row>
     <row r="16" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="6">
@@ -4833,41 +4907,41 @@
         <f>VLOOKUP(A16,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="31">
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="21">
         <f>VLOOKUP(C16,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="31">
+      <c r="M16" s="22"/>
+      <c r="N16" s="21">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O16" s="32"/>
-      <c r="P16" s="31">
-        <f>VLOOKUP(C16,edit!$C$4:$Z$17,24,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="45">
+      <c r="O16" s="22"/>
+      <c r="P16" s="21">
+        <f>VLOOKUP(C16,edit!$C$4:$Z$17,23,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="54">
         <f t="shared" si="1"/>
-        <v>1350</v>
-      </c>
-      <c r="S16" s="46"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="45"/>
-      <c r="W16" s="46"/>
+        <v>1140</v>
+      </c>
+      <c r="S16" s="55"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="55"/>
     </row>
     <row r="17" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="11">
@@ -4877,126 +4951,224 @@
         <f>VLOOKUP(A17,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="39">
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
+      <c r="J17" s="71"/>
+      <c r="K17" s="72"/>
+      <c r="L17" s="40">
         <f>VLOOKUP(C17,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1380</v>
       </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="39">
+      <c r="M17" s="41"/>
+      <c r="N17" s="40">
         <f>(L17*0.1)</f>
         <v>138</v>
       </c>
-      <c r="O17" s="40"/>
-      <c r="P17" s="39">
-        <f>VLOOKUP(C17,edit!$C$4:$Z$17,24,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="53">
+      <c r="O17" s="41"/>
+      <c r="P17" s="40">
+        <f>VLOOKUP(C17,edit!$C$4:$Z$17,23,FALSE)</f>
+        <v>210</v>
+      </c>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="61">
         <f>L17-N17-P17</f>
-        <v>1242</v>
-      </c>
-      <c r="S17" s="54"/>
-      <c r="T17" s="38"/>
-      <c r="U17" s="38"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="54"/>
+        <v>1032</v>
+      </c>
+      <c r="S17" s="62"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="62"/>
     </row>
     <row r="18" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="73">
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="76"/>
+      <c r="J18" s="76"/>
+      <c r="K18" s="77"/>
+      <c r="L18" s="65">
         <f>SUMIF($B$4:$B$17,"〇",L4:M17)</f>
         <v>6830</v>
       </c>
-      <c r="M18" s="59"/>
-      <c r="N18" s="73">
+      <c r="M18" s="66"/>
+      <c r="N18" s="65">
         <f>SUMIF($B$4:$B$17,"〇",N4:O17)</f>
         <v>683</v>
       </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="73">
+      <c r="O18" s="66"/>
+      <c r="P18" s="65">
         <f>SUMIF($B$4:$B$17,"〇",P4:Q17)</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="71">
+        <v>1260</v>
+      </c>
+      <c r="Q18" s="66"/>
+      <c r="R18" s="63">
         <f>SUMIF($B$4:$B$17,"〇",R4:S17)</f>
-        <v>6147</v>
-      </c>
-      <c r="S18" s="72"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="71">
+        <v>4887</v>
+      </c>
+      <c r="S18" s="64"/>
+      <c r="T18" s="73"/>
+      <c r="U18" s="66"/>
+      <c r="V18" s="63">
         <f>SUM(V4:W17)</f>
         <v>770</v>
       </c>
-      <c r="W18" s="72"/>
+      <c r="W18" s="64"/>
     </row>
     <row r="19" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="40"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="40"/>
-      <c r="P19" s="38"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="60" t="s">
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="60"/>
-      <c r="V19" s="69">
+      <c r="U19" s="74"/>
+      <c r="V19" s="59">
         <f>R18-V18</f>
-        <v>5377</v>
-      </c>
-      <c r="W19" s="70"/>
+        <v>4117</v>
+      </c>
+      <c r="W19" s="60"/>
     </row>
     <row r="20" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="R20" s="43" t="s">
+      <c r="R20" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S20" s="43"/>
-      <c r="T20" s="43"/>
-      <c r="U20" s="43"/>
-      <c r="V20" s="43"/>
-      <c r="W20" s="43"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C6:K6"/>
     <mergeCell ref="R20:W20"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="P2:W2"/>
@@ -5021,173 +5193,75 @@
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="C18:K18"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A4:S4">
-    <cfRule type="expression" dxfId="13" priority="14">
+    <cfRule type="expression" dxfId="0" priority="14">
       <formula>$B$4="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:S5">
-    <cfRule type="expression" dxfId="12" priority="13">
+    <cfRule type="expression" dxfId="13" priority="13">
       <formula>$B$5="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:S6">
-    <cfRule type="expression" dxfId="11" priority="12">
+    <cfRule type="expression" dxfId="12" priority="12">
       <formula>$B$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:S7">
-    <cfRule type="expression" dxfId="10" priority="11">
+    <cfRule type="expression" dxfId="11" priority="11">
       <formula>$B$7="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:S8">
-    <cfRule type="expression" dxfId="9" priority="10">
+    <cfRule type="expression" dxfId="10" priority="10">
       <formula>$B$8="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:S9">
-    <cfRule type="expression" dxfId="8" priority="9">
+    <cfRule type="expression" dxfId="9" priority="9">
       <formula>$B$9="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:S10">
-    <cfRule type="expression" dxfId="7" priority="8">
+    <cfRule type="expression" dxfId="8" priority="8">
       <formula>$B$10="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:S11">
-    <cfRule type="expression" dxfId="6" priority="7">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>$B$11="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:S12">
-    <cfRule type="expression" dxfId="5" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$B$12="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S13">
-    <cfRule type="expression" dxfId="4" priority="5">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>$B$13="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:S14">
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$B$14="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:S15">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="3" priority="3">
       <formula>$B$15="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:S16">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$B$16="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:S17">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>$B$17="-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5201,7 +5275,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId2"/>
-  <webPublishItems count="10">
+  <webPublishItems count="11">
     <webPublishItem id="15378" divId="TMP_15378" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht"/>
     <webPublishItem id="19650" divId="TMP_19650" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="4869" divId="TMP_4869" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
@@ -5212,6 +5286,7 @@
     <webPublishItem id="24451" divId="TMP_24451" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="13286" divId="TMP_13286" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="28012" divId="TMP_28012" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
+    <webPublishItem id="20274" divId="TMP_20274" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/TMP.xlsx
+++ b/TMP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE253A6D-F215-41DD-8B81-E56D867A37A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F8D3AB-8F75-411D-ABE7-890F7F77B5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="3" xr2:uid="{72068E89-B82B-4D22-8EEA-457FC02A677F}"/>
   </bookViews>
@@ -946,6 +946,57 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -958,56 +1009,8 @@
     <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1030,75 +1033,6 @@
     <xf numFmtId="6" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1108,6 +1042,27 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1118,6 +1073,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1131,6 +1089,48 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1579,29 +1579,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="V2" s="10" t="s">
@@ -1615,41 +1615,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="35" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="32" t="s">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32" t="s">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="AA3" s="32" t="s">
+      <c r="V3" s="23"/>
+      <c r="AA3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="32"/>
+      <c r="AB3" s="18"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -1658,43 +1658,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="20">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="17">
         <v>2800</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17">
         <v>700</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17">
         <v>0</v>
       </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21">
+      <c r="R4" s="17"/>
+      <c r="S4" s="31">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="23">
+      <c r="T4" s="32"/>
+      <c r="U4" s="24">
         <f>Q4-S4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="24"/>
-      <c r="AA4" s="20">
+      <c r="V4" s="25"/>
+      <c r="AA4" s="17">
         <v>0</v>
       </c>
-      <c r="AB4" s="20"/>
+      <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -1703,43 +1703,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="16">
         <v>2800</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16">
         <v>400</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16">
         <v>0</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29">
+      <c r="R5" s="16"/>
+      <c r="S5" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="25">
+      <c r="T5" s="28"/>
+      <c r="U5" s="29">
         <f t="shared" ref="U5:U18" si="1">Q5-S5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="26"/>
-      <c r="AA5" s="28">
+      <c r="V5" s="30"/>
+      <c r="AA5" s="16">
         <v>0</v>
       </c>
-      <c r="AB5" s="28"/>
+      <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -1748,43 +1748,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="20">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="17">
         <v>3200</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17">
         <v>700</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17">
         <v>0</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21">
+      <c r="R6" s="17"/>
+      <c r="S6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="23">
+      <c r="T6" s="32"/>
+      <c r="U6" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="24"/>
-      <c r="AA6" s="20">
+      <c r="V6" s="25"/>
+      <c r="AA6" s="17">
         <v>0</v>
       </c>
-      <c r="AB6" s="20"/>
+      <c r="AB6" s="17"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -1793,43 +1793,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="16">
         <v>3200</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
         <v>450</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16">
         <v>0</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29">
+      <c r="R7" s="16"/>
+      <c r="S7" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="25">
+      <c r="T7" s="28"/>
+      <c r="U7" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V7" s="26"/>
-      <c r="AA7" s="28">
+      <c r="V7" s="30"/>
+      <c r="AA7" s="16">
         <v>0</v>
       </c>
-      <c r="AB7" s="28"/>
+      <c r="AB7" s="16"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -1838,43 +1838,43 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="20">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="17">
         <v>2800</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
         <v>1000</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17">
         <v>0</v>
       </c>
-      <c r="R8" s="20"/>
-      <c r="S8" s="21">
+      <c r="R8" s="17"/>
+      <c r="S8" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="23">
+      <c r="T8" s="32"/>
+      <c r="U8" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V8" s="24"/>
-      <c r="AA8" s="20">
+      <c r="V8" s="25"/>
+      <c r="AA8" s="17">
         <v>0</v>
       </c>
-      <c r="AB8" s="20"/>
+      <c r="AB8" s="17"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -1883,43 +1883,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="16">
         <v>1600</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
         <v>400</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16">
         <v>0</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="29">
+      <c r="R9" s="16"/>
+      <c r="S9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="25">
+      <c r="T9" s="28"/>
+      <c r="U9" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="AA9" s="28">
+      <c r="V9" s="30"/>
+      <c r="AA9" s="16">
         <v>0</v>
       </c>
-      <c r="AB9" s="28"/>
+      <c r="AB9" s="16"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -1928,43 +1928,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="20">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="17">
         <v>1600</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20">
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
         <v>400</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20">
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17">
         <v>0</v>
       </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="21">
+      <c r="R10" s="17"/>
+      <c r="S10" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="23">
+      <c r="T10" s="32"/>
+      <c r="U10" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V10" s="24"/>
-      <c r="AA10" s="20">
+      <c r="V10" s="25"/>
+      <c r="AA10" s="17">
         <v>0</v>
       </c>
-      <c r="AB10" s="20"/>
+      <c r="AB10" s="17"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -1973,43 +1973,43 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="16">
         <v>1800</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
         <v>400</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16">
         <v>0</v>
       </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="29">
+      <c r="R11" s="16"/>
+      <c r="S11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="25">
+      <c r="T11" s="28"/>
+      <c r="U11" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="26"/>
-      <c r="AA11" s="28">
+      <c r="V11" s="30"/>
+      <c r="AA11" s="16">
         <v>0</v>
       </c>
-      <c r="AB11" s="28"/>
+      <c r="AB11" s="16"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2018,43 +2018,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="20">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="17">
         <v>2400</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20">
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
         <v>1500</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20">
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17">
         <v>0</v>
       </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21">
+      <c r="R12" s="17"/>
+      <c r="S12" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23">
+      <c r="T12" s="32"/>
+      <c r="U12" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="24"/>
-      <c r="AA12" s="20">
+      <c r="V12" s="25"/>
+      <c r="AA12" s="17">
         <v>0</v>
       </c>
-      <c r="AB12" s="20"/>
+      <c r="AB12" s="17"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2063,44 +2063,44 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="16">
         <v>1600</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16">
         <v>300</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16">
         <v>1000</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28">
+      <c r="R13" s="16"/>
+      <c r="S13" s="16">
         <f t="shared" ref="S13:S18" si="2">(Q13*0.1)+AA13</f>
         <v>100</v>
       </c>
-      <c r="T13" s="28"/>
-      <c r="U13" s="25">
+      <c r="T13" s="16"/>
+      <c r="U13" s="29">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="V13" s="26"/>
-      <c r="AA13" s="28">
+      <c r="V13" s="30"/>
+      <c r="AA13" s="16">
         <f>(Y13*0.1)+AH13</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="28"/>
+      <c r="AB13" s="16"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -2109,43 +2109,43 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="20">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="17">
         <v>1600</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20">
+      <c r="N14" s="17"/>
+      <c r="O14" s="17">
         <v>400</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17">
         <v>0</v>
       </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="21">
+      <c r="R14" s="17"/>
+      <c r="S14" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="23">
+      <c r="T14" s="32"/>
+      <c r="U14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="24"/>
-      <c r="AA14" s="20">
+      <c r="V14" s="25"/>
+      <c r="AA14" s="17">
         <v>0</v>
       </c>
-      <c r="AB14" s="20"/>
+      <c r="AB14" s="17"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -2154,43 +2154,43 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="16">
         <v>1800</v>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28">
+      <c r="N15" s="16"/>
+      <c r="O15" s="16">
         <v>500</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28">
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16">
         <v>1500</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="29">
+      <c r="R15" s="16"/>
+      <c r="S15" s="27">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="25">
+      <c r="T15" s="28"/>
+      <c r="U15" s="29">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V15" s="26"/>
-      <c r="AA15" s="28">
+      <c r="V15" s="30"/>
+      <c r="AA15" s="16">
         <v>0</v>
       </c>
-      <c r="AB15" s="28"/>
+      <c r="AB15" s="16"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -2199,43 +2199,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="20">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="17">
         <v>2200</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20">
+      <c r="N16" s="17"/>
+      <c r="O16" s="17">
         <v>400</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20">
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17">
         <v>1500</v>
       </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="21">
+      <c r="R16" s="17"/>
+      <c r="S16" s="31">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23">
+      <c r="T16" s="32"/>
+      <c r="U16" s="24">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V16" s="24"/>
-      <c r="AA16" s="20">
+      <c r="V16" s="25"/>
+      <c r="AA16" s="17">
         <v>0</v>
       </c>
-      <c r="AB16" s="20"/>
+      <c r="AB16" s="17"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="7">
@@ -2244,43 +2244,43 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="16">
         <v>1500</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28">
+      <c r="N17" s="16"/>
+      <c r="O17" s="16">
         <v>600</v>
       </c>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28">
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16">
         <v>1500</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="29">
+      <c r="R17" s="16"/>
+      <c r="S17" s="27">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T17" s="30"/>
-      <c r="U17" s="25">
+      <c r="T17" s="28"/>
+      <c r="U17" s="29">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V17" s="26"/>
-      <c r="AA17" s="28">
+      <c r="V17" s="30"/>
+      <c r="AA17" s="16">
         <v>0</v>
       </c>
-      <c r="AB17" s="28"/>
+      <c r="AB17" s="16"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="8">
@@ -2289,17 +2289,17 @@
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="15" t="s">
         <v>23</v>
       </c>
@@ -2312,16 +2312,16 @@
         <v>0</v>
       </c>
       <c r="R18" s="15"/>
-      <c r="S18" s="16">
+      <c r="S18" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="17"/>
-      <c r="U18" s="18">
+      <c r="T18" s="34"/>
+      <c r="U18" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V18" s="19"/>
+      <c r="V18" s="36"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -2329,17 +2329,84 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AA5:AB5"/>
@@ -2364,84 +2431,17 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2468,39 +2468,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="4" t="s">
@@ -2509,41 +2509,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="35" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="32" t="s">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32" t="s">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="AA3" s="32" t="s">
+      <c r="V3" s="23"/>
+      <c r="AA3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="32"/>
+      <c r="AB3" s="18"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -2552,43 +2552,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="20">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="17">
         <v>2800</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17">
         <v>600</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17">
         <v>700</v>
       </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21">
+      <c r="R4" s="17"/>
+      <c r="S4" s="31">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>280</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="23">
+      <c r="T4" s="32"/>
+      <c r="U4" s="24">
         <f>Q4-S4</f>
         <v>420</v>
       </c>
-      <c r="V4" s="24"/>
-      <c r="AA4" s="20">
+      <c r="V4" s="25"/>
+      <c r="AA4" s="17">
         <v>210</v>
       </c>
-      <c r="AB4" s="20"/>
+      <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -2597,43 +2597,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="16">
         <v>2800</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16">
         <v>400</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16">
         <v>500</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29">
+      <c r="R5" s="16"/>
+      <c r="S5" s="27">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="25">
+      <c r="T5" s="28"/>
+      <c r="U5" s="29">
         <f t="shared" ref="U5:U16" si="1">Q5-S5</f>
         <v>240</v>
       </c>
-      <c r="V5" s="26"/>
-      <c r="AA5" s="28">
+      <c r="V5" s="30"/>
+      <c r="AA5" s="16">
         <v>210</v>
       </c>
-      <c r="AB5" s="28"/>
+      <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -2642,43 +2642,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="20">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="17">
         <v>3200</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17">
         <v>700</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17">
         <v>500</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21">
+      <c r="R6" s="17"/>
+      <c r="S6" s="31">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="23">
+      <c r="T6" s="32"/>
+      <c r="U6" s="24">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V6" s="24"/>
-      <c r="AA6" s="20">
+      <c r="V6" s="25"/>
+      <c r="AA6" s="17">
         <v>210</v>
       </c>
-      <c r="AB6" s="20"/>
+      <c r="AB6" s="17"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -2687,43 +2687,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="16">
         <v>3200</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
         <v>450</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16">
         <v>500</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29">
+      <c r="R7" s="16"/>
+      <c r="S7" s="27">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="25">
+      <c r="T7" s="28"/>
+      <c r="U7" s="29">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V7" s="26"/>
-      <c r="AA7" s="28">
+      <c r="V7" s="30"/>
+      <c r="AA7" s="16">
         <v>210</v>
       </c>
-      <c r="AB7" s="28"/>
+      <c r="AB7" s="16"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -2732,43 +2732,43 @@
       <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="20">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="17">
         <v>2800</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
         <v>900</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17">
         <v>1000</v>
       </c>
-      <c r="R8" s="20"/>
-      <c r="S8" s="21">
+      <c r="R8" s="17"/>
+      <c r="S8" s="31">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="23">
+      <c r="T8" s="32"/>
+      <c r="U8" s="24">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V8" s="24"/>
-      <c r="AA8" s="20">
+      <c r="V8" s="25"/>
+      <c r="AA8" s="17">
         <v>210</v>
       </c>
-      <c r="AB8" s="20"/>
+      <c r="AB8" s="17"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -2777,43 +2777,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="16">
         <v>1600</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
         <v>400</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16">
         <v>900</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="29">
+      <c r="R9" s="16"/>
+      <c r="S9" s="27">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="25">
+      <c r="T9" s="28"/>
+      <c r="U9" s="29">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="AA9" s="28">
+      <c r="V9" s="30"/>
+      <c r="AA9" s="16">
         <v>210</v>
       </c>
-      <c r="AB9" s="28"/>
+      <c r="AB9" s="16"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -2822,43 +2822,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="20">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="17">
         <v>1600</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20">
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
         <v>400</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20">
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17">
         <v>900</v>
       </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="21">
+      <c r="R10" s="17"/>
+      <c r="S10" s="31">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="23">
+      <c r="T10" s="32"/>
+      <c r="U10" s="24">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V10" s="24"/>
-      <c r="AA10" s="20">
+      <c r="V10" s="25"/>
+      <c r="AA10" s="17">
         <v>210</v>
       </c>
-      <c r="AB10" s="20"/>
+      <c r="AB10" s="17"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -2867,43 +2867,43 @@
       <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="16">
         <v>1800</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
         <v>400</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16">
         <v>1200</v>
       </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="29">
+      <c r="R11" s="16"/>
+      <c r="S11" s="27">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="25">
+      <c r="T11" s="28"/>
+      <c r="U11" s="29">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="V11" s="26"/>
-      <c r="AA11" s="28">
+      <c r="V11" s="30"/>
+      <c r="AA11" s="16">
         <v>210</v>
       </c>
-      <c r="AB11" s="28"/>
+      <c r="AB11" s="16"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2912,43 +2912,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="20">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="17">
         <v>2400</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20">
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
         <v>1500</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20">
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17">
         <v>1500</v>
       </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21">
+      <c r="R12" s="17"/>
+      <c r="S12" s="31">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23">
+      <c r="T12" s="32"/>
+      <c r="U12" s="24">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V12" s="24"/>
-      <c r="AA12" s="20">
+      <c r="V12" s="25"/>
+      <c r="AA12" s="17">
         <v>210</v>
       </c>
-      <c r="AB12" s="20"/>
+      <c r="AB12" s="17"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2957,43 +2957,43 @@
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="16">
         <v>1600</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16">
         <v>300</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16">
         <v>1000</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28">
+      <c r="R13" s="16"/>
+      <c r="S13" s="16">
         <f>(Q13*0.1)+AA13</f>
         <v>310</v>
       </c>
-      <c r="T13" s="28"/>
-      <c r="U13" s="25">
+      <c r="T13" s="16"/>
+      <c r="U13" s="29">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V13" s="26"/>
-      <c r="AA13" s="28">
+      <c r="V13" s="30"/>
+      <c r="AA13" s="16">
         <v>210</v>
       </c>
-      <c r="AB13" s="28"/>
+      <c r="AB13" s="16"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -3002,43 +3002,43 @@
       <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="20">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="17">
         <v>1600</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20">
+      <c r="N14" s="17"/>
+      <c r="O14" s="17">
         <v>300</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17">
         <v>750</v>
       </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="21">
+      <c r="R14" s="17"/>
+      <c r="S14" s="31">
         <f>(Q14*0.1)+AA14</f>
         <v>285</v>
       </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="23">
+      <c r="T14" s="32"/>
+      <c r="U14" s="24">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="V14" s="24"/>
-      <c r="AA14" s="20">
+      <c r="V14" s="25"/>
+      <c r="AA14" s="17">
         <v>210</v>
       </c>
-      <c r="AB14" s="20"/>
+      <c r="AB14" s="17"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -3047,43 +3047,43 @@
       <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="16">
         <v>1800</v>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28">
+      <c r="N15" s="16"/>
+      <c r="O15" s="16">
         <v>500</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28">
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16">
         <v>1500</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="29">
+      <c r="R15" s="16"/>
+      <c r="S15" s="27">
         <f>(Q15*0.1)+AA15</f>
         <v>360</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="25">
+      <c r="T15" s="28"/>
+      <c r="U15" s="29">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V15" s="26"/>
-      <c r="AA15" s="28">
+      <c r="V15" s="30"/>
+      <c r="AA15" s="16">
         <v>210</v>
       </c>
-      <c r="AB15" s="28"/>
+      <c r="AB15" s="16"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -3092,43 +3092,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="20">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="17">
         <v>2200</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20">
+      <c r="N16" s="17"/>
+      <c r="O16" s="17">
         <v>400</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20">
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17">
         <v>1500</v>
       </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="21">
+      <c r="R16" s="17"/>
+      <c r="S16" s="31">
         <f>(Q16*0.1)+AA16</f>
         <v>360</v>
       </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23">
+      <c r="T16" s="32"/>
+      <c r="U16" s="24">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V16" s="24"/>
-      <c r="AA16" s="20">
+      <c r="V16" s="25"/>
+      <c r="AA16" s="17">
         <v>210</v>
       </c>
-      <c r="AB16" s="20"/>
+      <c r="AB16" s="17"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="11">
@@ -3137,53 +3137,53 @@
       <c r="C17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39">
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40">
         <v>1500</v>
       </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39">
+      <c r="N17" s="40"/>
+      <c r="O17" s="40">
         <v>600</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39">
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40">
         <v>1380</v>
       </c>
-      <c r="R17" s="39"/>
-      <c r="S17" s="40">
+      <c r="R17" s="40"/>
+      <c r="S17" s="41">
         <f>(Q17*0.1)+BC16</f>
         <v>138</v>
       </c>
-      <c r="T17" s="41"/>
-      <c r="U17" s="42">
+      <c r="T17" s="42"/>
+      <c r="U17" s="43">
         <f>Q17-S17</f>
         <v>1242</v>
       </c>
-      <c r="V17" s="43"/>
-      <c r="AA17" s="28">
+      <c r="V17" s="44"/>
+      <c r="AA17" s="16">
         <v>210</v>
       </c>
-      <c r="AB17" s="28"/>
+      <c r="AB17" s="16"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q18" s="37" t="s">
+      <c r="Q18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -3191,6 +3191,99 @@
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="M4:N4"/>
@@ -3207,99 +3300,6 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3319,8 +3319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EAD2D72-6E8F-4BF8-9A06-F59BD2D2646F}">
   <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A9" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <selection activeCell="Y20" sqref="Y20"/>
+    <sheetView view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="96" workbookViewId="0">
+      <selection sqref="A1:U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -3329,39 +3329,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
     </row>
     <row r="2" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
     </row>
     <row r="3" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
@@ -3370,86 +3370,86 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="35" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35" t="s">
+      <c r="M3" s="22"/>
+      <c r="N3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="32" t="s">
+      <c r="O3" s="22"/>
+      <c r="P3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32" t="s">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32" t="s">
+      <c r="S3" s="18"/>
+      <c r="T3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="Y3" s="32" t="s">
+      <c r="U3" s="23"/>
+      <c r="Y3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="32"/>
+      <c r="Z3" s="18"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="6">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="20">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="17">
         <v>2800</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20">
+      <c r="M4" s="17"/>
+      <c r="N4" s="17">
         <v>600</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20">
+      <c r="O4" s="17"/>
+      <c r="P4" s="17">
         <v>700</v>
       </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21">
+      <c r="Q4" s="17"/>
+      <c r="R4" s="31">
         <f t="shared" ref="R4:R16" si="0">(P4*0.1)+Y4</f>
         <v>280</v>
       </c>
-      <c r="S4" s="22"/>
-      <c r="T4" s="23">
+      <c r="S4" s="32"/>
+      <c r="T4" s="24">
         <f>P4-R4</f>
         <v>420</v>
       </c>
-      <c r="U4" s="24"/>
-      <c r="Y4" s="20">
+      <c r="U4" s="25"/>
+      <c r="Y4" s="17">
         <v>210</v>
       </c>
-      <c r="Z4" s="20"/>
+      <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="7">
@@ -3458,43 +3458,43 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="16">
         <v>2800</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28">
+      <c r="M5" s="16"/>
+      <c r="N5" s="16">
         <v>400</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28">
+      <c r="O5" s="16"/>
+      <c r="P5" s="16">
         <v>500</v>
       </c>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="29">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="27">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="S5" s="30"/>
-      <c r="T5" s="25">
+      <c r="S5" s="28"/>
+      <c r="T5" s="29">
         <f t="shared" ref="T5:T16" si="1">P5-R5</f>
         <v>240</v>
       </c>
-      <c r="U5" s="26"/>
-      <c r="Y5" s="28">
+      <c r="U5" s="30"/>
+      <c r="Y5" s="16">
         <v>210</v>
       </c>
-      <c r="Z5" s="28"/>
+      <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="6">
@@ -3503,43 +3503,43 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="20">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="17">
         <v>3200</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20">
+      <c r="M6" s="17"/>
+      <c r="N6" s="17">
         <v>700</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20">
+      <c r="O6" s="17"/>
+      <c r="P6" s="17">
         <v>500</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="21">
+      <c r="Q6" s="17"/>
+      <c r="R6" s="31">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="23">
+      <c r="S6" s="32"/>
+      <c r="T6" s="24">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="U6" s="24"/>
-      <c r="Y6" s="20">
+      <c r="U6" s="25"/>
+      <c r="Y6" s="17">
         <v>210</v>
       </c>
-      <c r="Z6" s="20"/>
+      <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="7">
@@ -3548,43 +3548,43 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="16">
         <v>3200</v>
       </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28">
+      <c r="M7" s="16"/>
+      <c r="N7" s="16">
         <v>450</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28">
+      <c r="O7" s="16"/>
+      <c r="P7" s="16">
         <v>500</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="29">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="27">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="25">
+      <c r="S7" s="28"/>
+      <c r="T7" s="29">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="U7" s="26"/>
-      <c r="Y7" s="28">
+      <c r="U7" s="30"/>
+      <c r="Y7" s="16">
         <v>210</v>
       </c>
-      <c r="Z7" s="28"/>
+      <c r="Z7" s="16"/>
     </row>
     <row r="8" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="6">
@@ -3593,133 +3593,131 @@
       <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="20">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="17">
         <v>2800</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20">
+      <c r="M8" s="17"/>
+      <c r="N8" s="17">
         <v>900</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20">
+      <c r="O8" s="17"/>
+      <c r="P8" s="17">
         <v>1000</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="21">
+      <c r="Q8" s="17"/>
+      <c r="R8" s="31">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="23">
+      <c r="S8" s="32"/>
+      <c r="T8" s="24">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="Y8" s="20">
+      <c r="U8" s="25"/>
+      <c r="Y8" s="17">
         <v>210</v>
       </c>
-      <c r="Z8" s="20"/>
+      <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="7">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="16">
         <v>1600</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16">
         <v>400</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28">
-        <v>900</v>
-      </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="29">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16">
+        <v>775</v>
+      </c>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="27">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="25">
+        <v>287.5</v>
+      </c>
+      <c r="S9" s="28"/>
+      <c r="T9" s="29">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="U9" s="26"/>
-      <c r="Y9" s="28">
+        <v>487.5</v>
+      </c>
+      <c r="U9" s="30"/>
+      <c r="Y9" s="16">
         <v>210</v>
       </c>
-      <c r="Z9" s="28"/>
+      <c r="Z9" s="16"/>
     </row>
     <row r="10" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="6">
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="20">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="17">
         <v>1600</v>
       </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20">
+      <c r="M10" s="17"/>
+      <c r="N10" s="17">
         <v>400</v>
       </c>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20">
-        <v>900</v>
-      </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="21">
+      <c r="O10" s="17"/>
+      <c r="P10" s="17">
+        <v>775</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="31">
         <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="23">
+        <v>77.5</v>
+      </c>
+      <c r="S10" s="32"/>
+      <c r="T10" s="24">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="U10" s="24"/>
-      <c r="Y10" s="20">
-        <v>210</v>
-      </c>
-      <c r="Z10" s="20"/>
+        <v>697.5</v>
+      </c>
+      <c r="U10" s="25"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="7">
@@ -3728,43 +3726,43 @@
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="16">
         <v>1800</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28">
+      <c r="M11" s="16"/>
+      <c r="N11" s="16">
         <v>400</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28">
+      <c r="O11" s="16"/>
+      <c r="P11" s="16">
         <v>1200</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="29">
+      <c r="Q11" s="16"/>
+      <c r="R11" s="27">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="S11" s="30"/>
-      <c r="T11" s="25">
+      <c r="S11" s="28"/>
+      <c r="T11" s="29">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="U11" s="26"/>
-      <c r="Y11" s="28">
+      <c r="U11" s="30"/>
+      <c r="Y11" s="16">
         <v>210</v>
       </c>
-      <c r="Z11" s="28"/>
+      <c r="Z11" s="16"/>
     </row>
     <row r="12" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="6">
@@ -3773,43 +3771,43 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="20">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="17">
         <v>2400</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20">
+      <c r="M12" s="17"/>
+      <c r="N12" s="17">
         <v>1500</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20">
+      <c r="O12" s="17"/>
+      <c r="P12" s="17">
         <v>1500</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="21">
+      <c r="Q12" s="17"/>
+      <c r="R12" s="31">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="S12" s="22"/>
-      <c r="T12" s="23">
+      <c r="S12" s="32"/>
+      <c r="T12" s="24">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="U12" s="24"/>
-      <c r="Y12" s="20">
+      <c r="U12" s="25"/>
+      <c r="Y12" s="17">
         <v>210</v>
       </c>
-      <c r="Z12" s="20"/>
+      <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="7">
@@ -3818,43 +3816,43 @@
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="16">
         <v>1600</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28">
+      <c r="M13" s="16"/>
+      <c r="N13" s="16">
         <v>300</v>
       </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28">
+      <c r="O13" s="16"/>
+      <c r="P13" s="16">
         <v>1000</v>
       </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28">
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="S13" s="28"/>
-      <c r="T13" s="25">
+      <c r="S13" s="16"/>
+      <c r="T13" s="29">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="U13" s="26"/>
-      <c r="Y13" s="28">
+      <c r="U13" s="30"/>
+      <c r="Y13" s="16">
         <v>210</v>
       </c>
-      <c r="Z13" s="28"/>
+      <c r="Z13" s="16"/>
     </row>
     <row r="14" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="6">
@@ -3863,43 +3861,43 @@
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="20">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="17">
         <v>1600</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20">
+      <c r="M14" s="17"/>
+      <c r="N14" s="17">
         <v>300</v>
       </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20">
+      <c r="O14" s="17"/>
+      <c r="P14" s="17">
         <v>750</v>
       </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="21">
+      <c r="Q14" s="17"/>
+      <c r="R14" s="31">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="S14" s="22"/>
-      <c r="T14" s="23">
+      <c r="S14" s="32"/>
+      <c r="T14" s="24">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="U14" s="24"/>
-      <c r="Y14" s="20">
+      <c r="U14" s="25"/>
+      <c r="Y14" s="17">
         <v>210</v>
       </c>
-      <c r="Z14" s="20"/>
+      <c r="Z14" s="17"/>
     </row>
     <row r="15" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="7">
@@ -3908,43 +3906,43 @@
       <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="16">
         <v>1800</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28">
+      <c r="M15" s="16"/>
+      <c r="N15" s="16">
         <v>500</v>
       </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28">
+      <c r="O15" s="16"/>
+      <c r="P15" s="16">
         <v>1500</v>
       </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="29">
+      <c r="Q15" s="16"/>
+      <c r="R15" s="27">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="S15" s="30"/>
-      <c r="T15" s="25">
+      <c r="S15" s="28"/>
+      <c r="T15" s="29">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="U15" s="26"/>
-      <c r="Y15" s="28">
+      <c r="U15" s="30"/>
+      <c r="Y15" s="16">
         <v>210</v>
       </c>
-      <c r="Z15" s="28"/>
+      <c r="Z15" s="16"/>
     </row>
     <row r="16" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="6">
@@ -3953,43 +3951,43 @@
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="20">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="17">
         <v>2200</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20">
+      <c r="M16" s="17"/>
+      <c r="N16" s="17">
         <v>400</v>
       </c>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20">
+      <c r="O16" s="17"/>
+      <c r="P16" s="17">
         <v>1500</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="21">
+      <c r="Q16" s="17"/>
+      <c r="R16" s="31">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="23">
+      <c r="S16" s="32"/>
+      <c r="T16" s="24">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="U16" s="24"/>
-      <c r="Y16" s="20">
+      <c r="U16" s="25"/>
+      <c r="Y16" s="17">
         <v>210</v>
       </c>
-      <c r="Z16" s="20"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="11">
@@ -3998,53 +3996,53 @@
       <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39">
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40">
         <v>1500</v>
       </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39">
+      <c r="M17" s="40"/>
+      <c r="N17" s="40">
         <v>600</v>
       </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39">
+      <c r="O17" s="40"/>
+      <c r="P17" s="40">
         <v>1380</v>
       </c>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40">
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41">
         <f>(P17*0.1)+BA16</f>
         <v>138</v>
       </c>
-      <c r="S17" s="41"/>
-      <c r="T17" s="42">
+      <c r="S17" s="42"/>
+      <c r="T17" s="43">
         <f>P17-R17</f>
         <v>1242</v>
       </c>
-      <c r="U17" s="43"/>
-      <c r="Y17" s="28">
+      <c r="U17" s="44"/>
+      <c r="Y17" s="16">
         <v>210</v>
       </c>
-      <c r="Z17" s="28"/>
+      <c r="Z17" s="16"/>
     </row>
     <row r="18" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="P18" s="37" t="s">
+      <c r="P18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
       <c r="Y18" s="15">
         <v>0</v>
       </c>
@@ -4126,6 +4124,91 @@
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
@@ -4150,91 +4233,6 @@
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T12:U12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4247,7 +4245,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
-  <webPublishItems count="16">
+  <webPublishItems count="17">
     <webPublishItem id="12398" divId="TMP_12398" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="20957" divId="TMP_20957" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="11684" divId="TMP_11684" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
@@ -4264,6 +4262,7 @@
     <webPublishItem id="29802" divId="TMP_29802" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
     <webPublishItem id="31210" divId="TMP_31210" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
     <webPublishItem id="5763" divId="TMP_5763" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht"/>
+    <webPublishItem id="14786" divId="TMP_14786" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
   </webPublishItems>
 </worksheet>
 </file>
@@ -4282,43 +4281,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1"/>
       <c r="C2"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
@@ -4327,41 +4326,41 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="50" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="76"/>
+      <c r="N3" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="32" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="50" t="s">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="32" t="s">
+      <c r="S3" s="77"/>
+      <c r="T3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="32"/>
-      <c r="V3" s="50" t="s">
+      <c r="U3" s="18"/>
+      <c r="V3" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="53"/>
+      <c r="W3" s="77"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="6">
@@ -4369,47 +4368,47 @@
       </c>
       <c r="B4" s="2" t="str">
         <f>VLOOKUP(A4,edit!$A$4:$B$17,2,FALSE)</f>
-        <v>-</v>
-      </c>
-      <c r="C4" s="56" t="s">
+        <v>〇</v>
+      </c>
+      <c r="C4" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="21">
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="31">
         <f>VLOOKUP(C4,edit!$C$4:$S$17,14,FALSE)</f>
         <v>700</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="21">
+      <c r="M4" s="32"/>
+      <c r="N4" s="31">
         <f>(L4*0.1)</f>
         <v>70</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="20">
+      <c r="O4" s="32"/>
+      <c r="P4" s="17">
         <f>VLOOKUP(C4,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="54">
+      <c r="Q4" s="17"/>
+      <c r="R4" s="48">
         <f>L4-N4-P4</f>
         <v>420</v>
       </c>
-      <c r="S4" s="55"/>
-      <c r="T4" s="20" t="s">
+      <c r="S4" s="49"/>
+      <c r="T4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="20"/>
-      <c r="V4" s="54">
+      <c r="U4" s="17"/>
+      <c r="V4" s="48">
         <v>550</v>
       </c>
-      <c r="W4" s="55"/>
+      <c r="W4" s="49"/>
     </row>
     <row r="5" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="7">
@@ -4419,45 +4418,45 @@
         <f>VLOOKUP(A5,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-      <c r="J5" s="46"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="29">
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
+      <c r="J5" s="65"/>
+      <c r="K5" s="66"/>
+      <c r="L5" s="27">
         <f>VLOOKUP(C5,edit!$C$4:$S$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="29">
+      <c r="M5" s="28"/>
+      <c r="N5" s="27">
         <f t="shared" ref="N5:N16" si="0">(L5*0.1)</f>
         <v>50</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="29">
+      <c r="O5" s="28"/>
+      <c r="P5" s="27">
         <f>VLOOKUP(C5,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="48">
+      <c r="Q5" s="28"/>
+      <c r="R5" s="67">
         <f t="shared" ref="R5:R16" si="1">L5-N5-P5</f>
         <v>240</v>
       </c>
-      <c r="S5" s="49"/>
-      <c r="T5" s="28" t="s">
+      <c r="S5" s="68"/>
+      <c r="T5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="28"/>
-      <c r="V5" s="48">
+      <c r="U5" s="16"/>
+      <c r="V5" s="67">
         <v>220</v>
       </c>
-      <c r="W5" s="49"/>
+      <c r="W5" s="68"/>
     </row>
     <row r="6" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="6">
@@ -4467,41 +4466,41 @@
         <f>VLOOKUP(A6,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="21">
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="31">
         <f>VLOOKUP(C6,edit!$C$4:$S$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="21">
+      <c r="M6" s="32"/>
+      <c r="N6" s="31">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="21">
+      <c r="O6" s="32"/>
+      <c r="P6" s="31">
         <f>VLOOKUP(C6,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="54">
+      <c r="Q6" s="32"/>
+      <c r="R6" s="48">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="S6" s="55"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="55"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="48"/>
+      <c r="W6" s="49"/>
     </row>
     <row r="7" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="7">
@@ -4511,41 +4510,41 @@
         <f>VLOOKUP(A7,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="29">
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="65"/>
+      <c r="I7" s="65"/>
+      <c r="J7" s="65"/>
+      <c r="K7" s="66"/>
+      <c r="L7" s="27">
         <f>VLOOKUP(C7,edit!$C$4:$S$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="29">
+      <c r="M7" s="28"/>
+      <c r="N7" s="27">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="29">
+      <c r="O7" s="28"/>
+      <c r="P7" s="27">
         <f>VLOOKUP(C7,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="R7" s="48">
+      <c r="Q7" s="28"/>
+      <c r="R7" s="67">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="S7" s="49"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="49"/>
+      <c r="S7" s="68"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="67"/>
+      <c r="W7" s="68"/>
     </row>
     <row r="8" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="6">
@@ -4555,41 +4554,41 @@
         <f>VLOOKUP(A8,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="21">
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="31">
         <f>VLOOKUP(C8,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="21">
+      <c r="M8" s="32"/>
+      <c r="N8" s="31">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="21">
+      <c r="O8" s="32"/>
+      <c r="P8" s="31">
         <f>VLOOKUP(C8,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="54">
+      <c r="Q8" s="32"/>
+      <c r="R8" s="48">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="S8" s="55"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="55"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="48"/>
+      <c r="W8" s="49"/>
     </row>
     <row r="9" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="7">
@@ -4597,43 +4596,43 @@
       </c>
       <c r="B9" s="3" t="str">
         <f>VLOOKUP(A9,edit!$A$4:$B$17,2,FALSE)</f>
-        <v>-</v>
-      </c>
-      <c r="C9" s="45" t="s">
+        <v>〇</v>
+      </c>
+      <c r="C9" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
-      <c r="I9" s="46"/>
-      <c r="J9" s="46"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="29">
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="27">
         <f>VLOOKUP(C9,edit!$C$4:$S$17,14,FALSE)</f>
-        <v>900</v>
-      </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="29">
+        <v>775</v>
+      </c>
+      <c r="M9" s="28"/>
+      <c r="N9" s="27">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="29">
+        <v>77.5</v>
+      </c>
+      <c r="O9" s="28"/>
+      <c r="P9" s="27">
         <f>VLOOKUP(C9,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="48">
+      <c r="Q9" s="28"/>
+      <c r="R9" s="67">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="S9" s="49"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="49"/>
+        <v>487.5</v>
+      </c>
+      <c r="S9" s="68"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="67"/>
+      <c r="W9" s="68"/>
     </row>
     <row r="10" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="6">
@@ -4641,43 +4640,43 @@
       </c>
       <c r="B10" s="2" t="str">
         <f>VLOOKUP(A10,edit!$A$4:$B$17,2,FALSE)</f>
-        <v>-</v>
-      </c>
-      <c r="C10" s="56" t="s">
+        <v>〇</v>
+      </c>
+      <c r="C10" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="21">
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="31">
         <f>VLOOKUP(C10,edit!$C$4:$S$17,14,FALSE)</f>
-        <v>900</v>
-      </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="21">
+        <v>775</v>
+      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="31">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="21">
+        <v>77.5</v>
+      </c>
+      <c r="O10" s="32"/>
+      <c r="P10" s="31">
         <f>VLOOKUP(C10,edit!$C$4:$Z$17,23,FALSE)</f>
-        <v>210</v>
-      </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="54">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="32"/>
+      <c r="R10" s="48">
         <f t="shared" si="1"/>
-        <v>600</v>
-      </c>
-      <c r="S10" s="55"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="55"/>
+        <v>697.5</v>
+      </c>
+      <c r="S10" s="49"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="48"/>
+      <c r="W10" s="49"/>
     </row>
     <row r="11" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="7">
@@ -4687,41 +4686,41 @@
         <f>VLOOKUP(A11,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="29">
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="27">
         <f>VLOOKUP(C11,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="29">
+      <c r="M11" s="28"/>
+      <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="29">
+      <c r="O11" s="28"/>
+      <c r="P11" s="27">
         <f>VLOOKUP(C11,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="48">
+      <c r="Q11" s="28"/>
+      <c r="R11" s="67">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="S11" s="49"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="49"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="67"/>
+      <c r="W11" s="68"/>
     </row>
     <row r="12" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="6">
@@ -4731,41 +4730,41 @@
         <f>VLOOKUP(A12,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="21">
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="31">
         <f>VLOOKUP(C12,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="21">
+      <c r="M12" s="32"/>
+      <c r="N12" s="31">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="21">
+      <c r="O12" s="32"/>
+      <c r="P12" s="31">
         <f>VLOOKUP(C12,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="54">
+      <c r="Q12" s="32"/>
+      <c r="R12" s="48">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S12" s="55"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="55"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="48"/>
+      <c r="W12" s="49"/>
     </row>
     <row r="13" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="7">
@@ -4775,41 +4774,41 @@
         <f>VLOOKUP(A13,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="46"/>
-      <c r="J13" s="46"/>
-      <c r="K13" s="47"/>
-      <c r="L13" s="29">
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="66"/>
+      <c r="L13" s="27">
         <f>VLOOKUP(C13,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="29">
+      <c r="M13" s="28"/>
+      <c r="N13" s="27">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="29">
+      <c r="O13" s="28"/>
+      <c r="P13" s="27">
         <f>VLOOKUP(C13,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q13" s="30"/>
-      <c r="R13" s="48">
+      <c r="Q13" s="28"/>
+      <c r="R13" s="67">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="S13" s="49"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="49"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="67"/>
+      <c r="W13" s="68"/>
     </row>
     <row r="14" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="6">
@@ -4819,41 +4818,41 @@
         <f>VLOOKUP(A14,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="21">
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="31">
         <f>VLOOKUP(C14,edit!$C$4:$S$17,14,FALSE)</f>
         <v>750</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="21">
+      <c r="M14" s="32"/>
+      <c r="N14" s="31">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="21">
+      <c r="O14" s="32"/>
+      <c r="P14" s="31">
         <f>VLOOKUP(C14,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="54">
+      <c r="Q14" s="32"/>
+      <c r="R14" s="48">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="S14" s="55"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="55"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="48"/>
+      <c r="W14" s="49"/>
     </row>
     <row r="15" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="7">
@@ -4863,41 +4862,41 @@
         <f>VLOOKUP(A15,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C15" s="45" t="s">
+      <c r="C15" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-      <c r="L15" s="29">
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="66"/>
+      <c r="L15" s="27">
         <f>VLOOKUP(C15,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="29">
+      <c r="M15" s="28"/>
+      <c r="N15" s="27">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="29">
+      <c r="O15" s="28"/>
+      <c r="P15" s="27">
         <f>VLOOKUP(C15,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="48">
+      <c r="Q15" s="28"/>
+      <c r="R15" s="67">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S15" s="49"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="49"/>
+      <c r="S15" s="68"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="67"/>
+      <c r="W15" s="68"/>
     </row>
     <row r="16" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="6">
@@ -4907,41 +4906,41 @@
         <f>VLOOKUP(A16,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="21">
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="31">
         <f>VLOOKUP(C16,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="21">
+      <c r="M16" s="32"/>
+      <c r="N16" s="31">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="21">
+      <c r="O16" s="32"/>
+      <c r="P16" s="31">
         <f>VLOOKUP(C16,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="54">
+      <c r="Q16" s="32"/>
+      <c r="R16" s="48">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S16" s="55"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="55"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="48"/>
+      <c r="W16" s="49"/>
     </row>
     <row r="17" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="11">
@@ -4951,224 +4950,126 @@
         <f>VLOOKUP(A17,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C17" s="70" t="s">
+      <c r="C17" s="55" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="71"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
-      <c r="J17" s="71"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="40">
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="41">
         <f>VLOOKUP(C17,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1380</v>
       </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="40">
+      <c r="M17" s="42"/>
+      <c r="N17" s="41">
         <f>(L17*0.1)</f>
         <v>138</v>
       </c>
-      <c r="O17" s="41"/>
-      <c r="P17" s="40">
+      <c r="O17" s="42"/>
+      <c r="P17" s="41">
         <f>VLOOKUP(C17,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="61">
+      <c r="Q17" s="42"/>
+      <c r="R17" s="53">
         <f>L17-N17-P17</f>
         <v>1032</v>
       </c>
-      <c r="S17" s="62"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="62"/>
+      <c r="S17" s="54"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="53"/>
+      <c r="W17" s="54"/>
     </row>
     <row r="18" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="75" t="s">
+      <c r="C18" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="76"/>
-      <c r="I18" s="76"/>
-      <c r="J18" s="76"/>
-      <c r="K18" s="77"/>
-      <c r="L18" s="65">
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="71">
         <f>SUMIF($B$4:$B$17,"〇",L4:M17)</f>
-        <v>6830</v>
-      </c>
-      <c r="M18" s="66"/>
-      <c r="N18" s="65">
+        <v>9080</v>
+      </c>
+      <c r="M18" s="59"/>
+      <c r="N18" s="71">
         <f>SUMIF($B$4:$B$17,"〇",N4:O17)</f>
-        <v>683</v>
-      </c>
-      <c r="O18" s="66"/>
-      <c r="P18" s="65">
+        <v>908</v>
+      </c>
+      <c r="O18" s="59"/>
+      <c r="P18" s="71">
         <f>SUMIF($B$4:$B$17,"〇",P4:Q17)</f>
-        <v>1260</v>
-      </c>
-      <c r="Q18" s="66"/>
-      <c r="R18" s="63">
+        <v>1680</v>
+      </c>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="69">
         <f>SUMIF($B$4:$B$17,"〇",R4:S17)</f>
-        <v>4887</v>
-      </c>
-      <c r="S18" s="64"/>
-      <c r="T18" s="73"/>
-      <c r="U18" s="66"/>
-      <c r="V18" s="63">
+        <v>6492</v>
+      </c>
+      <c r="S18" s="70"/>
+      <c r="T18" s="58"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="69">
         <f>SUM(V4:W17)</f>
         <v>770</v>
       </c>
-      <c r="W18" s="64"/>
+      <c r="W18" s="70"/>
     </row>
     <row r="19" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="68"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="69"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="74" t="s">
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="53"/>
+      <c r="S19" s="54"/>
+      <c r="T19" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="74"/>
-      <c r="V19" s="59">
+      <c r="U19" s="60"/>
+      <c r="V19" s="72">
         <f>R18-V18</f>
-        <v>4117</v>
-      </c>
-      <c r="W19" s="60"/>
+        <v>5722</v>
+      </c>
+      <c r="W19" s="73"/>
     </row>
     <row r="20" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="R20" s="37" t="s">
+      <c r="R20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C6:K6"/>
     <mergeCell ref="R20:W20"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="P2:W2"/>
@@ -5193,75 +5094,173 @@
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A4:S4">
-    <cfRule type="expression" dxfId="0" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$B$4="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:S5">
-    <cfRule type="expression" dxfId="13" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$B$5="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:S6">
-    <cfRule type="expression" dxfId="12" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$B$6="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7:S7">
-    <cfRule type="expression" dxfId="11" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$B$7="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:S8">
-    <cfRule type="expression" dxfId="10" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$B$8="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:S9">
-    <cfRule type="expression" dxfId="9" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$B$9="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A10:S10">
-    <cfRule type="expression" dxfId="8" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$B$10="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:S11">
-    <cfRule type="expression" dxfId="7" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$B$11="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:S12">
-    <cfRule type="expression" dxfId="6" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$B$12="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:S13">
-    <cfRule type="expression" dxfId="5" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$B$13="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:S14">
-    <cfRule type="expression" dxfId="4" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$B$14="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:S15">
-    <cfRule type="expression" dxfId="3" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$B$15="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:S16">
-    <cfRule type="expression" dxfId="2" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$B$16="-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:S17">
-    <cfRule type="expression" dxfId="1" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$B$17="-"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5275,7 +5274,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId2"/>
-  <webPublishItems count="11">
+  <webPublishItems count="12">
     <webPublishItem id="15378" divId="TMP_15378" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht"/>
     <webPublishItem id="19650" divId="TMP_19650" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="4869" divId="TMP_4869" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
@@ -5287,6 +5286,7 @@
     <webPublishItem id="13286" divId="TMP_13286" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="28012" divId="TMP_28012" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="20274" divId="TMP_20274" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
+    <webPublishItem id="21451" divId="TMP_21451" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/TMP.xlsx
+++ b/TMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F8D3AB-8F75-411D-ABE7-890F7F77B5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A6DED-CD38-49AC-8F2E-0745A5E8C296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="3" xr2:uid="{72068E89-B82B-4D22-8EEA-457FC02A677F}"/>
   </bookViews>
@@ -946,10 +946,52 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,76 +1003,94 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1042,27 +1102,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1073,9 +1112,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1090,46 +1126,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="6" fontId="8" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1579,29 +1579,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="V2" s="10" t="s">
@@ -1615,41 +1615,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="22" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="23"/>
-      <c r="AA3" s="18" t="s">
+      <c r="V3" s="36"/>
+      <c r="AA3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="18"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -1658,43 +1658,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="17">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="20">
         <v>2800</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17">
+      <c r="N4" s="20"/>
+      <c r="O4" s="20">
         <v>700</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20">
         <v>0</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="31">
+      <c r="R4" s="20"/>
+      <c r="S4" s="21">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="24">
+      <c r="T4" s="22"/>
+      <c r="U4" s="23">
         <f>Q4-S4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="25"/>
-      <c r="AA4" s="17">
+      <c r="V4" s="24"/>
+      <c r="AA4" s="20">
         <v>0</v>
       </c>
-      <c r="AB4" s="17"/>
+      <c r="AB4" s="20"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -1703,43 +1703,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="16">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28">
         <v>2800</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28">
         <v>400</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16">
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28">
         <v>0</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="27">
+      <c r="R5" s="28"/>
+      <c r="S5" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29">
+      <c r="T5" s="30"/>
+      <c r="U5" s="25">
         <f t="shared" ref="U5:U18" si="1">Q5-S5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="30"/>
-      <c r="AA5" s="16">
+      <c r="V5" s="26"/>
+      <c r="AA5" s="28">
         <v>0</v>
       </c>
-      <c r="AB5" s="16"/>
+      <c r="AB5" s="28"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -1748,43 +1748,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="17">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="20">
         <v>3200</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20">
         <v>700</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20">
         <v>0</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="31">
+      <c r="R6" s="20"/>
+      <c r="S6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="24">
+      <c r="T6" s="22"/>
+      <c r="U6" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="25"/>
-      <c r="AA6" s="17">
+      <c r="V6" s="24"/>
+      <c r="AA6" s="20">
         <v>0</v>
       </c>
-      <c r="AB6" s="17"/>
+      <c r="AB6" s="20"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -1793,43 +1793,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="16">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28">
         <v>3200</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
+      <c r="N7" s="28"/>
+      <c r="O7" s="28">
         <v>450</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16">
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28">
         <v>0</v>
       </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="27">
+      <c r="R7" s="28"/>
+      <c r="S7" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="28"/>
-      <c r="U7" s="29">
+      <c r="T7" s="30"/>
+      <c r="U7" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V7" s="30"/>
-      <c r="AA7" s="16">
+      <c r="V7" s="26"/>
+      <c r="AA7" s="28">
         <v>0</v>
       </c>
-      <c r="AB7" s="16"/>
+      <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -1838,43 +1838,43 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="17">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="20">
         <v>2800</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20">
         <v>1000</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17">
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20">
         <v>0</v>
       </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="31">
+      <c r="R8" s="20"/>
+      <c r="S8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="24">
+      <c r="T8" s="22"/>
+      <c r="U8" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V8" s="25"/>
-      <c r="AA8" s="17">
+      <c r="V8" s="24"/>
+      <c r="AA8" s="20">
         <v>0</v>
       </c>
-      <c r="AB8" s="17"/>
+      <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -1883,43 +1883,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="16">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28">
         <v>1600</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16">
+      <c r="N9" s="28"/>
+      <c r="O9" s="28">
         <v>400</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28">
         <v>0</v>
       </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="27">
+      <c r="R9" s="28"/>
+      <c r="S9" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T9" s="28"/>
-      <c r="U9" s="29">
+      <c r="T9" s="30"/>
+      <c r="U9" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="30"/>
-      <c r="AA9" s="16">
+      <c r="V9" s="26"/>
+      <c r="AA9" s="28">
         <v>0</v>
       </c>
-      <c r="AB9" s="16"/>
+      <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -1928,43 +1928,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="17">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="20">
         <v>1600</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17">
+      <c r="N10" s="20"/>
+      <c r="O10" s="20">
         <v>400</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17">
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20">
         <v>0</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="31">
+      <c r="R10" s="20"/>
+      <c r="S10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="32"/>
-      <c r="U10" s="24">
+      <c r="T10" s="22"/>
+      <c r="U10" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V10" s="25"/>
-      <c r="AA10" s="17">
+      <c r="V10" s="24"/>
+      <c r="AA10" s="20">
         <v>0</v>
       </c>
-      <c r="AB10" s="17"/>
+      <c r="AB10" s="20"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -1973,43 +1973,43 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="16">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28">
         <v>1800</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28">
         <v>400</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16">
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28">
         <v>0</v>
       </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="27">
+      <c r="R11" s="28"/>
+      <c r="S11" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29">
+      <c r="T11" s="30"/>
+      <c r="U11" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="30"/>
-      <c r="AA11" s="16">
+      <c r="V11" s="26"/>
+      <c r="AA11" s="28">
         <v>0</v>
       </c>
-      <c r="AB11" s="16"/>
+      <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2018,43 +2018,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="17">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="20">
         <v>2400</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20">
         <v>1500</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17">
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20">
         <v>0</v>
       </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="31">
+      <c r="R12" s="20"/>
+      <c r="S12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="24">
+      <c r="T12" s="22"/>
+      <c r="U12" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="25"/>
-      <c r="AA12" s="17">
+      <c r="V12" s="24"/>
+      <c r="AA12" s="20">
         <v>0</v>
       </c>
-      <c r="AB12" s="17"/>
+      <c r="AB12" s="20"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2063,44 +2063,44 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="16">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28">
         <v>1600</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16">
+      <c r="N13" s="28"/>
+      <c r="O13" s="28">
         <v>300</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28">
         <v>1000</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16">
+      <c r="R13" s="28"/>
+      <c r="S13" s="28">
         <f t="shared" ref="S13:S18" si="2">(Q13*0.1)+AA13</f>
         <v>100</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="29">
+      <c r="T13" s="28"/>
+      <c r="U13" s="25">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="AA13" s="16">
+      <c r="V13" s="26"/>
+      <c r="AA13" s="28">
         <f>(Y13*0.1)+AH13</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="16"/>
+      <c r="AB13" s="28"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -2109,43 +2109,43 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="17">
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="20">
         <v>1600</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17">
+      <c r="N14" s="20"/>
+      <c r="O14" s="20">
         <v>400</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20">
         <v>0</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="31">
+      <c r="R14" s="20"/>
+      <c r="S14" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="32"/>
-      <c r="U14" s="24">
+      <c r="T14" s="22"/>
+      <c r="U14" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="25"/>
-      <c r="AA14" s="17">
+      <c r="V14" s="24"/>
+      <c r="AA14" s="20">
         <v>0</v>
       </c>
-      <c r="AB14" s="17"/>
+      <c r="AB14" s="20"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -2154,43 +2154,43 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="16">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28">
         <v>1800</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16">
+      <c r="N15" s="28"/>
+      <c r="O15" s="28">
         <v>500</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16">
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28">
         <v>1500</v>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="27">
+      <c r="R15" s="28"/>
+      <c r="S15" s="29">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="29">
+      <c r="T15" s="30"/>
+      <c r="U15" s="25">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V15" s="30"/>
-      <c r="AA15" s="16">
+      <c r="V15" s="26"/>
+      <c r="AA15" s="28">
         <v>0</v>
       </c>
-      <c r="AB15" s="16"/>
+      <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -2199,43 +2199,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="17">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="20">
         <v>2200</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17">
+      <c r="N16" s="20"/>
+      <c r="O16" s="20">
         <v>400</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17">
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20">
         <v>1500</v>
       </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="31">
+      <c r="R16" s="20"/>
+      <c r="S16" s="21">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="24">
+      <c r="T16" s="22"/>
+      <c r="U16" s="23">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V16" s="25"/>
-      <c r="AA16" s="17">
+      <c r="V16" s="24"/>
+      <c r="AA16" s="20">
         <v>0</v>
       </c>
-      <c r="AB16" s="17"/>
+      <c r="AB16" s="20"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="7">
@@ -2244,43 +2244,43 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="16">
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28">
         <v>1500</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16">
+      <c r="N17" s="28"/>
+      <c r="O17" s="28">
         <v>600</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16">
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28">
         <v>1500</v>
       </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="27">
+      <c r="R17" s="28"/>
+      <c r="S17" s="29">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T17" s="28"/>
-      <c r="U17" s="29">
+      <c r="T17" s="30"/>
+      <c r="U17" s="25">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V17" s="30"/>
-      <c r="AA17" s="16">
+      <c r="V17" s="26"/>
+      <c r="AA17" s="28">
         <v>0</v>
       </c>
-      <c r="AB17" s="16"/>
+      <c r="AB17" s="28"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="8">
@@ -2289,17 +2289,17 @@
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
       <c r="M18" s="15" t="s">
         <v>23</v>
       </c>
@@ -2312,16 +2312,16 @@
         <v>0</v>
       </c>
       <c r="R18" s="15"/>
-      <c r="S18" s="33">
+      <c r="S18" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="34"/>
-      <c r="U18" s="35">
+      <c r="T18" s="17"/>
+      <c r="U18" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V18" s="36"/>
+      <c r="V18" s="19"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -2329,84 +2329,17 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AA5:AB5"/>
@@ -2431,17 +2364,84 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2468,39 +2468,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
     </row>
     <row r="3" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="4" t="s">
@@ -2509,41 +2509,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="22" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="23"/>
-      <c r="AA3" s="18" t="s">
+      <c r="V3" s="36"/>
+      <c r="AA3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="18"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -2552,43 +2552,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="17">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="20">
         <v>2800</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17">
+      <c r="N4" s="20"/>
+      <c r="O4" s="20">
         <v>600</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20">
         <v>700</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="31">
+      <c r="R4" s="20"/>
+      <c r="S4" s="21">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>280</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="24">
+      <c r="T4" s="22"/>
+      <c r="U4" s="23">
         <f>Q4-S4</f>
         <v>420</v>
       </c>
-      <c r="V4" s="25"/>
-      <c r="AA4" s="17">
+      <c r="V4" s="24"/>
+      <c r="AA4" s="20">
         <v>210</v>
       </c>
-      <c r="AB4" s="17"/>
+      <c r="AB4" s="20"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -2597,43 +2597,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="16">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28">
         <v>2800</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28">
         <v>400</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16">
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28">
         <v>500</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="27">
+      <c r="R5" s="28"/>
+      <c r="S5" s="29">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29">
+      <c r="T5" s="30"/>
+      <c r="U5" s="25">
         <f t="shared" ref="U5:U16" si="1">Q5-S5</f>
         <v>240</v>
       </c>
-      <c r="V5" s="30"/>
-      <c r="AA5" s="16">
+      <c r="V5" s="26"/>
+      <c r="AA5" s="28">
         <v>210</v>
       </c>
-      <c r="AB5" s="16"/>
+      <c r="AB5" s="28"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -2642,43 +2642,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="17">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="20">
         <v>3200</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20">
         <v>700</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20">
         <v>500</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="31">
+      <c r="R6" s="20"/>
+      <c r="S6" s="21">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="24">
+      <c r="T6" s="22"/>
+      <c r="U6" s="23">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V6" s="25"/>
-      <c r="AA6" s="17">
+      <c r="V6" s="24"/>
+      <c r="AA6" s="20">
         <v>210</v>
       </c>
-      <c r="AB6" s="17"/>
+      <c r="AB6" s="20"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -2687,43 +2687,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="16">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28">
         <v>3200</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
+      <c r="N7" s="28"/>
+      <c r="O7" s="28">
         <v>450</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16">
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28">
         <v>500</v>
       </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="27">
+      <c r="R7" s="28"/>
+      <c r="S7" s="29">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T7" s="28"/>
-      <c r="U7" s="29">
+      <c r="T7" s="30"/>
+      <c r="U7" s="25">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V7" s="30"/>
-      <c r="AA7" s="16">
+      <c r="V7" s="26"/>
+      <c r="AA7" s="28">
         <v>210</v>
       </c>
-      <c r="AB7" s="16"/>
+      <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -2732,43 +2732,43 @@
       <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="17">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="20">
         <v>2800</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20">
         <v>900</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17">
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20">
         <v>1000</v>
       </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="31">
+      <c r="R8" s="20"/>
+      <c r="S8" s="21">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="24">
+      <c r="T8" s="22"/>
+      <c r="U8" s="23">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V8" s="25"/>
-      <c r="AA8" s="17">
+      <c r="V8" s="24"/>
+      <c r="AA8" s="20">
         <v>210</v>
       </c>
-      <c r="AB8" s="17"/>
+      <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -2777,43 +2777,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="16">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28">
         <v>1600</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16">
+      <c r="N9" s="28"/>
+      <c r="O9" s="28">
         <v>400</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28">
         <v>900</v>
       </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="27">
+      <c r="R9" s="28"/>
+      <c r="S9" s="29">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T9" s="28"/>
-      <c r="U9" s="29">
+      <c r="T9" s="30"/>
+      <c r="U9" s="25">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V9" s="30"/>
-      <c r="AA9" s="16">
+      <c r="V9" s="26"/>
+      <c r="AA9" s="28">
         <v>210</v>
       </c>
-      <c r="AB9" s="16"/>
+      <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -2822,43 +2822,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="17">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="20">
         <v>1600</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17">
+      <c r="N10" s="20"/>
+      <c r="O10" s="20">
         <v>400</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17">
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20">
         <v>900</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="31">
+      <c r="R10" s="20"/>
+      <c r="S10" s="21">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T10" s="32"/>
-      <c r="U10" s="24">
+      <c r="T10" s="22"/>
+      <c r="U10" s="23">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V10" s="25"/>
-      <c r="AA10" s="17">
+      <c r="V10" s="24"/>
+      <c r="AA10" s="20">
         <v>210</v>
       </c>
-      <c r="AB10" s="17"/>
+      <c r="AB10" s="20"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -2867,43 +2867,43 @@
       <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="16">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28">
         <v>1800</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28">
         <v>400</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16">
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28">
         <v>1200</v>
       </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="27">
+      <c r="R11" s="28"/>
+      <c r="S11" s="29">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29">
+      <c r="T11" s="30"/>
+      <c r="U11" s="25">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="V11" s="30"/>
-      <c r="AA11" s="16">
+      <c r="V11" s="26"/>
+      <c r="AA11" s="28">
         <v>210</v>
       </c>
-      <c r="AB11" s="16"/>
+      <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2912,43 +2912,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="17">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="20">
         <v>2400</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20">
         <v>1500</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17">
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20">
         <v>1500</v>
       </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="31">
+      <c r="R12" s="20"/>
+      <c r="S12" s="21">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="24">
+      <c r="T12" s="22"/>
+      <c r="U12" s="23">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V12" s="25"/>
-      <c r="AA12" s="17">
+      <c r="V12" s="24"/>
+      <c r="AA12" s="20">
         <v>210</v>
       </c>
-      <c r="AB12" s="17"/>
+      <c r="AB12" s="20"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2957,43 +2957,43 @@
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="16">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28">
         <v>1600</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16">
+      <c r="N13" s="28"/>
+      <c r="O13" s="28">
         <v>300</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28">
         <v>1000</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16">
+      <c r="R13" s="28"/>
+      <c r="S13" s="28">
         <f>(Q13*0.1)+AA13</f>
         <v>310</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="29">
+      <c r="T13" s="28"/>
+      <c r="U13" s="25">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="AA13" s="16">
+      <c r="V13" s="26"/>
+      <c r="AA13" s="28">
         <v>210</v>
       </c>
-      <c r="AB13" s="16"/>
+      <c r="AB13" s="28"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -3002,43 +3002,43 @@
       <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="17">
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="20">
         <v>1600</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17">
+      <c r="N14" s="20"/>
+      <c r="O14" s="20">
         <v>300</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20">
         <v>750</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="31">
+      <c r="R14" s="20"/>
+      <c r="S14" s="21">
         <f>(Q14*0.1)+AA14</f>
         <v>285</v>
       </c>
-      <c r="T14" s="32"/>
-      <c r="U14" s="24">
+      <c r="T14" s="22"/>
+      <c r="U14" s="23">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="V14" s="25"/>
-      <c r="AA14" s="17">
+      <c r="V14" s="24"/>
+      <c r="AA14" s="20">
         <v>210</v>
       </c>
-      <c r="AB14" s="17"/>
+      <c r="AB14" s="20"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -3047,43 +3047,43 @@
       <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="16">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28">
         <v>1800</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16">
+      <c r="N15" s="28"/>
+      <c r="O15" s="28">
         <v>500</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16">
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28">
         <v>1500</v>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="27">
+      <c r="R15" s="28"/>
+      <c r="S15" s="29">
         <f>(Q15*0.1)+AA15</f>
         <v>360</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="29">
+      <c r="T15" s="30"/>
+      <c r="U15" s="25">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V15" s="30"/>
-      <c r="AA15" s="16">
+      <c r="V15" s="26"/>
+      <c r="AA15" s="28">
         <v>210</v>
       </c>
-      <c r="AB15" s="16"/>
+      <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -3092,43 +3092,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="17">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="20">
         <v>2200</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17">
+      <c r="N16" s="20"/>
+      <c r="O16" s="20">
         <v>400</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17">
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20">
         <v>1500</v>
       </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="31">
+      <c r="R16" s="20"/>
+      <c r="S16" s="21">
         <f>(Q16*0.1)+AA16</f>
         <v>360</v>
       </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="24">
+      <c r="T16" s="22"/>
+      <c r="U16" s="23">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V16" s="25"/>
-      <c r="AA16" s="17">
+      <c r="V16" s="24"/>
+      <c r="AA16" s="20">
         <v>210</v>
       </c>
-      <c r="AB16" s="17"/>
+      <c r="AB16" s="20"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="11">
@@ -3137,53 +3137,53 @@
       <c r="C17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40">
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39">
         <v>1500</v>
       </c>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40">
+      <c r="N17" s="39"/>
+      <c r="O17" s="39">
         <v>600</v>
       </c>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40">
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39">
         <v>1380</v>
       </c>
-      <c r="R17" s="40"/>
-      <c r="S17" s="41">
+      <c r="R17" s="39"/>
+      <c r="S17" s="40">
         <f>(Q17*0.1)+BC16</f>
         <v>138</v>
       </c>
-      <c r="T17" s="42"/>
-      <c r="U17" s="43">
+      <c r="T17" s="41"/>
+      <c r="U17" s="42">
         <f>Q17-S17</f>
         <v>1242</v>
       </c>
-      <c r="V17" s="44"/>
-      <c r="AA17" s="16">
+      <c r="V17" s="43"/>
+      <c r="AA17" s="28">
         <v>210</v>
       </c>
-      <c r="AB17" s="16"/>
+      <c r="AB17" s="28"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q18" s="38" t="s">
+      <c r="Q18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -3191,99 +3191,6 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="M4:N4"/>
@@ -3300,6 +3207,99 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3329,39 +3329,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
     </row>
     <row r="2" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
@@ -3370,41 +3370,41 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="22" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22" t="s">
+      <c r="M3" s="35"/>
+      <c r="N3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="18" t="s">
+      <c r="O3" s="35"/>
+      <c r="P3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18" t="s">
+      <c r="S3" s="32"/>
+      <c r="T3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="23"/>
-      <c r="Y3" s="18" t="s">
+      <c r="U3" s="36"/>
+      <c r="Y3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="18"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="6">
@@ -3413,43 +3413,43 @@
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="17">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="20">
         <v>2800</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20">
         <v>600</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17">
-        <v>700</v>
-      </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="31">
+      <c r="O4" s="20"/>
+      <c r="P4" s="20">
+        <v>600</v>
+      </c>
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21">
         <f t="shared" ref="R4:R16" si="0">(P4*0.1)+Y4</f>
-        <v>280</v>
-      </c>
-      <c r="S4" s="32"/>
-      <c r="T4" s="24">
+        <v>270</v>
+      </c>
+      <c r="S4" s="22"/>
+      <c r="T4" s="23">
         <f>P4-R4</f>
-        <v>420</v>
-      </c>
-      <c r="U4" s="25"/>
-      <c r="Y4" s="17">
+        <v>330</v>
+      </c>
+      <c r="U4" s="24"/>
+      <c r="Y4" s="20">
         <v>210</v>
       </c>
-      <c r="Z4" s="17"/>
+      <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="7">
@@ -3458,43 +3458,43 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="16">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28">
         <v>2800</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16">
+      <c r="M5" s="28"/>
+      <c r="N5" s="28">
         <v>400</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28">
         <v>500</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="27">
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="S5" s="28"/>
-      <c r="T5" s="29">
+      <c r="S5" s="30"/>
+      <c r="T5" s="25">
         <f t="shared" ref="T5:T16" si="1">P5-R5</f>
         <v>240</v>
       </c>
-      <c r="U5" s="30"/>
-      <c r="Y5" s="16">
+      <c r="U5" s="26"/>
+      <c r="Y5" s="28">
         <v>210</v>
       </c>
-      <c r="Z5" s="16"/>
+      <c r="Z5" s="28"/>
     </row>
     <row r="6" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="6">
@@ -3503,43 +3503,43 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="17">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="20">
         <v>3200</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17">
+      <c r="M6" s="20"/>
+      <c r="N6" s="20">
         <v>700</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17">
-        <v>500</v>
-      </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="31">
+      <c r="O6" s="20"/>
+      <c r="P6" s="20">
+        <v>300</v>
+      </c>
+      <c r="Q6" s="20"/>
+      <c r="R6" s="21">
         <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="S6" s="32"/>
-      <c r="T6" s="24">
+        <v>240</v>
+      </c>
+      <c r="S6" s="22"/>
+      <c r="T6" s="23">
         <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="U6" s="25"/>
-      <c r="Y6" s="17">
+        <v>60</v>
+      </c>
+      <c r="U6" s="24"/>
+      <c r="Y6" s="20">
         <v>210</v>
       </c>
-      <c r="Z6" s="17"/>
+      <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="7">
@@ -3548,43 +3548,43 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="16">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28">
         <v>3200</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16">
+      <c r="M7" s="28"/>
+      <c r="N7" s="28">
         <v>450</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16">
-        <v>500</v>
-      </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="27">
+      <c r="O7" s="28"/>
+      <c r="P7" s="28">
+        <v>400</v>
+      </c>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="29">
         <f t="shared" si="0"/>
-        <v>260</v>
-      </c>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29">
+        <v>250</v>
+      </c>
+      <c r="S7" s="30"/>
+      <c r="T7" s="25">
         <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="U7" s="30"/>
-      <c r="Y7" s="16">
+        <v>150</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="Y7" s="28">
         <v>210</v>
       </c>
-      <c r="Z7" s="16"/>
+      <c r="Z7" s="28"/>
     </row>
     <row r="8" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="6">
@@ -3593,43 +3593,43 @@
       <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="17">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="20">
         <v>2800</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17">
+      <c r="M8" s="20"/>
+      <c r="N8" s="20">
         <v>900</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17">
+      <c r="O8" s="20"/>
+      <c r="P8" s="20">
         <v>1000</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="31">
+      <c r="Q8" s="20"/>
+      <c r="R8" s="21">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="24">
+      <c r="S8" s="22"/>
+      <c r="T8" s="23">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="U8" s="25"/>
-      <c r="Y8" s="17">
+      <c r="U8" s="24"/>
+      <c r="Y8" s="20">
         <v>210</v>
       </c>
-      <c r="Z8" s="17"/>
+      <c r="Z8" s="20"/>
     </row>
     <row r="9" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="7">
@@ -3638,43 +3638,43 @@
       <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="16">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28">
         <v>1600</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16">
+      <c r="M9" s="28"/>
+      <c r="N9" s="28">
         <v>400</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16">
+      <c r="O9" s="28"/>
+      <c r="P9" s="28">
         <v>775</v>
       </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="27">
+      <c r="Q9" s="28"/>
+      <c r="R9" s="29">
         <f t="shared" si="0"/>
         <v>287.5</v>
       </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29">
+      <c r="S9" s="30"/>
+      <c r="T9" s="25">
         <f t="shared" si="1"/>
         <v>487.5</v>
       </c>
-      <c r="U9" s="30"/>
-      <c r="Y9" s="16">
+      <c r="U9" s="26"/>
+      <c r="Y9" s="28">
         <v>210</v>
       </c>
-      <c r="Z9" s="16"/>
+      <c r="Z9" s="28"/>
     </row>
     <row r="10" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="6">
@@ -3683,41 +3683,41 @@
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="17">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="20">
         <v>1600</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17">
+      <c r="M10" s="20"/>
+      <c r="N10" s="20">
         <v>400</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17">
+      <c r="O10" s="20"/>
+      <c r="P10" s="20">
         <v>775</v>
       </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="31">
+      <c r="Q10" s="20"/>
+      <c r="R10" s="21">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
-      <c r="S10" s="32"/>
-      <c r="T10" s="24">
+      <c r="S10" s="22"/>
+      <c r="T10" s="23">
         <f t="shared" si="1"/>
         <v>697.5</v>
       </c>
-      <c r="U10" s="25"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
+      <c r="U10" s="24"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="7">
@@ -3726,43 +3726,43 @@
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="16">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28">
         <v>1800</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16">
+      <c r="M11" s="28"/>
+      <c r="N11" s="28">
         <v>400</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16">
+      <c r="O11" s="28"/>
+      <c r="P11" s="28">
         <v>1200</v>
       </c>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="27">
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29">
+      <c r="S11" s="30"/>
+      <c r="T11" s="25">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="U11" s="30"/>
-      <c r="Y11" s="16">
+      <c r="U11" s="26"/>
+      <c r="Y11" s="28">
         <v>210</v>
       </c>
-      <c r="Z11" s="16"/>
+      <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="6">
@@ -3771,43 +3771,43 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="17">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="20">
         <v>2400</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17">
+      <c r="M12" s="20"/>
+      <c r="N12" s="20">
         <v>1500</v>
       </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17">
+      <c r="O12" s="20"/>
+      <c r="P12" s="20">
         <v>1500</v>
       </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="31">
+      <c r="Q12" s="20"/>
+      <c r="R12" s="21">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="S12" s="32"/>
-      <c r="T12" s="24">
+      <c r="S12" s="22"/>
+      <c r="T12" s="23">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="U12" s="25"/>
-      <c r="Y12" s="17">
+      <c r="U12" s="24"/>
+      <c r="Y12" s="20">
         <v>210</v>
       </c>
-      <c r="Z12" s="17"/>
+      <c r="Z12" s="20"/>
     </row>
     <row r="13" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="7">
@@ -3816,43 +3816,43 @@
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="16">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28">
         <v>1600</v>
       </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16">
+      <c r="M13" s="28"/>
+      <c r="N13" s="28">
         <v>300</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16">
+      <c r="O13" s="28"/>
+      <c r="P13" s="28">
         <v>1000</v>
       </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16">
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="S13" s="16"/>
-      <c r="T13" s="29">
+      <c r="S13" s="28"/>
+      <c r="T13" s="25">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="U13" s="30"/>
-      <c r="Y13" s="16">
+      <c r="U13" s="26"/>
+      <c r="Y13" s="28">
         <v>210</v>
       </c>
-      <c r="Z13" s="16"/>
+      <c r="Z13" s="28"/>
     </row>
     <row r="14" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="6">
@@ -3861,43 +3861,43 @@
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="17">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="20">
         <v>1600</v>
       </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17">
+      <c r="M14" s="20"/>
+      <c r="N14" s="20">
         <v>300</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17">
+      <c r="O14" s="20"/>
+      <c r="P14" s="20">
         <v>750</v>
       </c>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="31">
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="S14" s="32"/>
-      <c r="T14" s="24">
+      <c r="S14" s="22"/>
+      <c r="T14" s="23">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="U14" s="25"/>
-      <c r="Y14" s="17">
+      <c r="U14" s="24"/>
+      <c r="Y14" s="20">
         <v>210</v>
       </c>
-      <c r="Z14" s="17"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="7">
@@ -3906,43 +3906,43 @@
       <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="16">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28">
         <v>1800</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16">
+      <c r="M15" s="28"/>
+      <c r="N15" s="28">
         <v>500</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16">
+      <c r="O15" s="28"/>
+      <c r="P15" s="28">
         <v>1500</v>
       </c>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="27">
+      <c r="Q15" s="28"/>
+      <c r="R15" s="29">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="S15" s="28"/>
-      <c r="T15" s="29">
+      <c r="S15" s="30"/>
+      <c r="T15" s="25">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="U15" s="30"/>
-      <c r="Y15" s="16">
+      <c r="U15" s="26"/>
+      <c r="Y15" s="28">
         <v>210</v>
       </c>
-      <c r="Z15" s="16"/>
+      <c r="Z15" s="28"/>
     </row>
     <row r="16" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="6">
@@ -3951,43 +3951,43 @@
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="17">
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="20">
         <v>2200</v>
       </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17">
+      <c r="M16" s="20"/>
+      <c r="N16" s="20">
         <v>400</v>
       </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17">
+      <c r="O16" s="20"/>
+      <c r="P16" s="20">
         <v>1500</v>
       </c>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="31">
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="S16" s="32"/>
-      <c r="T16" s="24">
+      <c r="S16" s="22"/>
+      <c r="T16" s="23">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="U16" s="25"/>
-      <c r="Y16" s="17">
+      <c r="U16" s="24"/>
+      <c r="Y16" s="20">
         <v>210</v>
       </c>
-      <c r="Z16" s="17"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="11">
@@ -3996,53 +3996,53 @@
       <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40">
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39">
         <v>1500</v>
       </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40">
+      <c r="M17" s="39"/>
+      <c r="N17" s="39">
         <v>600</v>
       </c>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40">
+      <c r="O17" s="39"/>
+      <c r="P17" s="39">
         <v>1380</v>
       </c>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="41">
+      <c r="Q17" s="39"/>
+      <c r="R17" s="40">
         <f>(P17*0.1)+BA16</f>
         <v>138</v>
       </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="43">
+      <c r="S17" s="41"/>
+      <c r="T17" s="42">
         <f>P17-R17</f>
         <v>1242</v>
       </c>
-      <c r="U17" s="44"/>
-      <c r="Y17" s="16">
+      <c r="U17" s="43"/>
+      <c r="Y17" s="28">
         <v>210</v>
       </c>
-      <c r="Z17" s="16"/>
+      <c r="Z17" s="28"/>
     </row>
     <row r="18" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="P18" s="38" t="s">
+      <c r="P18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
       <c r="Y18" s="15">
         <v>0</v>
       </c>
@@ -4124,29 +4124,68 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="P18:U18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P2:U2"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="C11:K11"/>
     <mergeCell ref="L11:M11"/>
@@ -4171,68 +4210,29 @@
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="P18:U18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T12:U12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4245,7 +4245,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
-  <webPublishItems count="17">
+  <webPublishItems count="18">
     <webPublishItem id="12398" divId="TMP_12398" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="20957" divId="TMP_20957" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="11684" divId="TMP_11684" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
@@ -4263,6 +4263,7 @@
     <webPublishItem id="31210" divId="TMP_31210" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
     <webPublishItem id="5763" divId="TMP_5763" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht"/>
     <webPublishItem id="14786" divId="TMP_14786" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
+    <webPublishItem id="10149" divId="TMP_10149" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
   </webPublishItems>
 </worksheet>
 </file>
@@ -4281,43 +4282,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1"/>
       <c r="C2"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
@@ -4326,41 +4327,41 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="74" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="74" t="s">
+      <c r="M3" s="52"/>
+      <c r="N3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="18" t="s">
+      <c r="O3" s="52"/>
+      <c r="P3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="74" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="18" t="s">
+      <c r="S3" s="53"/>
+      <c r="T3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="74" t="s">
+      <c r="U3" s="32"/>
+      <c r="V3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="77"/>
+      <c r="W3" s="53"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="6">
@@ -4370,45 +4371,45 @@
         <f>VLOOKUP(A4,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="51"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="31">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="21">
         <f>VLOOKUP(C4,edit!$C$4:$S$17,14,FALSE)</f>
-        <v>700</v>
-      </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="31">
+        <v>600</v>
+      </c>
+      <c r="M4" s="22"/>
+      <c r="N4" s="21">
         <f>(L4*0.1)</f>
-        <v>70</v>
-      </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="17">
+        <v>60</v>
+      </c>
+      <c r="O4" s="22"/>
+      <c r="P4" s="20">
         <f>VLOOKUP(C4,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="48">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="54">
         <f>L4-N4-P4</f>
-        <v>420</v>
-      </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="17" t="s">
+        <v>330</v>
+      </c>
+      <c r="S4" s="55"/>
+      <c r="T4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="48">
+      <c r="U4" s="20"/>
+      <c r="V4" s="54">
         <v>550</v>
       </c>
-      <c r="W4" s="49"/>
+      <c r="W4" s="55"/>
     </row>
     <row r="5" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="7">
@@ -4418,45 +4419,45 @@
         <f>VLOOKUP(A5,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
-      <c r="I5" s="65"/>
-      <c r="J5" s="65"/>
-      <c r="K5" s="66"/>
-      <c r="L5" s="27">
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="47"/>
+      <c r="L5" s="29">
         <f>VLOOKUP(C5,edit!$C$4:$S$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="27">
+      <c r="M5" s="30"/>
+      <c r="N5" s="29">
         <f t="shared" ref="N5:N16" si="0">(L5*0.1)</f>
         <v>50</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="27">
+      <c r="O5" s="30"/>
+      <c r="P5" s="29">
         <f>VLOOKUP(C5,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="67">
+      <c r="Q5" s="30"/>
+      <c r="R5" s="48">
         <f t="shared" ref="R5:R16" si="1">L5-N5-P5</f>
         <v>240</v>
       </c>
-      <c r="S5" s="68"/>
-      <c r="T5" s="16" t="s">
+      <c r="S5" s="49"/>
+      <c r="T5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="16"/>
-      <c r="V5" s="67">
+      <c r="U5" s="28"/>
+      <c r="V5" s="48">
         <v>220</v>
       </c>
-      <c r="W5" s="68"/>
+      <c r="W5" s="49"/>
     </row>
     <row r="6" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="6">
@@ -4466,41 +4467,41 @@
         <f>VLOOKUP(A6,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="31">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="21">
         <f>VLOOKUP(C6,edit!$C$4:$S$17,14,FALSE)</f>
-        <v>500</v>
-      </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="31">
+        <v>300</v>
+      </c>
+      <c r="M6" s="22"/>
+      <c r="N6" s="21">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="31">
+        <v>30</v>
+      </c>
+      <c r="O6" s="22"/>
+      <c r="P6" s="21">
         <f>VLOOKUP(C6,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="48">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="54">
         <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="S6" s="49"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="49"/>
+        <v>60</v>
+      </c>
+      <c r="S6" s="55"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="7">
@@ -4510,41 +4511,41 @@
         <f>VLOOKUP(A7,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65"/>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
-      <c r="K7" s="66"/>
-      <c r="L7" s="27">
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="29">
         <f>VLOOKUP(C7,edit!$C$4:$S$17,14,FALSE)</f>
-        <v>500</v>
-      </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="27">
+        <v>400</v>
+      </c>
+      <c r="M7" s="30"/>
+      <c r="N7" s="29">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="27">
+        <v>40</v>
+      </c>
+      <c r="O7" s="30"/>
+      <c r="P7" s="29">
         <f>VLOOKUP(C7,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="67">
+      <c r="Q7" s="30"/>
+      <c r="R7" s="48">
         <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="S7" s="68"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="68"/>
+        <v>150</v>
+      </c>
+      <c r="S7" s="49"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="49"/>
     </row>
     <row r="8" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="6">
@@ -4554,41 +4555,41 @@
         <f>VLOOKUP(A8,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="31">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="21">
         <f>VLOOKUP(C8,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="31">
+      <c r="M8" s="22"/>
+      <c r="N8" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="31">
+      <c r="O8" s="22"/>
+      <c r="P8" s="21">
         <f>VLOOKUP(C8,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="48">
+      <c r="Q8" s="22"/>
+      <c r="R8" s="54">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="S8" s="49"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="49"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="55"/>
     </row>
     <row r="9" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="7">
@@ -4598,41 +4599,41 @@
         <f>VLOOKUP(A9,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C9" s="64" t="s">
+      <c r="C9" s="45" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="65"/>
-      <c r="E9" s="65"/>
-      <c r="F9" s="65"/>
-      <c r="G9" s="65"/>
-      <c r="H9" s="65"/>
-      <c r="I9" s="65"/>
-      <c r="J9" s="65"/>
-      <c r="K9" s="66"/>
-      <c r="L9" s="27">
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="29">
         <f>VLOOKUP(C9,edit!$C$4:$S$17,14,FALSE)</f>
         <v>775</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="27">
+      <c r="M9" s="30"/>
+      <c r="N9" s="29">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="27">
+      <c r="O9" s="30"/>
+      <c r="P9" s="29">
         <f>VLOOKUP(C9,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="67">
+      <c r="Q9" s="30"/>
+      <c r="R9" s="48">
         <f t="shared" si="1"/>
         <v>487.5</v>
       </c>
-      <c r="S9" s="68"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
-      <c r="V9" s="67"/>
-      <c r="W9" s="68"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="48"/>
+      <c r="W9" s="49"/>
     </row>
     <row r="10" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="6">
@@ -4642,41 +4643,41 @@
         <f>VLOOKUP(A10,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="31">
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="21">
         <f>VLOOKUP(C10,edit!$C$4:$S$17,14,FALSE)</f>
         <v>775</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="31">
+      <c r="M10" s="22"/>
+      <c r="N10" s="21">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="31">
+      <c r="O10" s="22"/>
+      <c r="P10" s="21">
         <f>VLOOKUP(C10,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="48">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="54">
         <f t="shared" si="1"/>
         <v>697.5</v>
       </c>
-      <c r="S10" s="49"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="49"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="55"/>
     </row>
     <row r="11" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="7">
@@ -4686,41 +4687,41 @@
         <f>VLOOKUP(A11,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C11" s="64" t="s">
+      <c r="C11" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="66"/>
-      <c r="L11" s="27">
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+      <c r="L11" s="29">
         <f>VLOOKUP(C11,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="27">
+      <c r="M11" s="30"/>
+      <c r="N11" s="29">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="27">
+      <c r="O11" s="30"/>
+      <c r="P11" s="29">
         <f>VLOOKUP(C11,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="67">
+      <c r="Q11" s="30"/>
+      <c r="R11" s="48">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="S11" s="68"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="67"/>
-      <c r="W11" s="68"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
+      <c r="V11" s="48"/>
+      <c r="W11" s="49"/>
     </row>
     <row r="12" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="6">
@@ -4730,41 +4731,41 @@
         <f>VLOOKUP(A12,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C12" s="50" t="s">
+      <c r="C12" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="31">
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="21">
         <f>VLOOKUP(C12,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="31">
+      <c r="M12" s="22"/>
+      <c r="N12" s="21">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="31">
+      <c r="O12" s="22"/>
+      <c r="P12" s="21">
         <f>VLOOKUP(C12,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="48">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="54">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S12" s="49"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="49"/>
+      <c r="S12" s="55"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="55"/>
     </row>
     <row r="13" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="7">
@@ -4774,41 +4775,41 @@
         <f>VLOOKUP(A13,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C13" s="64" t="s">
+      <c r="C13" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="66"/>
-      <c r="L13" s="27">
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="47"/>
+      <c r="L13" s="29">
         <f>VLOOKUP(C13,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="27">
+      <c r="M13" s="30"/>
+      <c r="N13" s="29">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="27">
+      <c r="O13" s="30"/>
+      <c r="P13" s="29">
         <f>VLOOKUP(C13,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="67">
+      <c r="Q13" s="30"/>
+      <c r="R13" s="48">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="S13" s="68"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="67"/>
-      <c r="W13" s="68"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="48"/>
+      <c r="W13" s="49"/>
     </row>
     <row r="14" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="6">
@@ -4818,41 +4819,41 @@
         <f>VLOOKUP(A14,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C14" s="50" t="s">
+      <c r="C14" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="31">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="21">
         <f>VLOOKUP(C14,edit!$C$4:$S$17,14,FALSE)</f>
         <v>750</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="31">
+      <c r="M14" s="22"/>
+      <c r="N14" s="21">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="31">
+      <c r="O14" s="22"/>
+      <c r="P14" s="21">
         <f>VLOOKUP(C14,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="48">
+      <c r="Q14" s="22"/>
+      <c r="R14" s="54">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="S14" s="49"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="49"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="55"/>
     </row>
     <row r="15" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="7">
@@ -4862,41 +4863,41 @@
         <f>VLOOKUP(A15,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="65"/>
-      <c r="E15" s="65"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="65"/>
-      <c r="J15" s="65"/>
-      <c r="K15" s="66"/>
-      <c r="L15" s="27">
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+      <c r="L15" s="29">
         <f>VLOOKUP(C15,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="27">
+      <c r="M15" s="30"/>
+      <c r="N15" s="29">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="27">
+      <c r="O15" s="30"/>
+      <c r="P15" s="29">
         <f>VLOOKUP(C15,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="67">
+      <c r="Q15" s="30"/>
+      <c r="R15" s="48">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S15" s="68"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
-      <c r="V15" s="67"/>
-      <c r="W15" s="68"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
+      <c r="V15" s="48"/>
+      <c r="W15" s="49"/>
     </row>
     <row r="16" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="6">
@@ -4906,41 +4907,41 @@
         <f>VLOOKUP(A16,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="31">
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="21">
         <f>VLOOKUP(C16,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="31">
+      <c r="M16" s="22"/>
+      <c r="N16" s="21">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O16" s="32"/>
-      <c r="P16" s="31">
+      <c r="O16" s="22"/>
+      <c r="P16" s="21">
         <f>VLOOKUP(C16,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="48">
+      <c r="Q16" s="22"/>
+      <c r="R16" s="54">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S16" s="49"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="49"/>
+      <c r="S16" s="55"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="55"/>
     </row>
     <row r="17" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="11">
@@ -4950,126 +4951,224 @@
         <f>VLOOKUP(A17,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="56"/>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="H17" s="56"/>
-      <c r="I17" s="56"/>
-      <c r="J17" s="56"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="41">
+      <c r="D17" s="69"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="40">
         <f>VLOOKUP(C17,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1380</v>
       </c>
-      <c r="M17" s="42"/>
-      <c r="N17" s="41">
+      <c r="M17" s="41"/>
+      <c r="N17" s="40">
         <f>(L17*0.1)</f>
         <v>138</v>
       </c>
-      <c r="O17" s="42"/>
-      <c r="P17" s="41">
+      <c r="O17" s="41"/>
+      <c r="P17" s="40">
         <f>VLOOKUP(C17,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="53">
+      <c r="Q17" s="41"/>
+      <c r="R17" s="61">
         <f>L17-N17-P17</f>
         <v>1032</v>
       </c>
-      <c r="S17" s="54"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="53"/>
-      <c r="W17" s="54"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="62"/>
     </row>
     <row r="18" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="61" t="s">
+      <c r="C18" s="73" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="71">
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="74"/>
+      <c r="K18" s="75"/>
+      <c r="L18" s="63">
         <f>SUMIF($B$4:$B$17,"〇",L4:M17)</f>
-        <v>9080</v>
-      </c>
-      <c r="M18" s="59"/>
-      <c r="N18" s="71">
+        <v>8980</v>
+      </c>
+      <c r="M18" s="64"/>
+      <c r="N18" s="63">
         <f>SUMIF($B$4:$B$17,"〇",N4:O17)</f>
-        <v>908</v>
-      </c>
-      <c r="O18" s="59"/>
-      <c r="P18" s="71">
+        <v>898</v>
+      </c>
+      <c r="O18" s="64"/>
+      <c r="P18" s="63">
         <f>SUMIF($B$4:$B$17,"〇",P4:Q17)</f>
         <v>1680</v>
       </c>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="69">
+      <c r="Q18" s="64"/>
+      <c r="R18" s="76">
         <f>SUMIF($B$4:$B$17,"〇",R4:S17)</f>
-        <v>6492</v>
-      </c>
-      <c r="S18" s="70"/>
-      <c r="T18" s="58"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="69">
+        <v>6402</v>
+      </c>
+      <c r="S18" s="77"/>
+      <c r="T18" s="71"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="76">
         <f>SUM(V4:W17)</f>
         <v>770</v>
       </c>
-      <c r="W18" s="70"/>
+      <c r="W18" s="77"/>
     </row>
     <row r="19" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="53"/>
-      <c r="S19" s="54"/>
-      <c r="T19" s="60" t="s">
+      <c r="C19" s="65"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="66"/>
+      <c r="J19" s="66"/>
+      <c r="K19" s="67"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="60"/>
-      <c r="V19" s="72">
+      <c r="U19" s="72"/>
+      <c r="V19" s="59">
         <f>R18-V18</f>
-        <v>5722</v>
-      </c>
-      <c r="W19" s="73"/>
+        <v>5632</v>
+      </c>
+      <c r="W19" s="60"/>
     </row>
     <row r="20" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="R20" s="38" t="s">
+      <c r="R20" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C8:K8"/>
     <mergeCell ref="R20:W20"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="P2:W2"/>
@@ -5094,104 +5193,6 @@
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A4:S4">
@@ -5274,7 +5275,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId2"/>
-  <webPublishItems count="12">
+  <webPublishItems count="13">
     <webPublishItem id="15378" divId="TMP_15378" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht"/>
     <webPublishItem id="19650" divId="TMP_19650" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="4869" divId="TMP_4869" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
@@ -5287,6 +5288,7 @@
     <webPublishItem id="28012" divId="TMP_28012" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="20274" divId="TMP_20274" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="21451" divId="TMP_21451" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
+    <webPublishItem id="14359" divId="TMP_14359" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
   </webPublishItems>
 </worksheet>
 </file>
--- a/TMP.xlsx
+++ b/TMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53A6DED-CD38-49AC-8F2E-0745A5E8C296}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8B4742-4E6C-4888-85D6-EFA3009A79C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="3" xr2:uid="{72068E89-B82B-4D22-8EEA-457FC02A677F}"/>
   </bookViews>
@@ -946,6 +946,57 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -958,56 +1009,8 @@
     <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1030,9 +1033,6 @@
     <xf numFmtId="6" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,51 +1046,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1102,6 +1057,27 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1112,6 +1088,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1130,6 +1109,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="8" fillId="0" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1579,29 +1579,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="V2" s="10" t="s">
@@ -1615,41 +1615,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="35" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="32" t="s">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32" t="s">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="AA3" s="32" t="s">
+      <c r="V3" s="23"/>
+      <c r="AA3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="32"/>
+      <c r="AB3" s="18"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -1658,43 +1658,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="20">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="17">
         <v>2800</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17">
         <v>700</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17">
         <v>0</v>
       </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21">
+      <c r="R4" s="17"/>
+      <c r="S4" s="31">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="23">
+      <c r="T4" s="32"/>
+      <c r="U4" s="24">
         <f>Q4-S4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="24"/>
-      <c r="AA4" s="20">
+      <c r="V4" s="25"/>
+      <c r="AA4" s="17">
         <v>0</v>
       </c>
-      <c r="AB4" s="20"/>
+      <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -1703,43 +1703,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="16">
         <v>2800</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16">
         <v>400</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16">
         <v>0</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29">
+      <c r="R5" s="16"/>
+      <c r="S5" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="25">
+      <c r="T5" s="28"/>
+      <c r="U5" s="29">
         <f t="shared" ref="U5:U18" si="1">Q5-S5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="26"/>
-      <c r="AA5" s="28">
+      <c r="V5" s="30"/>
+      <c r="AA5" s="16">
         <v>0</v>
       </c>
-      <c r="AB5" s="28"/>
+      <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -1748,43 +1748,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="20">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="17">
         <v>3200</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17">
         <v>700</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17">
         <v>0</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21">
+      <c r="R6" s="17"/>
+      <c r="S6" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="23">
+      <c r="T6" s="32"/>
+      <c r="U6" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="24"/>
-      <c r="AA6" s="20">
+      <c r="V6" s="25"/>
+      <c r="AA6" s="17">
         <v>0</v>
       </c>
-      <c r="AB6" s="20"/>
+      <c r="AB6" s="17"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -1793,43 +1793,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="16">
         <v>3200</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
         <v>450</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16">
         <v>0</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29">
+      <c r="R7" s="16"/>
+      <c r="S7" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="25">
+      <c r="T7" s="28"/>
+      <c r="U7" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V7" s="26"/>
-      <c r="AA7" s="28">
+      <c r="V7" s="30"/>
+      <c r="AA7" s="16">
         <v>0</v>
       </c>
-      <c r="AB7" s="28"/>
+      <c r="AB7" s="16"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -1838,43 +1838,43 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="20">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="17">
         <v>2800</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
         <v>1000</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17">
         <v>0</v>
       </c>
-      <c r="R8" s="20"/>
-      <c r="S8" s="21">
+      <c r="R8" s="17"/>
+      <c r="S8" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="23">
+      <c r="T8" s="32"/>
+      <c r="U8" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V8" s="24"/>
-      <c r="AA8" s="20">
+      <c r="V8" s="25"/>
+      <c r="AA8" s="17">
         <v>0</v>
       </c>
-      <c r="AB8" s="20"/>
+      <c r="AB8" s="17"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -1883,43 +1883,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="16">
         <v>1600</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
         <v>400</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16">
         <v>0</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="29">
+      <c r="R9" s="16"/>
+      <c r="S9" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="25">
+      <c r="T9" s="28"/>
+      <c r="U9" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="AA9" s="28">
+      <c r="V9" s="30"/>
+      <c r="AA9" s="16">
         <v>0</v>
       </c>
-      <c r="AB9" s="28"/>
+      <c r="AB9" s="16"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -1928,43 +1928,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="20">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="17">
         <v>1600</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20">
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
         <v>400</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20">
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17">
         <v>0</v>
       </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="21">
+      <c r="R10" s="17"/>
+      <c r="S10" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="23">
+      <c r="T10" s="32"/>
+      <c r="U10" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V10" s="24"/>
-      <c r="AA10" s="20">
+      <c r="V10" s="25"/>
+      <c r="AA10" s="17">
         <v>0</v>
       </c>
-      <c r="AB10" s="20"/>
+      <c r="AB10" s="17"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -1973,43 +1973,43 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="16">
         <v>1800</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
         <v>400</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16">
         <v>0</v>
       </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="29">
+      <c r="R11" s="16"/>
+      <c r="S11" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="25">
+      <c r="T11" s="28"/>
+      <c r="U11" s="29">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="26"/>
-      <c r="AA11" s="28">
+      <c r="V11" s="30"/>
+      <c r="AA11" s="16">
         <v>0</v>
       </c>
-      <c r="AB11" s="28"/>
+      <c r="AB11" s="16"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2018,43 +2018,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="20">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="17">
         <v>2400</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20">
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
         <v>1500</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20">
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17">
         <v>0</v>
       </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21">
+      <c r="R12" s="17"/>
+      <c r="S12" s="31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23">
+      <c r="T12" s="32"/>
+      <c r="U12" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="24"/>
-      <c r="AA12" s="20">
+      <c r="V12" s="25"/>
+      <c r="AA12" s="17">
         <v>0</v>
       </c>
-      <c r="AB12" s="20"/>
+      <c r="AB12" s="17"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2063,44 +2063,44 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="16">
         <v>1600</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16">
         <v>300</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16">
         <v>1000</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28">
+      <c r="R13" s="16"/>
+      <c r="S13" s="16">
         <f t="shared" ref="S13:S18" si="2">(Q13*0.1)+AA13</f>
         <v>100</v>
       </c>
-      <c r="T13" s="28"/>
-      <c r="U13" s="25">
+      <c r="T13" s="16"/>
+      <c r="U13" s="29">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="V13" s="26"/>
-      <c r="AA13" s="28">
+      <c r="V13" s="30"/>
+      <c r="AA13" s="16">
         <f>(Y13*0.1)+AH13</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="28"/>
+      <c r="AB13" s="16"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -2109,43 +2109,43 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="20">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="17">
         <v>1600</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20">
+      <c r="N14" s="17"/>
+      <c r="O14" s="17">
         <v>400</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17">
         <v>0</v>
       </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="21">
+      <c r="R14" s="17"/>
+      <c r="S14" s="31">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="23">
+      <c r="T14" s="32"/>
+      <c r="U14" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="24"/>
-      <c r="AA14" s="20">
+      <c r="V14" s="25"/>
+      <c r="AA14" s="17">
         <v>0</v>
       </c>
-      <c r="AB14" s="20"/>
+      <c r="AB14" s="17"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -2154,43 +2154,43 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="16">
         <v>1800</v>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28">
+      <c r="N15" s="16"/>
+      <c r="O15" s="16">
         <v>500</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28">
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16">
         <v>1500</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="29">
+      <c r="R15" s="16"/>
+      <c r="S15" s="27">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="25">
+      <c r="T15" s="28"/>
+      <c r="U15" s="29">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V15" s="26"/>
-      <c r="AA15" s="28">
+      <c r="V15" s="30"/>
+      <c r="AA15" s="16">
         <v>0</v>
       </c>
-      <c r="AB15" s="28"/>
+      <c r="AB15" s="16"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -2199,43 +2199,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="20">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="17">
         <v>2200</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20">
+      <c r="N16" s="17"/>
+      <c r="O16" s="17">
         <v>400</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20">
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17">
         <v>1500</v>
       </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="21">
+      <c r="R16" s="17"/>
+      <c r="S16" s="31">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23">
+      <c r="T16" s="32"/>
+      <c r="U16" s="24">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V16" s="24"/>
-      <c r="AA16" s="20">
+      <c r="V16" s="25"/>
+      <c r="AA16" s="17">
         <v>0</v>
       </c>
-      <c r="AB16" s="20"/>
+      <c r="AB16" s="17"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="7">
@@ -2244,43 +2244,43 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28">
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="26"/>
+      <c r="J17" s="26"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="16">
         <v>1500</v>
       </c>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28">
+      <c r="N17" s="16"/>
+      <c r="O17" s="16">
         <v>600</v>
       </c>
-      <c r="P17" s="28"/>
-      <c r="Q17" s="28">
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16">
         <v>1500</v>
       </c>
-      <c r="R17" s="28"/>
-      <c r="S17" s="29">
+      <c r="R17" s="16"/>
+      <c r="S17" s="27">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T17" s="30"/>
-      <c r="U17" s="25">
+      <c r="T17" s="28"/>
+      <c r="U17" s="29">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V17" s="26"/>
-      <c r="AA17" s="28">
+      <c r="V17" s="30"/>
+      <c r="AA17" s="16">
         <v>0</v>
       </c>
-      <c r="AB17" s="28"/>
+      <c r="AB17" s="16"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="8">
@@ -2289,17 +2289,17 @@
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D18" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="15" t="s">
         <v>23</v>
       </c>
@@ -2312,16 +2312,16 @@
         <v>0</v>
       </c>
       <c r="R18" s="15"/>
-      <c r="S18" s="16">
+      <c r="S18" s="33">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="17"/>
-      <c r="U18" s="18">
+      <c r="T18" s="34"/>
+      <c r="U18" s="35">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V18" s="19"/>
+      <c r="V18" s="36"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -2329,17 +2329,84 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AA5:AB5"/>
@@ -2364,84 +2431,17 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2468,39 +2468,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q2" s="44" t="s">
+      <c r="Q2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
     </row>
     <row r="3" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="4" t="s">
@@ -2509,41 +2509,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="35" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="35"/>
-      <c r="O3" s="35" t="s">
+      <c r="N3" s="22"/>
+      <c r="O3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="35"/>
-      <c r="Q3" s="32" t="s">
+      <c r="P3" s="22"/>
+      <c r="Q3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32" t="s">
+      <c r="R3" s="18"/>
+      <c r="S3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32" t="s">
+      <c r="T3" s="18"/>
+      <c r="U3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="36"/>
-      <c r="AA3" s="32" t="s">
+      <c r="V3" s="23"/>
+      <c r="AA3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="32"/>
+      <c r="AB3" s="18"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -2552,43 +2552,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="31" t="s">
+      <c r="D4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="20">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="17">
         <v>2800</v>
       </c>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20">
+      <c r="N4" s="17"/>
+      <c r="O4" s="17">
         <v>600</v>
       </c>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20">
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17">
         <v>700</v>
       </c>
-      <c r="R4" s="20"/>
-      <c r="S4" s="21">
+      <c r="R4" s="17"/>
+      <c r="S4" s="31">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>280</v>
       </c>
-      <c r="T4" s="22"/>
-      <c r="U4" s="23">
+      <c r="T4" s="32"/>
+      <c r="U4" s="24">
         <f>Q4-S4</f>
         <v>420</v>
       </c>
-      <c r="V4" s="24"/>
-      <c r="AA4" s="20">
+      <c r="V4" s="25"/>
+      <c r="AA4" s="17">
         <v>210</v>
       </c>
-      <c r="AB4" s="20"/>
+      <c r="AB4" s="17"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -2597,43 +2597,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28">
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="16">
         <v>2800</v>
       </c>
-      <c r="N5" s="28"/>
-      <c r="O5" s="28">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16">
         <v>400</v>
       </c>
-      <c r="P5" s="28"/>
-      <c r="Q5" s="28">
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16">
         <v>500</v>
       </c>
-      <c r="R5" s="28"/>
-      <c r="S5" s="29">
+      <c r="R5" s="16"/>
+      <c r="S5" s="27">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T5" s="30"/>
-      <c r="U5" s="25">
+      <c r="T5" s="28"/>
+      <c r="U5" s="29">
         <f t="shared" ref="U5:U16" si="1">Q5-S5</f>
         <v>240</v>
       </c>
-      <c r="V5" s="26"/>
-      <c r="AA5" s="28">
+      <c r="V5" s="30"/>
+      <c r="AA5" s="16">
         <v>210</v>
       </c>
-      <c r="AB5" s="28"/>
+      <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -2642,43 +2642,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="20">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="17">
         <v>3200</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17">
         <v>700</v>
       </c>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20">
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17">
         <v>500</v>
       </c>
-      <c r="R6" s="20"/>
-      <c r="S6" s="21">
+      <c r="R6" s="17"/>
+      <c r="S6" s="31">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="23">
+      <c r="T6" s="32"/>
+      <c r="U6" s="24">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V6" s="24"/>
-      <c r="AA6" s="20">
+      <c r="V6" s="25"/>
+      <c r="AA6" s="17">
         <v>210</v>
       </c>
-      <c r="AB6" s="20"/>
+      <c r="AB6" s="17"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -2687,43 +2687,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="D7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="28">
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="16">
         <v>3200</v>
       </c>
-      <c r="N7" s="28"/>
-      <c r="O7" s="28">
+      <c r="N7" s="16"/>
+      <c r="O7" s="16">
         <v>450</v>
       </c>
-      <c r="P7" s="28"/>
-      <c r="Q7" s="28">
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16">
         <v>500</v>
       </c>
-      <c r="R7" s="28"/>
-      <c r="S7" s="29">
+      <c r="R7" s="16"/>
+      <c r="S7" s="27">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T7" s="30"/>
-      <c r="U7" s="25">
+      <c r="T7" s="28"/>
+      <c r="U7" s="29">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V7" s="26"/>
-      <c r="AA7" s="28">
+      <c r="V7" s="30"/>
+      <c r="AA7" s="16">
         <v>210</v>
       </c>
-      <c r="AB7" s="28"/>
+      <c r="AB7" s="16"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -2732,43 +2732,43 @@
       <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="31" t="s">
+      <c r="D8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="20">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="21"/>
+      <c r="M8" s="17">
         <v>2800</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17">
         <v>900</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20">
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17">
         <v>1000</v>
       </c>
-      <c r="R8" s="20"/>
-      <c r="S8" s="21">
+      <c r="R8" s="17"/>
+      <c r="S8" s="31">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="T8" s="22"/>
-      <c r="U8" s="23">
+      <c r="T8" s="32"/>
+      <c r="U8" s="24">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V8" s="24"/>
-      <c r="AA8" s="20">
+      <c r="V8" s="25"/>
+      <c r="AA8" s="17">
         <v>210</v>
       </c>
-      <c r="AB8" s="20"/>
+      <c r="AB8" s="17"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -2777,43 +2777,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="28">
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="16">
         <v>1600</v>
       </c>
-      <c r="N9" s="28"/>
-      <c r="O9" s="28">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16">
         <v>400</v>
       </c>
-      <c r="P9" s="28"/>
-      <c r="Q9" s="28">
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16">
         <v>900</v>
       </c>
-      <c r="R9" s="28"/>
-      <c r="S9" s="29">
+      <c r="R9" s="16"/>
+      <c r="S9" s="27">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T9" s="30"/>
-      <c r="U9" s="25">
+      <c r="T9" s="28"/>
+      <c r="U9" s="29">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V9" s="26"/>
-      <c r="AA9" s="28">
+      <c r="V9" s="30"/>
+      <c r="AA9" s="16">
         <v>210</v>
       </c>
-      <c r="AB9" s="28"/>
+      <c r="AB9" s="16"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -2822,43 +2822,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="20">
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="17">
         <v>1600</v>
       </c>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20">
+      <c r="N10" s="17"/>
+      <c r="O10" s="17">
         <v>400</v>
       </c>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20">
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17">
         <v>900</v>
       </c>
-      <c r="R10" s="20"/>
-      <c r="S10" s="21">
+      <c r="R10" s="17"/>
+      <c r="S10" s="31">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T10" s="22"/>
-      <c r="U10" s="23">
+      <c r="T10" s="32"/>
+      <c r="U10" s="24">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V10" s="24"/>
-      <c r="AA10" s="20">
+      <c r="V10" s="25"/>
+      <c r="AA10" s="17">
         <v>210</v>
       </c>
-      <c r="AB10" s="20"/>
+      <c r="AB10" s="17"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -2867,43 +2867,43 @@
       <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="27" t="s">
+      <c r="D11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="28">
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="16">
         <v>1800</v>
       </c>
-      <c r="N11" s="28"/>
-      <c r="O11" s="28">
+      <c r="N11" s="16"/>
+      <c r="O11" s="16">
         <v>400</v>
       </c>
-      <c r="P11" s="28"/>
-      <c r="Q11" s="28">
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16">
         <v>1200</v>
       </c>
-      <c r="R11" s="28"/>
-      <c r="S11" s="29">
+      <c r="R11" s="16"/>
+      <c r="S11" s="27">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="T11" s="30"/>
-      <c r="U11" s="25">
+      <c r="T11" s="28"/>
+      <c r="U11" s="29">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="V11" s="26"/>
-      <c r="AA11" s="28">
+      <c r="V11" s="30"/>
+      <c r="AA11" s="16">
         <v>210</v>
       </c>
-      <c r="AB11" s="28"/>
+      <c r="AB11" s="16"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2912,43 +2912,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="20">
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="17">
         <v>2400</v>
       </c>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20">
+      <c r="N12" s="17"/>
+      <c r="O12" s="17">
         <v>1500</v>
       </c>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20">
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17">
         <v>1500</v>
       </c>
-      <c r="R12" s="20"/>
-      <c r="S12" s="21">
+      <c r="R12" s="17"/>
+      <c r="S12" s="31">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="T12" s="22"/>
-      <c r="U12" s="23">
+      <c r="T12" s="32"/>
+      <c r="U12" s="24">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V12" s="24"/>
-      <c r="AA12" s="20">
+      <c r="V12" s="25"/>
+      <c r="AA12" s="17">
         <v>210</v>
       </c>
-      <c r="AB12" s="20"/>
+      <c r="AB12" s="17"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2957,43 +2957,43 @@
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="D13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="28">
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="16">
         <v>1600</v>
       </c>
-      <c r="N13" s="28"/>
-      <c r="O13" s="28">
+      <c r="N13" s="16"/>
+      <c r="O13" s="16">
         <v>300</v>
       </c>
-      <c r="P13" s="28"/>
-      <c r="Q13" s="28">
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16">
         <v>1000</v>
       </c>
-      <c r="R13" s="28"/>
-      <c r="S13" s="28">
+      <c r="R13" s="16"/>
+      <c r="S13" s="16">
         <f>(Q13*0.1)+AA13</f>
         <v>310</v>
       </c>
-      <c r="T13" s="28"/>
-      <c r="U13" s="25">
+      <c r="T13" s="16"/>
+      <c r="U13" s="29">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V13" s="26"/>
-      <c r="AA13" s="28">
+      <c r="V13" s="30"/>
+      <c r="AA13" s="16">
         <v>210</v>
       </c>
-      <c r="AB13" s="28"/>
+      <c r="AB13" s="16"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -3002,43 +3002,43 @@
       <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-      <c r="M14" s="20">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="17">
         <v>1600</v>
       </c>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20">
+      <c r="N14" s="17"/>
+      <c r="O14" s="17">
         <v>300</v>
       </c>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20">
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17">
         <v>750</v>
       </c>
-      <c r="R14" s="20"/>
-      <c r="S14" s="21">
+      <c r="R14" s="17"/>
+      <c r="S14" s="31">
         <f>(Q14*0.1)+AA14</f>
         <v>285</v>
       </c>
-      <c r="T14" s="22"/>
-      <c r="U14" s="23">
+      <c r="T14" s="32"/>
+      <c r="U14" s="24">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="V14" s="24"/>
-      <c r="AA14" s="20">
+      <c r="V14" s="25"/>
+      <c r="AA14" s="17">
         <v>210</v>
       </c>
-      <c r="AB14" s="20"/>
+      <c r="AB14" s="17"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -3047,43 +3047,43 @@
       <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="27" t="s">
+      <c r="D15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="28">
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="16">
         <v>1800</v>
       </c>
-      <c r="N15" s="28"/>
-      <c r="O15" s="28">
+      <c r="N15" s="16"/>
+      <c r="O15" s="16">
         <v>500</v>
       </c>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="28">
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16">
         <v>1500</v>
       </c>
-      <c r="R15" s="28"/>
-      <c r="S15" s="29">
+      <c r="R15" s="16"/>
+      <c r="S15" s="27">
         <f>(Q15*0.1)+AA15</f>
         <v>360</v>
       </c>
-      <c r="T15" s="30"/>
-      <c r="U15" s="25">
+      <c r="T15" s="28"/>
+      <c r="U15" s="29">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V15" s="26"/>
-      <c r="AA15" s="28">
+      <c r="V15" s="30"/>
+      <c r="AA15" s="16">
         <v>210</v>
       </c>
-      <c r="AB15" s="28"/>
+      <c r="AB15" s="16"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -3092,43 +3092,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="31" t="s">
+      <c r="D16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="20">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="17">
         <v>2200</v>
       </c>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20">
+      <c r="N16" s="17"/>
+      <c r="O16" s="17">
         <v>400</v>
       </c>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20">
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17">
         <v>1500</v>
       </c>
-      <c r="R16" s="20"/>
-      <c r="S16" s="21">
+      <c r="R16" s="17"/>
+      <c r="S16" s="31">
         <f>(Q16*0.1)+AA16</f>
         <v>360</v>
       </c>
-      <c r="T16" s="22"/>
-      <c r="U16" s="23">
+      <c r="T16" s="32"/>
+      <c r="U16" s="24">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V16" s="24"/>
-      <c r="AA16" s="20">
+      <c r="V16" s="25"/>
+      <c r="AA16" s="17">
         <v>210</v>
       </c>
-      <c r="AB16" s="20"/>
+      <c r="AB16" s="17"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="11">
@@ -3137,53 +3137,53 @@
       <c r="C17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="39">
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="40">
         <v>1500</v>
       </c>
-      <c r="N17" s="39"/>
-      <c r="O17" s="39">
+      <c r="N17" s="40"/>
+      <c r="O17" s="40">
         <v>600</v>
       </c>
-      <c r="P17" s="39"/>
-      <c r="Q17" s="39">
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40">
         <v>1380</v>
       </c>
-      <c r="R17" s="39"/>
-      <c r="S17" s="40">
+      <c r="R17" s="40"/>
+      <c r="S17" s="41">
         <f>(Q17*0.1)+BC16</f>
         <v>138</v>
       </c>
-      <c r="T17" s="41"/>
-      <c r="U17" s="42">
+      <c r="T17" s="42"/>
+      <c r="U17" s="43">
         <f>Q17-S17</f>
         <v>1242</v>
       </c>
-      <c r="V17" s="43"/>
-      <c r="AA17" s="28">
+      <c r="V17" s="44"/>
+      <c r="AA17" s="16">
         <v>210</v>
       </c>
-      <c r="AB17" s="28"/>
+      <c r="AB17" s="16"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q18" s="37" t="s">
+      <c r="Q18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
-      <c r="V18" s="37"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -3191,6 +3191,99 @@
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="M4:N4"/>
@@ -3207,99 +3300,6 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3329,39 +3329,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
     </row>
     <row r="2" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="P2" s="44" t="s">
+      <c r="P2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
     </row>
     <row r="3" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
@@ -3370,41 +3370,41 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="35" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="35"/>
-      <c r="N3" s="35" t="s">
+      <c r="M3" s="22"/>
+      <c r="N3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="35"/>
-      <c r="P3" s="32" t="s">
+      <c r="O3" s="22"/>
+      <c r="P3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32" t="s">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32" t="s">
+      <c r="S3" s="18"/>
+      <c r="T3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="36"/>
-      <c r="Y3" s="32" t="s">
+      <c r="U3" s="23"/>
+      <c r="Y3" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="32"/>
+      <c r="Z3" s="18"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="6">
@@ -3413,43 +3413,43 @@
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="20">
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="17">
         <v>2800</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20">
+      <c r="M4" s="17"/>
+      <c r="N4" s="17">
         <v>600</v>
       </c>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20">
+      <c r="O4" s="17"/>
+      <c r="P4" s="17">
         <v>600</v>
       </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="21">
+      <c r="Q4" s="17"/>
+      <c r="R4" s="31">
         <f t="shared" ref="R4:R16" si="0">(P4*0.1)+Y4</f>
         <v>270</v>
       </c>
-      <c r="S4" s="22"/>
-      <c r="T4" s="23">
+      <c r="S4" s="32"/>
+      <c r="T4" s="24">
         <f>P4-R4</f>
         <v>330</v>
       </c>
-      <c r="U4" s="24"/>
-      <c r="Y4" s="20">
+      <c r="U4" s="25"/>
+      <c r="Y4" s="17">
         <v>210</v>
       </c>
-      <c r="Z4" s="20"/>
+      <c r="Z4" s="17"/>
     </row>
     <row r="5" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="7">
@@ -3458,43 +3458,43 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="28">
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="16">
         <v>2800</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="28">
+      <c r="M5" s="16"/>
+      <c r="N5" s="16">
         <v>400</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="28">
+      <c r="O5" s="16"/>
+      <c r="P5" s="16">
         <v>500</v>
       </c>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="29">
+      <c r="Q5" s="16"/>
+      <c r="R5" s="27">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="S5" s="30"/>
-      <c r="T5" s="25">
+      <c r="S5" s="28"/>
+      <c r="T5" s="29">
         <f t="shared" ref="T5:T16" si="1">P5-R5</f>
         <v>240</v>
       </c>
-      <c r="U5" s="26"/>
-      <c r="Y5" s="28">
+      <c r="U5" s="30"/>
+      <c r="Y5" s="16">
         <v>210</v>
       </c>
-      <c r="Z5" s="28"/>
+      <c r="Z5" s="16"/>
     </row>
     <row r="6" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="6">
@@ -3503,43 +3503,43 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="31"/>
-      <c r="K6" s="31"/>
-      <c r="L6" s="20">
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="17">
         <v>3200</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20">
+      <c r="M6" s="17"/>
+      <c r="N6" s="17">
         <v>700</v>
       </c>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20">
+      <c r="O6" s="17"/>
+      <c r="P6" s="17">
         <v>300</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="21">
+      <c r="Q6" s="17"/>
+      <c r="R6" s="31">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="S6" s="22"/>
-      <c r="T6" s="23">
+      <c r="S6" s="32"/>
+      <c r="T6" s="24">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="U6" s="24"/>
-      <c r="Y6" s="20">
+      <c r="U6" s="25"/>
+      <c r="Y6" s="17">
         <v>210</v>
       </c>
-      <c r="Z6" s="20"/>
+      <c r="Z6" s="17"/>
     </row>
     <row r="7" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="7">
@@ -3548,43 +3548,43 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="16">
         <v>3200</v>
       </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="28">
+      <c r="M7" s="16"/>
+      <c r="N7" s="16">
         <v>450</v>
       </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="28">
+      <c r="O7" s="16"/>
+      <c r="P7" s="16">
         <v>400</v>
       </c>
-      <c r="Q7" s="28"/>
-      <c r="R7" s="29">
+      <c r="Q7" s="16"/>
+      <c r="R7" s="27">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="S7" s="30"/>
-      <c r="T7" s="25">
+      <c r="S7" s="28"/>
+      <c r="T7" s="29">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
-      <c r="U7" s="26"/>
-      <c r="Y7" s="28">
+      <c r="U7" s="30"/>
+      <c r="Y7" s="16">
         <v>210</v>
       </c>
-      <c r="Z7" s="28"/>
+      <c r="Z7" s="16"/>
     </row>
     <row r="8" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="6">
@@ -3593,43 +3593,43 @@
       <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
-      <c r="H8" s="31"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="31"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="20">
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="17">
         <v>2800</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20">
+      <c r="M8" s="17"/>
+      <c r="N8" s="17">
         <v>900</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20">
+      <c r="O8" s="17"/>
+      <c r="P8" s="17">
         <v>1000</v>
       </c>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="21">
+      <c r="Q8" s="17"/>
+      <c r="R8" s="31">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="S8" s="22"/>
-      <c r="T8" s="23">
+      <c r="S8" s="32"/>
+      <c r="T8" s="24">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="U8" s="24"/>
-      <c r="Y8" s="20">
+      <c r="U8" s="25"/>
+      <c r="Y8" s="17">
         <v>210</v>
       </c>
-      <c r="Z8" s="20"/>
+      <c r="Z8" s="17"/>
     </row>
     <row r="9" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="7">
@@ -3638,43 +3638,43 @@
       <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="28">
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="16">
         <v>1600</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="28">
+      <c r="M9" s="16"/>
+      <c r="N9" s="16">
         <v>400</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="28">
+      <c r="O9" s="16"/>
+      <c r="P9" s="16">
         <v>775</v>
       </c>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="29">
+      <c r="Q9" s="16"/>
+      <c r="R9" s="27">
         <f t="shared" si="0"/>
         <v>287.5</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="25">
+      <c r="S9" s="28"/>
+      <c r="T9" s="29">
         <f t="shared" si="1"/>
         <v>487.5</v>
       </c>
-      <c r="U9" s="26"/>
-      <c r="Y9" s="28">
+      <c r="U9" s="30"/>
+      <c r="Y9" s="16">
         <v>210</v>
       </c>
-      <c r="Z9" s="28"/>
+      <c r="Z9" s="16"/>
     </row>
     <row r="10" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="6">
@@ -3683,41 +3683,41 @@
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="20">
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="17">
         <v>1600</v>
       </c>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20">
+      <c r="M10" s="17"/>
+      <c r="N10" s="17">
         <v>400</v>
       </c>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20">
+      <c r="O10" s="17"/>
+      <c r="P10" s="17">
         <v>775</v>
       </c>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="21">
+      <c r="Q10" s="17"/>
+      <c r="R10" s="31">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
-      <c r="S10" s="22"/>
-      <c r="T10" s="23">
+      <c r="S10" s="32"/>
+      <c r="T10" s="24">
         <f t="shared" si="1"/>
         <v>697.5</v>
       </c>
-      <c r="U10" s="24"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
+      <c r="U10" s="25"/>
+      <c r="Y10" s="17"/>
+      <c r="Z10" s="17"/>
     </row>
     <row r="11" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="7">
@@ -3726,43 +3726,43 @@
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="27"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="28">
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="16">
         <v>1800</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="28">
+      <c r="M11" s="16"/>
+      <c r="N11" s="16">
         <v>400</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="28">
+      <c r="O11" s="16"/>
+      <c r="P11" s="16">
         <v>1200</v>
       </c>
-      <c r="Q11" s="28"/>
-      <c r="R11" s="29">
+      <c r="Q11" s="16"/>
+      <c r="R11" s="27">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="S11" s="30"/>
-      <c r="T11" s="25">
+      <c r="S11" s="28"/>
+      <c r="T11" s="29">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="U11" s="26"/>
-      <c r="Y11" s="28">
+      <c r="U11" s="30"/>
+      <c r="Y11" s="16">
         <v>210</v>
       </c>
-      <c r="Z11" s="28"/>
+      <c r="Z11" s="16"/>
     </row>
     <row r="12" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="6">
@@ -3771,43 +3771,43 @@
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="20">
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="17">
         <v>2400</v>
       </c>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20">
+      <c r="M12" s="17"/>
+      <c r="N12" s="17">
         <v>1500</v>
       </c>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20">
+      <c r="O12" s="17"/>
+      <c r="P12" s="17">
         <v>1500</v>
       </c>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="21">
+      <c r="Q12" s="17"/>
+      <c r="R12" s="31">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="S12" s="22"/>
-      <c r="T12" s="23">
+      <c r="S12" s="32"/>
+      <c r="T12" s="24">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="U12" s="24"/>
-      <c r="Y12" s="20">
+      <c r="U12" s="25"/>
+      <c r="Y12" s="17">
         <v>210</v>
       </c>
-      <c r="Z12" s="20"/>
+      <c r="Z12" s="17"/>
     </row>
     <row r="13" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="7">
@@ -3816,43 +3816,43 @@
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="28">
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="16">
         <v>1600</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="28">
+      <c r="M13" s="16"/>
+      <c r="N13" s="16">
         <v>300</v>
       </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="28">
+      <c r="O13" s="16"/>
+      <c r="P13" s="16">
         <v>1000</v>
       </c>
-      <c r="Q13" s="28"/>
-      <c r="R13" s="28">
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="S13" s="28"/>
-      <c r="T13" s="25">
+      <c r="S13" s="16"/>
+      <c r="T13" s="29">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="U13" s="26"/>
-      <c r="Y13" s="28">
+      <c r="U13" s="30"/>
+      <c r="Y13" s="16">
         <v>210</v>
       </c>
-      <c r="Z13" s="28"/>
+      <c r="Z13" s="16"/>
     </row>
     <row r="14" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="6">
@@ -3861,43 +3861,43 @@
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="31"/>
-      <c r="I14" s="31"/>
-      <c r="J14" s="31"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="20">
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="17">
         <v>1600</v>
       </c>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20">
+      <c r="M14" s="17"/>
+      <c r="N14" s="17">
         <v>300</v>
       </c>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20">
+      <c r="O14" s="17"/>
+      <c r="P14" s="17">
         <v>750</v>
       </c>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="21">
+      <c r="Q14" s="17"/>
+      <c r="R14" s="31">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="S14" s="22"/>
-      <c r="T14" s="23">
+      <c r="S14" s="32"/>
+      <c r="T14" s="24">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="U14" s="24"/>
-      <c r="Y14" s="20">
+      <c r="U14" s="25"/>
+      <c r="Y14" s="17">
         <v>210</v>
       </c>
-      <c r="Z14" s="20"/>
+      <c r="Z14" s="17"/>
     </row>
     <row r="15" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="7">
@@ -3906,43 +3906,43 @@
       <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="28">
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="16">
         <v>1800</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="28">
+      <c r="M15" s="16"/>
+      <c r="N15" s="16">
         <v>500</v>
       </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28">
+      <c r="O15" s="16"/>
+      <c r="P15" s="16">
         <v>1500</v>
       </c>
-      <c r="Q15" s="28"/>
-      <c r="R15" s="29">
+      <c r="Q15" s="16"/>
+      <c r="R15" s="27">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="S15" s="30"/>
-      <c r="T15" s="25">
+      <c r="S15" s="28"/>
+      <c r="T15" s="29">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="U15" s="26"/>
-      <c r="Y15" s="28">
+      <c r="U15" s="30"/>
+      <c r="Y15" s="16">
         <v>210</v>
       </c>
-      <c r="Z15" s="28"/>
+      <c r="Z15" s="16"/>
     </row>
     <row r="16" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="6">
@@ -3951,43 +3951,43 @@
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="20">
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="17">
         <v>2200</v>
       </c>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20">
+      <c r="M16" s="17"/>
+      <c r="N16" s="17">
         <v>400</v>
       </c>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20">
+      <c r="O16" s="17"/>
+      <c r="P16" s="17">
         <v>1500</v>
       </c>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="21">
+      <c r="Q16" s="17"/>
+      <c r="R16" s="31">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="S16" s="22"/>
-      <c r="T16" s="23">
+      <c r="S16" s="32"/>
+      <c r="T16" s="24">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="U16" s="24"/>
-      <c r="Y16" s="20">
+      <c r="U16" s="25"/>
+      <c r="Y16" s="17">
         <v>210</v>
       </c>
-      <c r="Z16" s="20"/>
+      <c r="Z16" s="17"/>
     </row>
     <row r="17" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="11">
@@ -3996,53 +3996,53 @@
       <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="39">
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="40">
         <v>1500</v>
       </c>
-      <c r="M17" s="39"/>
-      <c r="N17" s="39">
+      <c r="M17" s="40"/>
+      <c r="N17" s="40">
         <v>600</v>
       </c>
-      <c r="O17" s="39"/>
-      <c r="P17" s="39">
+      <c r="O17" s="40"/>
+      <c r="P17" s="40">
         <v>1380</v>
       </c>
-      <c r="Q17" s="39"/>
-      <c r="R17" s="40">
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41">
         <f>(P17*0.1)+BA16</f>
         <v>138</v>
       </c>
-      <c r="S17" s="41"/>
-      <c r="T17" s="42">
+      <c r="S17" s="42"/>
+      <c r="T17" s="43">
         <f>P17-R17</f>
         <v>1242</v>
       </c>
-      <c r="U17" s="43"/>
-      <c r="Y17" s="28">
+      <c r="U17" s="44"/>
+      <c r="Y17" s="16">
         <v>210</v>
       </c>
-      <c r="Z17" s="28"/>
+      <c r="Z17" s="16"/>
     </row>
     <row r="18" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="P18" s="37" t="s">
+      <c r="P18" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="37"/>
-      <c r="S18" s="37"/>
-      <c r="T18" s="37"/>
-      <c r="U18" s="37"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="38"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
       <c r="Y18" s="15">
         <v>0</v>
       </c>
@@ -4124,6 +4124,91 @@
     </row>
   </sheetData>
   <mergeCells count="109">
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="L17:M17"/>
     <mergeCell ref="N17:O17"/>
@@ -4148,91 +4233,6 @@
     <mergeCell ref="R15:S15"/>
     <mergeCell ref="T15:U15"/>
     <mergeCell ref="N16:O16"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T12:U12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4245,7 +4245,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
-  <webPublishItems count="18">
+  <webPublishItems count="19">
     <webPublishItem id="12398" divId="TMP_12398" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="20957" divId="TMP_20957" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="11684" divId="TMP_11684" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
@@ -4264,6 +4264,7 @@
     <webPublishItem id="5763" divId="TMP_5763" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht"/>
     <webPublishItem id="14786" divId="TMP_14786" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
     <webPublishItem id="10149" divId="TMP_10149" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
+    <webPublishItem id="499" divId="TMP_499" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
   </webPublishItems>
 </worksheet>
 </file>
@@ -4273,7 +4274,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:W20"/>
+      <selection activeCell="C4" sqref="C4:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -4282,43 +4283,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1"/>
       <c r="C2"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
     </row>
     <row r="3" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
@@ -4327,41 +4328,41 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="50" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="52"/>
-      <c r="N3" s="50" t="s">
+      <c r="M3" s="76"/>
+      <c r="N3" s="74" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="52"/>
-      <c r="P3" s="32" t="s">
+      <c r="O3" s="76"/>
+      <c r="P3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="50" t="s">
+      <c r="Q3" s="18"/>
+      <c r="R3" s="74" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="53"/>
-      <c r="T3" s="32" t="s">
+      <c r="S3" s="77"/>
+      <c r="T3" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="32"/>
-      <c r="V3" s="50" t="s">
+      <c r="U3" s="18"/>
+      <c r="V3" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="53"/>
+      <c r="W3" s="77"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="6">
@@ -4371,45 +4372,45 @@
         <f>VLOOKUP(A4,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="58"/>
-      <c r="L4" s="21">
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+      <c r="J4" s="56"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="31">
         <f>VLOOKUP(C4,edit!$C$4:$S$17,14,FALSE)</f>
         <v>600</v>
       </c>
-      <c r="M4" s="22"/>
-      <c r="N4" s="21">
+      <c r="M4" s="32"/>
+      <c r="N4" s="31">
         <f>(L4*0.1)</f>
         <v>60</v>
       </c>
-      <c r="O4" s="22"/>
-      <c r="P4" s="20">
+      <c r="O4" s="32"/>
+      <c r="P4" s="17">
         <f>VLOOKUP(C4,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="54">
+      <c r="Q4" s="17"/>
+      <c r="R4" s="53">
         <f>L4-N4-P4</f>
         <v>330</v>
       </c>
-      <c r="S4" s="55"/>
-      <c r="T4" s="20" t="s">
+      <c r="S4" s="54"/>
+      <c r="T4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="20"/>
-      <c r="V4" s="54">
+      <c r="U4" s="17"/>
+      <c r="V4" s="53">
         <v>550</v>
       </c>
-      <c r="W4" s="55"/>
+      <c r="W4" s="54"/>
     </row>
     <row r="5" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="7">
@@ -4430,30 +4431,30 @@
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
       <c r="K5" s="47"/>
-      <c r="L5" s="29">
+      <c r="L5" s="27">
         <f>VLOOKUP(C5,edit!$C$4:$S$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M5" s="30"/>
-      <c r="N5" s="29">
+      <c r="M5" s="28"/>
+      <c r="N5" s="27">
         <f t="shared" ref="N5:N16" si="0">(L5*0.1)</f>
         <v>50</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="29">
+      <c r="O5" s="28"/>
+      <c r="P5" s="27">
         <f>VLOOKUP(C5,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q5" s="30"/>
+      <c r="Q5" s="28"/>
       <c r="R5" s="48">
         <f t="shared" ref="R5:R16" si="1">L5-N5-P5</f>
         <v>240</v>
       </c>
       <c r="S5" s="49"/>
-      <c r="T5" s="28" t="s">
+      <c r="T5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="28"/>
+      <c r="U5" s="16"/>
       <c r="V5" s="48">
         <v>220</v>
       </c>
@@ -4467,41 +4468,41 @@
         <f>VLOOKUP(A6,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="21">
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
+      <c r="I6" s="56"/>
+      <c r="J6" s="56"/>
+      <c r="K6" s="57"/>
+      <c r="L6" s="31">
         <f>VLOOKUP(C6,edit!$C$4:$S$17,14,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="21">
+      <c r="M6" s="32"/>
+      <c r="N6" s="31">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="O6" s="22"/>
-      <c r="P6" s="21">
+      <c r="O6" s="32"/>
+      <c r="P6" s="31">
         <f>VLOOKUP(C6,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="54">
+      <c r="Q6" s="32"/>
+      <c r="R6" s="53">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="S6" s="55"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="54"/>
-      <c r="W6" s="55"/>
+      <c r="S6" s="54"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="53"/>
+      <c r="W6" s="54"/>
     </row>
     <row r="7" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="7">
@@ -4522,28 +4523,28 @@
       <c r="I7" s="46"/>
       <c r="J7" s="46"/>
       <c r="K7" s="47"/>
-      <c r="L7" s="29">
+      <c r="L7" s="27">
         <f>VLOOKUP(C7,edit!$C$4:$S$17,14,FALSE)</f>
         <v>400</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="29">
+      <c r="M7" s="28"/>
+      <c r="N7" s="27">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="29">
+      <c r="O7" s="28"/>
+      <c r="P7" s="27">
         <f>VLOOKUP(C7,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q7" s="30"/>
+      <c r="Q7" s="28"/>
       <c r="R7" s="48">
         <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="S7" s="49"/>
-      <c r="T7" s="28"/>
-      <c r="U7" s="28"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
       <c r="V7" s="48"/>
       <c r="W7" s="49"/>
     </row>
@@ -4555,41 +4556,41 @@
         <f>VLOOKUP(A8,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="21">
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="31">
         <f>VLOOKUP(C8,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="21">
+      <c r="M8" s="32"/>
+      <c r="N8" s="31">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O8" s="22"/>
-      <c r="P8" s="21">
+      <c r="O8" s="32"/>
+      <c r="P8" s="31">
         <f>VLOOKUP(C8,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="54">
+      <c r="Q8" s="32"/>
+      <c r="R8" s="53">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="S8" s="55"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="54"/>
-      <c r="W8" s="55"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="53"/>
+      <c r="W8" s="54"/>
     </row>
     <row r="9" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="7">
@@ -4610,28 +4611,28 @@
       <c r="I9" s="46"/>
       <c r="J9" s="46"/>
       <c r="K9" s="47"/>
-      <c r="L9" s="29">
+      <c r="L9" s="27">
         <f>VLOOKUP(C9,edit!$C$4:$S$17,14,FALSE)</f>
         <v>775</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="29">
+      <c r="M9" s="28"/>
+      <c r="N9" s="27">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
-      <c r="O9" s="30"/>
-      <c r="P9" s="29">
+      <c r="O9" s="28"/>
+      <c r="P9" s="27">
         <f>VLOOKUP(C9,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q9" s="30"/>
+      <c r="Q9" s="28"/>
       <c r="R9" s="48">
         <f t="shared" si="1"/>
         <v>487.5</v>
       </c>
       <c r="S9" s="49"/>
-      <c r="T9" s="28"/>
-      <c r="U9" s="28"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
       <c r="V9" s="48"/>
       <c r="W9" s="49"/>
     </row>
@@ -4643,41 +4644,41 @@
         <f>VLOOKUP(A10,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="21">
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="31">
         <f>VLOOKUP(C10,edit!$C$4:$S$17,14,FALSE)</f>
         <v>775</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="21">
+      <c r="M10" s="32"/>
+      <c r="N10" s="31">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
-      <c r="O10" s="22"/>
-      <c r="P10" s="21">
+      <c r="O10" s="32"/>
+      <c r="P10" s="31">
         <f>VLOOKUP(C10,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="54">
+      <c r="Q10" s="32"/>
+      <c r="R10" s="53">
         <f t="shared" si="1"/>
         <v>697.5</v>
       </c>
-      <c r="S10" s="55"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="54"/>
-      <c r="W10" s="55"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="53"/>
+      <c r="W10" s="54"/>
     </row>
     <row r="11" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="7">
@@ -4698,28 +4699,28 @@
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
       <c r="K11" s="47"/>
-      <c r="L11" s="29">
+      <c r="L11" s="27">
         <f>VLOOKUP(C11,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="29">
+      <c r="M11" s="28"/>
+      <c r="N11" s="27">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="O11" s="30"/>
-      <c r="P11" s="29">
+      <c r="O11" s="28"/>
+      <c r="P11" s="27">
         <f>VLOOKUP(C11,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q11" s="30"/>
+      <c r="Q11" s="28"/>
       <c r="R11" s="48">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
       <c r="S11" s="49"/>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
       <c r="V11" s="48"/>
       <c r="W11" s="49"/>
     </row>
@@ -4731,41 +4732,41 @@
         <f>VLOOKUP(A12,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C12" s="56" t="s">
+      <c r="C12" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="58"/>
-      <c r="L12" s="21">
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="31">
         <f>VLOOKUP(C12,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="21">
+      <c r="M12" s="32"/>
+      <c r="N12" s="31">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O12" s="22"/>
-      <c r="P12" s="21">
+      <c r="O12" s="32"/>
+      <c r="P12" s="31">
         <f>VLOOKUP(C12,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="54">
+      <c r="Q12" s="32"/>
+      <c r="R12" s="53">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S12" s="55"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="54"/>
-      <c r="W12" s="55"/>
+      <c r="S12" s="54"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="54"/>
     </row>
     <row r="13" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="7">
@@ -4786,28 +4787,28 @@
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
       <c r="K13" s="47"/>
-      <c r="L13" s="29">
+      <c r="L13" s="27">
         <f>VLOOKUP(C13,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="29">
+      <c r="M13" s="28"/>
+      <c r="N13" s="27">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O13" s="30"/>
-      <c r="P13" s="29">
+      <c r="O13" s="28"/>
+      <c r="P13" s="27">
         <f>VLOOKUP(C13,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q13" s="30"/>
+      <c r="Q13" s="28"/>
       <c r="R13" s="48">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
       <c r="S13" s="49"/>
-      <c r="T13" s="28"/>
-      <c r="U13" s="28"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
       <c r="V13" s="48"/>
       <c r="W13" s="49"/>
     </row>
@@ -4819,41 +4820,41 @@
         <f>VLOOKUP(A14,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="21">
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="31">
         <f>VLOOKUP(C14,edit!$C$4:$S$17,14,FALSE)</f>
         <v>750</v>
       </c>
-      <c r="M14" s="22"/>
-      <c r="N14" s="21">
+      <c r="M14" s="32"/>
+      <c r="N14" s="31">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="O14" s="22"/>
-      <c r="P14" s="21">
+      <c r="O14" s="32"/>
+      <c r="P14" s="31">
         <f>VLOOKUP(C14,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="54">
+      <c r="Q14" s="32"/>
+      <c r="R14" s="53">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="S14" s="55"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="54"/>
-      <c r="W14" s="55"/>
+      <c r="S14" s="54"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="54"/>
     </row>
     <row r="15" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="7">
@@ -4874,28 +4875,28 @@
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="K15" s="47"/>
-      <c r="L15" s="29">
+      <c r="L15" s="27">
         <f>VLOOKUP(C15,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="29">
+      <c r="M15" s="28"/>
+      <c r="N15" s="27">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O15" s="30"/>
-      <c r="P15" s="29">
+      <c r="O15" s="28"/>
+      <c r="P15" s="27">
         <f>VLOOKUP(C15,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q15" s="30"/>
+      <c r="Q15" s="28"/>
       <c r="R15" s="48">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
       <c r="S15" s="49"/>
-      <c r="T15" s="28"/>
-      <c r="U15" s="28"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
       <c r="V15" s="48"/>
       <c r="W15" s="49"/>
     </row>
@@ -4907,41 +4908,41 @@
         <f>VLOOKUP(A16,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="58"/>
-      <c r="L16" s="21">
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="31">
         <f>VLOOKUP(C16,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="21">
+      <c r="M16" s="32"/>
+      <c r="N16" s="31">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O16" s="22"/>
-      <c r="P16" s="21">
+      <c r="O16" s="32"/>
+      <c r="P16" s="31">
         <f>VLOOKUP(C16,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="54">
+      <c r="Q16" s="32"/>
+      <c r="R16" s="53">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="S16" s="55"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="54"/>
-      <c r="W16" s="55"/>
+      <c r="S16" s="54"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="54"/>
     </row>
     <row r="17" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="11">
@@ -4951,136 +4952,214 @@
         <f>VLOOKUP(A17,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C17" s="68" t="s">
+      <c r="C17" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="69"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="40">
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="61"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="61"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="62"/>
+      <c r="L17" s="41">
         <f>VLOOKUP(C17,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1380</v>
       </c>
-      <c r="M17" s="41"/>
-      <c r="N17" s="40">
+      <c r="M17" s="42"/>
+      <c r="N17" s="41">
         <f>(L17*0.1)</f>
         <v>138</v>
       </c>
-      <c r="O17" s="41"/>
-      <c r="P17" s="40">
+      <c r="O17" s="42"/>
+      <c r="P17" s="41">
         <f>VLOOKUP(C17,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="61">
+      <c r="Q17" s="42"/>
+      <c r="R17" s="58">
         <f>L17-N17-P17</f>
         <v>1032</v>
       </c>
-      <c r="S17" s="62"/>
-      <c r="T17" s="39"/>
-      <c r="U17" s="39"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="62"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="40"/>
+      <c r="U17" s="40"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="59"/>
     </row>
     <row r="18" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="73" t="s">
+      <c r="C18" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="74"/>
-      <c r="K18" s="75"/>
-      <c r="L18" s="63">
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
+      <c r="H18" s="67"/>
+      <c r="I18" s="67"/>
+      <c r="J18" s="67"/>
+      <c r="K18" s="68"/>
+      <c r="L18" s="73">
         <f>SUMIF($B$4:$B$17,"〇",L4:M17)</f>
         <v>8980</v>
       </c>
       <c r="M18" s="64"/>
-      <c r="N18" s="63">
+      <c r="N18" s="73">
         <f>SUMIF($B$4:$B$17,"〇",N4:O17)</f>
         <v>898</v>
       </c>
       <c r="O18" s="64"/>
-      <c r="P18" s="63">
+      <c r="P18" s="73">
         <f>SUMIF($B$4:$B$17,"〇",P4:Q17)</f>
         <v>1680</v>
       </c>
       <c r="Q18" s="64"/>
-      <c r="R18" s="76">
+      <c r="R18" s="69">
         <f>SUMIF($B$4:$B$17,"〇",R4:S17)</f>
         <v>6402</v>
       </c>
-      <c r="S18" s="77"/>
-      <c r="T18" s="71"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="63"/>
       <c r="U18" s="64"/>
-      <c r="V18" s="76">
+      <c r="V18" s="69">
         <f>SUM(V4:W17)</f>
         <v>770</v>
       </c>
-      <c r="W18" s="77"/>
+      <c r="W18" s="70"/>
     </row>
     <row r="19" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="66"/>
-      <c r="J19" s="66"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="40"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="61"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="72" t="s">
+      <c r="C19" s="50"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="58"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="72"/>
-      <c r="V19" s="59">
+      <c r="U19" s="65"/>
+      <c r="V19" s="71">
         <f>R18-V18</f>
         <v>5632</v>
       </c>
-      <c r="W19" s="60"/>
+      <c r="W19" s="72"/>
     </row>
     <row r="20" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="R20" s="37" t="s">
+      <c r="R20" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="S20" s="37"/>
-      <c r="T20" s="37"/>
-      <c r="U20" s="37"/>
-      <c r="V20" s="37"/>
-      <c r="W20" s="37"/>
+      <c r="S20" s="38"/>
+      <c r="T20" s="38"/>
+      <c r="U20" s="38"/>
+      <c r="V20" s="38"/>
+      <c r="W20" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="122">
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="A1:W1"/>
+    <mergeCell ref="P2:W2"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="V5:W5"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C8:K8"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:M13"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="V14:W14"/>
     <mergeCell ref="R14:S14"/>
@@ -5105,94 +5184,16 @@
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="N19:O19"/>
     <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="A1:W1"/>
-    <mergeCell ref="P2:W2"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="T13:U13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A4:S4">

--- a/TMP.xlsx
+++ b/TMP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8B4742-4E6C-4888-85D6-EFA3009A79C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA817229-5D5E-410C-AA7A-EB1312605871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="3" xr2:uid="{72068E89-B82B-4D22-8EEA-457FC02A677F}"/>
   </bookViews>
@@ -946,10 +946,52 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -961,78 +1003,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1046,6 +1046,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="6" fontId="5" fillId="2" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1057,27 +1096,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="5" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1088,9 +1106,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1115,21 +1130,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1579,29 +1579,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="V2" s="10" t="s">
@@ -1615,41 +1615,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="22" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="23"/>
-      <c r="AA3" s="18" t="s">
+      <c r="V3" s="36"/>
+      <c r="AA3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="18"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -1658,43 +1658,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="17">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="20">
         <v>2800</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17">
+      <c r="N4" s="20"/>
+      <c r="O4" s="20">
         <v>700</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20">
         <v>0</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="31">
+      <c r="R4" s="20"/>
+      <c r="S4" s="21">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>0</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="24">
+      <c r="T4" s="22"/>
+      <c r="U4" s="23">
         <f>Q4-S4</f>
         <v>0</v>
       </c>
-      <c r="V4" s="25"/>
-      <c r="AA4" s="17">
+      <c r="V4" s="24"/>
+      <c r="AA4" s="20">
         <v>0</v>
       </c>
-      <c r="AB4" s="17"/>
+      <c r="AB4" s="20"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -1703,43 +1703,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="16">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28">
         <v>2800</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28">
         <v>400</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16">
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28">
         <v>0</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="27">
+      <c r="R5" s="28"/>
+      <c r="S5" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29">
+      <c r="T5" s="30"/>
+      <c r="U5" s="25">
         <f t="shared" ref="U5:U18" si="1">Q5-S5</f>
         <v>0</v>
       </c>
-      <c r="V5" s="30"/>
-      <c r="AA5" s="16">
+      <c r="V5" s="26"/>
+      <c r="AA5" s="28">
         <v>0</v>
       </c>
-      <c r="AB5" s="16"/>
+      <c r="AB5" s="28"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -1748,43 +1748,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="17">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="20">
         <v>3200</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20">
         <v>700</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20">
         <v>0</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="31">
+      <c r="R6" s="20"/>
+      <c r="S6" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="24">
+      <c r="T6" s="22"/>
+      <c r="U6" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V6" s="25"/>
-      <c r="AA6" s="17">
+      <c r="V6" s="24"/>
+      <c r="AA6" s="20">
         <v>0</v>
       </c>
-      <c r="AB6" s="17"/>
+      <c r="AB6" s="20"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -1793,43 +1793,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="16">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28">
         <v>3200</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
+      <c r="N7" s="28"/>
+      <c r="O7" s="28">
         <v>450</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16">
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28">
         <v>0</v>
       </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="27">
+      <c r="R7" s="28"/>
+      <c r="S7" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T7" s="28"/>
-      <c r="U7" s="29">
+      <c r="T7" s="30"/>
+      <c r="U7" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V7" s="30"/>
-      <c r="AA7" s="16">
+      <c r="V7" s="26"/>
+      <c r="AA7" s="28">
         <v>0</v>
       </c>
-      <c r="AB7" s="16"/>
+      <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -1838,43 +1838,43 @@
       <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="17">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="20">
         <v>2800</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20">
         <v>1000</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17">
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20">
         <v>0</v>
       </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="31">
+      <c r="R8" s="20"/>
+      <c r="S8" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="24">
+      <c r="T8" s="22"/>
+      <c r="U8" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V8" s="25"/>
-      <c r="AA8" s="17">
+      <c r="V8" s="24"/>
+      <c r="AA8" s="20">
         <v>0</v>
       </c>
-      <c r="AB8" s="17"/>
+      <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -1883,43 +1883,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="16">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28">
         <v>1600</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16">
+      <c r="N9" s="28"/>
+      <c r="O9" s="28">
         <v>400</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28">
         <v>0</v>
       </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="27">
+      <c r="R9" s="28"/>
+      <c r="S9" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T9" s="28"/>
-      <c r="U9" s="29">
+      <c r="T9" s="30"/>
+      <c r="U9" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V9" s="30"/>
-      <c r="AA9" s="16">
+      <c r="V9" s="26"/>
+      <c r="AA9" s="28">
         <v>0</v>
       </c>
-      <c r="AB9" s="16"/>
+      <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -1928,43 +1928,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="17">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="20">
         <v>1600</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17">
+      <c r="N10" s="20"/>
+      <c r="O10" s="20">
         <v>400</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17">
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20">
         <v>0</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="31">
+      <c r="R10" s="20"/>
+      <c r="S10" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T10" s="32"/>
-      <c r="U10" s="24">
+      <c r="T10" s="22"/>
+      <c r="U10" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V10" s="25"/>
-      <c r="AA10" s="17">
+      <c r="V10" s="24"/>
+      <c r="AA10" s="20">
         <v>0</v>
       </c>
-      <c r="AB10" s="17"/>
+      <c r="AB10" s="20"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -1973,43 +1973,43 @@
       <c r="C11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="16">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28">
         <v>1800</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28">
         <v>400</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16">
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28">
         <v>0</v>
       </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="27">
+      <c r="R11" s="28"/>
+      <c r="S11" s="29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29">
+      <c r="T11" s="30"/>
+      <c r="U11" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V11" s="30"/>
-      <c r="AA11" s="16">
+      <c r="V11" s="26"/>
+      <c r="AA11" s="28">
         <v>0</v>
       </c>
-      <c r="AB11" s="16"/>
+      <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2018,43 +2018,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="17">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="20">
         <v>2400</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20">
         <v>1500</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17">
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20">
         <v>0</v>
       </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="31">
+      <c r="R12" s="20"/>
+      <c r="S12" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="24">
+      <c r="T12" s="22"/>
+      <c r="U12" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V12" s="25"/>
-      <c r="AA12" s="17">
+      <c r="V12" s="24"/>
+      <c r="AA12" s="20">
         <v>0</v>
       </c>
-      <c r="AB12" s="17"/>
+      <c r="AB12" s="20"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2063,44 +2063,44 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="16">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28">
         <v>1600</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16">
+      <c r="N13" s="28"/>
+      <c r="O13" s="28">
         <v>300</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28">
         <v>1000</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16">
+      <c r="R13" s="28"/>
+      <c r="S13" s="28">
         <f t="shared" ref="S13:S18" si="2">(Q13*0.1)+AA13</f>
         <v>100</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="29">
+      <c r="T13" s="28"/>
+      <c r="U13" s="25">
         <f t="shared" si="1"/>
         <v>900</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="AA13" s="16">
+      <c r="V13" s="26"/>
+      <c r="AA13" s="28">
         <f>(Y13*0.1)+AH13</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="16"/>
+      <c r="AB13" s="28"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -2109,43 +2109,43 @@
       <c r="C14" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="17">
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="20">
         <v>1600</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17">
+      <c r="N14" s="20"/>
+      <c r="O14" s="20">
         <v>400</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20">
         <v>0</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="31">
+      <c r="R14" s="20"/>
+      <c r="S14" s="21">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T14" s="32"/>
-      <c r="U14" s="24">
+      <c r="T14" s="22"/>
+      <c r="U14" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V14" s="25"/>
-      <c r="AA14" s="17">
+      <c r="V14" s="24"/>
+      <c r="AA14" s="20">
         <v>0</v>
       </c>
-      <c r="AB14" s="17"/>
+      <c r="AB14" s="20"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -2154,43 +2154,43 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="16">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28">
         <v>1800</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16">
+      <c r="N15" s="28"/>
+      <c r="O15" s="28">
         <v>500</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16">
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28">
         <v>1500</v>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="27">
+      <c r="R15" s="28"/>
+      <c r="S15" s="29">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="29">
+      <c r="T15" s="30"/>
+      <c r="U15" s="25">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V15" s="30"/>
-      <c r="AA15" s="16">
+      <c r="V15" s="26"/>
+      <c r="AA15" s="28">
         <v>0</v>
       </c>
-      <c r="AB15" s="16"/>
+      <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -2199,43 +2199,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="17">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="20">
         <v>2200</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17">
+      <c r="N16" s="20"/>
+      <c r="O16" s="20">
         <v>400</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17">
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20">
         <v>1500</v>
       </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="31">
+      <c r="R16" s="20"/>
+      <c r="S16" s="21">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="24">
+      <c r="T16" s="22"/>
+      <c r="U16" s="23">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V16" s="25"/>
-      <c r="AA16" s="17">
+      <c r="V16" s="24"/>
+      <c r="AA16" s="20">
         <v>0</v>
       </c>
-      <c r="AB16" s="17"/>
+      <c r="AB16" s="20"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="7">
@@ -2244,43 +2244,43 @@
       <c r="C17" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="16">
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28">
         <v>1500</v>
       </c>
-      <c r="N17" s="16"/>
-      <c r="O17" s="16">
+      <c r="N17" s="28"/>
+      <c r="O17" s="28">
         <v>600</v>
       </c>
-      <c r="P17" s="16"/>
-      <c r="Q17" s="16">
+      <c r="P17" s="28"/>
+      <c r="Q17" s="28">
         <v>1500</v>
       </c>
-      <c r="R17" s="16"/>
-      <c r="S17" s="27">
+      <c r="R17" s="28"/>
+      <c r="S17" s="29">
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="T17" s="28"/>
-      <c r="U17" s="29">
+      <c r="T17" s="30"/>
+      <c r="U17" s="25">
         <f t="shared" si="1"/>
         <v>1350</v>
       </c>
-      <c r="V17" s="30"/>
-      <c r="AA17" s="16">
+      <c r="V17" s="26"/>
+      <c r="AA17" s="28">
         <v>0</v>
       </c>
-      <c r="AB17" s="16"/>
+      <c r="AB17" s="28"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B18" s="8">
@@ -2289,17 +2289,17 @@
       <c r="C18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
       <c r="M18" s="15" t="s">
         <v>23</v>
       </c>
@@ -2312,16 +2312,16 @@
         <v>0</v>
       </c>
       <c r="R18" s="15"/>
-      <c r="S18" s="33">
+      <c r="S18" s="16">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="T18" s="34"/>
-      <c r="U18" s="35">
+      <c r="T18" s="17"/>
+      <c r="U18" s="18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="V18" s="36"/>
+      <c r="V18" s="19"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -2329,84 +2329,17 @@
     </row>
   </sheetData>
   <mergeCells count="113">
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="U5:V5"/>
-    <mergeCell ref="D4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="AA12:AB12"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="AA4:AB4"/>
     <mergeCell ref="AA5:AB5"/>
@@ -2431,17 +2364,84 @@
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="Q5:R5"/>
     <mergeCell ref="S5:T5"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="D4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="U17:V17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -2468,39 +2468,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
     </row>
     <row r="2" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
     </row>
     <row r="3" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B3" s="4" t="s">
@@ -2509,41 +2509,41 @@
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="22" t="s">
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22" t="s">
+      <c r="N3" s="35"/>
+      <c r="O3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="18" t="s">
+      <c r="P3" s="35"/>
+      <c r="Q3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18" t="s">
+      <c r="R3" s="32"/>
+      <c r="S3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18" t="s">
+      <c r="T3" s="32"/>
+      <c r="U3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="23"/>
-      <c r="AA3" s="18" t="s">
+      <c r="V3" s="36"/>
+      <c r="AA3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="AB3" s="18"/>
+      <c r="AB3" s="32"/>
     </row>
     <row r="4" spans="2:28" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B4" s="6">
@@ -2552,43 +2552,43 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="17">
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="20">
         <v>2800</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17">
+      <c r="N4" s="20"/>
+      <c r="O4" s="20">
         <v>600</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17">
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20">
         <v>700</v>
       </c>
-      <c r="R4" s="17"/>
-      <c r="S4" s="31">
+      <c r="R4" s="20"/>
+      <c r="S4" s="21">
         <f t="shared" ref="S4:S12" si="0">(Q4*0.1)+AA4</f>
         <v>280</v>
       </c>
-      <c r="T4" s="32"/>
-      <c r="U4" s="24">
+      <c r="T4" s="22"/>
+      <c r="U4" s="23">
         <f>Q4-S4</f>
         <v>420</v>
       </c>
-      <c r="V4" s="25"/>
-      <c r="AA4" s="17">
+      <c r="V4" s="24"/>
+      <c r="AA4" s="20">
         <v>210</v>
       </c>
-      <c r="AB4" s="17"/>
+      <c r="AB4" s="20"/>
     </row>
     <row r="5" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B5" s="7">
@@ -2597,43 +2597,43 @@
       <c r="C5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="16">
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28">
         <v>2800</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16">
+      <c r="N5" s="28"/>
+      <c r="O5" s="28">
         <v>400</v>
       </c>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16">
+      <c r="P5" s="28"/>
+      <c r="Q5" s="28">
         <v>500</v>
       </c>
-      <c r="R5" s="16"/>
-      <c r="S5" s="27">
+      <c r="R5" s="28"/>
+      <c r="S5" s="29">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T5" s="28"/>
-      <c r="U5" s="29">
+      <c r="T5" s="30"/>
+      <c r="U5" s="25">
         <f t="shared" ref="U5:U16" si="1">Q5-S5</f>
         <v>240</v>
       </c>
-      <c r="V5" s="30"/>
-      <c r="AA5" s="16">
+      <c r="V5" s="26"/>
+      <c r="AA5" s="28">
         <v>210</v>
       </c>
-      <c r="AB5" s="16"/>
+      <c r="AB5" s="28"/>
     </row>
     <row r="6" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B6" s="6">
@@ -2642,43 +2642,43 @@
       <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="17">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="20">
         <v>3200</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20">
         <v>700</v>
       </c>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17">
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20">
         <v>500</v>
       </c>
-      <c r="R6" s="17"/>
-      <c r="S6" s="31">
+      <c r="R6" s="20"/>
+      <c r="S6" s="21">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T6" s="32"/>
-      <c r="U6" s="24">
+      <c r="T6" s="22"/>
+      <c r="U6" s="23">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V6" s="25"/>
-      <c r="AA6" s="17">
+      <c r="V6" s="24"/>
+      <c r="AA6" s="20">
         <v>210</v>
       </c>
-      <c r="AB6" s="17"/>
+      <c r="AB6" s="20"/>
     </row>
     <row r="7" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B7" s="7">
@@ -2687,43 +2687,43 @@
       <c r="C7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26"/>
-      <c r="M7" s="16">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="28">
         <v>3200</v>
       </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16">
+      <c r="N7" s="28"/>
+      <c r="O7" s="28">
         <v>450</v>
       </c>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16">
+      <c r="P7" s="28"/>
+      <c r="Q7" s="28">
         <v>500</v>
       </c>
-      <c r="R7" s="16"/>
-      <c r="S7" s="27">
+      <c r="R7" s="28"/>
+      <c r="S7" s="29">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="T7" s="28"/>
-      <c r="U7" s="29">
+      <c r="T7" s="30"/>
+      <c r="U7" s="25">
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="V7" s="30"/>
-      <c r="AA7" s="16">
+      <c r="V7" s="26"/>
+      <c r="AA7" s="28">
         <v>210</v>
       </c>
-      <c r="AB7" s="16"/>
+      <c r="AB7" s="28"/>
     </row>
     <row r="8" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B8" s="6">
@@ -2732,43 +2732,43 @@
       <c r="C8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="17">
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="20">
         <v>2800</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17">
+      <c r="N8" s="20"/>
+      <c r="O8" s="20">
         <v>900</v>
       </c>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17">
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20">
         <v>1000</v>
       </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="31">
+      <c r="R8" s="20"/>
+      <c r="S8" s="21">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="T8" s="32"/>
-      <c r="U8" s="24">
+      <c r="T8" s="22"/>
+      <c r="U8" s="23">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V8" s="25"/>
-      <c r="AA8" s="17">
+      <c r="V8" s="24"/>
+      <c r="AA8" s="20">
         <v>210</v>
       </c>
-      <c r="AB8" s="17"/>
+      <c r="AB8" s="20"/>
     </row>
     <row r="9" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B9" s="7">
@@ -2777,43 +2777,43 @@
       <c r="C9" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="16">
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28">
         <v>1600</v>
       </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16">
+      <c r="N9" s="28"/>
+      <c r="O9" s="28">
         <v>400</v>
       </c>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16">
+      <c r="P9" s="28"/>
+      <c r="Q9" s="28">
         <v>900</v>
       </c>
-      <c r="R9" s="16"/>
-      <c r="S9" s="27">
+      <c r="R9" s="28"/>
+      <c r="S9" s="29">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T9" s="28"/>
-      <c r="U9" s="29">
+      <c r="T9" s="30"/>
+      <c r="U9" s="25">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V9" s="30"/>
-      <c r="AA9" s="16">
+      <c r="V9" s="26"/>
+      <c r="AA9" s="28">
         <v>210</v>
       </c>
-      <c r="AB9" s="16"/>
+      <c r="AB9" s="28"/>
     </row>
     <row r="10" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B10" s="6">
@@ -2822,43 +2822,43 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="17">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="20">
         <v>1600</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17">
+      <c r="N10" s="20"/>
+      <c r="O10" s="20">
         <v>400</v>
       </c>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17">
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20">
         <v>900</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="31">
+      <c r="R10" s="20"/>
+      <c r="S10" s="21">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="T10" s="32"/>
-      <c r="U10" s="24">
+      <c r="T10" s="22"/>
+      <c r="U10" s="23">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
-      <c r="V10" s="25"/>
-      <c r="AA10" s="17">
+      <c r="V10" s="24"/>
+      <c r="AA10" s="20">
         <v>210</v>
       </c>
-      <c r="AB10" s="17"/>
+      <c r="AB10" s="20"/>
     </row>
     <row r="11" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B11" s="7">
@@ -2867,43 +2867,43 @@
       <c r="C11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="16">
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="28">
         <v>1800</v>
       </c>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16">
+      <c r="N11" s="28"/>
+      <c r="O11" s="28">
         <v>400</v>
       </c>
-      <c r="P11" s="16"/>
-      <c r="Q11" s="16">
+      <c r="P11" s="28"/>
+      <c r="Q11" s="28">
         <v>1200</v>
       </c>
-      <c r="R11" s="16"/>
-      <c r="S11" s="27">
+      <c r="R11" s="28"/>
+      <c r="S11" s="29">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="T11" s="28"/>
-      <c r="U11" s="29">
+      <c r="T11" s="30"/>
+      <c r="U11" s="25">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="V11" s="30"/>
-      <c r="AA11" s="16">
+      <c r="V11" s="26"/>
+      <c r="AA11" s="28">
         <v>210</v>
       </c>
-      <c r="AB11" s="16"/>
+      <c r="AB11" s="28"/>
     </row>
     <row r="12" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B12" s="6">
@@ -2912,43 +2912,43 @@
       <c r="C12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="17">
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="20">
         <v>2400</v>
       </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17">
+      <c r="N12" s="20"/>
+      <c r="O12" s="20">
         <v>1500</v>
       </c>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17">
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20">
         <v>1500</v>
       </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="31">
+      <c r="R12" s="20"/>
+      <c r="S12" s="21">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="T12" s="32"/>
-      <c r="U12" s="24">
+      <c r="T12" s="22"/>
+      <c r="U12" s="23">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V12" s="25"/>
-      <c r="AA12" s="17">
+      <c r="V12" s="24"/>
+      <c r="AA12" s="20">
         <v>210</v>
       </c>
-      <c r="AB12" s="17"/>
+      <c r="AB12" s="20"/>
     </row>
     <row r="13" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B13" s="7">
@@ -2957,43 +2957,43 @@
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="16">
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="28">
         <v>1600</v>
       </c>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16">
+      <c r="N13" s="28"/>
+      <c r="O13" s="28">
         <v>300</v>
       </c>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16">
+      <c r="P13" s="28"/>
+      <c r="Q13" s="28">
         <v>1000</v>
       </c>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16">
+      <c r="R13" s="28"/>
+      <c r="S13" s="28">
         <f>(Q13*0.1)+AA13</f>
         <v>310</v>
       </c>
-      <c r="T13" s="16"/>
-      <c r="U13" s="29">
+      <c r="T13" s="28"/>
+      <c r="U13" s="25">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="V13" s="30"/>
-      <c r="AA13" s="16">
+      <c r="V13" s="26"/>
+      <c r="AA13" s="28">
         <v>210</v>
       </c>
-      <c r="AB13" s="16"/>
+      <c r="AB13" s="28"/>
     </row>
     <row r="14" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B14" s="6">
@@ -3002,43 +3002,43 @@
       <c r="C14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="21" t="s">
+      <c r="D14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="17">
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31"/>
+      <c r="M14" s="20">
         <v>1600</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17">
+      <c r="N14" s="20"/>
+      <c r="O14" s="20">
         <v>300</v>
       </c>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17">
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20">
         <v>750</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="31">
+      <c r="R14" s="20"/>
+      <c r="S14" s="21">
         <f>(Q14*0.1)+AA14</f>
         <v>285</v>
       </c>
-      <c r="T14" s="32"/>
-      <c r="U14" s="24">
+      <c r="T14" s="22"/>
+      <c r="U14" s="23">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="V14" s="25"/>
-      <c r="AA14" s="17">
+      <c r="V14" s="24"/>
+      <c r="AA14" s="20">
         <v>210</v>
       </c>
-      <c r="AB14" s="17"/>
+      <c r="AB14" s="20"/>
     </row>
     <row r="15" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B15" s="7">
@@ -3047,43 +3047,43 @@
       <c r="C15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="26"/>
-      <c r="M15" s="16">
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="28">
         <v>1800</v>
       </c>
-      <c r="N15" s="16"/>
-      <c r="O15" s="16">
+      <c r="N15" s="28"/>
+      <c r="O15" s="28">
         <v>500</v>
       </c>
-      <c r="P15" s="16"/>
-      <c r="Q15" s="16">
+      <c r="P15" s="28"/>
+      <c r="Q15" s="28">
         <v>1500</v>
       </c>
-      <c r="R15" s="16"/>
-      <c r="S15" s="27">
+      <c r="R15" s="28"/>
+      <c r="S15" s="29">
         <f>(Q15*0.1)+AA15</f>
         <v>360</v>
       </c>
-      <c r="T15" s="28"/>
-      <c r="U15" s="29">
+      <c r="T15" s="30"/>
+      <c r="U15" s="25">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V15" s="30"/>
-      <c r="AA15" s="16">
+      <c r="V15" s="26"/>
+      <c r="AA15" s="28">
         <v>210</v>
       </c>
-      <c r="AB15" s="16"/>
+      <c r="AB15" s="28"/>
     </row>
     <row r="16" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B16" s="6">
@@ -3092,43 +3092,43 @@
       <c r="C16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="17">
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="20">
         <v>2200</v>
       </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17">
+      <c r="N16" s="20"/>
+      <c r="O16" s="20">
         <v>400</v>
       </c>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17">
+      <c r="P16" s="20"/>
+      <c r="Q16" s="20">
         <v>1500</v>
       </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="31">
+      <c r="R16" s="20"/>
+      <c r="S16" s="21">
         <f>(Q16*0.1)+AA16</f>
         <v>360</v>
       </c>
-      <c r="T16" s="32"/>
-      <c r="U16" s="24">
+      <c r="T16" s="22"/>
+      <c r="U16" s="23">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="V16" s="25"/>
-      <c r="AA16" s="17">
+      <c r="V16" s="24"/>
+      <c r="AA16" s="20">
         <v>210</v>
       </c>
-      <c r="AB16" s="17"/>
+      <c r="AB16" s="20"/>
     </row>
     <row r="17" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B17" s="11">
@@ -3137,53 +3137,53 @@
       <c r="C17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="39"/>
-      <c r="M17" s="40">
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="39">
         <v>1500</v>
       </c>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40">
+      <c r="N17" s="39"/>
+      <c r="O17" s="39">
         <v>600</v>
       </c>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40">
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39">
         <v>1380</v>
       </c>
-      <c r="R17" s="40"/>
-      <c r="S17" s="41">
+      <c r="R17" s="39"/>
+      <c r="S17" s="40">
         <f>(Q17*0.1)+BC16</f>
         <v>138</v>
       </c>
-      <c r="T17" s="42"/>
-      <c r="U17" s="43">
+      <c r="T17" s="41"/>
+      <c r="U17" s="42">
         <f>Q17-S17</f>
         <v>1242</v>
       </c>
-      <c r="V17" s="44"/>
-      <c r="AA17" s="16">
+      <c r="V17" s="43"/>
+      <c r="AA17" s="28">
         <v>210</v>
       </c>
-      <c r="AB17" s="16"/>
+      <c r="AB17" s="28"/>
     </row>
     <row r="18" spans="2:28" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="Q18" s="38" t="s">
+      <c r="Q18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
+      <c r="V18" s="37"/>
       <c r="AA18" s="15">
         <v>0</v>
       </c>
@@ -3191,99 +3191,6 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="AA17:AB17"/>
-    <mergeCell ref="Q18:V18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="D17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="U17:V17"/>
-    <mergeCell ref="AA15:AB15"/>
-    <mergeCell ref="D16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:V16"/>
-    <mergeCell ref="AA16:AB16"/>
-    <mergeCell ref="D15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:V15"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="D14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="D13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="AA11:AB11"/>
-    <mergeCell ref="D12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="D11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="AA7:AB7"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="AA5:AB5"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q6:R6"/>
-    <mergeCell ref="S6:T6"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="AA6:AB6"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="S5:T5"/>
-    <mergeCell ref="U5:V5"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="M4:N4"/>
@@ -3300,6 +3207,99 @@
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="U3:V3"/>
+    <mergeCell ref="AA5:AB5"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q6:R6"/>
+    <mergeCell ref="S6:T6"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="AA6:AB6"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="S5:T5"/>
+    <mergeCell ref="U5:V5"/>
+    <mergeCell ref="AA7:AB7"/>
+    <mergeCell ref="D8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="D7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="AA11:AB11"/>
+    <mergeCell ref="D12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="D11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="D14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="D13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="AA15:AB15"/>
+    <mergeCell ref="D16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="AA16:AB16"/>
+    <mergeCell ref="D15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:V15"/>
+    <mergeCell ref="AA17:AB17"/>
+    <mergeCell ref="Q18:V18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="D17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="U17:V17"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -3329,39 +3329,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
     </row>
     <row r="2" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
     </row>
     <row r="3" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
@@ -3370,41 +3370,41 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="22" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22" t="s">
+      <c r="M3" s="35"/>
+      <c r="N3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="18" t="s">
+      <c r="O3" s="35"/>
+      <c r="P3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18" t="s">
+      <c r="S3" s="32"/>
+      <c r="T3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="U3" s="23"/>
-      <c r="Y3" s="18" t="s">
+      <c r="U3" s="36"/>
+      <c r="Y3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="Z3" s="18"/>
+      <c r="Z3" s="32"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="6">
@@ -3413,43 +3413,43 @@
       <c r="B4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="17">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="20">
         <v>2800</v>
       </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17">
+      <c r="M4" s="20"/>
+      <c r="N4" s="20">
         <v>600</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17">
+      <c r="O4" s="20"/>
+      <c r="P4" s="20">
         <v>600</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="31">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="21">
         <f t="shared" ref="R4:R16" si="0">(P4*0.1)+Y4</f>
         <v>270</v>
       </c>
-      <c r="S4" s="32"/>
-      <c r="T4" s="24">
+      <c r="S4" s="22"/>
+      <c r="T4" s="23">
         <f>P4-R4</f>
         <v>330</v>
       </c>
-      <c r="U4" s="25"/>
-      <c r="Y4" s="17">
+      <c r="U4" s="24"/>
+      <c r="Y4" s="20">
         <v>210</v>
       </c>
-      <c r="Z4" s="17"/>
+      <c r="Z4" s="20"/>
     </row>
     <row r="5" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="7">
@@ -3458,43 +3458,43 @@
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="16">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28">
         <v>2800</v>
       </c>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16">
+      <c r="M5" s="28"/>
+      <c r="N5" s="28">
         <v>400</v>
       </c>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16">
+      <c r="O5" s="28"/>
+      <c r="P5" s="28">
         <v>500</v>
       </c>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="27">
+      <c r="Q5" s="28"/>
+      <c r="R5" s="29">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="S5" s="28"/>
-      <c r="T5" s="29">
+      <c r="S5" s="30"/>
+      <c r="T5" s="25">
         <f t="shared" ref="T5:T16" si="1">P5-R5</f>
         <v>240</v>
       </c>
-      <c r="U5" s="30"/>
-      <c r="Y5" s="16">
+      <c r="U5" s="26"/>
+      <c r="Y5" s="28">
         <v>210</v>
       </c>
-      <c r="Z5" s="16"/>
+      <c r="Z5" s="28"/>
     </row>
     <row r="6" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="6">
@@ -3503,88 +3503,88 @@
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="17">
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="20">
         <v>3200</v>
       </c>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17">
+      <c r="M6" s="20"/>
+      <c r="N6" s="20">
         <v>700</v>
       </c>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17">
+      <c r="O6" s="20"/>
+      <c r="P6" s="20">
         <v>300</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="31">
+      <c r="Q6" s="20"/>
+      <c r="R6" s="21">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="S6" s="32"/>
-      <c r="T6" s="24">
+      <c r="S6" s="22"/>
+      <c r="T6" s="23">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="U6" s="25"/>
-      <c r="Y6" s="17">
+      <c r="U6" s="24"/>
+      <c r="Y6" s="20">
         <v>210</v>
       </c>
-      <c r="Z6" s="17"/>
+      <c r="Z6" s="20"/>
     </row>
     <row r="7" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="7">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="16">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28">
         <v>3200</v>
       </c>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16">
-        <v>450</v>
-      </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16">
+      <c r="M7" s="28"/>
+      <c r="N7" s="28">
         <v>400</v>
       </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="27">
+      <c r="O7" s="28"/>
+      <c r="P7" s="28">
+        <v>444</v>
+      </c>
+      <c r="Q7" s="28"/>
+      <c r="R7" s="29">
         <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-      <c r="S7" s="28"/>
-      <c r="T7" s="29">
+        <v>254.4</v>
+      </c>
+      <c r="S7" s="30"/>
+      <c r="T7" s="25">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="U7" s="30"/>
-      <c r="Y7" s="16">
+        <v>189.6</v>
+      </c>
+      <c r="U7" s="26"/>
+      <c r="Y7" s="28">
         <v>210</v>
       </c>
-      <c r="Z7" s="16"/>
+      <c r="Z7" s="28"/>
     </row>
     <row r="8" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="6">
@@ -3593,43 +3593,43 @@
       <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="17">
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="20">
         <v>2800</v>
       </c>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17">
+      <c r="M8" s="20"/>
+      <c r="N8" s="20">
         <v>900</v>
       </c>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17">
+      <c r="O8" s="20"/>
+      <c r="P8" s="20">
         <v>1000</v>
       </c>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="31">
+      <c r="Q8" s="20"/>
+      <c r="R8" s="21">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="S8" s="32"/>
-      <c r="T8" s="24">
+      <c r="S8" s="22"/>
+      <c r="T8" s="23">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="U8" s="25"/>
-      <c r="Y8" s="17">
+      <c r="U8" s="24"/>
+      <c r="Y8" s="20">
         <v>210</v>
       </c>
-      <c r="Z8" s="17"/>
+      <c r="Z8" s="20"/>
     </row>
     <row r="9" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="7">
@@ -3638,43 +3638,43 @@
       <c r="B9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="16">
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28">
         <v>1600</v>
       </c>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16">
+      <c r="M9" s="28"/>
+      <c r="N9" s="28">
         <v>400</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16">
+      <c r="O9" s="28"/>
+      <c r="P9" s="28">
         <v>775</v>
       </c>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="27">
+      <c r="Q9" s="28"/>
+      <c r="R9" s="29">
         <f t="shared" si="0"/>
         <v>287.5</v>
       </c>
-      <c r="S9" s="28"/>
-      <c r="T9" s="29">
+      <c r="S9" s="30"/>
+      <c r="T9" s="25">
         <f t="shared" si="1"/>
         <v>487.5</v>
       </c>
-      <c r="U9" s="30"/>
-      <c r="Y9" s="16">
+      <c r="U9" s="26"/>
+      <c r="Y9" s="28">
         <v>210</v>
       </c>
-      <c r="Z9" s="16"/>
+      <c r="Z9" s="28"/>
     </row>
     <row r="10" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="6">
@@ -3683,41 +3683,41 @@
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="17">
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="20">
         <v>1600</v>
       </c>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17">
+      <c r="M10" s="20"/>
+      <c r="N10" s="20">
         <v>400</v>
       </c>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17">
+      <c r="O10" s="20"/>
+      <c r="P10" s="20">
         <v>775</v>
       </c>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="31">
+      <c r="Q10" s="20"/>
+      <c r="R10" s="21">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
-      <c r="S10" s="32"/>
-      <c r="T10" s="24">
+      <c r="S10" s="22"/>
+      <c r="T10" s="23">
         <f t="shared" si="1"/>
         <v>697.5</v>
       </c>
-      <c r="U10" s="25"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
+      <c r="U10" s="24"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
     </row>
     <row r="11" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="7">
@@ -3726,88 +3726,88 @@
       <c r="B11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="16">
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28">
         <v>1800</v>
       </c>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16">
+      <c r="M11" s="28"/>
+      <c r="N11" s="28">
         <v>400</v>
       </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16">
+      <c r="O11" s="28"/>
+      <c r="P11" s="28">
         <v>1200</v>
       </c>
-      <c r="Q11" s="16"/>
-      <c r="R11" s="27">
+      <c r="Q11" s="28"/>
+      <c r="R11" s="29">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="S11" s="28"/>
-      <c r="T11" s="29">
+      <c r="S11" s="30"/>
+      <c r="T11" s="25">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
-      <c r="U11" s="30"/>
-      <c r="Y11" s="16">
+      <c r="U11" s="26"/>
+      <c r="Y11" s="28">
         <v>210</v>
       </c>
-      <c r="Z11" s="16"/>
+      <c r="Z11" s="28"/>
     </row>
     <row r="12" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A12" s="6">
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="17">
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="20">
         <v>2400</v>
       </c>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17">
-        <v>1500</v>
-      </c>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17">
-        <v>1500</v>
-      </c>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="31">
+      <c r="M12" s="20"/>
+      <c r="N12" s="20">
+        <v>1400</v>
+      </c>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20">
+        <v>1450</v>
+      </c>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="21">
         <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="S12" s="32"/>
-      <c r="T12" s="24">
+        <v>355</v>
+      </c>
+      <c r="S12" s="22"/>
+      <c r="T12" s="23">
         <f t="shared" si="1"/>
-        <v>1140</v>
-      </c>
-      <c r="U12" s="25"/>
-      <c r="Y12" s="17">
+        <v>1095</v>
+      </c>
+      <c r="U12" s="24"/>
+      <c r="Y12" s="20">
         <v>210</v>
       </c>
-      <c r="Z12" s="17"/>
+      <c r="Z12" s="20"/>
     </row>
     <row r="13" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="7">
@@ -3816,43 +3816,43 @@
       <c r="B13" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="16">
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28">
         <v>1600</v>
       </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16">
+      <c r="M13" s="28"/>
+      <c r="N13" s="28">
         <v>300</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16">
+      <c r="O13" s="28"/>
+      <c r="P13" s="28">
         <v>1000</v>
       </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16">
+      <c r="Q13" s="28"/>
+      <c r="R13" s="28">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="S13" s="16"/>
-      <c r="T13" s="29">
+      <c r="S13" s="28"/>
+      <c r="T13" s="25">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="U13" s="30"/>
-      <c r="Y13" s="16">
+      <c r="U13" s="26"/>
+      <c r="Y13" s="28">
         <v>210</v>
       </c>
-      <c r="Z13" s="16"/>
+      <c r="Z13" s="28"/>
     </row>
     <row r="14" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A14" s="6">
@@ -3861,43 +3861,43 @@
       <c r="B14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="17">
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="20">
         <v>1600</v>
       </c>
-      <c r="M14" s="17"/>
-      <c r="N14" s="17">
+      <c r="M14" s="20"/>
+      <c r="N14" s="20">
         <v>300</v>
       </c>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17">
+      <c r="O14" s="20"/>
+      <c r="P14" s="20">
         <v>750</v>
       </c>
-      <c r="Q14" s="17"/>
-      <c r="R14" s="31">
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21">
         <f t="shared" si="0"/>
         <v>285</v>
       </c>
-      <c r="S14" s="32"/>
-      <c r="T14" s="24">
+      <c r="S14" s="22"/>
+      <c r="T14" s="23">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="U14" s="25"/>
-      <c r="Y14" s="17">
+      <c r="U14" s="24"/>
+      <c r="Y14" s="20">
         <v>210</v>
       </c>
-      <c r="Z14" s="17"/>
+      <c r="Z14" s="20"/>
     </row>
     <row r="15" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="7">
@@ -3906,43 +3906,43 @@
       <c r="B15" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="16">
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="28">
         <v>1800</v>
       </c>
-      <c r="M15" s="16"/>
-      <c r="N15" s="16">
+      <c r="M15" s="28"/>
+      <c r="N15" s="28">
         <v>500</v>
       </c>
-      <c r="O15" s="16"/>
-      <c r="P15" s="16">
+      <c r="O15" s="28"/>
+      <c r="P15" s="28">
         <v>1500</v>
       </c>
-      <c r="Q15" s="16"/>
-      <c r="R15" s="27">
+      <c r="Q15" s="28"/>
+      <c r="R15" s="29">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="S15" s="28"/>
-      <c r="T15" s="29">
+      <c r="S15" s="30"/>
+      <c r="T15" s="25">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
-      <c r="U15" s="30"/>
-      <c r="Y15" s="16">
+      <c r="U15" s="26"/>
+      <c r="Y15" s="28">
         <v>210</v>
       </c>
-      <c r="Z15" s="16"/>
+      <c r="Z15" s="28"/>
     </row>
     <row r="16" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="6">
@@ -3951,43 +3951,43 @@
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="17">
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="20">
         <v>2200</v>
       </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17">
+      <c r="M16" s="20"/>
+      <c r="N16" s="20">
         <v>400</v>
       </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17">
-        <v>1500</v>
-      </c>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="31">
+      <c r="O16" s="20"/>
+      <c r="P16" s="20">
+        <v>1300</v>
+      </c>
+      <c r="Q16" s="20"/>
+      <c r="R16" s="21">
         <f t="shared" si="0"/>
-        <v>360</v>
-      </c>
-      <c r="S16" s="32"/>
-      <c r="T16" s="24">
+        <v>340</v>
+      </c>
+      <c r="S16" s="22"/>
+      <c r="T16" s="23">
         <f t="shared" si="1"/>
-        <v>1140</v>
-      </c>
-      <c r="U16" s="25"/>
-      <c r="Y16" s="17">
+        <v>960</v>
+      </c>
+      <c r="U16" s="24"/>
+      <c r="Y16" s="20">
         <v>210</v>
       </c>
-      <c r="Z16" s="17"/>
+      <c r="Z16" s="20"/>
     </row>
     <row r="17" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="11">
@@ -3996,53 +3996,53 @@
       <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="39" t="s">
+      <c r="C17" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
-      <c r="L17" s="40">
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="38"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="39">
         <v>1500</v>
       </c>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40">
+      <c r="M17" s="39"/>
+      <c r="N17" s="39">
         <v>600</v>
       </c>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40">
+      <c r="O17" s="39"/>
+      <c r="P17" s="39">
         <v>1380</v>
       </c>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="41">
+      <c r="Q17" s="39"/>
+      <c r="R17" s="40">
         <f>(P17*0.1)+BA16</f>
         <v>138</v>
       </c>
-      <c r="S17" s="42"/>
-      <c r="T17" s="43">
+      <c r="S17" s="41"/>
+      <c r="T17" s="42">
         <f>P17-R17</f>
         <v>1242</v>
       </c>
-      <c r="U17" s="44"/>
-      <c r="Y17" s="16">
+      <c r="U17" s="43"/>
+      <c r="Y17" s="28">
         <v>210</v>
       </c>
-      <c r="Z17" s="16"/>
+      <c r="Z17" s="28"/>
     </row>
     <row r="18" spans="1:26" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="P18" s="38" t="s">
+      <c r="P18" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="38"/>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
+      <c r="Q18" s="37"/>
+      <c r="R18" s="37"/>
+      <c r="S18" s="37"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="37"/>
       <c r="Y18" s="15">
         <v>0</v>
       </c>
@@ -4124,29 +4124,68 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="P18:U18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Y8:Z8"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="Y5:Z5"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="P4:Q4"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="R4:S4"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="P2:U2"/>
     <mergeCell ref="N14:O14"/>
     <mergeCell ref="C11:K11"/>
     <mergeCell ref="L11:M11"/>
@@ -4171,68 +4210,29 @@
     <mergeCell ref="P9:Q9"/>
     <mergeCell ref="R9:S9"/>
     <mergeCell ref="C8:K8"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="P4:Q4"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="R4:S4"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
-    <mergeCell ref="T5:U5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="Y5:Z5"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="P18:U18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="T12:U12"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -4245,7 +4245,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId2"/>
-  <webPublishItems count="19">
+  <webPublishItems count="20">
     <webPublishItem id="12398" divId="TMP_12398" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="20957" divId="TMP_20957" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
     <webPublishItem id="11684" divId="TMP_11684" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\TMP.htm"/>
@@ -4265,6 +4265,7 @@
     <webPublishItem id="14786" divId="TMP_14786" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
     <webPublishItem id="10149" divId="TMP_10149" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
     <webPublishItem id="499" divId="TMP_499" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
+    <webPublishItem id="19446" divId="TMP_19446" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\index.html"/>
   </webPublishItems>
 </worksheet>
 </file>
@@ -4274,7 +4275,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="96" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:K4"/>
+      <selection sqref="A1:W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.7"/>
@@ -4283,43 +4284,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="19"/>
-      <c r="Q1" s="19"/>
-      <c r="R1" s="19"/>
-      <c r="S1" s="19"/>
-      <c r="T1" s="19"/>
-      <c r="U1" s="19"/>
-      <c r="V1" s="19"/>
-      <c r="W1" s="19"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+      <c r="V1" s="33"/>
+      <c r="W1" s="33"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="1"/>
       <c r="C2"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
-      <c r="R2" s="37"/>
-      <c r="S2" s="37"/>
-      <c r="T2" s="37"/>
-      <c r="U2" s="37"/>
-      <c r="V2" s="37"/>
-      <c r="W2" s="37"/>
+      <c r="P2" s="44"/>
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="44"/>
+      <c r="W2" s="44"/>
     </row>
     <row r="3" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="4" t="s">
@@ -4328,41 +4329,41 @@
       <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="74" t="s">
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="76"/>
-      <c r="N3" s="74" t="s">
+      <c r="M3" s="52"/>
+      <c r="N3" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="76"/>
-      <c r="P3" s="18" t="s">
+      <c r="O3" s="52"/>
+      <c r="P3" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="74" t="s">
+      <c r="Q3" s="32"/>
+      <c r="R3" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="77"/>
-      <c r="T3" s="18" t="s">
+      <c r="S3" s="53"/>
+      <c r="T3" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="74" t="s">
+      <c r="U3" s="32"/>
+      <c r="V3" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="W3" s="77"/>
+      <c r="W3" s="53"/>
     </row>
     <row r="4" spans="1:23" s="1" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="6">
@@ -4372,45 +4373,45 @@
         <f>VLOOKUP(A4,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="56"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="56"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="31">
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
+      <c r="L4" s="21">
         <f>VLOOKUP(C4,edit!$C$4:$S$17,14,FALSE)</f>
         <v>600</v>
       </c>
-      <c r="M4" s="32"/>
-      <c r="N4" s="31">
+      <c r="M4" s="22"/>
+      <c r="N4" s="21">
         <f>(L4*0.1)</f>
         <v>60</v>
       </c>
-      <c r="O4" s="32"/>
-      <c r="P4" s="17">
+      <c r="O4" s="22"/>
+      <c r="P4" s="20">
         <f>VLOOKUP(C4,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="53">
+      <c r="Q4" s="20"/>
+      <c r="R4" s="54">
         <f>L4-N4-P4</f>
         <v>330</v>
       </c>
-      <c r="S4" s="54"/>
-      <c r="T4" s="17" t="s">
+      <c r="S4" s="55"/>
+      <c r="T4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="U4" s="17"/>
-      <c r="V4" s="53">
+      <c r="U4" s="20"/>
+      <c r="V4" s="54">
         <v>550</v>
       </c>
-      <c r="W4" s="54"/>
+      <c r="W4" s="55"/>
     </row>
     <row r="5" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="7">
@@ -4431,30 +4432,30 @@
       <c r="I5" s="46"/>
       <c r="J5" s="46"/>
       <c r="K5" s="47"/>
-      <c r="L5" s="27">
+      <c r="L5" s="29">
         <f>VLOOKUP(C5,edit!$C$4:$S$17,14,FALSE)</f>
         <v>500</v>
       </c>
-      <c r="M5" s="28"/>
-      <c r="N5" s="27">
+      <c r="M5" s="30"/>
+      <c r="N5" s="29">
         <f t="shared" ref="N5:N16" si="0">(L5*0.1)</f>
         <v>50</v>
       </c>
-      <c r="O5" s="28"/>
-      <c r="P5" s="27">
+      <c r="O5" s="30"/>
+      <c r="P5" s="29">
         <f>VLOOKUP(C5,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q5" s="28"/>
+      <c r="Q5" s="30"/>
       <c r="R5" s="48">
         <f t="shared" ref="R5:R16" si="1">L5-N5-P5</f>
         <v>240</v>
       </c>
       <c r="S5" s="49"/>
-      <c r="T5" s="16" t="s">
+      <c r="T5" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="U5" s="16"/>
+      <c r="U5" s="28"/>
       <c r="V5" s="48">
         <v>220</v>
       </c>
@@ -4468,41 +4469,41 @@
         <f>VLOOKUP(A6,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C6" s="55" t="s">
+      <c r="C6" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="56"/>
-      <c r="J6" s="56"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="31">
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="K6" s="58"/>
+      <c r="L6" s="21">
         <f>VLOOKUP(C6,edit!$C$4:$S$17,14,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="M6" s="32"/>
-      <c r="N6" s="31">
+      <c r="M6" s="22"/>
+      <c r="N6" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="O6" s="32"/>
-      <c r="P6" s="31">
+      <c r="O6" s="22"/>
+      <c r="P6" s="21">
         <f>VLOOKUP(C6,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="53">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="54">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="S6" s="54"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="53"/>
-      <c r="W6" s="54"/>
+      <c r="S6" s="55"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+      <c r="V6" s="54"/>
+      <c r="W6" s="55"/>
     </row>
     <row r="7" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="7">
@@ -4510,7 +4511,7 @@
       </c>
       <c r="B7" s="3" t="str">
         <f>VLOOKUP(A7,edit!$A$4:$B$17,2,FALSE)</f>
-        <v>-</v>
+        <v>〇</v>
       </c>
       <c r="C7" s="45" t="s">
         <v>12</v>
@@ -4523,28 +4524,28 @@
       <c r="I7" s="46"/>
       <c r="J7" s="46"/>
       <c r="K7" s="47"/>
-      <c r="L7" s="27">
+      <c r="L7" s="29">
         <f>VLOOKUP(C7,edit!$C$4:$S$17,14,FALSE)</f>
-        <v>400</v>
-      </c>
-      <c r="M7" s="28"/>
-      <c r="N7" s="27">
+        <v>444</v>
+      </c>
+      <c r="M7" s="30"/>
+      <c r="N7" s="29">
         <f t="shared" si="0"/>
-        <v>40</v>
-      </c>
-      <c r="O7" s="28"/>
-      <c r="P7" s="27">
+        <v>44.400000000000006</v>
+      </c>
+      <c r="O7" s="30"/>
+      <c r="P7" s="29">
         <f>VLOOKUP(C7,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q7" s="28"/>
+      <c r="Q7" s="30"/>
       <c r="R7" s="48">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>189.60000000000002</v>
       </c>
       <c r="S7" s="49"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
+      <c r="T7" s="28"/>
+      <c r="U7" s="28"/>
       <c r="V7" s="48"/>
       <c r="W7" s="49"/>
     </row>
@@ -4556,41 +4557,41 @@
         <f>VLOOKUP(A8,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="56"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="31">
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="21">
         <f>VLOOKUP(C8,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="M8" s="32"/>
-      <c r="N8" s="31">
+      <c r="M8" s="22"/>
+      <c r="N8" s="21">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O8" s="32"/>
-      <c r="P8" s="31">
+      <c r="O8" s="22"/>
+      <c r="P8" s="21">
         <f>VLOOKUP(C8,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="53">
+      <c r="Q8" s="22"/>
+      <c r="R8" s="54">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
-      <c r="S8" s="54"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="53"/>
-      <c r="W8" s="54"/>
+      <c r="S8" s="55"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="54"/>
+      <c r="W8" s="55"/>
     </row>
     <row r="9" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A9" s="7">
@@ -4611,28 +4612,28 @@
       <c r="I9" s="46"/>
       <c r="J9" s="46"/>
       <c r="K9" s="47"/>
-      <c r="L9" s="27">
+      <c r="L9" s="29">
         <f>VLOOKUP(C9,edit!$C$4:$S$17,14,FALSE)</f>
         <v>775</v>
       </c>
-      <c r="M9" s="28"/>
-      <c r="N9" s="27">
+      <c r="M9" s="30"/>
+      <c r="N9" s="29">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
-      <c r="O9" s="28"/>
-      <c r="P9" s="27">
+      <c r="O9" s="30"/>
+      <c r="P9" s="29">
         <f>VLOOKUP(C9,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q9" s="28"/>
+      <c r="Q9" s="30"/>
       <c r="R9" s="48">
         <f t="shared" si="1"/>
         <v>487.5</v>
       </c>
       <c r="S9" s="49"/>
-      <c r="T9" s="16"/>
-      <c r="U9" s="16"/>
+      <c r="T9" s="28"/>
+      <c r="U9" s="28"/>
       <c r="V9" s="48"/>
       <c r="W9" s="49"/>
     </row>
@@ -4644,41 +4645,41 @@
         <f>VLOOKUP(A10,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C10" s="55" t="s">
+      <c r="C10" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="31">
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="21">
         <f>VLOOKUP(C10,edit!$C$4:$S$17,14,FALSE)</f>
         <v>775</v>
       </c>
-      <c r="M10" s="32"/>
-      <c r="N10" s="31">
+      <c r="M10" s="22"/>
+      <c r="N10" s="21">
         <f t="shared" si="0"/>
         <v>77.5</v>
       </c>
-      <c r="O10" s="32"/>
-      <c r="P10" s="31">
+      <c r="O10" s="22"/>
+      <c r="P10" s="21">
         <f>VLOOKUP(C10,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="53">
+      <c r="Q10" s="22"/>
+      <c r="R10" s="54">
         <f t="shared" si="1"/>
         <v>697.5</v>
       </c>
-      <c r="S10" s="54"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="53"/>
-      <c r="W10" s="54"/>
+      <c r="S10" s="55"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="54"/>
+      <c r="W10" s="55"/>
     </row>
     <row r="11" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A11" s="7">
@@ -4699,28 +4700,28 @@
       <c r="I11" s="46"/>
       <c r="J11" s="46"/>
       <c r="K11" s="47"/>
-      <c r="L11" s="27">
+      <c r="L11" s="29">
         <f>VLOOKUP(C11,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1200</v>
       </c>
-      <c r="M11" s="28"/>
-      <c r="N11" s="27">
+      <c r="M11" s="30"/>
+      <c r="N11" s="29">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="O11" s="28"/>
-      <c r="P11" s="27">
+      <c r="O11" s="30"/>
+      <c r="P11" s="29">
         <f>VLOOKUP(C11,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q11" s="28"/>
+      <c r="Q11" s="30"/>
       <c r="R11" s="48">
         <f t="shared" si="1"/>
         <v>870</v>
       </c>
       <c r="S11" s="49"/>
-      <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
+      <c r="T11" s="28"/>
+      <c r="U11" s="28"/>
       <c r="V11" s="48"/>
       <c r="W11" s="49"/>
     </row>
@@ -4730,43 +4731,43 @@
       </c>
       <c r="B12" s="2" t="str">
         <f>VLOOKUP(A12,edit!$A$4:$B$17,2,FALSE)</f>
-        <v>-</v>
-      </c>
-      <c r="C12" s="55" t="s">
+        <v>〇</v>
+      </c>
+      <c r="C12" s="56" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="56"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="56"/>
-      <c r="J12" s="56"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="31">
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="58"/>
+      <c r="L12" s="21">
         <f>VLOOKUP(C12,edit!$C$4:$S$17,14,FALSE)</f>
-        <v>1500</v>
-      </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="31">
+        <v>1450</v>
+      </c>
+      <c r="M12" s="22"/>
+      <c r="N12" s="21">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="O12" s="32"/>
-      <c r="P12" s="31">
+        <v>145</v>
+      </c>
+      <c r="O12" s="22"/>
+      <c r="P12" s="21">
         <f>VLOOKUP(C12,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="53">
+      <c r="Q12" s="22"/>
+      <c r="R12" s="54">
         <f t="shared" si="1"/>
-        <v>1140</v>
-      </c>
-      <c r="S12" s="54"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="54"/>
+        <v>1095</v>
+      </c>
+      <c r="S12" s="55"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="54"/>
+      <c r="W12" s="55"/>
     </row>
     <row r="13" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="7">
@@ -4787,28 +4788,28 @@
       <c r="I13" s="46"/>
       <c r="J13" s="46"/>
       <c r="K13" s="47"/>
-      <c r="L13" s="27">
+      <c r="L13" s="29">
         <f>VLOOKUP(C13,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1000</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="27">
+      <c r="M13" s="30"/>
+      <c r="N13" s="29">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="O13" s="28"/>
-      <c r="P13" s="27">
+      <c r="O13" s="30"/>
+      <c r="P13" s="29">
         <f>VLOOKUP(C13,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q13" s="28"/>
+      <c r="Q13" s="30"/>
       <c r="R13" s="48">
         <f t="shared" si="1"/>
         <v>690</v>
       </c>
       <c r="S13" s="49"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
+      <c r="T13" s="28"/>
+      <c r="U13" s="28"/>
       <c r="V13" s="48"/>
       <c r="W13" s="49"/>
     </row>
@@ -4820,41 +4821,41 @@
         <f>VLOOKUP(A14,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C14" s="56" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="56"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="56"/>
-      <c r="J14" s="56"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="31">
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="21">
         <f>VLOOKUP(C14,edit!$C$4:$S$17,14,FALSE)</f>
         <v>750</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="31">
+      <c r="M14" s="22"/>
+      <c r="N14" s="21">
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="O14" s="32"/>
-      <c r="P14" s="31">
+      <c r="O14" s="22"/>
+      <c r="P14" s="21">
         <f>VLOOKUP(C14,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="53">
+      <c r="Q14" s="22"/>
+      <c r="R14" s="54">
         <f t="shared" si="1"/>
         <v>465</v>
       </c>
-      <c r="S14" s="54"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="53"/>
-      <c r="W14" s="54"/>
+      <c r="S14" s="55"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="54"/>
+      <c r="W14" s="55"/>
     </row>
     <row r="15" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A15" s="7">
@@ -4875,28 +4876,28 @@
       <c r="I15" s="46"/>
       <c r="J15" s="46"/>
       <c r="K15" s="47"/>
-      <c r="L15" s="27">
+      <c r="L15" s="29">
         <f>VLOOKUP(C15,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1500</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="27">
+      <c r="M15" s="30"/>
+      <c r="N15" s="29">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="27">
+      <c r="O15" s="30"/>
+      <c r="P15" s="29">
         <f>VLOOKUP(C15,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q15" s="28"/>
+      <c r="Q15" s="30"/>
       <c r="R15" s="48">
         <f t="shared" si="1"/>
         <v>1140</v>
       </c>
       <c r="S15" s="49"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="16"/>
+      <c r="T15" s="28"/>
+      <c r="U15" s="28"/>
       <c r="V15" s="48"/>
       <c r="W15" s="49"/>
     </row>
@@ -4908,41 +4909,41 @@
         <f>VLOOKUP(A16,edit!$A$4:$B$17,2,FALSE)</f>
         <v>-</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C16" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="56"/>
-      <c r="H16" s="56"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57"/>
-      <c r="L16" s="31">
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="58"/>
+      <c r="L16" s="21">
         <f>VLOOKUP(C16,edit!$C$4:$S$17,14,FALSE)</f>
-        <v>1500</v>
-      </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="31">
+        <v>1300</v>
+      </c>
+      <c r="M16" s="22"/>
+      <c r="N16" s="21">
         <f t="shared" si="0"/>
-        <v>150</v>
-      </c>
-      <c r="O16" s="32"/>
-      <c r="P16" s="31">
+        <v>130</v>
+      </c>
+      <c r="O16" s="22"/>
+      <c r="P16" s="21">
         <f>VLOOKUP(C16,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="53">
+      <c r="Q16" s="22"/>
+      <c r="R16" s="54">
         <f t="shared" si="1"/>
-        <v>1140</v>
-      </c>
-      <c r="S16" s="54"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="54"/>
+        <v>960</v>
+      </c>
+      <c r="S16" s="55"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="54"/>
+      <c r="W16" s="55"/>
     </row>
     <row r="17" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A17" s="11">
@@ -4952,126 +4953,224 @@
         <f>VLOOKUP(A17,edit!$A$4:$B$17,2,FALSE)</f>
         <v>〇</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="61"/>
-      <c r="F17" s="61"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="61"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="41">
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+      <c r="J17" s="67"/>
+      <c r="K17" s="68"/>
+      <c r="L17" s="40">
         <f>VLOOKUP(C17,edit!$C$4:$S$17,14,FALSE)</f>
         <v>1380</v>
       </c>
-      <c r="M17" s="42"/>
-      <c r="N17" s="41">
+      <c r="M17" s="41"/>
+      <c r="N17" s="40">
         <f>(L17*0.1)</f>
         <v>138</v>
       </c>
-      <c r="O17" s="42"/>
-      <c r="P17" s="41">
+      <c r="O17" s="41"/>
+      <c r="P17" s="40">
         <f>VLOOKUP(C17,edit!$C$4:$Z$17,23,FALSE)</f>
         <v>210</v>
       </c>
-      <c r="Q17" s="42"/>
-      <c r="R17" s="58">
+      <c r="Q17" s="41"/>
+      <c r="R17" s="59">
         <f>L17-N17-P17</f>
         <v>1032</v>
       </c>
-      <c r="S17" s="59"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="58"/>
-      <c r="W17" s="59"/>
+      <c r="S17" s="60"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="59"/>
+      <c r="W17" s="60"/>
     </row>
     <row r="18" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
-      <c r="C18" s="66" t="s">
+      <c r="C18" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
-      <c r="H18" s="67"/>
-      <c r="I18" s="67"/>
-      <c r="J18" s="67"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="73">
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="72"/>
+      <c r="K18" s="73"/>
+      <c r="L18" s="61">
         <f>SUMIF($B$4:$B$17,"〇",L4:M17)</f>
-        <v>8980</v>
-      </c>
-      <c r="M18" s="64"/>
-      <c r="N18" s="73">
+        <v>10874</v>
+      </c>
+      <c r="M18" s="62"/>
+      <c r="N18" s="61">
         <f>SUMIF($B$4:$B$17,"〇",N4:O17)</f>
-        <v>898</v>
-      </c>
-      <c r="O18" s="64"/>
-      <c r="P18" s="73">
+        <v>1087.4000000000001</v>
+      </c>
+      <c r="O18" s="62"/>
+      <c r="P18" s="61">
         <f>SUMIF($B$4:$B$17,"〇",P4:Q17)</f>
-        <v>1680</v>
-      </c>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="69">
+        <v>2100</v>
+      </c>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="74">
         <f>SUMIF($B$4:$B$17,"〇",R4:S17)</f>
-        <v>6402</v>
-      </c>
-      <c r="S18" s="70"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="64"/>
-      <c r="V18" s="69">
+        <v>7686.6</v>
+      </c>
+      <c r="S18" s="75"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="74">
         <f>SUM(V4:W17)</f>
         <v>770</v>
       </c>
-      <c r="W18" s="70"/>
+      <c r="W18" s="75"/>
     </row>
     <row r="19" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="11"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="50"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="42"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="42"/>
-      <c r="P19" s="40"/>
-      <c r="Q19" s="40"/>
-      <c r="R19" s="58"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="65" t="s">
+      <c r="C19" s="63"/>
+      <c r="D19" s="64"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="64"/>
+      <c r="G19" s="64"/>
+      <c r="H19" s="64"/>
+      <c r="I19" s="64"/>
+      <c r="J19" s="64"/>
+      <c r="K19" s="65"/>
+      <c r="L19" s="40"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="40"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="60"/>
+      <c r="T19" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="65"/>
-      <c r="V19" s="71">
+      <c r="U19" s="70"/>
+      <c r="V19" s="76">
         <f>R18-V18</f>
-        <v>5632</v>
-      </c>
-      <c r="W19" s="72"/>
+        <v>6916.6</v>
+      </c>
+      <c r="W19" s="77"/>
     </row>
     <row r="20" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="R20" s="38" t="s">
+      <c r="R20" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="S20" s="38"/>
-      <c r="T20" s="38"/>
-      <c r="U20" s="38"/>
-      <c r="V20" s="38"/>
-      <c r="W20" s="38"/>
+      <c r="S20" s="37"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="37"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="122">
+    <mergeCell ref="N13:O13"/>
+    <mergeCell ref="P13:Q13"/>
+    <mergeCell ref="R13:S13"/>
+    <mergeCell ref="V13:W13"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="C19:K19"/>
+    <mergeCell ref="V14:W14"/>
+    <mergeCell ref="R14:S14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="N14:O14"/>
+    <mergeCell ref="L14:M14"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="V17:W17"/>
+    <mergeCell ref="C17:K17"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="N16:O16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="T19:U19"/>
+    <mergeCell ref="C18:K18"/>
+    <mergeCell ref="R18:S18"/>
+    <mergeCell ref="V18:W18"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V19:W19"/>
+    <mergeCell ref="R19:S19"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="N19:O19"/>
+    <mergeCell ref="L19:M19"/>
+    <mergeCell ref="C10:K10"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="R17:S17"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:O18"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="N10:O10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="R15:S15"/>
+    <mergeCell ref="C11:K11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="N11:O11"/>
+    <mergeCell ref="P11:Q11"/>
+    <mergeCell ref="R11:S11"/>
+    <mergeCell ref="P12:Q12"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="C15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:O15"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="N17:O17"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="V12:W12"/>
+    <mergeCell ref="V16:W16"/>
+    <mergeCell ref="R16:S16"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="C9:K9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="R9:S9"/>
+    <mergeCell ref="V9:W9"/>
+    <mergeCell ref="N12:O12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="C16:K16"/>
+    <mergeCell ref="C12:K12"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="R10:S10"/>
+    <mergeCell ref="P10:Q10"/>
+    <mergeCell ref="V15:W15"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="R12:S12"/>
+    <mergeCell ref="C4:K4"/>
+    <mergeCell ref="T7:U7"/>
+    <mergeCell ref="T8:U8"/>
+    <mergeCell ref="C7:K7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="R7:S7"/>
+    <mergeCell ref="V7:W7"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="R6:S6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="N6:O6"/>
+    <mergeCell ref="L6:M6"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="V8:W8"/>
+    <mergeCell ref="R8:S8"/>
+    <mergeCell ref="P8:Q8"/>
+    <mergeCell ref="N8:O8"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="C8:K8"/>
     <mergeCell ref="R20:W20"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="P2:W2"/>
@@ -5096,104 +5195,6 @@
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="L4:M4"/>
-    <mergeCell ref="C4:K4"/>
-    <mergeCell ref="T7:U7"/>
-    <mergeCell ref="T8:U8"/>
-    <mergeCell ref="C7:K7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="P7:Q7"/>
-    <mergeCell ref="R7:S7"/>
-    <mergeCell ref="V7:W7"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="R6:S6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="N6:O6"/>
-    <mergeCell ref="L6:M6"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="V8:W8"/>
-    <mergeCell ref="R8:S8"/>
-    <mergeCell ref="P8:Q8"/>
-    <mergeCell ref="N8:O8"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="C8:K8"/>
-    <mergeCell ref="V11:W11"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="V12:W12"/>
-    <mergeCell ref="V16:W16"/>
-    <mergeCell ref="R16:S16"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="C9:K9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="R9:S9"/>
-    <mergeCell ref="V9:W9"/>
-    <mergeCell ref="N12:O12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="C16:K16"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="V10:W10"/>
-    <mergeCell ref="R10:S10"/>
-    <mergeCell ref="P10:Q10"/>
-    <mergeCell ref="V15:W15"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="R12:S12"/>
-    <mergeCell ref="C10:K10"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="R17:S17"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:O18"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="N10:O10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="R15:S15"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="N11:O11"/>
-    <mergeCell ref="P11:Q11"/>
-    <mergeCell ref="R11:S11"/>
-    <mergeCell ref="P12:Q12"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="C19:K19"/>
-    <mergeCell ref="V14:W14"/>
-    <mergeCell ref="R14:S14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="N14:O14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="V17:W17"/>
-    <mergeCell ref="C17:K17"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="N16:O16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="T19:U19"/>
-    <mergeCell ref="C18:K18"/>
-    <mergeCell ref="R18:S18"/>
-    <mergeCell ref="V18:W18"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V19:W19"/>
-    <mergeCell ref="R19:S19"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="N19:O19"/>
-    <mergeCell ref="L19:M19"/>
-    <mergeCell ref="C15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:O15"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="N17:O17"/>
-    <mergeCell ref="N13:O13"/>
-    <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R13:S13"/>
-    <mergeCell ref="V13:W13"/>
-    <mergeCell ref="T13:U13"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="A4:S4">
@@ -5276,7 +5277,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="98" orientation="landscape" r:id="rId2"/>
-  <webPublishItems count="13">
+  <webPublishItems count="15">
     <webPublishItem id="15378" divId="TMP_15378" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht"/>
     <webPublishItem id="19650" divId="TMP_19650" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="4869" divId="TMP_4869" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
@@ -5290,6 +5291,8 @@
     <webPublishItem id="20274" divId="TMP_20274" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="21451" divId="TMP_21451" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
     <webPublishItem id="14359" divId="TMP_14359" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
+    <webPublishItem id="23283" divId="TMP_23283" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\Page.mht"/>
+    <webPublishItem id="26700" divId="TMP_26700" sourceType="printArea" destinationFile="C:\Users\stela\OneDrive\デスクトップ\stock.github.io\calc.htm"/>
   </webPublishItems>
 </worksheet>
 </file>